--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -55,29 +55,8 @@
     <t>更新时间</t>
   </si>
   <si>
-    <r>
-      <t>过去五年的历史记录
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最近三季度的增长最少40%，甚至100%且最好近两个季度加速增长，最次近两个季度不要出现大幅回落</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>过去五年的历史记录
+(最近三季度的增长最少40%，甚至100%且最好近两个季度加速增长，最次近两个季度不要出现大幅回落)</t>
   </si>
   <si>
     <t>3年的平均增速
@@ -1268,15 +1247,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2022,10 +2002,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,75 +2066,90 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2164,14 +2162,14 @@
     <xf numFmtId="10" fontId="11" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2624,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="CN13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CQ15" sqref="CQ15"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2636,7 +2634,21 @@
     <col min="1" max="1" width="13.0892857142857" customWidth="1"/>
     <col min="2" max="2" width="11.9017857142857" customWidth="1"/>
     <col min="3" max="3" width="11.4553571428571" customWidth="1"/>
+    <col min="7" max="8" width="9.14285714285714" style="1"/>
+    <col min="9" max="10" width="10.1428571428571" style="1"/>
+    <col min="11" max="11" width="9.14285714285714" style="1"/>
+    <col min="12" max="14" width="10.1428571428571" style="1"/>
+    <col min="15" max="15" width="9.28571428571429" style="1"/>
+    <col min="16" max="18" width="9.14285714285714" style="1"/>
+    <col min="19" max="21" width="10.1428571428571" style="1"/>
+    <col min="22" max="22" width="10.5714285714286" style="1"/>
     <col min="23" max="23" width="11.0089285714286" customWidth="1"/>
+    <col min="28" max="28" width="12.7857142857143"/>
+    <col min="29" max="34" width="9.14285714285714" style="1"/>
+    <col min="35" max="36" width="9.57142857142857" style="1"/>
+    <col min="37" max="37" width="9.5" style="1"/>
+    <col min="38" max="38" width="9.85714285714286" style="1"/>
+    <col min="39" max="39" width="11.1607142857143" customWidth="1"/>
     <col min="56" max="58" width="10.1428571428571"/>
     <col min="73" max="73" width="12.9464285714286" customWidth="1"/>
     <col min="87" max="87" width="20.8303571428571" customWidth="1"/>
@@ -2649,3206 +2661,3518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="55" t="s">
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="62" t="s">
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
-      <c r="CJ1" s="62"/>
-      <c r="CK1" s="62"/>
-      <c r="CL1" s="62"/>
-      <c r="CM1" s="62"/>
-      <c r="CN1" s="62"/>
-      <c r="CO1" s="22" t="s">
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="68"/>
+      <c r="CN1" s="68"/>
+      <c r="CO1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="78"/>
-      <c r="CR1" s="79" t="s">
+      <c r="CP1" s="46"/>
+      <c r="CQ1" s="84"/>
+      <c r="CR1" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="59" customHeight="1" spans="1:96">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="45" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="48" t="s">
+      <c r="AN2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="45" t="s">
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BI2" s="45" t="s">
+      <c r="BI2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="45" t="s">
+      <c r="BJ2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="52" t="s">
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="51"/>
+      <c r="BS2" s="51"/>
+      <c r="BT2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="56" t="s">
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" s="56" t="s">
+      <c r="BZ2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" s="63" t="s">
+      <c r="CA2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" s="64" t="s">
+      <c r="CB2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="64"/>
-      <c r="CD2" s="64"/>
-      <c r="CE2" s="64"/>
-      <c r="CF2" s="64"/>
-      <c r="CG2" s="64"/>
-      <c r="CH2" s="1" t="s">
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="80" t="s">
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="46"/>
+      <c r="CP2" s="46"/>
+      <c r="CQ2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="CR2" s="79"/>
+      <c r="CR2" s="85"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:96">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="47" t="s">
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AG3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="AH3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AI3" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="47" t="s">
+      <c r="AK3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="47" t="s">
+      <c r="AL3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="49" t="s">
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AO3" s="49" t="s">
+      <c r="AO3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="21" t="s">
+      <c r="AP3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="AQ3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AR3" s="49" t="s">
+      <c r="AR3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="49" t="s">
+      <c r="AS3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AT3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AU3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AV3" s="49" t="s">
+      <c r="AV3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AW3" s="49" t="s">
+      <c r="AW3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AX3" s="21" t="s">
+      <c r="AX3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AY3" s="19" t="s">
+      <c r="AY3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AZ3" s="49" t="s">
+      <c r="AZ3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="BA3" s="49" t="s">
+      <c r="BA3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BB3" s="49" t="s">
+      <c r="BB3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="49" t="s">
+      <c r="BC3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="49" t="s">
+      <c r="BD3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="BE3" s="49" t="s">
+      <c r="BE3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BF3" s="49" t="s">
+      <c r="BF3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BG3" s="49" t="s">
+      <c r="BG3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="47" t="s">
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BK3" s="47" t="s">
+      <c r="BK3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="BL3" s="47" t="s">
+      <c r="BL3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="BM3" s="47" t="s">
+      <c r="BM3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="BN3" s="47" t="s">
+      <c r="BN3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BO3" s="47" t="s">
+      <c r="BO3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="BP3" s="47" t="s">
+      <c r="BP3" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="BQ3" s="47" t="s">
+      <c r="BQ3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="BR3" s="47" t="s">
+      <c r="BR3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BS3" s="47" t="s">
+      <c r="BS3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="55" t="s">
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="BV3" s="48" t="s">
+      <c r="BV3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="BW3" s="56" t="s">
+      <c r="BW3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="BX3" s="56" t="s">
+      <c r="BX3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="65" t="s">
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="69"/>
+      <c r="CB3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="CC3" s="65" t="s">
+      <c r="CC3" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="CD3" s="22" t="s">
+      <c r="CD3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="CE3" s="67" t="s">
+      <c r="CE3" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="CF3" s="67" t="s">
+      <c r="CF3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CG3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CH3" s="68" t="s">
+      <c r="CH3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="CI3" s="68" t="s">
+      <c r="CI3" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="CJ3" s="69" t="s">
+      <c r="CJ3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="CK3" s="68" t="s">
+      <c r="CK3" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CL3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CM3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CN3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="CO3" s="20" t="s">
+      <c r="CO3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="CP3" s="65" t="s">
+      <c r="CP3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="CQ3" s="80"/>
-      <c r="CR3" s="79"/>
+      <c r="CQ3" s="86"/>
+      <c r="CR3" s="85"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:96">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26">
         <v>0.16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="42">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="48">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="48">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="48">
         <v>0.2626</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="28">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="38">
+        <f t="shared" ref="AA4:AA14" si="0">(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4)/11</f>
+        <v>0.00630909090909091</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="31">
         <v>0.1529</v>
       </c>
-      <c r="BE4" s="28">
+      <c r="BE4" s="31">
         <v>0.1667</v>
       </c>
-      <c r="BF4" s="28">
+      <c r="BF4" s="31">
         <v>0.1279</v>
       </c>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="50"/>
-      <c r="BO4" s="50"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="57"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="66">
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="72">
         <v>8.357</v>
       </c>
-      <c r="BZ4" s="66">
+      <c r="BZ4" s="72">
         <v>8.32</v>
       </c>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="66">
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="72">
         <v>3</v>
       </c>
-      <c r="CI4" s="70" t="s">
+      <c r="CI4" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="CJ4" s="70" t="s">
+      <c r="CJ4" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="66">
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="72">
         <v>1.28</v>
       </c>
-      <c r="CP4" s="81">
-        <f t="shared" ref="CP4:CP12" si="0">CO4/BY4</f>
+      <c r="CP4" s="87">
+        <f t="shared" ref="CP4:CP12" si="1">CO4/BY4</f>
         <v>0.153165011367716</v>
       </c>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="82">
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="88">
         <v>44579</v>
       </c>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:96">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26">
         <v>1.97</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="43">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="49">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="49">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="49">
         <v>1.3176</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="43">
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="38">
+        <f t="shared" si="0"/>
+        <v>0.4073</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="49">
         <v>0.1608</v>
       </c>
-      <c r="BE5" s="43">
+      <c r="BE5" s="49">
         <v>0.2682</v>
       </c>
-      <c r="BF5" s="46">
+      <c r="BF5" s="52">
         <v>0.2838</v>
       </c>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="50"/>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="58"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="27">
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="64"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="30">
         <v>1.105</v>
       </c>
-      <c r="BZ5" s="27">
+      <c r="BZ5" s="30">
         <v>1.096</v>
       </c>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="27">
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="30">
         <v>10</v>
       </c>
-      <c r="CI5" s="71" t="s">
+      <c r="CI5" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="CJ5" s="72" t="s">
+      <c r="CJ5" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="27">
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+      <c r="CO5" s="30">
         <v>2.18</v>
       </c>
-      <c r="CP5" s="83">
-        <f t="shared" si="0"/>
+      <c r="CP5" s="89">
+        <f t="shared" si="1"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="CQ5" s="72" t="s">
+      <c r="CQ5" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="CR5" s="84">
+      <c r="CR5" s="90">
         <v>44579</v>
       </c>
     </row>
     <row r="6" ht="55" customHeight="1" spans="1:96">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27">
+      <c r="D6" s="6"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30">
         <v>0.672</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="43">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="49">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="49">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="49">
         <v>1.1052</v>
       </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="43">
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.8054</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="49">
         <v>4.4042</v>
       </c>
-      <c r="BE6" s="43">
+      <c r="BE6" s="49">
         <v>1.8968</v>
       </c>
-      <c r="BF6" s="43">
+      <c r="BF6" s="49">
         <v>1.3703</v>
       </c>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="50"/>
-      <c r="BN6" s="50"/>
-      <c r="BO6" s="50"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="58"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="27">
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="64"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="30">
         <v>5.824</v>
       </c>
-      <c r="BZ6" s="27">
+      <c r="BZ6" s="30">
         <v>4.581</v>
       </c>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="27">
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="30">
         <v>6</v>
       </c>
-      <c r="CI6" s="71" t="s">
+      <c r="CI6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="CJ6" s="70" t="s">
+      <c r="CJ6" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="27">
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="30">
         <v>3.91</v>
       </c>
-      <c r="CP6" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP6" s="87">
+        <f t="shared" si="1"/>
         <v>0.67135989010989</v>
       </c>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="84">
+      <c r="CQ6" s="6"/>
+      <c r="CR6" s="90">
         <v>44580</v>
       </c>
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:96">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="28">
+      <c r="D7" s="5"/>
+      <c r="E7" s="31">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="32">
         <v>0.69</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="43">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="49">
         <v>21</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="49">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="49">
         <v>3.6</v>
       </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="43">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="38">
+        <f t="shared" si="0"/>
+        <v>2.56363636363636</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="49">
         <v>0.1189</v>
       </c>
-      <c r="BE7" s="43">
+      <c r="BE7" s="49">
         <v>0.5113</v>
       </c>
-      <c r="BF7" s="46">
+      <c r="BF7" s="52">
         <v>0.616</v>
       </c>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="50"/>
-      <c r="BO7" s="50"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="58"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-      <c r="BX7" s="5"/>
-      <c r="BY7" s="27">
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="64"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="30">
         <v>1.847</v>
       </c>
-      <c r="BZ7" s="27">
+      <c r="BZ7" s="30">
         <v>1.137</v>
       </c>
-      <c r="CA7" s="5"/>
-      <c r="CB7" s="5"/>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="5"/>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="5"/>
-      <c r="CG7" s="5"/>
-      <c r="CH7" s="27">
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="30">
         <v>4</v>
       </c>
-      <c r="CI7" s="71" t="s">
+      <c r="CI7" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="CJ7" s="70" t="s">
+      <c r="CJ7" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="27">
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="30">
         <v>1.26</v>
       </c>
-      <c r="CP7" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP7" s="87">
+        <f t="shared" si="1"/>
         <v>0.682187330806714</v>
       </c>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="84">
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="90">
         <v>44580</v>
       </c>
     </row>
     <row r="8" ht="55" customHeight="1" spans="1:96">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="30">
+      <c r="D8" s="6"/>
+      <c r="E8" s="33">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="30">
         <v>0.101</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="30">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="33">
         <v>1.3</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="33">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="33">
         <v>-0.4762</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="30">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.140909090909091</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="33">
         <v>0.3467</v>
       </c>
-      <c r="BE8" s="30">
+      <c r="BE8" s="33">
         <v>0.1404</v>
       </c>
-      <c r="BF8" s="30">
+      <c r="BF8" s="33">
         <v>0.01</v>
       </c>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="50"/>
-      <c r="BN8" s="50"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="58"/>
-      <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="5"/>
-      <c r="BY8" s="27">
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="30">
         <v>4.562</v>
       </c>
-      <c r="BZ8" s="27">
+      <c r="BZ8" s="30">
         <v>4.48</v>
       </c>
-      <c r="CA8" s="5"/>
-      <c r="CB8" s="5"/>
-      <c r="CC8" s="5"/>
-      <c r="CD8" s="5"/>
-      <c r="CE8" s="5"/>
-      <c r="CF8" s="5"/>
-      <c r="CG8" s="5"/>
-      <c r="CH8" s="27">
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="30">
         <v>9</v>
       </c>
-      <c r="CI8" s="71" t="s">
+      <c r="CI8" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="CJ8" s="70" t="s">
+      <c r="CJ8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="27">
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="30">
         <v>0.462891</v>
       </c>
-      <c r="CP8" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP8" s="87">
+        <f t="shared" si="1"/>
         <v>0.10146668128014</v>
       </c>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="84">
+      <c r="CQ8" s="6"/>
+      <c r="CR8" s="90">
         <v>44580</v>
       </c>
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:96">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="30">
+      <c r="D9" s="6"/>
+      <c r="E9" s="33">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="30">
         <v>0.549</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="42">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="48">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="48">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="42">
+      <c r="Y9" s="48">
         <v>0.3019</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="43">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.0606</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="49">
         <v>0.6459</v>
       </c>
-      <c r="BE9" s="43">
+      <c r="BE9" s="49">
         <v>0.3625</v>
       </c>
-      <c r="BF9" s="43">
+      <c r="BF9" s="49">
         <v>0.351</v>
       </c>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="5"/>
-      <c r="BR9" s="5"/>
-      <c r="BS9" s="5"/>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="58"/>
-      <c r="BV9" s="5"/>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="5"/>
-      <c r="BY9" s="27">
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="56"/>
+      <c r="BN9" s="56"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="30">
         <v>10.64</v>
       </c>
-      <c r="BZ9" s="27">
+      <c r="BZ9" s="30">
         <v>10.22</v>
       </c>
-      <c r="CA9" s="5"/>
-      <c r="CB9" s="5"/>
-      <c r="CC9" s="5"/>
-      <c r="CD9" s="5"/>
-      <c r="CE9" s="5"/>
-      <c r="CF9" s="5"/>
-      <c r="CG9" s="5"/>
-      <c r="CH9" s="27">
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="30">
         <v>37</v>
       </c>
-      <c r="CI9" s="72" t="s">
+      <c r="CI9" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="CJ9" s="70" t="s">
+      <c r="CJ9" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="CK9" s="5"/>
-      <c r="CL9" s="5"/>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="5"/>
-      <c r="CO9" s="27">
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+      <c r="CO9" s="30">
         <v>5.84</v>
       </c>
-      <c r="CP9" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP9" s="87">
+        <f t="shared" si="1"/>
         <v>0.548872180451128</v>
       </c>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="84">
+      <c r="CQ9" s="6"/>
+      <c r="CR9" s="90">
         <v>44585</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:96">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="30">
+      <c r="D10" s="6"/>
+      <c r="E10" s="33">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="30">
         <v>0.407</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="30">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="33">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="33">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="33">
         <v>0.1046</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="30">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="38">
+        <f t="shared" si="0"/>
+        <v>0.0507181818181818</v>
+      </c>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="33">
         <v>0.404</v>
       </c>
-      <c r="BE10" s="30">
+      <c r="BE10" s="33">
         <v>0.2621</v>
       </c>
-      <c r="BF10" s="30">
+      <c r="BF10" s="33">
         <v>0.0774</v>
       </c>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="5"/>
-      <c r="BR10" s="5"/>
-      <c r="BS10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="58"/>
-      <c r="BV10" s="5"/>
-      <c r="BW10" s="5"/>
-      <c r="BX10" s="5"/>
-      <c r="BY10" s="27">
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="64"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="30">
         <v>153</v>
       </c>
-      <c r="BZ10" s="27">
+      <c r="BZ10" s="30">
         <v>111.4</v>
       </c>
-      <c r="CA10" s="5"/>
-      <c r="CB10" s="5"/>
-      <c r="CC10" s="5"/>
-      <c r="CD10" s="5"/>
-      <c r="CE10" s="5"/>
-      <c r="CF10" s="5"/>
-      <c r="CG10" s="5"/>
-      <c r="CH10" s="27">
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="30">
         <v>87</v>
       </c>
-      <c r="CI10" s="70" t="s">
+      <c r="CI10" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="CJ10" s="70" t="s">
+      <c r="CJ10" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="5"/>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="5"/>
-      <c r="CO10" s="27">
+      <c r="CK10" s="6"/>
+      <c r="CL10" s="6"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+      <c r="CO10" s="30">
         <v>64.56</v>
       </c>
-      <c r="CP10" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP10" s="87">
+        <f t="shared" si="1"/>
         <v>0.421960784313726</v>
       </c>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="84">
+      <c r="CQ10" s="6"/>
+      <c r="CR10" s="90">
         <v>44585</v>
       </c>
     </row>
     <row r="11" ht="89" customHeight="1" spans="1:96">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="30">
+      <c r="D11" s="6"/>
+      <c r="E11" s="33">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="30">
         <v>0.11</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="43">
+      <c r="G11" s="28">
+        <v>-0.1429</v>
+      </c>
+      <c r="H11" s="28">
+        <v>-0.4583</v>
+      </c>
+      <c r="I11" s="28">
+        <v>-0.1314</v>
+      </c>
+      <c r="J11" s="28">
+        <v>-0.3333</v>
+      </c>
+      <c r="K11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="L11" s="28">
+        <v>-0.6923</v>
+      </c>
+      <c r="M11" s="28">
+        <v>-0.6355</v>
+      </c>
+      <c r="N11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="O11" s="28">
+        <v>-0.6667</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0.0487</v>
+      </c>
+      <c r="R11" s="28">
+        <v>-0.3333</v>
+      </c>
+      <c r="S11" s="28">
+        <v>-4.74</v>
+      </c>
+      <c r="T11" s="28">
+        <v>-1.8333</v>
+      </c>
+      <c r="U11" s="28">
+        <v>-1.478</v>
+      </c>
+      <c r="V11" s="28">
+        <v>-4</v>
+      </c>
+      <c r="W11" s="49">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="49">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="52">
         <v>3.568</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="43">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="38">
+        <f t="shared" si="0"/>
+        <v>-0.963436363636364</v>
+      </c>
+      <c r="AB11" s="38">
+        <f>(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
+        <v>-0.52228947368421</v>
+      </c>
+      <c r="AC11" s="38">
+        <f>G11</f>
+        <v>-0.1429</v>
+      </c>
+      <c r="AD11" s="38">
+        <f>(H11+I11)/2</f>
+        <v>-0.29485</v>
+      </c>
+      <c r="AE11" s="38">
+        <f>(J11+K11)/2</f>
+        <v>-0.41665</v>
+      </c>
+      <c r="AF11" s="38">
+        <f>(L11+M11)/2</f>
+        <v>-0.6639</v>
+      </c>
+      <c r="AG11" s="38">
+        <f>(N11+O11)/2</f>
+        <v>-0.58335</v>
+      </c>
+      <c r="AH11" s="38">
+        <f>(P11+Q11)/2</f>
+        <v>0.27435</v>
+      </c>
+      <c r="AI11" s="38">
+        <f>(R11+S11)/2</f>
+        <v>-2.53665</v>
+      </c>
+      <c r="AJ11" s="38">
+        <f>(T11+U11)/2</f>
+        <v>-1.65565</v>
+      </c>
+      <c r="AK11" s="38">
+        <f>(V11+W11)/2</f>
+        <v>-1.5976</v>
+      </c>
+      <c r="AL11" s="38">
+        <f>(X11+Y11)/2</f>
+        <v>2.584</v>
+      </c>
+      <c r="AM11" s="55">
+        <f>STDEV(G11:Y11)</f>
+        <v>1.78447570105642</v>
+      </c>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="49">
         <v>0.2014</v>
       </c>
-      <c r="BE11" s="43">
+      <c r="BE11" s="49">
         <v>0.0771</v>
       </c>
-      <c r="BF11" s="43">
+      <c r="BF11" s="49">
         <v>0.26</v>
       </c>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
-      <c r="BR11" s="5"/>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="58"/>
-      <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
-      <c r="BX11" s="5"/>
-      <c r="BY11" s="27">
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
+      <c r="BO11" s="56"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="64"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="30">
         <v>1.32</v>
       </c>
-      <c r="BZ11" s="27">
+      <c r="BZ11" s="30">
         <v>1.184</v>
       </c>
-      <c r="CA11" s="5"/>
-      <c r="CB11" s="5"/>
-      <c r="CC11" s="5"/>
-      <c r="CD11" s="5"/>
-      <c r="CE11" s="5"/>
-      <c r="CF11" s="5"/>
-      <c r="CG11" s="5"/>
-      <c r="CH11" s="27">
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="30">
         <v>2</v>
       </c>
-      <c r="CI11" s="71" t="s">
+      <c r="CI11" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="CJ11" s="72" t="s">
+      <c r="CJ11" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="CK11" s="5"/>
-      <c r="CL11" s="5"/>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
-      <c r="CO11" s="27">
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="6"/>
+      <c r="CO11" s="30">
         <v>0.139699</v>
       </c>
-      <c r="CP11" s="81">
-        <f t="shared" si="0"/>
+      <c r="CP11" s="87">
+        <f t="shared" si="1"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="CQ11" s="85" t="s">
+      <c r="CQ11" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="CR11" s="84">
+      <c r="CR11" s="90">
         <v>44586</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:96">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="31">
+      <c r="D12" s="9"/>
+      <c r="E12" s="34">
         <v>0.3655</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>0.17</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="31">
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>-0.0338</v>
+      </c>
+      <c r="I12" s="35">
+        <v>-0.125</v>
+      </c>
+      <c r="J12" s="35">
+        <v>-0.1333</v>
+      </c>
+      <c r="K12" s="35">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>-0.125</v>
+      </c>
+      <c r="M12" s="35">
+        <v>-0.1429</v>
+      </c>
+      <c r="N12" s="35">
+        <v>-0.2692</v>
+      </c>
+      <c r="O12" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="35">
+        <v>-0.0714</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>-0.0556</v>
+      </c>
+      <c r="R12" s="35">
+        <v>0</v>
+      </c>
+      <c r="S12" s="35">
+        <v>-0.6667</v>
+      </c>
+      <c r="T12" s="35">
+        <v>-0.3077</v>
+      </c>
+      <c r="U12" s="35">
+        <v>-0.1176</v>
+      </c>
+      <c r="V12" s="35">
+        <v>-0.1053</v>
+      </c>
+      <c r="W12" s="34">
         <v>1.5</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="34">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="34">
         <v>0.1333</v>
       </c>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="31">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.0298818181818182</v>
+      </c>
+      <c r="AB12" s="38">
+        <f>(G12+H12+I12+J12+K12+L12+M12+N12+O12+P12+Q12+R12+S12+T12+U12+V12+W12+X12+Y12)/19</f>
+        <v>-0.00515789473684209</v>
+      </c>
+      <c r="AC12" s="38">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38">
+        <f>(H12+I12)/2</f>
+        <v>-0.0794</v>
+      </c>
+      <c r="AE12" s="38">
+        <f>(J12+K12)/2</f>
+        <v>-0.06665</v>
+      </c>
+      <c r="AF12" s="38">
+        <f>(L12+M12)/2</f>
+        <v>-0.13395</v>
+      </c>
+      <c r="AG12" s="38">
+        <f>(N12+O12)/2</f>
+        <v>-0.0346</v>
+      </c>
+      <c r="AH12" s="38">
+        <f>(P12+Q12)/2</f>
+        <v>-0.0635</v>
+      </c>
+      <c r="AI12" s="38">
+        <f>(R12+S12)/2</f>
+        <v>-0.33335</v>
+      </c>
+      <c r="AJ12" s="38">
+        <f>(T12+U12)/2</f>
+        <v>-0.21265</v>
+      </c>
+      <c r="AK12" s="38">
+        <f>(V12+W12)/2</f>
+        <v>0.69735</v>
+      </c>
+      <c r="AL12" s="38">
+        <f>(X12+Y12)/2</f>
+        <v>0.17775</v>
+      </c>
+      <c r="AM12" s="55">
+        <f>STDEV(G12:Y12)</f>
+        <v>0.413115667574254</v>
+      </c>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="34">
         <v>-0.4742</v>
       </c>
-      <c r="BE12" s="31">
+      <c r="BE12" s="34">
         <v>-0.4142</v>
       </c>
-      <c r="BF12" s="31">
+      <c r="BF12" s="34">
         <v>-0.3214</v>
       </c>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="50"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="8"/>
-      <c r="BQ12" s="8"/>
-      <c r="BR12" s="8"/>
-      <c r="BS12" s="8"/>
-      <c r="BT12" s="8"/>
-      <c r="BU12" s="59">
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="56"/>
+      <c r="BN12" s="56"/>
+      <c r="BO12" s="56"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="65">
         <v>35599</v>
       </c>
-      <c r="BV12" s="8"/>
-      <c r="BW12" s="8"/>
-      <c r="BX12" s="8"/>
-      <c r="BY12" s="8">
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9">
         <v>13.29</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="9">
         <v>13.29</v>
       </c>
-      <c r="CA12" s="8"/>
-      <c r="CB12" s="8"/>
-      <c r="CC12" s="8"/>
-      <c r="CD12" s="8"/>
-      <c r="CE12" s="8"/>
-      <c r="CF12" s="8"/>
-      <c r="CG12" s="8"/>
-      <c r="CH12" s="8">
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9">
         <v>4</v>
       </c>
-      <c r="CI12" s="73" t="s">
+      <c r="CI12" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="CJ12" s="74" t="s">
+      <c r="CJ12" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="8"/>
-      <c r="CM12" s="8"/>
-      <c r="CN12" s="8"/>
-      <c r="CO12" s="8">
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9">
         <v>2.29</v>
       </c>
-      <c r="CP12" s="86">
-        <f t="shared" si="0"/>
+      <c r="CP12" s="92">
+        <f t="shared" si="1"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="CQ12" s="71" t="s">
+      <c r="CQ12" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="CR12" s="59">
+      <c r="CR12" s="65">
         <v>44605</v>
       </c>
     </row>
     <row r="13" ht="90" customHeight="1" spans="1:96">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="32">
+      <c r="D13" s="12"/>
+      <c r="E13" s="36">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="37">
         <v>0.69</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="43">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="49">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="43">
+      <c r="X13" s="49">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="43">
+      <c r="Y13" s="49">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="30">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.824245454545455</v>
+      </c>
+      <c r="AB13" s="38">
+        <f>(G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13+R13+S13+T13+U13+V13+W13+X13+Y13)/19</f>
+        <v>0.6157</v>
+      </c>
+      <c r="AC13" s="38">
+        <f>G13</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="38">
+        <f>(H13+I13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="38">
+        <f>(J13+K13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="38">
+        <f>(L13+M13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="38">
+        <f>(N13+O13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="38">
+        <f>(P13+Q13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="38">
+        <f>(R13+S13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="38">
+        <f>(T13+U13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="38">
+        <f>(V13+W13)/2</f>
+        <v>0.33335</v>
+      </c>
+      <c r="AL13" s="38">
+        <f>(X13+Y13)/2</f>
+        <v>5.5158</v>
+      </c>
+      <c r="AM13" s="55">
+        <f>STDEV(G13:Y13)</f>
+        <v>4.01951903134359</v>
+      </c>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="33">
         <v>0.7335</v>
       </c>
-      <c r="BE13" s="30">
+      <c r="BE13" s="33">
         <v>0.4001</v>
       </c>
-      <c r="BF13" s="30">
+      <c r="BF13" s="33">
         <v>0.1638</v>
       </c>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="53"/>
-      <c r="BU13" s="60">
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="59"/>
+      <c r="BU13" s="66">
         <v>42368</v>
       </c>
-      <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
-      <c r="BX13" s="5"/>
-      <c r="BY13" s="27">
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="30">
         <v>79.23</v>
       </c>
-      <c r="BZ13" s="27">
+      <c r="BZ13" s="30">
         <v>79.22</v>
       </c>
-      <c r="CA13" s="5"/>
-      <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="27">
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="30">
         <v>123</v>
       </c>
-      <c r="CI13" s="71" t="s">
+      <c r="CI13" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="CJ13" s="71" t="s">
+      <c r="CJ13" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="27">
+      <c r="CK13" s="6"/>
+      <c r="CL13" s="6"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="30">
         <v>63.51</v>
       </c>
-      <c r="CP13" s="81">
-        <f t="shared" ref="CP13:CP15" si="1">CO13/BY13</f>
+      <c r="CP13" s="87">
+        <f t="shared" ref="CP13:CP15" si="2">CO13/BY13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="CQ13" s="72" t="s">
+      <c r="CQ13" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="CR13" s="84">
+      <c r="CR13" s="90">
         <v>44601</v>
       </c>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:96">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="32">
+      <c r="D14" s="13"/>
+      <c r="E14" s="36">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="39">
         <v>0.577</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="30">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="33">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="33">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="30">
+      <c r="Y14" s="33">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="43">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.0307363636363636</v>
+      </c>
+      <c r="AB14" s="38">
+        <f>(G14+H14+I14+J14+K14+L14+M14+N14+O14+P14+Q14+R14+S14+T14+U14+V14+W14+X14+Y14)/19</f>
+        <v>0.0130105263157895</v>
+      </c>
+      <c r="AC14" s="38">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="38">
+        <f>(H14+I14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="38">
+        <f>(J14+K14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="38">
+        <f>(L14+M14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="38">
+        <f>(N14+O14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="38">
+        <f>(P14+Q14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="38">
+        <f>(R14+S14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="38">
+        <f>(T14+U14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="38">
+        <f>(V14+W14)/2</f>
+        <v>0.12905</v>
+      </c>
+      <c r="AL14" s="38">
+        <f>(X14+Y14)/2</f>
+        <v>-0.00545</v>
+      </c>
+      <c r="AM14" s="55">
+        <f>STDEV(G14:Y14)</f>
+        <v>0.1745123777845</v>
+      </c>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="49">
         <v>0.2685</v>
       </c>
-      <c r="BE14" s="43">
+      <c r="BE14" s="49">
         <v>0.4227</v>
       </c>
-      <c r="BF14" s="43">
+      <c r="BF14" s="49">
         <v>0.3457</v>
       </c>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="53"/>
-      <c r="BU14" s="60">
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
+      <c r="BT14" s="59"/>
+      <c r="BU14" s="66">
         <v>37757</v>
       </c>
-      <c r="BV14" s="5"/>
-      <c r="BW14" s="5"/>
-      <c r="BX14" s="5"/>
-      <c r="BY14" s="27">
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="30">
         <v>5.912</v>
       </c>
-      <c r="BZ14" s="27">
+      <c r="BZ14" s="30">
         <v>5.69</v>
       </c>
-      <c r="CA14" s="5"/>
-      <c r="CB14" s="5"/>
-      <c r="CC14" s="5"/>
-      <c r="CD14" s="5"/>
-      <c r="CE14" s="5"/>
-      <c r="CF14" s="5"/>
-      <c r="CG14" s="5"/>
-      <c r="CH14" s="27">
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="30">
         <v>11</v>
       </c>
-      <c r="CI14" s="71" t="s">
+      <c r="CI14" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="CJ14" s="71" t="s">
+      <c r="CJ14" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="CK14" s="5"/>
-      <c r="CL14" s="5"/>
-      <c r="CM14" s="5"/>
-      <c r="CN14" s="5"/>
-      <c r="CO14" s="27">
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="6"/>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+      <c r="CO14" s="30">
         <v>3.41</v>
       </c>
-      <c r="CP14" s="81">
-        <f t="shared" si="1"/>
+      <c r="CP14" s="87">
+        <f t="shared" si="2"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="CQ14" s="87" t="s">
+      <c r="CQ14" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="CR14" s="84">
+      <c r="CR14" s="90">
         <v>44601</v>
       </c>
     </row>
     <row r="15" ht="94" customHeight="1" spans="1:96">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="35">
+      <c r="D15" s="13"/>
+      <c r="E15" s="40">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="41">
         <v>0.82</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="44">
+      <c r="G15" s="38">
+        <v>0.3043</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.1454</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.2327</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.1847</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0.2133</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0.3746</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0.3028</v>
+      </c>
+      <c r="N15" s="38">
+        <v>1.4835</v>
+      </c>
+      <c r="O15" s="38">
+        <v>0.1758</v>
+      </c>
+      <c r="P15" s="38">
+        <v>0.6306</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>0.4161</v>
+      </c>
+      <c r="R15" s="38">
+        <v>-0.2543</v>
+      </c>
+      <c r="S15" s="38">
+        <v>-1.285</v>
+      </c>
+      <c r="T15" s="38">
+        <v>-0.9669</v>
+      </c>
+      <c r="U15" s="38">
+        <v>-0.6954</v>
+      </c>
+      <c r="V15" s="38">
+        <v>-0.2007</v>
+      </c>
+      <c r="W15" s="50">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="44">
+      <c r="X15" s="50">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="50">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="44">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="38">
+        <f>(N15+O15+P15+Q15+R15+S15+T15+U15+V15+W15+X15)/11</f>
+        <v>2.23333636363636</v>
+      </c>
+      <c r="AB15" s="38">
+        <f>(G15+H15+I15+J15+K15+L15+M15+N15+O15+P15+Q15+R15+S15+T15+U15+V15+W15+X15+Y15)/19</f>
+        <v>1.47577368421053</v>
+      </c>
+      <c r="AC15" s="38">
+        <f>G15</f>
+        <v>0.3043</v>
+      </c>
+      <c r="AD15" s="38">
+        <f>(H15+I15)/2</f>
+        <v>0.18905</v>
+      </c>
+      <c r="AE15" s="38">
+        <f>(J15+K15)/2</f>
+        <v>0.199</v>
+      </c>
+      <c r="AF15" s="38">
+        <f>(L15+M15)/2</f>
+        <v>0.3387</v>
+      </c>
+      <c r="AG15" s="38">
+        <f>(N15+O15)/2</f>
+        <v>0.82965</v>
+      </c>
+      <c r="AH15" s="38">
+        <f>(P15+Q15)/2</f>
+        <v>0.52335</v>
+      </c>
+      <c r="AI15" s="38">
+        <f>(R15+S15)/2</f>
+        <v>-0.76965</v>
+      </c>
+      <c r="AJ15" s="38">
+        <f>(T15+U15)/2</f>
+        <v>-0.83115</v>
+      </c>
+      <c r="AK15" s="38">
+        <f>(V15+W15)/2</f>
+        <v>2.2603</v>
+      </c>
+      <c r="AL15" s="38">
+        <f>(X15+Y15)/2</f>
+        <v>11.12845</v>
+      </c>
+      <c r="AM15" s="55">
+        <f>STDEV(G15:Y15)</f>
+        <v>4.78580313344028</v>
+      </c>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="50">
         <v>2.2501</v>
       </c>
-      <c r="BE15" s="44">
+      <c r="BE15" s="50">
         <v>0.7909</v>
       </c>
-      <c r="BF15" s="44">
+      <c r="BF15" s="50">
         <v>0.5626</v>
       </c>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
-      <c r="BM15" s="17"/>
-      <c r="BN15" s="17"/>
-      <c r="BO15" s="17"/>
-      <c r="BP15" s="17"/>
-      <c r="BQ15" s="17"/>
-      <c r="BR15" s="17"/>
-      <c r="BS15" s="17"/>
-      <c r="BT15" s="53"/>
-      <c r="BU15" s="61">
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="18"/>
+      <c r="BJ15" s="18"/>
+      <c r="BK15" s="18"/>
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
+      <c r="BR15" s="18"/>
+      <c r="BS15" s="18"/>
+      <c r="BT15" s="59"/>
+      <c r="BU15" s="67">
         <v>37250</v>
       </c>
-      <c r="BV15" s="5"/>
-      <c r="BW15" s="5"/>
-      <c r="BX15" s="5"/>
-      <c r="BY15" s="5">
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6">
         <v>21.81</v>
       </c>
-      <c r="BZ15" s="5">
+      <c r="BZ15" s="6">
         <v>14.33</v>
       </c>
-      <c r="CA15" s="5"/>
-      <c r="CB15" s="5"/>
-      <c r="CC15" s="5"/>
-      <c r="CD15" s="5"/>
-      <c r="CE15" s="5"/>
-      <c r="CF15" s="5"/>
-      <c r="CG15" s="5"/>
-      <c r="CH15" s="75">
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="6"/>
+      <c r="CF15" s="6"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="81">
         <v>1</v>
       </c>
-      <c r="CI15" s="71" t="s">
+      <c r="CI15" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="CJ15" s="71" t="s">
+      <c r="CJ15" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="CK15" s="5"/>
-      <c r="CL15" s="5"/>
-      <c r="CM15" s="5"/>
-      <c r="CN15" s="5"/>
-      <c r="CO15" s="5">
+      <c r="CK15" s="6"/>
+      <c r="CL15" s="6"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6">
         <v>19.28</v>
       </c>
-      <c r="CP15" s="81">
-        <f t="shared" si="1"/>
+      <c r="CP15" s="87">
+        <f t="shared" si="2"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="CQ15" s="88" t="s">
+      <c r="CQ15" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="CR15" s="84">
+      <c r="CR15" s="90">
         <v>44608</v>
       </c>
     </row>
     <row r="16" ht="82" customHeight="1" spans="1:96">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="35">
+      <c r="D16" s="13"/>
+      <c r="E16" s="40">
         <v>0.5564</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="13">
         <v>0.725</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="26">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="29">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="29">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="26">
+      <c r="Y16" s="29">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="26">
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="29">
         <v>-0.1922</v>
       </c>
-      <c r="BE16" s="26">
+      <c r="BE16" s="29">
         <v>-0.1946</v>
       </c>
-      <c r="BF16" s="26">
+      <c r="BF16" s="29">
         <v>-0.0688</v>
       </c>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="53"/>
-      <c r="BU16" s="61">
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="18"/>
+      <c r="BQ16" s="18"/>
+      <c r="BR16" s="18"/>
+      <c r="BS16" s="18"/>
+      <c r="BT16" s="59"/>
+      <c r="BU16" s="67">
         <v>42031</v>
       </c>
-      <c r="BV16" s="5"/>
-      <c r="BW16" s="5"/>
-      <c r="BX16" s="5"/>
-      <c r="BY16" s="5">
+      <c r="BV16" s="6"/>
+      <c r="BW16" s="6"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="6">
         <v>3.726</v>
       </c>
-      <c r="BZ16" s="5">
+      <c r="BZ16" s="6">
         <v>3.253</v>
       </c>
-      <c r="CA16" s="5"/>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="5"/>
-      <c r="CD16" s="5"/>
-      <c r="CE16" s="5"/>
-      <c r="CF16" s="5"/>
-      <c r="CG16" s="5"/>
-      <c r="CH16" s="5">
+      <c r="CA16" s="6"/>
+      <c r="CB16" s="6"/>
+      <c r="CC16" s="6"/>
+      <c r="CD16" s="6"/>
+      <c r="CE16" s="6"/>
+      <c r="CF16" s="6"/>
+      <c r="CG16" s="6"/>
+      <c r="CH16" s="6">
         <v>2</v>
       </c>
-      <c r="CI16" s="71" t="s">
+      <c r="CI16" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="CJ16" s="71" t="s">
+      <c r="CJ16" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="CK16" s="5"/>
-      <c r="CL16" s="5"/>
-      <c r="CM16" s="5"/>
-      <c r="CN16" s="5"/>
-      <c r="CO16" s="5"/>
-      <c r="CP16" s="5"/>
-      <c r="CQ16" s="89" t="s">
+      <c r="CK16" s="6"/>
+      <c r="CL16" s="6"/>
+      <c r="CM16" s="6"/>
+      <c r="CN16" s="6"/>
+      <c r="CO16" s="6"/>
+      <c r="CP16" s="6"/>
+      <c r="CQ16" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="CR16" s="84">
+      <c r="CR16" s="90">
         <v>44608</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:96">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="53"/>
-      <c r="BU17" s="53"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="38"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="76"/>
-      <c r="CJ17" s="76"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="90"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="91"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="18"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="18"/>
+      <c r="BR17" s="18"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="59"/>
+      <c r="BU17" s="59"/>
+      <c r="BV17" s="18"/>
+      <c r="BW17" s="18"/>
+      <c r="BX17" s="18"/>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="18"/>
+      <c r="CB17" s="18"/>
+      <c r="CC17" s="18"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="18"/>
+      <c r="CF17" s="18"/>
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="43"/>
+      <c r="CI17" s="82"/>
+      <c r="CJ17" s="82"/>
+      <c r="CK17" s="18"/>
+      <c r="CL17" s="18"/>
+      <c r="CM17" s="18"/>
+      <c r="CN17" s="18"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="96"/>
+      <c r="CQ17" s="18"/>
+      <c r="CR17" s="97"/>
     </row>
     <row r="18" ht="18" spans="1:96">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="53"/>
-      <c r="BU18" s="53"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="38"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="76"/>
-      <c r="CJ18" s="76"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="38"/>
-      <c r="CP18" s="90"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="91"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="59"/>
+      <c r="BU18" s="59"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="43"/>
+      <c r="BZ18" s="43"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="43"/>
+      <c r="CI18" s="82"/>
+      <c r="CJ18" s="82"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="43"/>
+      <c r="CP18" s="96"/>
+      <c r="CQ18" s="43"/>
+      <c r="CR18" s="97"/>
     </row>
     <row r="19" ht="18" spans="1:96">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="39"/>
-      <c r="BF19" s="39"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="18"/>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="18"/>
-      <c r="BM19" s="18"/>
-      <c r="BN19" s="18"/>
-      <c r="BO19" s="18"/>
-      <c r="BP19" s="18"/>
-      <c r="BQ19" s="18"/>
-      <c r="BR19" s="18"/>
-      <c r="BS19" s="18"/>
-      <c r="BT19" s="54"/>
-      <c r="BU19" s="54"/>
-      <c r="BV19" s="18"/>
-      <c r="BW19" s="18"/>
-      <c r="BX19" s="18"/>
-      <c r="BY19" s="18"/>
-      <c r="BZ19" s="18"/>
-      <c r="CA19" s="18"/>
-      <c r="CB19" s="18"/>
-      <c r="CC19" s="18"/>
-      <c r="CD19" s="18"/>
-      <c r="CE19" s="18"/>
-      <c r="CF19" s="18"/>
-      <c r="CG19" s="18"/>
-      <c r="CH19" s="18"/>
-      <c r="CI19" s="77"/>
-      <c r="CJ19" s="77"/>
-      <c r="CK19" s="18"/>
-      <c r="CL19" s="18"/>
-      <c r="CM19" s="18"/>
-      <c r="CN19" s="18"/>
-      <c r="CO19" s="18"/>
-      <c r="CP19" s="92"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="54"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="44"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="44"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="60"/>
+      <c r="BU19" s="60"/>
+      <c r="BV19" s="19"/>
+      <c r="BW19" s="19"/>
+      <c r="BX19" s="19"/>
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+      <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
+      <c r="CD19" s="19"/>
+      <c r="CE19" s="19"/>
+      <c r="CF19" s="19"/>
+      <c r="CG19" s="19"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="83"/>
+      <c r="CJ19" s="83"/>
+      <c r="CK19" s="19"/>
+      <c r="CL19" s="19"/>
+      <c r="CM19" s="19"/>
+      <c r="CN19" s="19"/>
+      <c r="CO19" s="19"/>
+      <c r="CP19" s="98"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="60"/>
     </row>
     <row r="20" ht="18" spans="1:96">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="53"/>
-      <c r="BU20" s="53"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="53"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="59"/>
+      <c r="BU20" s="59"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18"/>
+      <c r="CF20" s="18"/>
+      <c r="CG20" s="18"/>
+      <c r="CH20" s="18"/>
+      <c r="CI20" s="18"/>
+      <c r="CJ20" s="18"/>
+      <c r="CK20" s="18"/>
+      <c r="CL20" s="18"/>
+      <c r="CM20" s="18"/>
+      <c r="CN20" s="18"/>
+      <c r="CO20" s="18"/>
+      <c r="CP20" s="18"/>
+      <c r="CQ20" s="18"/>
+      <c r="CR20" s="59"/>
     </row>
     <row r="21" ht="18" spans="1:96">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-      <c r="BF21" s="17"/>
-      <c r="BG21" s="17"/>
-      <c r="BH21" s="17"/>
-      <c r="BI21" s="17"/>
-      <c r="BJ21" s="17"/>
-      <c r="BK21" s="17"/>
-      <c r="BL21" s="17"/>
-      <c r="BM21" s="17"/>
-      <c r="BN21" s="17"/>
-      <c r="BO21" s="17"/>
-      <c r="BP21" s="17"/>
-      <c r="BQ21" s="17"/>
-      <c r="BR21" s="17"/>
-      <c r="BS21" s="17"/>
-      <c r="BT21" s="53"/>
-      <c r="BU21" s="53"/>
-      <c r="BV21" s="17"/>
-      <c r="BW21" s="17"/>
-      <c r="BX21" s="17"/>
-      <c r="BY21" s="17"/>
-      <c r="BZ21" s="17"/>
-      <c r="CA21" s="17"/>
-      <c r="CB21" s="17"/>
-      <c r="CC21" s="17"/>
-      <c r="CD21" s="17"/>
-      <c r="CE21" s="17"/>
-      <c r="CF21" s="17"/>
-      <c r="CG21" s="17"/>
-      <c r="CH21" s="17"/>
-      <c r="CI21" s="17"/>
-      <c r="CJ21" s="17"/>
-      <c r="CK21" s="17"/>
-      <c r="CL21" s="17"/>
-      <c r="CM21" s="17"/>
-      <c r="CN21" s="17"/>
-      <c r="CO21" s="17"/>
-      <c r="CP21" s="17"/>
-      <c r="CQ21" s="17"/>
-      <c r="CR21" s="53"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="59"/>
+      <c r="BU21" s="59"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="18"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+      <c r="CP21" s="18"/>
+      <c r="CQ21" s="18"/>
+      <c r="CR21" s="59"/>
     </row>
     <row r="22" ht="18" spans="1:96">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
-      <c r="AX22" s="17"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="17"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
-      <c r="BF22" s="17"/>
-      <c r="BG22" s="17"/>
-      <c r="BH22" s="17"/>
-      <c r="BI22" s="17"/>
-      <c r="BJ22" s="17"/>
-      <c r="BK22" s="17"/>
-      <c r="BL22" s="17"/>
-      <c r="BM22" s="17"/>
-      <c r="BN22" s="17"/>
-      <c r="BO22" s="17"/>
-      <c r="BP22" s="17"/>
-      <c r="BQ22" s="17"/>
-      <c r="BR22" s="17"/>
-      <c r="BS22" s="17"/>
-      <c r="BT22" s="53"/>
-      <c r="BU22" s="53"/>
-      <c r="BV22" s="17"/>
-      <c r="BW22" s="17"/>
-      <c r="BX22" s="17"/>
-      <c r="BY22" s="17"/>
-      <c r="BZ22" s="17"/>
-      <c r="CA22" s="17"/>
-      <c r="CB22" s="17"/>
-      <c r="CC22" s="17"/>
-      <c r="CD22" s="17"/>
-      <c r="CE22" s="17"/>
-      <c r="CF22" s="17"/>
-      <c r="CG22" s="17"/>
-      <c r="CH22" s="17"/>
-      <c r="CI22" s="17"/>
-      <c r="CJ22" s="17"/>
-      <c r="CK22" s="17"/>
-      <c r="CL22" s="17"/>
-      <c r="CM22" s="17"/>
-      <c r="CN22" s="17"/>
-      <c r="CO22" s="17"/>
-      <c r="CP22" s="17"/>
-      <c r="CQ22" s="17"/>
-      <c r="CR22" s="53"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+      <c r="BN22" s="18"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="18"/>
+      <c r="BQ22" s="18"/>
+      <c r="BR22" s="18"/>
+      <c r="BS22" s="18"/>
+      <c r="BT22" s="59"/>
+      <c r="BU22" s="59"/>
+      <c r="BV22" s="18"/>
+      <c r="BW22" s="18"/>
+      <c r="BX22" s="18"/>
+      <c r="BY22" s="18"/>
+      <c r="BZ22" s="18"/>
+      <c r="CA22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="18"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18"/>
+      <c r="CF22" s="18"/>
+      <c r="CG22" s="18"/>
+      <c r="CH22" s="18"/>
+      <c r="CI22" s="18"/>
+      <c r="CJ22" s="18"/>
+      <c r="CK22" s="18"/>
+      <c r="CL22" s="18"/>
+      <c r="CM22" s="18"/>
+      <c r="CN22" s="18"/>
+      <c r="CO22" s="18"/>
+      <c r="CP22" s="18"/>
+      <c r="CQ22" s="18"/>
+      <c r="CR22" s="59"/>
     </row>
     <row r="23" ht="18" spans="1:96">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="17"/>
-      <c r="BH23" s="17"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="17"/>
-      <c r="BL23" s="17"/>
-      <c r="BM23" s="17"/>
-      <c r="BN23" s="17"/>
-      <c r="BO23" s="17"/>
-      <c r="BP23" s="17"/>
-      <c r="BQ23" s="17"/>
-      <c r="BR23" s="17"/>
-      <c r="BS23" s="17"/>
-      <c r="BT23" s="53"/>
-      <c r="BU23" s="53"/>
-      <c r="BV23" s="17"/>
-      <c r="BW23" s="17"/>
-      <c r="BX23" s="17"/>
-      <c r="BY23" s="17"/>
-      <c r="BZ23" s="17"/>
-      <c r="CA23" s="17"/>
-      <c r="CB23" s="17"/>
-      <c r="CC23" s="17"/>
-      <c r="CD23" s="17"/>
-      <c r="CE23" s="17"/>
-      <c r="CF23" s="17"/>
-      <c r="CG23" s="17"/>
-      <c r="CH23" s="17"/>
-      <c r="CI23" s="17"/>
-      <c r="CJ23" s="17"/>
-      <c r="CK23" s="17"/>
-      <c r="CL23" s="17"/>
-      <c r="CM23" s="17"/>
-      <c r="CN23" s="17"/>
-      <c r="CO23" s="17"/>
-      <c r="CP23" s="17"/>
-      <c r="CQ23" s="17"/>
-      <c r="CR23" s="53"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="18"/>
+      <c r="BS23" s="18"/>
+      <c r="BT23" s="59"/>
+      <c r="BU23" s="59"/>
+      <c r="BV23" s="18"/>
+      <c r="BW23" s="18"/>
+      <c r="BX23" s="18"/>
+      <c r="BY23" s="18"/>
+      <c r="BZ23" s="18"/>
+      <c r="CA23" s="18"/>
+      <c r="CB23" s="18"/>
+      <c r="CC23" s="18"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
+      <c r="CF23" s="18"/>
+      <c r="CG23" s="18"/>
+      <c r="CH23" s="18"/>
+      <c r="CI23" s="18"/>
+      <c r="CJ23" s="18"/>
+      <c r="CK23" s="18"/>
+      <c r="CL23" s="18"/>
+      <c r="CM23" s="18"/>
+      <c r="CN23" s="18"/>
+      <c r="CO23" s="18"/>
+      <c r="CP23" s="18"/>
+      <c r="CQ23" s="18"/>
+      <c r="CR23" s="59"/>
     </row>
     <row r="24" ht="18" spans="1:96">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
-      <c r="BH24" s="17"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="17"/>
-      <c r="BL24" s="17"/>
-      <c r="BM24" s="17"/>
-      <c r="BN24" s="17"/>
-      <c r="BO24" s="17"/>
-      <c r="BP24" s="17"/>
-      <c r="BQ24" s="17"/>
-      <c r="BR24" s="17"/>
-      <c r="BS24" s="17"/>
-      <c r="BT24" s="53"/>
-      <c r="BU24" s="53"/>
-      <c r="BV24" s="17"/>
-      <c r="BW24" s="17"/>
-      <c r="BX24" s="17"/>
-      <c r="BY24" s="17"/>
-      <c r="BZ24" s="17"/>
-      <c r="CA24" s="17"/>
-      <c r="CB24" s="17"/>
-      <c r="CC24" s="17"/>
-      <c r="CD24" s="17"/>
-      <c r="CE24" s="17"/>
-      <c r="CF24" s="17"/>
-      <c r="CG24" s="17"/>
-      <c r="CH24" s="17"/>
-      <c r="CI24" s="17"/>
-      <c r="CJ24" s="17"/>
-      <c r="CK24" s="17"/>
-      <c r="CL24" s="17"/>
-      <c r="CM24" s="17"/>
-      <c r="CN24" s="17"/>
-      <c r="CO24" s="17"/>
-      <c r="CP24" s="17"/>
-      <c r="CQ24" s="17"/>
-      <c r="CR24" s="53"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="18"/>
+      <c r="BQ24" s="18"/>
+      <c r="BR24" s="18"/>
+      <c r="BS24" s="18"/>
+      <c r="BT24" s="59"/>
+      <c r="BU24" s="59"/>
+      <c r="BV24" s="18"/>
+      <c r="BW24" s="18"/>
+      <c r="BX24" s="18"/>
+      <c r="BY24" s="18"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="18"/>
+      <c r="CB24" s="18"/>
+      <c r="CC24" s="18"/>
+      <c r="CD24" s="18"/>
+      <c r="CE24" s="18"/>
+      <c r="CF24" s="18"/>
+      <c r="CG24" s="18"/>
+      <c r="CH24" s="18"/>
+      <c r="CI24" s="18"/>
+      <c r="CJ24" s="18"/>
+      <c r="CK24" s="18"/>
+      <c r="CL24" s="18"/>
+      <c r="CM24" s="18"/>
+      <c r="CN24" s="18"/>
+      <c r="CO24" s="18"/>
+      <c r="CP24" s="18"/>
+      <c r="CQ24" s="18"/>
+      <c r="CR24" s="59"/>
     </row>
     <row r="25" ht="18" spans="1:96">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
-      <c r="AW25" s="17"/>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17"/>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="17"/>
-      <c r="BH25" s="17"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17"/>
-      <c r="BK25" s="17"/>
-      <c r="BL25" s="17"/>
-      <c r="BM25" s="17"/>
-      <c r="BN25" s="17"/>
-      <c r="BO25" s="17"/>
-      <c r="BP25" s="17"/>
-      <c r="BQ25" s="17"/>
-      <c r="BR25" s="17"/>
-      <c r="BS25" s="17"/>
-      <c r="BT25" s="53"/>
-      <c r="BU25" s="53"/>
-      <c r="BV25" s="17"/>
-      <c r="BW25" s="17"/>
-      <c r="BX25" s="17"/>
-      <c r="BY25" s="17"/>
-      <c r="BZ25" s="17"/>
-      <c r="CA25" s="17"/>
-      <c r="CB25" s="17"/>
-      <c r="CC25" s="17"/>
-      <c r="CD25" s="17"/>
-      <c r="CE25" s="17"/>
-      <c r="CF25" s="17"/>
-      <c r="CG25" s="17"/>
-      <c r="CH25" s="17"/>
-      <c r="CI25" s="17"/>
-      <c r="CJ25" s="17"/>
-      <c r="CK25" s="17"/>
-      <c r="CL25" s="17"/>
-      <c r="CM25" s="17"/>
-      <c r="CN25" s="17"/>
-      <c r="CO25" s="17"/>
-      <c r="CP25" s="17"/>
-      <c r="CQ25" s="17"/>
-      <c r="CR25" s="53"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BI25" s="18"/>
+      <c r="BJ25" s="18"/>
+      <c r="BK25" s="18"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="18"/>
+      <c r="BR25" s="18"/>
+      <c r="BS25" s="18"/>
+      <c r="BT25" s="59"/>
+      <c r="BU25" s="59"/>
+      <c r="BV25" s="18"/>
+      <c r="BW25" s="18"/>
+      <c r="BX25" s="18"/>
+      <c r="BY25" s="18"/>
+      <c r="BZ25" s="18"/>
+      <c r="CA25" s="18"/>
+      <c r="CB25" s="18"/>
+      <c r="CC25" s="18"/>
+      <c r="CD25" s="18"/>
+      <c r="CE25" s="18"/>
+      <c r="CF25" s="18"/>
+      <c r="CG25" s="18"/>
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="18"/>
+      <c r="CJ25" s="18"/>
+      <c r="CK25" s="18"/>
+      <c r="CL25" s="18"/>
+      <c r="CM25" s="18"/>
+      <c r="CN25" s="18"/>
+      <c r="CO25" s="18"/>
+      <c r="CP25" s="18"/>
+      <c r="CQ25" s="18"/>
+      <c r="CR25" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -161,7 +161,7 @@
   </si>
   <si>
     <t>上市日期
-(10年以内)</t>
+(10年以内,即2011年以内)</t>
   </si>
   <si>
     <t>股价新高</t>
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AE11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -4310,7 +4310,9 @@
       <c r="BR11" s="6"/>
       <c r="BS11" s="6"/>
       <c r="BT11" s="6"/>
-      <c r="BU11" s="64"/>
+      <c r="BU11" s="64">
+        <v>42347</v>
+      </c>
       <c r="BV11" s="6"/>
       <c r="BW11" s="6"/>
       <c r="BX11" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AE11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AY11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AY11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AG10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF12" sqref="BF12"/>
+      <selection pane="bottomRight" activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -4585,22 +4585,54 @@
       <c r="F13" s="37">
         <v>0.69</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="G13" s="38">
+        <v>1.7</v>
+      </c>
+      <c r="H13" s="38">
+        <v>-0.0417</v>
+      </c>
+      <c r="I13" s="38">
+        <v>-0.3099</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.3223</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1.7037</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.913</v>
+      </c>
+      <c r="M13" s="38">
+        <v>1.0816</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.1812</v>
+      </c>
+      <c r="O13" s="38">
+        <v>-0.5616</v>
+      </c>
+      <c r="P13" s="38">
+        <v>-0.3182</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>-0.4118</v>
+      </c>
+      <c r="R13" s="38">
+        <v>0.0529</v>
+      </c>
+      <c r="S13" s="38">
+        <v>-0.9063</v>
+      </c>
+      <c r="T13" s="38">
+        <v>-0.9167</v>
+      </c>
+      <c r="U13" s="38">
+        <v>-0.6833</v>
+      </c>
+      <c r="V13" s="38">
+        <v>-0.2663</v>
+      </c>
       <c r="W13" s="49">
         <v>0.6667</v>
       </c>
@@ -4612,48 +4644,48 @@
       </c>
       <c r="Z13" s="18"/>
       <c r="AA13" s="38">
-        <f t="shared" si="0"/>
-        <v>0.824245454545455</v>
+        <f>(N13+O13+P13+Q13+R13+S13+T13+U13+V13+W13+X13)/11</f>
+        <v>0.476054545454546</v>
       </c>
       <c r="AB13" s="38">
         <f>(G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13+R13+S13+T13+U13+V13+W13+X13+Y13)/19</f>
-        <v>0.6157</v>
+        <v>0.696694736842105</v>
       </c>
       <c r="AC13" s="38">
         <f>G13</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD13" s="38">
         <f>(H13+I13)/2</f>
-        <v>0</v>
+        <v>-0.1758</v>
       </c>
       <c r="AE13" s="38">
         <f>(J13+K13)/2</f>
-        <v>0</v>
+        <v>1.013</v>
       </c>
       <c r="AF13" s="38">
         <f>(L13+M13)/2</f>
-        <v>0</v>
+        <v>0.9973</v>
       </c>
       <c r="AG13" s="38">
         <f>(N13+O13)/2</f>
-        <v>0</v>
+        <v>-0.1902</v>
       </c>
       <c r="AH13" s="38">
         <f>(P13+Q13)/2</f>
-        <v>0</v>
+        <v>-0.365</v>
       </c>
       <c r="AI13" s="38">
         <f>(R13+S13)/2</f>
-        <v>0</v>
+        <v>-0.4267</v>
       </c>
       <c r="AJ13" s="38">
         <f>(T13+U13)/2</f>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="AK13" s="38">
         <f>(V13+W13)/2</f>
-        <v>0.33335</v>
+        <v>0.2002</v>
       </c>
       <c r="AL13" s="38">
         <f>(X13+Y13)/2</f>
@@ -4661,7 +4693,7 @@
       </c>
       <c r="AM13" s="55">
         <f>STDEV(G13:Y13)</f>
-        <v>4.01951903134359</v>
+        <v>2.10193806560456</v>
       </c>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AG10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AI9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM15" sqref="AM15"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2622,11 +2622,11 @@
   <dimension ref="A1:CR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AI9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -56,7 +56,27 @@
   </si>
   <si>
     <t>过去五年的历史记录
-(最近三季度的增长最少40%，甚至100%且最好近两个季度加速增长，最次近两个季度不要出现大幅回落)</t>
+(最近3个季度增速稳步提高，但不超过25%或没有盈利为净利润的增大阶段;最近连续3个季度净利润增速超过25%且已经开始盈利为净利润明显增大阶段；最近3个季度净利润环比增大为净利润增速加快阶段)</t>
+  </si>
+  <si>
+    <t>3年的平均增速
+(最近季度增速打破平均增速，则为突破或复苏阶段，其中复苏阶段增速应该是之前最近低迷阶段增速的两到三倍)</t>
+  </si>
+  <si>
+    <t>5年的平均增速
+(最近季度增速打破平均增速，则为突破或复苏阶段，其中复苏阶段增速应该是之前最近低迷阶段增速的两到三倍)</t>
+  </si>
+  <si>
+    <t>每两个季度的增长平均值
+(确认趋势)</t>
+  </si>
+  <si>
+    <t>波动性
+(越小越好)</t>
+  </si>
+  <si>
+    <t>过去五年的历史记录
+（最近三个季度最少25%且最好最近两个季度加速增长，最次近两个季度不要出现大幅回落)</t>
   </si>
   <si>
     <t>3年的平均增速
@@ -66,18 +86,6 @@
     <t>5年的平均增速</t>
   </si>
   <si>
-    <t>每两个季度的增长平均值
-(确认趋势)</t>
-  </si>
-  <si>
-    <t>波动性
-(越小越好)</t>
-  </si>
-  <si>
-    <t>过去五年的历史记录
-（最近三个季度最少25%且最好最近两个季度加速增长，最次近两个季度不要出现大幅回落)</t>
-  </si>
-  <si>
     <t>每两个季度的平均增长速度</t>
   </si>
   <si>
@@ -879,7 +887,7 @@
   </si>
   <si>
     <t>可以入场
-（利润增长持续向好，销售额也增长明显，持有机构数量变化不大，机构持有份额也变化不大，表明机构持续看好公司未来业绩发展，适合较长期持有）</t>
+（利润增长持续向好，销售额也增长明显，持有机构数量变化不大，机构持有份额也变化不大，表明机构持续看好公司未来业绩发展，可以较长时间持有）</t>
   </si>
   <si>
     <r>
@@ -1334,6 +1342,18 @@
   </si>
   <si>
     <t>迎驾贡酒</t>
+  </si>
+  <si>
+    <t>先减少然后再变多
+(由131家减少到23家，再减少到60家)</t>
+  </si>
+  <si>
+    <t>先变多再变少
+（由82.25%减少到83.08%，再减少到1.87%）</t>
+  </si>
+  <si>
+    <t>适量进入
+(利润增长和销售额增长目前仍比较强劲，但销售额处于持续下滑的趋势；而且虽然持有机构数量在增加，但机构持有份额大幅减少，目前来看不宜长期持有)</t>
   </si>
   <si>
     <r>
@@ -1716,13 +1736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,28 +2322,28 @@
     <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,7 +2364,7 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2434,7 +2454,7 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,11 +2803,11 @@
   <dimension ref="A1:CO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="CI14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
+      <selection pane="bottomRight" activeCell="CN20" sqref="CN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2806,8 +2826,8 @@
     <col min="23" max="23" width="11.0089285714286" style="2" customWidth="1"/>
     <col min="24" max="24" width="10.5714285714286" style="2"/>
     <col min="25" max="25" width="9.85714285714286" style="2"/>
-    <col min="27" max="27" width="11.6071428571429" customWidth="1"/>
-    <col min="28" max="28" width="12.7857142857143"/>
+    <col min="27" max="27" width="16.9553571428571" customWidth="1"/>
+    <col min="28" max="28" width="18.2946428571429" customWidth="1"/>
     <col min="29" max="31" width="9.5" style="2"/>
     <col min="32" max="33" width="9.57142857142857" style="2"/>
     <col min="34" max="35" width="9.85714285714286" style="2"/>
@@ -2940,10 +2960,10 @@
       <c r="CI1" s="64"/>
       <c r="CJ1" s="64"/>
       <c r="CK1" s="64"/>
-      <c r="CL1" s="41" t="s">
+      <c r="CL1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="CM1" s="41"/>
+      <c r="CM1" s="43"/>
       <c r="CN1" s="79"/>
       <c r="CO1" s="89" t="s">
         <v>11</v>
@@ -2977,11 +2997,11 @@
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="44" t="s">
         <v>14</v>
       </c>
       <c r="AC2" s="46" t="s">
@@ -2993,7 +3013,7 @@
       <c r="AG2" s="46"/>
       <c r="AH2" s="46"/>
       <c r="AI2" s="46"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>16</v>
       </c>
       <c r="AK2" s="23" t="s">
@@ -3018,24 +3038,24 @@
       <c r="BB2" s="23"/>
       <c r="BC2" s="23"/>
       <c r="BD2" s="23"/>
-      <c r="BE2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG2" s="42" t="s">
+      <c r="BE2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
+      <c r="BF2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
       <c r="BQ2" s="53" t="s">
         <v>16</v>
       </c>
@@ -3044,16 +3064,16 @@
       <c r="BT2" s="52"/>
       <c r="BU2" s="52"/>
       <c r="BV2" s="54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BW2" s="54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BX2" s="65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BY2" s="67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BZ2" s="67"/>
       <c r="CA2" s="67"/>
@@ -3061,7 +3081,7 @@
       <c r="CC2" s="67"/>
       <c r="CD2" s="67"/>
       <c r="CE2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CF2" s="4"/>
       <c r="CG2" s="4"/>
@@ -3069,10 +3089,10 @@
       <c r="CI2" s="4"/>
       <c r="CJ2" s="4"/>
       <c r="CK2" s="4"/>
-      <c r="CL2" s="41"/>
-      <c r="CM2" s="41"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
       <c r="CN2" s="80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CO2" s="89"/>
     </row>
@@ -3084,254 +3104,254 @@
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="L3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="P3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>26</v>
-      </c>
       <c r="Q3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="T3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>26</v>
-      </c>
       <c r="U3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>26</v>
-      </c>
       <c r="Y3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="AL3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="47" t="s">
+      <c r="AM3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AN3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AO3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="BK3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="BL3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="BM3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="BN3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="47" t="s">
+      <c r="BO3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="BH3" s="47" t="s">
+      <c r="BP3" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="BI3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ3" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK3" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL3" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM3" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN3" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="BP3" s="47" t="s">
-        <v>35</v>
       </c>
       <c r="BQ3" s="53"/>
       <c r="BR3" s="52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BS3" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BT3" s="54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BU3" s="54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BV3" s="54"/>
       <c r="BW3" s="54"/>
       <c r="BX3" s="65"/>
       <c r="BY3" s="68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BZ3" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA3" s="41" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="CA3" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="CB3" s="69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CC3" s="69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CD3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CE3" s="70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CF3" s="70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CG3" s="77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CH3" s="70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CI3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CJ3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CK3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CL3" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CM3" s="68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CN3" s="80"/>
       <c r="CO3" s="89"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:93">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="25"/>
@@ -3440,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="CF4" s="71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CG4" s="71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CH4" s="7"/>
       <c r="CI4" s="7"/>
@@ -3463,13 +3483,13 @@
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:93">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="25"/>
@@ -3537,7 +3557,7 @@
       <c r="BB5" s="38">
         <v>0.2682</v>
       </c>
-      <c r="BC5" s="44">
+      <c r="BC5" s="39">
         <v>0.2838</v>
       </c>
       <c r="BD5" s="8"/>
@@ -3578,10 +3598,10 @@
         <v>10</v>
       </c>
       <c r="CF5" s="72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CG5" s="73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CH5" s="8"/>
       <c r="CI5" s="8"/>
@@ -3595,7 +3615,7 @@
         <v>1.97285067873303</v>
       </c>
       <c r="CN5" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CO5" s="91">
         <v>44579</v>
@@ -3603,13 +3623,13 @@
     </row>
     <row r="6" ht="55" customHeight="1" spans="1:93">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="27"/>
@@ -3718,10 +3738,10 @@
         <v>6</v>
       </c>
       <c r="CF6" s="72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CG6" s="71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="CH6" s="8"/>
       <c r="CI6" s="8"/>
@@ -3741,13 +3761,13 @@
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:93">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="29">
@@ -3817,7 +3837,7 @@
       <c r="BB7" s="38">
         <v>0.5113</v>
       </c>
-      <c r="BC7" s="44">
+      <c r="BC7" s="39">
         <v>0.616</v>
       </c>
       <c r="BD7" s="8"/>
@@ -3858,10 +3878,10 @@
         <v>4</v>
       </c>
       <c r="CF7" s="72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CG7" s="71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CH7" s="8"/>
       <c r="CI7" s="8"/>
@@ -3881,13 +3901,13 @@
     </row>
     <row r="8" ht="55" customHeight="1" spans="1:93">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="31">
@@ -3998,10 +4018,10 @@
         <v>9</v>
       </c>
       <c r="CF8" s="72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CG8" s="71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CH8" s="8"/>
       <c r="CI8" s="8"/>
@@ -4021,13 +4041,13 @@
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:93">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="31">
@@ -4138,10 +4158,10 @@
         <v>37</v>
       </c>
       <c r="CF9" s="73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CG9" s="71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="CH9" s="8"/>
       <c r="CI9" s="8"/>
@@ -4161,13 +4181,13 @@
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:93">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="31">
@@ -4278,10 +4298,10 @@
         <v>87</v>
       </c>
       <c r="CF10" s="71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CG10" s="71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="CH10" s="8"/>
       <c r="CI10" s="8"/>
@@ -4301,13 +4321,13 @@
     </row>
     <row r="11" ht="89" customHeight="1" spans="1:93">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="31">
@@ -4364,13 +4384,13 @@
       <c r="V11" s="27">
         <v>-4</v>
       </c>
-      <c r="W11" s="38">
+      <c r="W11" s="39">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="38">
+      <c r="X11" s="39">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="44">
+      <c r="Y11" s="39">
         <v>3.568</v>
       </c>
       <c r="Z11" s="8"/>
@@ -4398,15 +4418,15 @@
         <f>(U11+V11)/2</f>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="39">
+      <c r="AG11" s="40">
         <f>(V11+W11)/2</f>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="39">
+      <c r="AH11" s="40">
         <f>(W11+X11)/2</f>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="39">
+      <c r="AI11" s="40">
         <f>(X11+Y11)/2</f>
         <v>2.584</v>
       </c>
@@ -4517,10 +4537,10 @@
         <v>2</v>
       </c>
       <c r="CF11" s="72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="CG11" s="73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="CH11" s="8"/>
       <c r="CI11" s="8"/>
@@ -4534,7 +4554,7 @@
         <v>0.105832575757576</v>
       </c>
       <c r="CN11" s="83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="CO11" s="91">
         <v>44586</v>
@@ -4542,13 +4562,13 @@
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:93">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="32">
@@ -4631,19 +4651,19 @@
         <f>(S12+T12)/2</f>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AE12" s="40">
         <f>(T12+U12)/2</f>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="40">
         <f>(U12+V12)/2</f>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="40">
         <f>(V12+W12)/2</f>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="39">
+      <c r="AH12" s="40">
         <f>(W12+X12)/2</f>
         <v>0.8611</v>
       </c>
@@ -4758,10 +4778,10 @@
         <v>4</v>
       </c>
       <c r="CF12" s="74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CG12" s="78" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
@@ -4775,7 +4795,7 @@
         <v>0.172310007524454</v>
       </c>
       <c r="CN12" s="72" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="CO12" s="58">
         <v>44605</v>
@@ -4783,13 +4803,13 @@
     </row>
     <row r="13" ht="90" customHeight="1" spans="1:93">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="31">
@@ -4872,23 +4892,23 @@
         <f>(S13+T13)/2</f>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="39">
+      <c r="AE13" s="40">
         <f>(T13+U13)/2</f>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="40">
         <f>(U13+V13)/2</f>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="39">
+      <c r="AG13" s="40">
         <f>(V13+W13)/2</f>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="39">
+      <c r="AH13" s="40">
         <f>(W13+X13)/2</f>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="39">
+      <c r="AI13" s="40">
         <f>(X13+Y13)/2</f>
         <v>5.5158</v>
       </c>
@@ -4967,10 +4987,10 @@
         <v>123</v>
       </c>
       <c r="CF13" s="72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CG13" s="72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CH13" s="8"/>
       <c r="CI13" s="8"/>
@@ -4984,7 +5004,7 @@
         <v>0.801590306702007</v>
       </c>
       <c r="CN13" s="73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO13" s="91">
         <v>44601</v>
@@ -4992,13 +5012,13 @@
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:93">
       <c r="A14" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="31">
@@ -5144,10 +5164,10 @@
         <v>11</v>
       </c>
       <c r="CF14" s="72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CG14" s="72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CH14" s="8"/>
       <c r="CI14" s="8"/>
@@ -5161,7 +5181,7 @@
         <v>0.576792963464141</v>
       </c>
       <c r="CN14" s="85" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CO14" s="91">
         <v>44601</v>
@@ -5169,13 +5189,13 @@
     </row>
     <row r="15" ht="94" customHeight="1" spans="1:93">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="27">
@@ -5232,13 +5252,13 @@
       <c r="V15" s="34">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="40">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="39">
+      <c r="X15" s="40">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="40">
         <v>1.7152</v>
       </c>
       <c r="Z15" s="19"/>
@@ -5258,19 +5278,19 @@
         <f t="shared" si="9"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="39">
+      <c r="AE15" s="40">
         <f t="shared" si="10"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="40">
         <f t="shared" si="11"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="39">
+      <c r="AG15" s="40">
         <f t="shared" si="12"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="39">
+      <c r="AH15" s="40">
         <f t="shared" si="13"/>
         <v>12.6315</v>
       </c>
@@ -5330,13 +5350,13 @@
       <c r="AZ15" s="34">
         <v>-0.07</v>
       </c>
-      <c r="BA15" s="39">
+      <c r="BA15" s="40">
         <v>2.2501</v>
       </c>
-      <c r="BB15" s="39">
+      <c r="BB15" s="40">
         <v>0.7909</v>
       </c>
-      <c r="BC15" s="39">
+      <c r="BC15" s="40">
         <v>0.5626</v>
       </c>
       <c r="BD15" s="19"/>
@@ -5385,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="CF15" s="72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CG15" s="72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CH15" s="8"/>
       <c r="CI15" s="8"/>
@@ -5402,7 +5422,7 @@
         <v>0.883998165978909</v>
       </c>
       <c r="CN15" s="86" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CO15" s="91">
         <v>44608</v>
@@ -5410,13 +5430,13 @@
     </row>
     <row r="16" ht="82" customHeight="1" spans="1:93">
       <c r="A16" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="27">
@@ -5562,10 +5582,10 @@
         <v>2</v>
       </c>
       <c r="CF16" s="72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CG16" s="72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CH16" s="8"/>
       <c r="CI16" s="8"/>
@@ -5574,7 +5594,7 @@
       <c r="CL16" s="8"/>
       <c r="CM16" s="8"/>
       <c r="CN16" s="87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CO16" s="91">
         <v>44608</v>
@@ -5582,13 +5602,13 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:93">
       <c r="A17" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="36"/>
@@ -5623,13 +5643,13 @@
       <c r="V17" s="36">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="41">
         <v>1.087</v>
       </c>
-      <c r="X17" s="40">
+      <c r="X17" s="41">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="40">
+      <c r="Y17" s="41">
         <v>0.6696</v>
       </c>
       <c r="Z17" s="18"/>
@@ -5649,19 +5669,19 @@
         <f t="shared" si="9"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="39">
+      <c r="AE17" s="40">
         <f t="shared" si="10"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="39">
+      <c r="AF17" s="40">
         <f t="shared" si="11"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="39">
+      <c r="AG17" s="40">
         <f t="shared" si="12"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="39">
+      <c r="AH17" s="40">
         <f t="shared" si="13"/>
         <v>0.94055</v>
       </c>
@@ -5703,13 +5723,13 @@
       <c r="AZ17" s="36">
         <v>0.2964</v>
       </c>
-      <c r="BA17" s="40">
+      <c r="BA17" s="41">
         <v>1.0194</v>
       </c>
-      <c r="BB17" s="40">
+      <c r="BB17" s="41">
         <v>0.7661</v>
       </c>
-      <c r="BC17" s="40">
+      <c r="BC17" s="41">
         <v>0.6219</v>
       </c>
       <c r="BD17" s="18"/>
@@ -5762,13 +5782,13 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:93">
       <c r="A18" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="36"/>
@@ -5821,13 +5841,13 @@
       <c r="V18" s="36">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="41">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="40">
+      <c r="X18" s="41">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="40">
+      <c r="Y18" s="41">
         <v>0.4021</v>
       </c>
       <c r="Z18" s="18"/>
@@ -5855,11 +5875,11 @@
         <f t="shared" si="11"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="39">
+      <c r="AG18" s="40">
         <f t="shared" si="12"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="39">
+      <c r="AH18" s="40">
         <f t="shared" si="13"/>
         <v>0.9639</v>
       </c>
@@ -5978,13 +5998,13 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:93">
       <c r="A19" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="36"/>
@@ -6037,13 +6057,13 @@
       <c r="V19" s="36">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="40">
+      <c r="W19" s="41">
         <v>0.6</v>
       </c>
-      <c r="X19" s="40">
+      <c r="X19" s="41">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="40">
+      <c r="Y19" s="41">
         <v>0.4943</v>
       </c>
       <c r="Z19" s="18"/>
@@ -6071,11 +6091,11 @@
         <f t="shared" si="11"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="39">
+      <c r="AG19" s="40">
         <f t="shared" si="12"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="39">
+      <c r="AH19" s="40">
         <f t="shared" si="13"/>
         <v>0.8326</v>
       </c>
@@ -6135,13 +6155,13 @@
       <c r="AZ19" s="36">
         <v>0.2519</v>
       </c>
-      <c r="BA19" s="40">
+      <c r="BA19" s="41">
         <v>0.178</v>
       </c>
-      <c r="BB19" s="40">
+      <c r="BB19" s="41">
         <v>0.5323</v>
       </c>
-      <c r="BC19" s="45">
+      <c r="BC19" s="42">
         <v>0.6121</v>
       </c>
       <c r="BD19" s="18"/>
@@ -6192,15 +6212,15 @@
       <c r="CN19" s="18"/>
       <c r="CO19" s="61"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:93">
+    <row r="20" s="1" customFormat="1" ht="88" spans="1:93">
       <c r="A20" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="36">
@@ -6257,13 +6277,13 @@
       <c r="V20" s="36">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="40">
+      <c r="W20" s="42">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="40">
+      <c r="X20" s="42">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="45">
+      <c r="Y20" s="42">
         <v>0.8182</v>
       </c>
       <c r="Z20" s="18"/>
@@ -6283,23 +6303,23 @@
         <f>(S20+T20)/2</f>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="39">
+      <c r="AE20" s="40">
         <f>(T20+U20)/2</f>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="39">
+      <c r="AF20" s="40">
         <f>(U20+V20)/2</f>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="39">
+      <c r="AG20" s="40">
         <f>(V20+W20)/2</f>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="39">
+      <c r="AH20" s="40">
         <f>(W20+X20)/2</f>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="39">
+      <c r="AI20" s="40">
         <f>(X20+Y20)/2</f>
         <v>0.79005</v>
       </c>
@@ -6355,13 +6375,13 @@
       <c r="AZ20" s="36">
         <v>-0.1331</v>
       </c>
-      <c r="BA20" s="40">
+      <c r="BA20" s="41">
         <v>1.3196</v>
       </c>
-      <c r="BB20" s="40">
+      <c r="BB20" s="41">
         <v>0.8147</v>
       </c>
-      <c r="BC20" s="40">
+      <c r="BC20" s="41">
         <v>0.5566</v>
       </c>
       <c r="BD20" s="18"/>
@@ -6391,8 +6411,12 @@
       <c r="BS20" s="18"/>
       <c r="BT20" s="18"/>
       <c r="BU20" s="18"/>
-      <c r="BV20" s="18"/>
-      <c r="BW20" s="18"/>
+      <c r="BV20" s="18">
+        <v>8</v>
+      </c>
+      <c r="BW20" s="18">
+        <v>8</v>
+      </c>
       <c r="BX20" s="18"/>
       <c r="BY20" s="18"/>
       <c r="BZ20" s="18"/>
@@ -6400,21 +6424,29 @@
       <c r="CB20" s="18"/>
       <c r="CC20" s="18"/>
       <c r="CD20" s="18"/>
-      <c r="CE20" s="18"/>
-      <c r="CF20" s="18"/>
-      <c r="CG20" s="18"/>
+      <c r="CE20" s="18">
+        <v>60</v>
+      </c>
+      <c r="CF20" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG20" s="72" t="s">
+        <v>144</v>
+      </c>
       <c r="CH20" s="18"/>
       <c r="CI20" s="18"/>
       <c r="CJ20" s="18"/>
       <c r="CK20" s="18"/>
       <c r="CL20" s="18"/>
       <c r="CM20" s="18"/>
-      <c r="CN20" s="18"/>
+      <c r="CN20" s="86" t="s">
+        <v>145</v>
+      </c>
       <c r="CO20" s="61"/>
     </row>
     <row r="21" ht="18" spans="1:93">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -6511,7 +6543,7 @@
     </row>
     <row r="22" ht="18" spans="1:93">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6608,7 +6640,7 @@
     </row>
     <row r="23" ht="18" spans="1:93">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6705,7 +6737,7 @@
     </row>
     <row r="24" ht="18" spans="1:93">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6802,7 +6834,7 @@
     </row>
     <row r="25" ht="18" spans="1:93">
       <c r="A25" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -1450,13 +1450,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2204,7 +2205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,6 +2215,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2349,75 +2353,99 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2468,9 +2496,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2803,11 +2828,11 @@
   <dimension ref="A1:CO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="CI14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="BQ14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN20" sqref="CN20"/>
+      <selection pane="bottomRight" activeCell="BX19" sqref="BX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2841,4093 +2866,4123 @@
     <col min="57" max="57" width="12.7857142857143"/>
     <col min="69" max="69" width="13.2142857142857" style="3"/>
     <col min="70" max="70" width="12.9464285714286" customWidth="1"/>
+    <col min="74" max="75" width="10.1428571428571" style="4"/>
     <col min="84" max="84" width="20.8303571428571" customWidth="1"/>
     <col min="85" max="85" width="26.1875" customWidth="1"/>
     <col min="88" max="88" width="21.4285714285714" customWidth="1"/>
     <col min="90" max="90" width="9.57142857142857"/>
-    <col min="91" max="91" width="9.28571428571429"/>
+    <col min="91" max="91" width="9.42857142857143"/>
     <col min="92" max="92" width="46.7232142857143" customWidth="1"/>
     <col min="93" max="93" width="13.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="52" t="s">
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="64" t="s">
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="64"/>
-      <c r="CL1" s="43" t="s">
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="CM1" s="43"/>
-      <c r="CN1" s="79"/>
-      <c r="CO1" s="89" t="s">
+      <c r="CM1" s="44"/>
+      <c r="CN1" s="88"/>
+      <c r="CO1" s="97" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="59" customHeight="1" spans="1:93">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="44" t="s">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" s="44" t="s">
+      <c r="BF2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BG2" s="44" t="s">
+      <c r="BG2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="53" t="s">
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="54" t="s">
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BW2" s="54" t="s">
+      <c r="BW2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="BX2" s="65" t="s">
+      <c r="BX2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="67" t="s">
+      <c r="BY2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="BZ2" s="67"/>
-      <c r="CA2" s="67"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="67"/>
-      <c r="CD2" s="67"/>
-      <c r="CE2" s="4" t="s">
+      <c r="BZ2" s="75"/>
+      <c r="CA2" s="75"/>
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="75"/>
+      <c r="CD2" s="75"/>
+      <c r="CE2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="80" t="s">
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="89"/>
+      <c r="CO2" s="97"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:93">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="Z3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="47" t="s">
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AG3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="AH3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AI3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="24" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="24" t="s">
+      <c r="AO3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AP3" s="24" t="s">
+      <c r="AP3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="22" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AS3" s="24" t="s">
+      <c r="AS3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AU3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AV3" s="20" t="s">
+      <c r="AV3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AW3" s="24" t="s">
+      <c r="AW3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AX3" s="24" t="s">
+      <c r="AX3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AY3" s="24" t="s">
+      <c r="AY3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AZ3" s="24" t="s">
+      <c r="AZ3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BA3" s="24" t="s">
+      <c r="BA3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BB3" s="24" t="s">
+      <c r="BB3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BC3" s="24" t="s">
+      <c r="BC3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BD3" s="24" t="s">
+      <c r="BD3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="47" t="s">
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="BH3" s="47" t="s">
+      <c r="BH3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="BI3" s="47" t="s">
+      <c r="BI3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="BJ3" s="47" t="s">
+      <c r="BJ3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="BK3" s="47" t="s">
+      <c r="BK3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="BL3" s="47" t="s">
+      <c r="BL3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="47" t="s">
+      <c r="BM3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BN3" s="47" t="s">
+      <c r="BN3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BO3" s="47" t="s">
+      <c r="BO3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BP3" s="47" t="s">
+      <c r="BP3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="52" t="s">
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="BS3" s="23" t="s">
+      <c r="BS3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BT3" s="54" t="s">
+      <c r="BT3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="BU3" s="54" t="s">
+      <c r="BU3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="65"/>
-      <c r="BY3" s="68" t="s">
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="BZ3" s="68" t="s">
+      <c r="BZ3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="CA3" s="43" t="s">
+      <c r="CA3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="CB3" s="69" t="s">
+      <c r="CB3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="69" t="s">
+      <c r="CC3" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CD3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="CE3" s="70" t="s">
+      <c r="CE3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="CF3" s="70" t="s">
+      <c r="CF3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="CG3" s="77" t="s">
+      <c r="CG3" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="CH3" s="70" t="s">
+      <c r="CH3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CI3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CJ3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="CK3" s="4" t="s">
+      <c r="CK3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="CL3" s="21" t="s">
+      <c r="CL3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="CM3" s="68" t="s">
+      <c r="CM3" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="CN3" s="80"/>
-      <c r="CO3" s="89"/>
+      <c r="CN3" s="89"/>
+      <c r="CO3" s="97"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:93">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26">
+      <c r="D4" s="8"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27">
         <v>0.16</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="37">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="38">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="38">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="38">
         <v>0.2626</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="34">
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="35">
         <f t="shared" ref="AA4:AA20" si="0">(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4)/11</f>
         <v>0.00630909090909091</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="29">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="30">
         <v>0.1529</v>
       </c>
-      <c r="BB4" s="29">
+      <c r="BB4" s="30">
         <v>0.1667</v>
       </c>
-      <c r="BC4" s="29">
+      <c r="BC4" s="30">
         <v>0.1279</v>
       </c>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="55">
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="56">
         <f t="shared" ref="BQ4:BQ20" si="1">STDEV(AK4:BC4)</f>
         <v>0.0196675706006953</v>
       </c>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7"/>
-      <c r="BU4" s="7"/>
-      <c r="BV4" s="66">
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="69">
         <v>8.357</v>
       </c>
-      <c r="BW4" s="66">
+      <c r="BW4" s="69">
         <v>8.32</v>
       </c>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
-      <c r="BZ4" s="7"/>
-      <c r="CA4" s="7"/>
-      <c r="CB4" s="7"/>
-      <c r="CC4" s="7"/>
-      <c r="CD4" s="7"/>
-      <c r="CE4" s="66">
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="79">
         <v>3</v>
       </c>
-      <c r="CF4" s="71" t="s">
+      <c r="CF4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="CG4" s="71" t="s">
+      <c r="CG4" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="CH4" s="7"/>
-      <c r="CI4" s="7"/>
-      <c r="CJ4" s="7"/>
-      <c r="CK4" s="7"/>
-      <c r="CL4" s="66">
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="79">
         <v>1.28</v>
       </c>
-      <c r="CM4" s="81">
+      <c r="CM4" s="90">
         <f t="shared" ref="CM4:CM12" si="2">CL4/BV4</f>
         <v>0.153165011367716</v>
       </c>
-      <c r="CN4" s="7"/>
-      <c r="CO4" s="90">
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="98">
         <v>44579</v>
       </c>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:93">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26">
+      <c r="D5" s="8"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27">
         <v>1.97</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="38">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="39">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="39">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="39">
         <v>1.3176</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="34">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="35">
         <f t="shared" si="0"/>
         <v>0.4073</v>
       </c>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="38">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="39">
         <v>0.1608</v>
       </c>
-      <c r="BB5" s="38">
+      <c r="BB5" s="39">
         <v>0.2682</v>
       </c>
-      <c r="BC5" s="39">
+      <c r="BC5" s="40">
         <v>0.2838</v>
       </c>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="55">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="56">
         <f t="shared" si="1"/>
         <v>0.0669665588185626</v>
       </c>
-      <c r="BR5" s="57"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BV5" s="28">
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="70">
         <v>1.105</v>
       </c>
-      <c r="BW5" s="28">
+      <c r="BW5" s="70">
         <v>1.096</v>
       </c>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CB5" s="8"/>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8"/>
-      <c r="CE5" s="28">
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="29">
         <v>10</v>
       </c>
-      <c r="CF5" s="72" t="s">
+      <c r="CF5" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="CG5" s="73" t="s">
+      <c r="CG5" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="CH5" s="8"/>
-      <c r="CI5" s="8"/>
-      <c r="CJ5" s="8"/>
-      <c r="CK5" s="8"/>
-      <c r="CL5" s="28">
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="29">
         <v>2.18</v>
       </c>
-      <c r="CM5" s="82">
+      <c r="CM5" s="91">
         <f t="shared" si="2"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="CN5" s="73" t="s">
+      <c r="CN5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="CO5" s="91">
+      <c r="CO5" s="99">
         <v>44579</v>
       </c>
     </row>
     <row r="6" ht="55" customHeight="1" spans="1:93">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28">
+      <c r="D6" s="9"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29">
         <v>0.672</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="38">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="39">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="38">
+      <c r="X6" s="39">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="38">
+      <c r="Y6" s="39">
         <v>1.1052</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="34">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="35">
         <f t="shared" si="0"/>
         <v>0.8054</v>
       </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="38">
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="39">
         <v>4.4042</v>
       </c>
-      <c r="BB6" s="38">
+      <c r="BB6" s="39">
         <v>1.8968</v>
       </c>
-      <c r="BC6" s="38">
+      <c r="BC6" s="39">
         <v>1.3703</v>
       </c>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="50"/>
-      <c r="BK6" s="50"/>
-      <c r="BL6" s="50"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="55">
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="56">
         <f t="shared" si="1"/>
         <v>1.62115217360987</v>
       </c>
-      <c r="BR6" s="57"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="28">
+      <c r="BR6" s="58"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="70">
         <v>5.824</v>
       </c>
-      <c r="BW6" s="28">
+      <c r="BW6" s="70">
         <v>4.581</v>
       </c>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="28">
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="29">
         <v>6</v>
       </c>
-      <c r="CF6" s="72" t="s">
+      <c r="CF6" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="CG6" s="71" t="s">
+      <c r="CG6" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="CH6" s="8"/>
-      <c r="CI6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
-      <c r="CL6" s="28">
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="29">
         <v>3.91</v>
       </c>
-      <c r="CM6" s="81">
+      <c r="CM6" s="90">
         <f t="shared" si="2"/>
         <v>0.67135989010989</v>
       </c>
-      <c r="CN6" s="8"/>
-      <c r="CO6" s="91">
+      <c r="CN6" s="9"/>
+      <c r="CO6" s="99">
         <v>44580</v>
       </c>
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:93">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="29">
+      <c r="D7" s="8"/>
+      <c r="E7" s="30">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>0.69</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="38">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="39">
         <v>21</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="39">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="39">
         <v>3.6</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="34">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="35">
         <f t="shared" si="0"/>
         <v>2.56363636363636</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="38">
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="39">
         <v>0.1189</v>
       </c>
-      <c r="BB7" s="38">
+      <c r="BB7" s="39">
         <v>0.5113</v>
       </c>
-      <c r="BC7" s="39">
+      <c r="BC7" s="40">
         <v>0.616</v>
       </c>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="50"/>
-      <c r="BK7" s="50"/>
-      <c r="BL7" s="50"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="55">
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="56">
         <f t="shared" si="1"/>
         <v>0.262058600316799</v>
       </c>
-      <c r="BR7" s="57"/>
-      <c r="BS7" s="8"/>
-      <c r="BT7" s="8"/>
-      <c r="BU7" s="8"/>
-      <c r="BV7" s="28">
+      <c r="BR7" s="58"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="70">
         <v>1.847</v>
       </c>
-      <c r="BW7" s="28">
+      <c r="BW7" s="70">
         <v>1.137</v>
       </c>
-      <c r="BX7" s="8"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8"/>
-      <c r="CA7" s="8"/>
-      <c r="CB7" s="8"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="8"/>
-      <c r="CE7" s="28">
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="29">
         <v>4</v>
       </c>
-      <c r="CF7" s="72" t="s">
+      <c r="CF7" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="CG7" s="71" t="s">
+      <c r="CG7" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="CH7" s="8"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="28">
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="29">
         <v>1.26</v>
       </c>
-      <c r="CM7" s="81">
+      <c r="CM7" s="90">
         <f t="shared" si="2"/>
         <v>0.682187330806714</v>
       </c>
-      <c r="CN7" s="8"/>
-      <c r="CO7" s="91">
+      <c r="CN7" s="9"/>
+      <c r="CO7" s="99">
         <v>44580</v>
       </c>
     </row>
     <row r="8" ht="55" customHeight="1" spans="1:93">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="31">
+      <c r="D8" s="9"/>
+      <c r="E8" s="32">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>0.101</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="31">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="32">
         <v>1.3</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="32">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Y8" s="32">
         <v>-0.4762</v>
       </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="34">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="35">
         <f t="shared" si="0"/>
         <v>0.140909090909091</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="31">
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="32">
         <v>0.3467</v>
       </c>
-      <c r="BB8" s="31">
+      <c r="BB8" s="32">
         <v>0.1404</v>
       </c>
-      <c r="BC8" s="31">
+      <c r="BC8" s="32">
         <v>0.01</v>
       </c>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="50"/>
-      <c r="BK8" s="50"/>
-      <c r="BL8" s="50"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="55">
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="56">
         <f t="shared" si="1"/>
         <v>0.169769814749266</v>
       </c>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="8"/>
-      <c r="BV8" s="28">
+      <c r="BR8" s="58"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="70">
         <v>4.562</v>
       </c>
-      <c r="BW8" s="28">
+      <c r="BW8" s="70">
         <v>4.48</v>
       </c>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="28">
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="29">
         <v>9</v>
       </c>
-      <c r="CF8" s="72" t="s">
+      <c r="CF8" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="CG8" s="71" t="s">
+      <c r="CG8" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="28">
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="29">
         <v>0.462891</v>
       </c>
-      <c r="CM8" s="81">
+      <c r="CM8" s="90">
         <f t="shared" si="2"/>
         <v>0.10146668128014</v>
       </c>
-      <c r="CN8" s="8"/>
-      <c r="CO8" s="91">
+      <c r="CN8" s="9"/>
+      <c r="CO8" s="99">
         <v>44580</v>
       </c>
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:93">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="31">
+      <c r="D9" s="9"/>
+      <c r="E9" s="32">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>0.549</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="37">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="38">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="38">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="38">
         <v>0.3019</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="34">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="35">
         <f t="shared" si="0"/>
         <v>0.0606</v>
       </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="38">
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="39">
         <v>0.6459</v>
       </c>
-      <c r="BB9" s="38">
+      <c r="BB9" s="39">
         <v>0.3625</v>
       </c>
-      <c r="BC9" s="38">
+      <c r="BC9" s="39">
         <v>0.351</v>
       </c>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="50"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BQ9" s="55">
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="51"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="56">
         <f t="shared" si="1"/>
         <v>0.167039825590586</v>
       </c>
-      <c r="BR9" s="57"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
-      <c r="BU9" s="8"/>
-      <c r="BV9" s="28">
+      <c r="BR9" s="58"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="70">
         <v>10.64</v>
       </c>
-      <c r="BW9" s="28">
+      <c r="BW9" s="70">
         <v>10.22</v>
       </c>
-      <c r="BX9" s="8"/>
-      <c r="BY9" s="8"/>
-      <c r="BZ9" s="8"/>
-      <c r="CA9" s="8"/>
-      <c r="CB9" s="8"/>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="8"/>
-      <c r="CE9" s="28">
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="29">
         <v>37</v>
       </c>
-      <c r="CF9" s="73" t="s">
+      <c r="CF9" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="CG9" s="71" t="s">
+      <c r="CG9" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="CH9" s="8"/>
-      <c r="CI9" s="8"/>
-      <c r="CJ9" s="8"/>
-      <c r="CK9" s="8"/>
-      <c r="CL9" s="28">
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="29">
         <v>5.84</v>
       </c>
-      <c r="CM9" s="81">
+      <c r="CM9" s="90">
         <f t="shared" si="2"/>
         <v>0.548872180451128</v>
       </c>
-      <c r="CN9" s="8"/>
-      <c r="CO9" s="91">
+      <c r="CN9" s="9"/>
+      <c r="CO9" s="99">
         <v>44585</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:93">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="31">
+      <c r="D10" s="9"/>
+      <c r="E10" s="32">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>0.407</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="31">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="32">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="32">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Y10" s="32">
         <v>0.1046</v>
       </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="34">
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="35">
         <f t="shared" si="0"/>
         <v>0.0507181818181818</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="31">
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="32">
         <v>0.404</v>
       </c>
-      <c r="BB10" s="31">
+      <c r="BB10" s="32">
         <v>0.2621</v>
       </c>
-      <c r="BC10" s="31">
+      <c r="BC10" s="32">
         <v>0.0774</v>
       </c>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
-      <c r="BP10" s="8"/>
-      <c r="BQ10" s="55">
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="56">
         <f t="shared" si="1"/>
         <v>0.163766734513861</v>
       </c>
-      <c r="BR10" s="57"/>
-      <c r="BS10" s="8"/>
-      <c r="BT10" s="8"/>
-      <c r="BU10" s="8"/>
-      <c r="BV10" s="28">
+      <c r="BR10" s="58"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="70">
         <v>153</v>
       </c>
-      <c r="BW10" s="28">
+      <c r="BW10" s="70">
         <v>111.4</v>
       </c>
-      <c r="BX10" s="8"/>
-      <c r="BY10" s="8"/>
-      <c r="BZ10" s="8"/>
-      <c r="CA10" s="8"/>
-      <c r="CB10" s="8"/>
-      <c r="CC10" s="8"/>
-      <c r="CD10" s="8"/>
-      <c r="CE10" s="28">
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="29">
         <v>87</v>
       </c>
-      <c r="CF10" s="71" t="s">
+      <c r="CF10" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="CG10" s="71" t="s">
+      <c r="CG10" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="CH10" s="8"/>
-      <c r="CI10" s="8"/>
-      <c r="CJ10" s="8"/>
-      <c r="CK10" s="8"/>
-      <c r="CL10" s="28">
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="29">
         <v>64.56</v>
       </c>
-      <c r="CM10" s="81">
+      <c r="CM10" s="90">
         <f t="shared" si="2"/>
         <v>0.421960784313726</v>
       </c>
-      <c r="CN10" s="8"/>
-      <c r="CO10" s="91">
+      <c r="CN10" s="9"/>
+      <c r="CO10" s="99">
         <v>44585</v>
       </c>
     </row>
     <row r="11" ht="89" customHeight="1" spans="1:93">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="31">
+      <c r="D11" s="9"/>
+      <c r="E11" s="32">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>0.11</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="28">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="28">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="28">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="28">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="28">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="28">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="28">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="28">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="28">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="28">
         <v>-4</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="40">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="40">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11" s="40">
         <v>3.568</v>
       </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="34">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="35">
         <f t="shared" si="0"/>
         <v>-0.963436363636364</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11" s="35">
         <f t="shared" ref="AB11:AB20" si="3">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11" s="35">
         <f>(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="35">
         <f>(S11+T11)/2</f>
         <v>-3.28665</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11" s="35">
         <f>(T11+U11)/2</f>
         <v>-1.65565</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11" s="35">
         <f>(U11+V11)/2</f>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="40">
+      <c r="AG11" s="41">
         <f>(V11+W11)/2</f>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="40">
+      <c r="AH11" s="41">
         <f>(W11+X11)/2</f>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="40">
+      <c r="AI11" s="41">
         <f>(X11+Y11)/2</f>
         <v>2.584</v>
       </c>
-      <c r="AJ11" s="48">
+      <c r="AJ11" s="49">
         <f t="shared" ref="AJ11:AJ20" si="4">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AK11" s="28">
         <v>-0.0547</v>
       </c>
-      <c r="AL11" s="27">
+      <c r="AL11" s="28">
         <v>0.0508</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AM11" s="28">
         <v>0.0083</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AN11" s="28">
         <v>0.0411</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AO11" s="28">
         <v>-0.1632</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="28">
         <v>-0.1035</v>
       </c>
-      <c r="AQ11" s="27">
+      <c r="AQ11" s="28">
         <v>-0.1189</v>
       </c>
-      <c r="AR11" s="27">
+      <c r="AR11" s="28">
         <v>-0.1039</v>
       </c>
-      <c r="AS11" s="27">
+      <c r="AS11" s="28">
         <v>0.0691</v>
       </c>
-      <c r="AT11" s="27">
+      <c r="AT11" s="28">
         <v>-0.0024</v>
       </c>
-      <c r="AU11" s="27">
+      <c r="AU11" s="28">
         <v>0.0638</v>
       </c>
-      <c r="AV11" s="27">
+      <c r="AV11" s="28">
         <v>0.0429</v>
       </c>
-      <c r="AW11" s="27">
+      <c r="AW11" s="28">
         <v>-0.1896</v>
       </c>
-      <c r="AX11" s="27">
+      <c r="AX11" s="28">
         <v>-0.1348</v>
       </c>
-      <c r="AY11" s="27">
+      <c r="AY11" s="28">
         <v>-0.1265</v>
       </c>
-      <c r="AZ11" s="27">
+      <c r="AZ11" s="28">
         <v>-0.0579</v>
       </c>
-      <c r="BA11" s="38">
+      <c r="BA11" s="39">
         <v>0.2014</v>
       </c>
-      <c r="BB11" s="38">
+      <c r="BB11" s="39">
         <v>0.0771</v>
       </c>
-      <c r="BC11" s="38">
+      <c r="BC11" s="39">
         <v>0.26</v>
       </c>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="34">
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="35">
         <f t="shared" ref="BE11:BE20" si="5">(AS11+AT11+AU11+AV11+AW11+AX11+AY11+AZ11+BA11+BB11+BC11+BD11)/11</f>
         <v>0.0184636363636364</v>
       </c>
-      <c r="BF11" s="34">
+      <c r="BF11" s="35">
         <f t="shared" ref="BF11:BF20" si="6">(AK11+AL11+AM11+AN11+AO11+AP11+AQ11+AR11+AS11+AT11+AU11+AV11+AW11+AX11+AY11+AZ11+BA11+BB11+BC11+BD11)/19</f>
         <v>-0.012678947368421</v>
       </c>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="8"/>
-      <c r="BP11" s="8"/>
-      <c r="BQ11" s="55">
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="56">
         <f t="shared" si="1"/>
         <v>0.121295559957886</v>
       </c>
-      <c r="BR11" s="57">
+      <c r="BR11" s="58">
         <v>42347</v>
       </c>
-      <c r="BS11" s="8"/>
-      <c r="BT11" s="8"/>
-      <c r="BU11" s="8"/>
-      <c r="BV11" s="28">
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="9"/>
+      <c r="BV11" s="70">
         <v>1.32</v>
       </c>
-      <c r="BW11" s="28">
+      <c r="BW11" s="70">
         <v>1.184</v>
       </c>
-      <c r="BX11" s="8"/>
-      <c r="BY11" s="8"/>
-      <c r="BZ11" s="8"/>
-      <c r="CA11" s="8"/>
-      <c r="CB11" s="8"/>
-      <c r="CC11" s="8"/>
-      <c r="CD11" s="8"/>
-      <c r="CE11" s="28">
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="9"/>
+      <c r="CA11" s="9"/>
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+      <c r="CD11" s="9"/>
+      <c r="CE11" s="29">
         <v>2</v>
       </c>
-      <c r="CF11" s="72" t="s">
+      <c r="CF11" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="CG11" s="73" t="s">
+      <c r="CG11" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="CH11" s="8"/>
-      <c r="CI11" s="8"/>
-      <c r="CJ11" s="8"/>
-      <c r="CK11" s="8"/>
-      <c r="CL11" s="28">
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="29">
         <v>0.139699</v>
       </c>
-      <c r="CM11" s="81">
+      <c r="CM11" s="90">
         <f t="shared" si="2"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="CN11" s="83" t="s">
+      <c r="CN11" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="CO11" s="91">
+      <c r="CO11" s="99">
         <v>44586</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:93">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="32">
+      <c r="D12" s="12"/>
+      <c r="E12" s="33">
         <v>0.3655</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0.17</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <v>-0.0338</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="33">
         <v>-0.125</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="33">
         <v>-0.1333</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="33">
         <v>0</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="33">
         <v>-0.125</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="33">
         <v>-0.1429</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="33">
         <v>-0.2692</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="33">
         <v>0.2</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="33">
         <v>-0.0714</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="33">
         <v>-0.0556</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="33">
         <v>0</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="33">
         <v>-0.6667</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="33">
         <v>-0.3077</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="33">
         <v>-0.1176</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="33">
         <v>-0.1053</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="33">
         <v>1.5</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="33">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="33">
         <v>0.1333</v>
       </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="34">
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="35">
         <f t="shared" si="0"/>
         <v>0.0298818181818182</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="35">
         <f t="shared" si="3"/>
         <v>-0.00515789473684209</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AC12" s="35">
         <f>(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="35">
         <f>(S12+T12)/2</f>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="40">
+      <c r="AE12" s="41">
         <f>(T12+U12)/2</f>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="40">
+      <c r="AF12" s="41">
         <f>(U12+V12)/2</f>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="40">
+      <c r="AG12" s="41">
         <f>(V12+W12)/2</f>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="40">
+      <c r="AH12" s="41">
         <f>(W12+X12)/2</f>
         <v>0.8611</v>
       </c>
-      <c r="AI12" s="34">
+      <c r="AI12" s="35">
         <f>(X12+Y12)/2</f>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="48">
+      <c r="AJ12" s="49">
         <f t="shared" si="4"/>
         <v>0.413115667574254</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="33">
         <v>1.0642</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="33">
         <v>0.0228</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="33">
         <v>0.0841</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="33">
         <v>0.5887</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="33">
         <v>-0.8787</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="33">
         <v>-0.7718</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AQ12" s="33">
         <v>-0.4438</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AR12" s="33">
         <v>-0.57</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AS12" s="33">
         <v>7.3354</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="33">
         <v>6.4137</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AU12" s="33">
         <v>1.9991</v>
       </c>
-      <c r="AV12" s="32">
+      <c r="AV12" s="33">
         <v>1.3633</v>
       </c>
-      <c r="AW12" s="32">
+      <c r="AW12" s="33">
         <v>-0.2726</v>
       </c>
-      <c r="AX12" s="32">
+      <c r="AX12" s="33">
         <v>-0.3025</v>
       </c>
-      <c r="AY12" s="32">
+      <c r="AY12" s="33">
         <v>-0.2519</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="AZ12" s="33">
         <v>-0.2175</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BA12" s="33">
         <v>-0.4742</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BB12" s="33">
         <v>-0.4142</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BC12" s="33">
         <v>-0.3214</v>
       </c>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="34">
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="35">
         <f t="shared" si="5"/>
         <v>1.35065454545455</v>
       </c>
-      <c r="BF12" s="34">
+      <c r="BF12" s="35">
         <f t="shared" si="6"/>
         <v>0.734352631578947</v>
       </c>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-      <c r="BM12" s="11"/>
-      <c r="BN12" s="11"/>
-      <c r="BO12" s="11"/>
-      <c r="BP12" s="11"/>
-      <c r="BQ12" s="55">
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="56">
         <f t="shared" si="1"/>
         <v>2.29377246337615</v>
       </c>
-      <c r="BR12" s="58">
+      <c r="BR12" s="59">
         <v>35599</v>
       </c>
-      <c r="BS12" s="11"/>
-      <c r="BT12" s="11"/>
-      <c r="BU12" s="11"/>
-      <c r="BV12" s="11">
+      <c r="BS12" s="12"/>
+      <c r="BT12" s="12"/>
+      <c r="BU12" s="12"/>
+      <c r="BV12" s="71">
         <v>13.29</v>
       </c>
-      <c r="BW12" s="11">
+      <c r="BW12" s="71">
         <v>13.29</v>
       </c>
-      <c r="BX12" s="11"/>
-      <c r="BY12" s="11"/>
-      <c r="BZ12" s="11"/>
-      <c r="CA12" s="11"/>
-      <c r="CB12" s="11"/>
-      <c r="CC12" s="11"/>
-      <c r="CD12" s="11"/>
-      <c r="CE12" s="11">
+      <c r="BX12" s="12"/>
+      <c r="BY12" s="12"/>
+      <c r="BZ12" s="12"/>
+      <c r="CA12" s="12"/>
+      <c r="CB12" s="12"/>
+      <c r="CC12" s="12"/>
+      <c r="CD12" s="12"/>
+      <c r="CE12" s="12">
         <v>4</v>
       </c>
-      <c r="CF12" s="74" t="s">
+      <c r="CF12" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="CG12" s="78" t="s">
+      <c r="CG12" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="CH12" s="11"/>
-      <c r="CI12" s="11"/>
-      <c r="CJ12" s="11"/>
-      <c r="CK12" s="11"/>
-      <c r="CL12" s="11">
+      <c r="CH12" s="12"/>
+      <c r="CI12" s="12"/>
+      <c r="CJ12" s="12"/>
+      <c r="CK12" s="12"/>
+      <c r="CL12" s="12">
         <v>2.29</v>
       </c>
-      <c r="CM12" s="84">
+      <c r="CM12" s="93">
         <f t="shared" si="2"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="CN12" s="72" t="s">
+      <c r="CN12" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="CO12" s="58">
+      <c r="CO12" s="59">
         <v>44605</v>
       </c>
     </row>
     <row r="13" ht="90" customHeight="1" spans="1:93">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="31">
+      <c r="D13" s="8"/>
+      <c r="E13" s="32">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="34">
         <v>0.69</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="35">
         <v>1.7</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="35">
         <v>-0.0417</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="35">
         <v>-0.3099</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="35">
         <v>0.3223</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="35">
         <v>1.7037</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="35">
         <v>0.913</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="35">
         <v>1.0816</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="35">
         <v>0.1812</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="35">
         <v>-0.5616</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="35">
         <v>-0.3182</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="35">
         <v>-0.4118</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="35">
         <v>0.0529</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="35">
         <v>-0.9063</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="35">
         <v>-0.9167</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="35">
         <v>-0.6833</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="35">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="38">
+      <c r="W13" s="39">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="38">
+      <c r="X13" s="39">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="39">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="34">
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="35">
         <f t="shared" si="0"/>
         <v>0.476054545454546</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="35">
         <f t="shared" si="3"/>
         <v>0.696694736842105</v>
       </c>
-      <c r="AC13" s="34">
+      <c r="AC13" s="35">
         <f>(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AD13" s="35">
         <f>(S13+T13)/2</f>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="40">
+      <c r="AE13" s="41">
         <f>(T13+U13)/2</f>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="40">
+      <c r="AF13" s="41">
         <f>(U13+V13)/2</f>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="40">
+      <c r="AG13" s="41">
         <f>(V13+W13)/2</f>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="40">
+      <c r="AH13" s="41">
         <f>(W13+X13)/2</f>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="40">
+      <c r="AI13" s="41">
         <f>(X13+Y13)/2</f>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="48">
+      <c r="AJ13" s="49">
         <f t="shared" si="4"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="31">
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="32">
         <v>0.7335</v>
       </c>
-      <c r="BB13" s="31">
+      <c r="BB13" s="32">
         <v>0.4001</v>
       </c>
-      <c r="BC13" s="31">
+      <c r="BC13" s="32">
         <v>0.1638</v>
       </c>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="34">
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="35">
         <f t="shared" si="5"/>
         <v>0.117945454545455</v>
       </c>
-      <c r="BF13" s="34">
+      <c r="BF13" s="35">
         <f t="shared" si="6"/>
         <v>0.0682842105263158</v>
       </c>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="19"/>
-      <c r="BO13" s="19"/>
-      <c r="BP13" s="19"/>
-      <c r="BQ13" s="55">
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="56">
         <f t="shared" si="1"/>
         <v>0.28622582576234</v>
       </c>
-      <c r="BR13" s="59">
+      <c r="BR13" s="60">
         <v>42368</v>
       </c>
-      <c r="BS13" s="8"/>
-      <c r="BT13" s="8"/>
-      <c r="BU13" s="8"/>
-      <c r="BV13" s="28">
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="70">
         <v>79.23</v>
       </c>
-      <c r="BW13" s="28">
+      <c r="BW13" s="70">
         <v>79.22</v>
       </c>
-      <c r="BX13" s="8"/>
-      <c r="BY13" s="8"/>
-      <c r="BZ13" s="8"/>
-      <c r="CA13" s="8"/>
-      <c r="CB13" s="8"/>
-      <c r="CC13" s="8"/>
-      <c r="CD13" s="8"/>
-      <c r="CE13" s="28">
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="29">
         <v>123</v>
       </c>
-      <c r="CF13" s="72" t="s">
+      <c r="CF13" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="CG13" s="72" t="s">
+      <c r="CG13" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="CH13" s="8"/>
-      <c r="CI13" s="8"/>
-      <c r="CJ13" s="8"/>
-      <c r="CK13" s="8"/>
-      <c r="CL13" s="28">
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="29">
         <v>63.51</v>
       </c>
-      <c r="CM13" s="81">
+      <c r="CM13" s="90">
         <f t="shared" ref="CM13:CM15" si="7">CL13/BV13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="CN13" s="73" t="s">
+      <c r="CN13" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="CO13" s="91">
+      <c r="CO13" s="99">
         <v>44601</v>
       </c>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:93">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="31">
+      <c r="D14" s="9"/>
+      <c r="E14" s="32">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>0.577</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="31">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="32">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="32">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="31">
+      <c r="Y14" s="32">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="34">
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="35">
         <f t="shared" si="0"/>
         <v>0.0307363636363636</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="35">
         <f t="shared" si="3"/>
         <v>0.0130105263157895</v>
       </c>
-      <c r="AC14" s="34">
+      <c r="AC14" s="35">
         <f t="shared" ref="AC14:AC19" si="8">(R14+S14)/2</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="35">
         <f t="shared" ref="AD14:AD19" si="9">(S14+T14)/2</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="35">
         <f t="shared" ref="AE14:AE19" si="10">(T14+U14)/2</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="35">
         <f t="shared" ref="AF14:AF19" si="11">(U14+V14)/2</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="35">
         <f t="shared" ref="AG14:AG19" si="12">(V14+W14)/2</f>
         <v>0.12905</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AH14" s="35">
         <f t="shared" ref="AH14:AH19" si="13">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AI14" s="35">
         <f t="shared" ref="AI14:AI19" si="14">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="48">
+      <c r="AJ14" s="49">
         <f t="shared" si="4"/>
         <v>0.1745123777845</v>
       </c>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="38">
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="39">
         <v>0.2685</v>
       </c>
-      <c r="BB14" s="38">
+      <c r="BB14" s="39">
         <v>0.4227</v>
       </c>
-      <c r="BC14" s="38">
+      <c r="BC14" s="39">
         <v>0.3457</v>
       </c>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="34">
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="35">
         <f t="shared" si="5"/>
         <v>0.0942636363636364</v>
       </c>
-      <c r="BF14" s="34">
+      <c r="BF14" s="35">
         <f t="shared" si="6"/>
         <v>0.0545736842105263</v>
       </c>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="19"/>
-      <c r="BO14" s="19"/>
-      <c r="BP14" s="19"/>
-      <c r="BQ14" s="55">
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="56">
         <f t="shared" si="1"/>
         <v>0.0771000216169447</v>
       </c>
-      <c r="BR14" s="59">
+      <c r="BR14" s="60">
         <v>37757</v>
       </c>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8"/>
-      <c r="BU14" s="8"/>
-      <c r="BV14" s="28">
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="70">
         <v>5.912</v>
       </c>
-      <c r="BW14" s="28">
+      <c r="BW14" s="70">
         <v>5.69</v>
       </c>
-      <c r="BX14" s="8"/>
-      <c r="BY14" s="8"/>
-      <c r="BZ14" s="8"/>
-      <c r="CA14" s="8"/>
-      <c r="CB14" s="8"/>
-      <c r="CC14" s="8"/>
-      <c r="CD14" s="8"/>
-      <c r="CE14" s="28">
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="29">
         <v>11</v>
       </c>
-      <c r="CF14" s="72" t="s">
+      <c r="CF14" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="CG14" s="72" t="s">
+      <c r="CG14" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="CH14" s="8"/>
-      <c r="CI14" s="8"/>
-      <c r="CJ14" s="8"/>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="28">
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="29">
         <v>3.41</v>
       </c>
-      <c r="CM14" s="81">
+      <c r="CM14" s="90">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="CN14" s="85" t="s">
+      <c r="CN14" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="CO14" s="91">
+      <c r="CO14" s="99">
         <v>44601</v>
       </c>
     </row>
     <row r="15" ht="94" customHeight="1" spans="1:93">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="27">
+      <c r="D15" s="9"/>
+      <c r="E15" s="28">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="36">
         <v>0.82</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>0.3043</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>0.1454</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>0.2327</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>0.1847</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="35">
         <v>0.2133</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="35">
         <v>0.3746</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="35">
         <v>0.3028</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="35">
         <v>1.4835</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="35">
         <v>0.1758</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <v>0.6306</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <v>0.4161</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <v>-0.2543</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="35">
         <v>-1.285</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="35">
         <v>-0.9669</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="35">
         <v>-0.6954</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="35">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="41">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="40">
+      <c r="X15" s="41">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="40">
+      <c r="Y15" s="41">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="34">
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="35">
         <f t="shared" si="0"/>
         <v>2.23333636363636</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="35">
         <f t="shared" si="3"/>
         <v>1.47577368421053</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="35">
         <f t="shared" si="8"/>
         <v>-0.76965</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="35">
         <f t="shared" si="9"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="40">
+      <c r="AE15" s="41">
         <f t="shared" si="10"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="40">
+      <c r="AF15" s="41">
         <f t="shared" si="11"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="40">
+      <c r="AG15" s="41">
         <f t="shared" si="12"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="40">
+      <c r="AH15" s="41">
         <f t="shared" si="13"/>
         <v>12.6315</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="35">
         <f t="shared" si="14"/>
         <v>11.12845</v>
       </c>
-      <c r="AJ15" s="48">
+      <c r="AJ15" s="49">
         <f t="shared" si="4"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="35">
         <v>0.1132</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="35">
         <v>0.1398</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="35">
         <v>0.2043</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="35">
         <v>0.2065</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="35">
         <v>0.4333</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="35">
         <v>0.2428</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="35">
         <v>0.1544</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="35">
         <v>0.1373</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="35">
         <v>-0.2385</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="35">
         <v>-0.1242</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="35">
         <v>-0.1114</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="35">
         <v>-0.0105</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="35">
         <v>-0.5838</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="35">
         <v>-0.225</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="35">
         <v>-0.0519</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="35">
         <v>-0.07</v>
       </c>
-      <c r="BA15" s="40">
+      <c r="BA15" s="41">
         <v>2.2501</v>
       </c>
-      <c r="BB15" s="40">
+      <c r="BB15" s="41">
         <v>0.7909</v>
       </c>
-      <c r="BC15" s="40">
+      <c r="BC15" s="41">
         <v>0.5626</v>
       </c>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="34">
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="35">
         <f t="shared" si="5"/>
         <v>0.198936363636364</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="35">
         <f t="shared" si="6"/>
         <v>0.201047368421053</v>
       </c>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="19"/>
-      <c r="BP15" s="19"/>
-      <c r="BQ15" s="55">
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="56">
         <f t="shared" si="1"/>
         <v>0.583429053449823</v>
       </c>
-      <c r="BR15" s="60">
+      <c r="BR15" s="61">
         <v>37250</v>
       </c>
-      <c r="BS15" s="8"/>
-      <c r="BT15" s="8"/>
-      <c r="BU15" s="8"/>
-      <c r="BV15" s="8">
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="72">
         <v>21.81</v>
       </c>
-      <c r="BW15" s="8">
+      <c r="BW15" s="72">
         <v>14.33</v>
       </c>
-      <c r="BX15" s="8"/>
-      <c r="BY15" s="8"/>
-      <c r="BZ15" s="8"/>
-      <c r="CA15" s="8"/>
-      <c r="CB15" s="8"/>
-      <c r="CC15" s="8"/>
-      <c r="CD15" s="8"/>
-      <c r="CE15" s="75">
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="84">
         <v>1</v>
       </c>
-      <c r="CF15" s="72" t="s">
+      <c r="CF15" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="CG15" s="72" t="s">
+      <c r="CG15" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="CH15" s="8"/>
-      <c r="CI15" s="8"/>
-      <c r="CJ15" s="8"/>
-      <c r="CK15" s="8"/>
-      <c r="CL15" s="8">
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9">
         <v>19.28</v>
       </c>
-      <c r="CM15" s="81">
+      <c r="CM15" s="90">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="CN15" s="86" t="s">
+      <c r="CN15" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="CO15" s="91">
+      <c r="CO15" s="99">
         <v>44608</v>
       </c>
     </row>
     <row r="16" ht="82" customHeight="1" spans="1:93">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="27">
+      <c r="D16" s="9"/>
+      <c r="E16" s="28">
         <v>0.5564</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>0.725</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="27">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="28">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="28">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="28">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="34">
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="35">
         <f t="shared" si="0"/>
         <v>-0.0322090909090909</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16" s="35">
         <f t="shared" si="3"/>
         <v>-0.0341263157894737</v>
       </c>
-      <c r="AC16" s="34">
+      <c r="AC16" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="34">
+      <c r="AD16" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="34">
+      <c r="AF16" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="35">
         <f t="shared" si="12"/>
         <v>-0.07</v>
       </c>
-      <c r="AH16" s="34">
+      <c r="AH16" s="35">
         <f t="shared" si="13"/>
         <v>-0.17715</v>
       </c>
-      <c r="AI16" s="34">
+      <c r="AI16" s="35">
         <f t="shared" si="14"/>
         <v>-0.2542</v>
       </c>
-      <c r="AJ16" s="48">
+      <c r="AJ16" s="49">
         <f t="shared" si="4"/>
         <v>0.0770663566891113</v>
       </c>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="27">
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="28">
         <v>-0.1922</v>
       </c>
-      <c r="BB16" s="27">
+      <c r="BB16" s="28">
         <v>-0.1946</v>
       </c>
-      <c r="BC16" s="27">
+      <c r="BC16" s="28">
         <v>-0.0688</v>
       </c>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="34">
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="35">
         <f t="shared" si="5"/>
         <v>-0.0414181818181818</v>
       </c>
-      <c r="BF16" s="34">
+      <c r="BF16" s="35">
         <f t="shared" si="6"/>
         <v>-0.0239789473684211</v>
       </c>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-      <c r="BM16" s="19"/>
-      <c r="BN16" s="19"/>
-      <c r="BO16" s="19"/>
-      <c r="BP16" s="19"/>
-      <c r="BQ16" s="55">
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="56">
         <f t="shared" si="1"/>
         <v>0.0719478514851787</v>
       </c>
-      <c r="BR16" s="60">
+      <c r="BR16" s="61">
         <v>42031</v>
       </c>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8"/>
-      <c r="BU16" s="8"/>
-      <c r="BV16" s="8">
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="72">
         <v>3.726</v>
       </c>
-      <c r="BW16" s="8">
+      <c r="BW16" s="72">
         <v>3.253</v>
       </c>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="8"/>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="8"/>
-      <c r="CB16" s="8"/>
-      <c r="CC16" s="8"/>
-      <c r="CD16" s="8"/>
-      <c r="CE16" s="8">
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9">
         <v>2</v>
       </c>
-      <c r="CF16" s="72" t="s">
+      <c r="CF16" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="CG16" s="72" t="s">
+      <c r="CG16" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="CH16" s="8"/>
-      <c r="CI16" s="8"/>
-      <c r="CJ16" s="8"/>
-      <c r="CK16" s="8"/>
-      <c r="CL16" s="8"/>
-      <c r="CM16" s="8"/>
-      <c r="CN16" s="87" t="s">
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="90">
+        <f>CL16/BV16</f>
+        <v>0</v>
+      </c>
+      <c r="CN16" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="CO16" s="91">
+      <c r="CO16" s="99">
         <v>44608</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:93">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36">
+      <c r="D17" s="19"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37">
         <v>0.0625</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="37">
         <v>0.0534</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="37">
         <v>0.0052</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="37">
         <v>-0.2069</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="37">
         <v>-0.2</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="37">
         <v>-0.1884</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="37">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="41">
+      <c r="W17" s="42">
         <v>1.087</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="42">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="41">
+      <c r="Y17" s="42">
         <v>0.6696</v>
       </c>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="36">
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="37">
         <f t="shared" si="0"/>
         <v>0.122218181818182</v>
       </c>
-      <c r="AB17" s="36">
+      <c r="AB17" s="37">
         <f t="shared" si="3"/>
         <v>0.106</v>
       </c>
-      <c r="AC17" s="34">
+      <c r="AC17" s="35">
         <f t="shared" si="8"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD17" s="34">
+      <c r="AD17" s="35">
         <f t="shared" si="9"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="40">
+      <c r="AE17" s="41">
         <f t="shared" si="10"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="40">
+      <c r="AF17" s="41">
         <f t="shared" si="11"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="40">
+      <c r="AG17" s="41">
         <f t="shared" si="12"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="40">
+      <c r="AH17" s="41">
         <f t="shared" si="13"/>
         <v>0.94055</v>
       </c>
-      <c r="AI17" s="34">
+      <c r="AI17" s="35">
         <f t="shared" si="14"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ17" s="49">
+      <c r="AJ17" s="50">
         <f t="shared" si="4"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36">
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37">
         <v>-0.0412</v>
       </c>
-      <c r="AU17" s="36">
+      <c r="AU17" s="37">
         <v>-0.0395</v>
       </c>
-      <c r="AV17" s="36">
+      <c r="AV17" s="37">
         <v>-0.0053</v>
       </c>
-      <c r="AW17" s="36">
+      <c r="AW17" s="37">
         <v>-0.0058</v>
       </c>
-      <c r="AX17" s="36">
+      <c r="AX17" s="37">
         <v>0.1478</v>
       </c>
-      <c r="AY17" s="36">
+      <c r="AY17" s="37">
         <v>0.2092</v>
       </c>
-      <c r="AZ17" s="36">
+      <c r="AZ17" s="37">
         <v>0.2964</v>
       </c>
-      <c r="BA17" s="41">
+      <c r="BA17" s="42">
         <v>1.0194</v>
       </c>
-      <c r="BB17" s="41">
+      <c r="BB17" s="42">
         <v>0.7661</v>
       </c>
-      <c r="BC17" s="41">
+      <c r="BC17" s="42">
         <v>0.6219</v>
       </c>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="34">
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="35">
         <f t="shared" si="5"/>
         <v>0.269909090909091</v>
       </c>
-      <c r="BF17" s="34">
+      <c r="BF17" s="35">
         <f t="shared" si="6"/>
         <v>0.156263157894737</v>
       </c>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="18"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="18"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="18"/>
-      <c r="BM17" s="18"/>
-      <c r="BN17" s="18"/>
-      <c r="BO17" s="18"/>
-      <c r="BP17" s="18"/>
-      <c r="BQ17" s="55">
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="19"/>
+      <c r="BJ17" s="19"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="19"/>
+      <c r="BM17" s="19"/>
+      <c r="BN17" s="19"/>
+      <c r="BO17" s="19"/>
+      <c r="BP17" s="19"/>
+      <c r="BQ17" s="56">
         <f t="shared" si="1"/>
         <v>0.378319521040086</v>
       </c>
-      <c r="BR17" s="61"/>
-      <c r="BS17" s="18"/>
-      <c r="BT17" s="18"/>
-      <c r="BU17" s="18"/>
-      <c r="BV17" s="18"/>
-      <c r="BW17" s="18"/>
-      <c r="BX17" s="18"/>
-      <c r="BY17" s="18"/>
-      <c r="BZ17" s="18"/>
-      <c r="CA17" s="18"/>
-      <c r="CB17" s="18"/>
-      <c r="CC17" s="18"/>
-      <c r="CD17" s="18"/>
-      <c r="CE17" s="18"/>
-      <c r="CF17" s="76"/>
-      <c r="CG17" s="76"/>
-      <c r="CH17" s="18"/>
-      <c r="CI17" s="18"/>
-      <c r="CJ17" s="18"/>
-      <c r="CK17" s="18"/>
-      <c r="CL17" s="18"/>
-      <c r="CM17" s="88"/>
-      <c r="CN17" s="18"/>
-      <c r="CO17" s="61"/>
+      <c r="BR17" s="62"/>
+      <c r="BS17" s="19"/>
+      <c r="BT17" s="19"/>
+      <c r="BU17" s="19"/>
+      <c r="BV17" s="73"/>
+      <c r="BW17" s="73"/>
+      <c r="BX17" s="19"/>
+      <c r="BY17" s="19"/>
+      <c r="BZ17" s="19"/>
+      <c r="CA17" s="19"/>
+      <c r="CB17" s="19"/>
+      <c r="CC17" s="19"/>
+      <c r="CD17" s="19"/>
+      <c r="CE17" s="19"/>
+      <c r="CF17" s="85"/>
+      <c r="CG17" s="85"/>
+      <c r="CH17" s="19"/>
+      <c r="CI17" s="19"/>
+      <c r="CJ17" s="19"/>
+      <c r="CK17" s="19"/>
+      <c r="CL17" s="19"/>
+      <c r="CM17" s="90" t="e">
+        <f>CL17/BV17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN17" s="19"/>
+      <c r="CO17" s="99">
+        <v>44608</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:93">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="36">
+      <c r="D18" s="19"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="37">
         <v>0.4231</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="37">
         <v>0.4</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="37">
         <v>0.3529</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>0.2235</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="37">
         <v>-0.1351</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="37">
         <v>-0.4444</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="37">
         <v>-0.337</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="37">
         <v>-0.4712</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="37">
         <v>-0.6875</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="37">
         <v>0.0857</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="37">
         <v>0.082</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="37">
         <v>0.5818</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="37">
         <v>1.1</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="37">
         <v>0.5263</v>
       </c>
-      <c r="U18" s="36">
+      <c r="U18" s="37">
         <v>0.4697</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="37">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="41">
+      <c r="W18" s="42">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="42">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="41">
+      <c r="Y18" s="42">
         <v>0.4021</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="36">
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="37">
         <f t="shared" si="0"/>
         <v>0.367263636363636</v>
       </c>
-      <c r="AB18" s="36">
+      <c r="AB18" s="37">
         <f t="shared" si="3"/>
         <v>0.25921052631579</v>
       </c>
-      <c r="AC18" s="34">
+      <c r="AC18" s="35">
         <f t="shared" si="8"/>
         <v>0.8409</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AD18" s="35">
         <f t="shared" si="9"/>
         <v>0.81315</v>
       </c>
-      <c r="AE18" s="34">
+      <c r="AE18" s="35">
         <f t="shared" si="10"/>
         <v>0.498</v>
       </c>
-      <c r="AF18" s="34">
+      <c r="AF18" s="35">
         <f t="shared" si="11"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="40">
+      <c r="AG18" s="41">
         <f t="shared" si="12"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="40">
+      <c r="AH18" s="41">
         <f t="shared" si="13"/>
         <v>0.9639</v>
       </c>
-      <c r="AI18" s="34">
+      <c r="AI18" s="35">
         <f t="shared" si="14"/>
         <v>0.5459</v>
       </c>
-      <c r="AJ18" s="49">
+      <c r="AJ18" s="50">
         <f t="shared" si="4"/>
         <v>0.509476975703446</v>
       </c>
-      <c r="AK18" s="36">
+      <c r="AK18" s="37">
         <v>0.1282</v>
       </c>
-      <c r="AL18" s="36">
+      <c r="AL18" s="37">
         <v>0.1225</v>
       </c>
-      <c r="AM18" s="36">
+      <c r="AM18" s="37">
         <v>0.0947</v>
       </c>
-      <c r="AN18" s="36">
+      <c r="AN18" s="37">
         <v>0.0643</v>
       </c>
-      <c r="AO18" s="36">
+      <c r="AO18" s="37">
         <v>0.2451</v>
       </c>
-      <c r="AP18" s="36">
+      <c r="AP18" s="37">
         <v>0.2481</v>
       </c>
-      <c r="AQ18" s="36">
+      <c r="AQ18" s="37">
         <v>0.1939</v>
       </c>
-      <c r="AR18" s="36">
+      <c r="AR18" s="37">
         <v>0.0642</v>
       </c>
-      <c r="AS18" s="36">
+      <c r="AS18" s="37">
         <v>-0.4362</v>
       </c>
-      <c r="AT18" s="36">
+      <c r="AT18" s="37">
         <v>-0.4157</v>
       </c>
-      <c r="AU18" s="36">
+      <c r="AU18" s="37">
         <v>-0.3014</v>
       </c>
-      <c r="AV18" s="36">
+      <c r="AV18" s="37">
         <v>-0.1658</v>
       </c>
-      <c r="AW18" s="36">
+      <c r="AW18" s="37">
         <v>0.516</v>
       </c>
-      <c r="AX18" s="36">
+      <c r="AX18" s="37">
         <v>0.5713</v>
       </c>
-      <c r="AY18" s="36">
+      <c r="AY18" s="37">
         <v>0.3788</v>
       </c>
-      <c r="AZ18" s="36">
+      <c r="AZ18" s="37">
         <v>0.3276</v>
       </c>
-      <c r="BA18" s="36">
+      <c r="BA18" s="37">
         <v>0.3237</v>
       </c>
-      <c r="BB18" s="36">
+      <c r="BB18" s="37">
         <v>0.2459</v>
       </c>
-      <c r="BC18" s="36">
+      <c r="BC18" s="37">
         <v>0.205</v>
       </c>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="34">
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="35">
         <f t="shared" si="5"/>
         <v>0.113563636363636</v>
       </c>
-      <c r="BF18" s="34">
+      <c r="BF18" s="35">
         <f t="shared" si="6"/>
         <v>0.126852631578947</v>
       </c>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="18"/>
-      <c r="BK18" s="18"/>
-      <c r="BL18" s="18"/>
-      <c r="BM18" s="18"/>
-      <c r="BN18" s="18"/>
-      <c r="BO18" s="18"/>
-      <c r="BP18" s="18"/>
-      <c r="BQ18" s="55">
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19"/>
+      <c r="BJ18" s="19"/>
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="19"/>
+      <c r="BM18" s="19"/>
+      <c r="BN18" s="19"/>
+      <c r="BO18" s="19"/>
+      <c r="BP18" s="19"/>
+      <c r="BQ18" s="56">
         <f t="shared" si="1"/>
         <v>0.282280716010816</v>
       </c>
-      <c r="BR18" s="61"/>
-      <c r="BS18" s="18"/>
-      <c r="BT18" s="18"/>
-      <c r="BU18" s="18"/>
-      <c r="BV18" s="18"/>
-      <c r="BW18" s="18"/>
-      <c r="BX18" s="18"/>
-      <c r="BY18" s="18"/>
-      <c r="BZ18" s="18"/>
-      <c r="CA18" s="18"/>
-      <c r="CB18" s="18"/>
-      <c r="CC18" s="18"/>
-      <c r="CD18" s="18"/>
-      <c r="CE18" s="18"/>
-      <c r="CF18" s="76"/>
-      <c r="CG18" s="76"/>
-      <c r="CH18" s="18"/>
-      <c r="CI18" s="18"/>
-      <c r="CJ18" s="18"/>
-      <c r="CK18" s="18"/>
-      <c r="CL18" s="18"/>
-      <c r="CM18" s="88"/>
-      <c r="CN18" s="18"/>
-      <c r="CO18" s="61"/>
+      <c r="BR18" s="62"/>
+      <c r="BS18" s="19"/>
+      <c r="BT18" s="19"/>
+      <c r="BU18" s="19"/>
+      <c r="BV18" s="73"/>
+      <c r="BW18" s="73"/>
+      <c r="BX18" s="19"/>
+      <c r="BY18" s="19"/>
+      <c r="BZ18" s="19"/>
+      <c r="CA18" s="19"/>
+      <c r="CB18" s="19"/>
+      <c r="CC18" s="19"/>
+      <c r="CD18" s="19"/>
+      <c r="CE18" s="19"/>
+      <c r="CF18" s="85"/>
+      <c r="CG18" s="85"/>
+      <c r="CH18" s="19"/>
+      <c r="CI18" s="19"/>
+      <c r="CJ18" s="19"/>
+      <c r="CK18" s="19"/>
+      <c r="CL18" s="19"/>
+      <c r="CM18" s="90" t="e">
+        <f>CL18/BV18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CN18" s="19"/>
+      <c r="CO18" s="99">
+        <v>44608</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:93">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="36">
+      <c r="D19" s="19"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="37">
         <v>0.2019</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="37">
         <v>-0.1083</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <v>-0.1304</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>-0.0952</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="37">
         <v>0.926</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="37">
         <v>0.8056</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="37">
         <v>0.8</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="37">
         <v>0.1316</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="37">
         <v>0.0748</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="37">
         <v>1.2774</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="37">
         <v>0.5556</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="37">
         <v>0.9535</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="37">
         <v>1.4155</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="37">
         <v>0.0455</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="37">
         <v>0.5536</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="37">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="41">
+      <c r="W19" s="42">
         <v>0.6</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="42">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="41">
+      <c r="Y19" s="42">
         <v>0.4943</v>
       </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="36">
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="37">
         <f t="shared" si="0"/>
         <v>0.604445454545455</v>
       </c>
-      <c r="AB19" s="36">
+      <c r="AB19" s="37">
         <f t="shared" si="3"/>
         <v>0.502252631578947</v>
       </c>
-      <c r="AC19" s="34">
+      <c r="AC19" s="35">
         <f t="shared" si="8"/>
         <v>1.1845</v>
       </c>
-      <c r="AD19" s="34">
+      <c r="AD19" s="35">
         <f t="shared" si="9"/>
         <v>0.7305</v>
       </c>
-      <c r="AE19" s="34">
+      <c r="AE19" s="35">
         <f t="shared" si="10"/>
         <v>0.29955</v>
       </c>
-      <c r="AF19" s="34">
+      <c r="AF19" s="35">
         <f t="shared" si="11"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="40">
+      <c r="AG19" s="41">
         <f t="shared" si="12"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="40">
+      <c r="AH19" s="41">
         <f t="shared" si="13"/>
         <v>0.8326</v>
       </c>
-      <c r="AI19" s="34">
+      <c r="AI19" s="35">
         <f t="shared" si="14"/>
         <v>0.77975</v>
       </c>
-      <c r="AJ19" s="49">
+      <c r="AJ19" s="50">
         <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="36">
+      <c r="AK19" s="37">
         <v>0.4793</v>
       </c>
-      <c r="AL19" s="36">
+      <c r="AL19" s="37">
         <v>0.5105</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="37">
         <v>0.453</v>
       </c>
-      <c r="AN19" s="36">
+      <c r="AN19" s="37">
         <v>0.7798</v>
       </c>
-      <c r="AO19" s="36">
+      <c r="AO19" s="37">
         <v>0.4203</v>
       </c>
-      <c r="AP19" s="36">
+      <c r="AP19" s="37">
         <v>0.1721</v>
       </c>
-      <c r="AQ19" s="36">
+      <c r="AQ19" s="37">
         <v>0.0102</v>
       </c>
-      <c r="AR19" s="36">
+      <c r="AR19" s="37">
         <v>0.0331</v>
       </c>
-      <c r="AS19" s="36">
+      <c r="AS19" s="37">
         <v>-0.0035</v>
       </c>
-      <c r="AT19" s="36">
+      <c r="AT19" s="37">
         <v>-0.0951</v>
       </c>
-      <c r="AU19" s="36">
+      <c r="AU19" s="37">
         <v>-0.0742</v>
       </c>
-      <c r="AV19" s="36">
+      <c r="AV19" s="37">
         <v>0.0282</v>
       </c>
-      <c r="AW19" s="36">
+      <c r="AW19" s="37">
         <v>0.3067</v>
       </c>
-      <c r="AX19" s="36">
+      <c r="AX19" s="37">
         <v>-0.0422</v>
       </c>
-      <c r="AY19" s="36">
+      <c r="AY19" s="37">
         <v>0.0661</v>
       </c>
-      <c r="AZ19" s="36">
+      <c r="AZ19" s="37">
         <v>0.2519</v>
       </c>
-      <c r="BA19" s="41">
+      <c r="BA19" s="42">
         <v>0.178</v>
       </c>
-      <c r="BB19" s="41">
+      <c r="BB19" s="42">
         <v>0.5323</v>
       </c>
-      <c r="BC19" s="42">
+      <c r="BC19" s="43">
         <v>0.6121</v>
       </c>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="34">
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="35">
         <f t="shared" si="5"/>
         <v>0.160027272727273</v>
       </c>
-      <c r="BF19" s="34">
+      <c r="BF19" s="35">
         <f t="shared" si="6"/>
         <v>0.243084210526316</v>
       </c>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="18"/>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="18"/>
-      <c r="BM19" s="18"/>
-      <c r="BN19" s="18"/>
-      <c r="BO19" s="18"/>
-      <c r="BP19" s="18"/>
-      <c r="BQ19" s="55">
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="56">
         <f t="shared" si="1"/>
         <v>0.264272227622196</v>
       </c>
-      <c r="BR19" s="61"/>
-      <c r="BS19" s="18"/>
-      <c r="BT19" s="18"/>
-      <c r="BU19" s="18"/>
-      <c r="BV19" s="18"/>
-      <c r="BW19" s="18"/>
-      <c r="BX19" s="18"/>
-      <c r="BY19" s="18"/>
-      <c r="BZ19" s="18"/>
-      <c r="CA19" s="18"/>
-      <c r="CB19" s="18"/>
-      <c r="CC19" s="18"/>
-      <c r="CD19" s="18"/>
-      <c r="CE19" s="18"/>
-      <c r="CF19" s="76"/>
-      <c r="CG19" s="76"/>
-      <c r="CH19" s="18"/>
-      <c r="CI19" s="18"/>
-      <c r="CJ19" s="18"/>
-      <c r="CK19" s="18"/>
-      <c r="CL19" s="18"/>
-      <c r="CM19" s="88"/>
-      <c r="CN19" s="18"/>
-      <c r="CO19" s="61"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="19"/>
+      <c r="BU19" s="19"/>
+      <c r="BV19" s="73">
+        <v>4.704</v>
+      </c>
+      <c r="BW19" s="73">
+        <v>3.956</v>
+      </c>
+      <c r="BX19" s="19"/>
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+      <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
+      <c r="CD19" s="19"/>
+      <c r="CE19" s="19"/>
+      <c r="CF19" s="85"/>
+      <c r="CG19" s="85"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="19"/>
+      <c r="CJ19" s="19"/>
+      <c r="CK19" s="19"/>
+      <c r="CL19" s="19"/>
+      <c r="CM19" s="90">
+        <f>CL19/BV19</f>
+        <v>0</v>
+      </c>
+      <c r="CN19" s="19"/>
+      <c r="CO19" s="99">
+        <v>44608</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="88" spans="1:93">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="36">
+      <c r="D20" s="19"/>
+      <c r="E20" s="37">
         <v>0.2676</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>1.2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="37">
         <v>0.125</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="37">
         <v>0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="37">
         <v>-0.1017</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="37">
         <v>-0.0235</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="37">
         <v>0.1389</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="37">
         <v>0.1707</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="37">
         <v>0.1698</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="37">
         <v>0.1687</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="37">
         <v>0.0732</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="37">
         <v>0.1667</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="37">
         <v>0.2097</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="37">
         <v>0.1959</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="37">
         <v>-0.3409</v>
       </c>
-      <c r="T20" s="36">
+      <c r="T20" s="37">
         <v>-0.25</v>
       </c>
-      <c r="U20" s="36">
+      <c r="U20" s="37">
         <v>-0.12</v>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="37">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="43">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="42">
+      <c r="X20" s="43">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="42">
+      <c r="Y20" s="43">
         <v>0.8182</v>
       </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="36">
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="37">
         <f t="shared" si="0"/>
         <v>0.1343</v>
       </c>
-      <c r="AB20" s="36">
+      <c r="AB20" s="37">
         <f t="shared" si="3"/>
         <v>0.146036842105263</v>
       </c>
-      <c r="AC20" s="34">
+      <c r="AC20" s="35">
         <f>(R20+S20)/2</f>
         <v>-0.0725</v>
       </c>
-      <c r="AD20" s="34">
+      <c r="AD20" s="35">
         <f>(S20+T20)/2</f>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="40">
+      <c r="AE20" s="41">
         <f>(T20+U20)/2</f>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="40">
+      <c r="AF20" s="41">
         <f>(U20+V20)/2</f>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="40">
+      <c r="AG20" s="41">
         <f>(V20+W20)/2</f>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="40">
+      <c r="AH20" s="41">
         <f>(W20+X20)/2</f>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="40">
+      <c r="AI20" s="41">
         <f>(X20+Y20)/2</f>
         <v>0.79005</v>
       </c>
-      <c r="AJ20" s="49">
+      <c r="AJ20" s="50">
         <f t="shared" si="4"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="36">
+      <c r="AK20" s="37">
         <v>0.0285</v>
       </c>
-      <c r="AL20" s="36">
+      <c r="AL20" s="37">
         <v>0.0028</v>
       </c>
-      <c r="AM20" s="36">
+      <c r="AM20" s="37">
         <v>0.0324</v>
       </c>
-      <c r="AN20" s="36">
+      <c r="AN20" s="37">
         <v>0.035</v>
       </c>
-      <c r="AO20" s="36">
+      <c r="AO20" s="37">
         <v>0.1806</v>
       </c>
-      <c r="AP20" s="36">
+      <c r="AP20" s="37">
         <v>0.1572</v>
       </c>
-      <c r="AQ20" s="36">
+      <c r="AQ20" s="37">
         <v>0.1316</v>
       </c>
-      <c r="AR20" s="36">
+      <c r="AR20" s="37">
         <v>0.153</v>
       </c>
-      <c r="AS20" s="36">
+      <c r="AS20" s="37">
         <v>-0.0222</v>
       </c>
-      <c r="AT20" s="36">
+      <c r="AT20" s="37">
         <v>0.0267</v>
       </c>
-      <c r="AU20" s="36">
+      <c r="AU20" s="37">
         <v>0.0269</v>
       </c>
-      <c r="AV20" s="36">
+      <c r="AV20" s="37">
         <v>0.067</v>
       </c>
-      <c r="AW20" s="36">
+      <c r="AW20" s="37">
         <v>-0.4955</v>
       </c>
-      <c r="AX20" s="36">
+      <c r="AX20" s="37">
         <v>-0.3132</v>
       </c>
-      <c r="AY20" s="36">
+      <c r="AY20" s="37">
         <v>-0.1528</v>
       </c>
-      <c r="AZ20" s="36">
+      <c r="AZ20" s="37">
         <v>-0.1331</v>
       </c>
-      <c r="BA20" s="41">
+      <c r="BA20" s="42">
         <v>1.3196</v>
       </c>
-      <c r="BB20" s="41">
+      <c r="BB20" s="42">
         <v>0.8147</v>
       </c>
-      <c r="BC20" s="41">
+      <c r="BC20" s="42">
         <v>0.5566</v>
       </c>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="34">
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="35">
         <f t="shared" si="5"/>
         <v>0.154063636363636</v>
       </c>
-      <c r="BF20" s="34">
+      <c r="BF20" s="35">
         <f t="shared" si="6"/>
         <v>0.127147368421053</v>
       </c>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="18"/>
-      <c r="BM20" s="18"/>
-      <c r="BN20" s="18"/>
-      <c r="BO20" s="18"/>
-      <c r="BP20" s="18"/>
-      <c r="BQ20" s="55">
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="56">
         <f t="shared" si="1"/>
         <v>0.401384277453832</v>
       </c>
-      <c r="BR20" s="61"/>
-      <c r="BS20" s="18"/>
-      <c r="BT20" s="18"/>
-      <c r="BU20" s="18"/>
-      <c r="BV20" s="18">
+      <c r="BR20" s="62"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="73">
         <v>8</v>
       </c>
-      <c r="BW20" s="18">
+      <c r="BW20" s="73">
         <v>8</v>
       </c>
-      <c r="BX20" s="18"/>
-      <c r="BY20" s="18"/>
-      <c r="BZ20" s="18"/>
-      <c r="CA20" s="18"/>
-      <c r="CB20" s="18"/>
-      <c r="CC20" s="18"/>
-      <c r="CD20" s="18"/>
-      <c r="CE20" s="18">
+      <c r="BX20" s="19"/>
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="19"/>
+      <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
+      <c r="CD20" s="19"/>
+      <c r="CE20" s="19">
         <v>60</v>
       </c>
-      <c r="CF20" s="72" t="s">
+      <c r="CF20" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="CG20" s="72" t="s">
+      <c r="CG20" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="CH20" s="18"/>
-      <c r="CI20" s="18"/>
-      <c r="CJ20" s="18"/>
-      <c r="CK20" s="18"/>
-      <c r="CL20" s="18"/>
-      <c r="CM20" s="18"/>
-      <c r="CN20" s="86" t="s">
+      <c r="CH20" s="19"/>
+      <c r="CI20" s="19"/>
+      <c r="CJ20" s="19"/>
+      <c r="CK20" s="19"/>
+      <c r="CL20" s="19">
+        <v>9.62</v>
+      </c>
+      <c r="CM20" s="90">
+        <f>CL20/BV20</f>
+        <v>1.2025</v>
+      </c>
+      <c r="CN20" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="CO20" s="61"/>
+      <c r="CO20" s="99">
+        <v>44608</v>
+      </c>
     </row>
     <row r="21" ht="18" spans="1:93">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="19"/>
-      <c r="BM21" s="19"/>
-      <c r="BN21" s="19"/>
-      <c r="BO21" s="19"/>
-      <c r="BP21" s="19"/>
-      <c r="BQ21" s="62"/>
-      <c r="BR21" s="63"/>
-      <c r="BS21" s="19"/>
-      <c r="BT21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="BV21" s="19"/>
-      <c r="BW21" s="19"/>
-      <c r="BX21" s="19"/>
-      <c r="BY21" s="19"/>
-      <c r="BZ21" s="19"/>
-      <c r="CA21" s="19"/>
-      <c r="CB21" s="19"/>
-      <c r="CC21" s="19"/>
-      <c r="CD21" s="19"/>
-      <c r="CE21" s="19"/>
-      <c r="CF21" s="19"/>
-      <c r="CG21" s="19"/>
-      <c r="CH21" s="19"/>
-      <c r="CI21" s="19"/>
-      <c r="CJ21" s="19"/>
-      <c r="CK21" s="19"/>
-      <c r="CL21" s="19"/>
-      <c r="CM21" s="19"/>
-      <c r="CN21" s="19"/>
-      <c r="CO21" s="63"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="35"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="63"/>
+      <c r="BR21" s="64"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="74"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
+      <c r="BZ21" s="20"/>
+      <c r="CA21" s="20"/>
+      <c r="CB21" s="20"/>
+      <c r="CC21" s="20"/>
+      <c r="CD21" s="20"/>
+      <c r="CE21" s="20"/>
+      <c r="CF21" s="20"/>
+      <c r="CG21" s="20"/>
+      <c r="CH21" s="20"/>
+      <c r="CI21" s="20"/>
+      <c r="CJ21" s="20"/>
+      <c r="CK21" s="20"/>
+      <c r="CL21" s="20"/>
+      <c r="CM21" s="20"/>
+      <c r="CN21" s="20"/>
+      <c r="CO21" s="64"/>
     </row>
     <row r="22" ht="18" spans="1:93">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="34"/>
-      <c r="BA22" s="34"/>
-      <c r="BB22" s="34"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
-      <c r="BF22" s="19"/>
-      <c r="BG22" s="19"/>
-      <c r="BH22" s="19"/>
-      <c r="BI22" s="19"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19"/>
-      <c r="BL22" s="19"/>
-      <c r="BM22" s="19"/>
-      <c r="BN22" s="19"/>
-      <c r="BO22" s="19"/>
-      <c r="BP22" s="19"/>
-      <c r="BQ22" s="62"/>
-      <c r="BR22" s="63"/>
-      <c r="BS22" s="19"/>
-      <c r="BT22" s="19"/>
-      <c r="BU22" s="19"/>
-      <c r="BV22" s="19"/>
-      <c r="BW22" s="19"/>
-      <c r="BX22" s="19"/>
-      <c r="BY22" s="19"/>
-      <c r="BZ22" s="19"/>
-      <c r="CA22" s="19"/>
-      <c r="CB22" s="19"/>
-      <c r="CC22" s="19"/>
-      <c r="CD22" s="19"/>
-      <c r="CE22" s="19"/>
-      <c r="CF22" s="19"/>
-      <c r="CG22" s="19"/>
-      <c r="CH22" s="19"/>
-      <c r="CI22" s="19"/>
-      <c r="CJ22" s="19"/>
-      <c r="CK22" s="19"/>
-      <c r="CL22" s="19"/>
-      <c r="CM22" s="19"/>
-      <c r="CN22" s="19"/>
-      <c r="CO22" s="63"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="63"/>
+      <c r="BR22" s="64"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="74"/>
+      <c r="BW22" s="74"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
+      <c r="BZ22" s="20"/>
+      <c r="CA22" s="20"/>
+      <c r="CB22" s="20"/>
+      <c r="CC22" s="20"/>
+      <c r="CD22" s="20"/>
+      <c r="CE22" s="20"/>
+      <c r="CF22" s="20"/>
+      <c r="CG22" s="20"/>
+      <c r="CH22" s="20"/>
+      <c r="CI22" s="20"/>
+      <c r="CJ22" s="20"/>
+      <c r="CK22" s="20"/>
+      <c r="CL22" s="20"/>
+      <c r="CM22" s="20"/>
+      <c r="CN22" s="20"/>
+      <c r="CO22" s="64"/>
     </row>
     <row r="23" ht="18" spans="1:93">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="34"/>
-      <c r="BA23" s="34"/>
-      <c r="BB23" s="34"/>
-      <c r="BC23" s="34"/>
-      <c r="BD23" s="19"/>
-      <c r="BE23" s="19"/>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="19"/>
-      <c r="BH23" s="19"/>
-      <c r="BI23" s="19"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19"/>
-      <c r="BL23" s="19"/>
-      <c r="BM23" s="19"/>
-      <c r="BN23" s="19"/>
-      <c r="BO23" s="19"/>
-      <c r="BP23" s="19"/>
-      <c r="BQ23" s="62"/>
-      <c r="BR23" s="63"/>
-      <c r="BS23" s="19"/>
-      <c r="BT23" s="19"/>
-      <c r="BU23" s="19"/>
-      <c r="BV23" s="19"/>
-      <c r="BW23" s="19"/>
-      <c r="BX23" s="19"/>
-      <c r="BY23" s="19"/>
-      <c r="BZ23" s="19"/>
-      <c r="CA23" s="19"/>
-      <c r="CB23" s="19"/>
-      <c r="CC23" s="19"/>
-      <c r="CD23" s="19"/>
-      <c r="CE23" s="19"/>
-      <c r="CF23" s="19"/>
-      <c r="CG23" s="19"/>
-      <c r="CH23" s="19"/>
-      <c r="CI23" s="19"/>
-      <c r="CJ23" s="19"/>
-      <c r="CK23" s="19"/>
-      <c r="CL23" s="19"/>
-      <c r="CM23" s="19"/>
-      <c r="CN23" s="19"/>
-      <c r="CO23" s="63"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="35"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="63"/>
+      <c r="BR23" s="64"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="74"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
+      <c r="CJ23" s="20"/>
+      <c r="CK23" s="20"/>
+      <c r="CL23" s="20"/>
+      <c r="CM23" s="20"/>
+      <c r="CN23" s="20"/>
+      <c r="CO23" s="64"/>
     </row>
     <row r="24" ht="18" spans="1:93">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
-      <c r="BB24" s="34"/>
-      <c r="BC24" s="34"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="19"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="19"/>
-      <c r="BM24" s="19"/>
-      <c r="BN24" s="19"/>
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="19"/>
-      <c r="BQ24" s="62"/>
-      <c r="BR24" s="63"/>
-      <c r="BS24" s="19"/>
-      <c r="BT24" s="19"/>
-      <c r="BU24" s="19"/>
-      <c r="BV24" s="19"/>
-      <c r="BW24" s="19"/>
-      <c r="BX24" s="19"/>
-      <c r="BY24" s="19"/>
-      <c r="BZ24" s="19"/>
-      <c r="CA24" s="19"/>
-      <c r="CB24" s="19"/>
-      <c r="CC24" s="19"/>
-      <c r="CD24" s="19"/>
-      <c r="CE24" s="19"/>
-      <c r="CF24" s="19"/>
-      <c r="CG24" s="19"/>
-      <c r="CH24" s="19"/>
-      <c r="CI24" s="19"/>
-      <c r="CJ24" s="19"/>
-      <c r="CK24" s="19"/>
-      <c r="CL24" s="19"/>
-      <c r="CM24" s="19"/>
-      <c r="CN24" s="19"/>
-      <c r="CO24" s="63"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="63"/>
+      <c r="BR24" s="64"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="74"/>
+      <c r="BW24" s="74"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="20"/>
+      <c r="CI24" s="20"/>
+      <c r="CJ24" s="20"/>
+      <c r="CK24" s="20"/>
+      <c r="CL24" s="20"/>
+      <c r="CM24" s="20"/>
+      <c r="CN24" s="20"/>
+      <c r="CO24" s="64"/>
     </row>
     <row r="25" ht="18" spans="1:93">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="34"/>
-      <c r="BB25" s="34"/>
-      <c r="BC25" s="34"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="19"/>
-      <c r="BM25" s="19"/>
-      <c r="BN25" s="19"/>
-      <c r="BO25" s="19"/>
-      <c r="BP25" s="19"/>
-      <c r="BQ25" s="62"/>
-      <c r="BR25" s="63"/>
-      <c r="BS25" s="19"/>
-      <c r="BT25" s="19"/>
-      <c r="BU25" s="19"/>
-      <c r="BV25" s="19"/>
-      <c r="BW25" s="19"/>
-      <c r="BX25" s="19"/>
-      <c r="BY25" s="19"/>
-      <c r="BZ25" s="19"/>
-      <c r="CA25" s="19"/>
-      <c r="CB25" s="19"/>
-      <c r="CC25" s="19"/>
-      <c r="CD25" s="19"/>
-      <c r="CE25" s="19"/>
-      <c r="CF25" s="19"/>
-      <c r="CG25" s="19"/>
-      <c r="CH25" s="19"/>
-      <c r="CI25" s="19"/>
-      <c r="CJ25" s="19"/>
-      <c r="CK25" s="19"/>
-      <c r="CL25" s="19"/>
-      <c r="CM25" s="19"/>
-      <c r="CN25" s="19"/>
-      <c r="CO25" s="63"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="35"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="35"/>
+      <c r="AX25" s="35"/>
+      <c r="AY25" s="35"/>
+      <c r="AZ25" s="35"/>
+      <c r="BA25" s="35"/>
+      <c r="BB25" s="35"/>
+      <c r="BC25" s="35"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="63"/>
+      <c r="BR25" s="64"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="74"/>
+      <c r="BW25" s="74"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="20"/>
+      <c r="CI25" s="20"/>
+      <c r="CJ25" s="20"/>
+      <c r="CK25" s="20"/>
+      <c r="CL25" s="20"/>
+      <c r="CM25" s="20"/>
+      <c r="CN25" s="20"/>
+      <c r="CO25" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -1317,6 +1317,117 @@
     <t>甬金股份</t>
   </si>
   <si>
+    <r>
+      <t>先变多再变少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由80家到21家,再到33家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>持续减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22.83%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少到19.88%，再减少到12.44%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利润和销售额下滑减缓，但持有机构数量出现大幅下滑且机构持有股份占比持续下滑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>JBM_000015</t>
   </si>
   <si>
@@ -1333,6 +1444,14 @@
   </si>
   <si>
     <t>赞宇科技</t>
+  </si>
+  <si>
+    <t>持续减少
+(由21家减少到7家，再减少到4家)</t>
+  </si>
+  <si>
+    <t>先变多再变少
+（由31.76%减少到33.96%，再减少到0.41%）</t>
   </si>
   <si>
     <t>JBM_000017</t>
@@ -1450,14 +1569,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1550,17 +1670,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -1710,7 +1830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1744,6 +1864,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,152 +2186,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2215,12 +2341,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2272,172 +2398,178 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2458,8 +2590,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2467,13 +2602,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2497,14 +2638,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2828,11 +2975,11 @@
   <dimension ref="A1:CO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="BQ14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="CD15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BX19" sqref="BX19"/>
+      <selection pane="bottomRight" activeCell="CG17" sqref="CG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2968,30 +3115,30 @@
       <c r="BS1" s="53"/>
       <c r="BT1" s="53"/>
       <c r="BU1" s="53"/>
-      <c r="BV1" s="65" t="s">
+      <c r="BV1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="66"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
       <c r="CL1" s="44" t="s">
         <v>10</v>
       </c>
       <c r="CM1" s="44"/>
-      <c r="CN1" s="88"/>
-      <c r="CO1" s="97" t="s">
+      <c r="CN1" s="93"/>
+      <c r="CO1" s="103" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3089,23 +3236,23 @@
       <c r="BS2" s="53"/>
       <c r="BT2" s="53"/>
       <c r="BU2" s="53"/>
-      <c r="BV2" s="67" t="s">
+      <c r="BV2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="BW2" s="67" t="s">
+      <c r="BW2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BX2" s="68" t="s">
+      <c r="BX2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="75" t="s">
+      <c r="BY2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="BZ2" s="75"/>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
+      <c r="BZ2" s="77"/>
+      <c r="CA2" s="77"/>
+      <c r="CB2" s="77"/>
+      <c r="CC2" s="77"/>
+      <c r="CD2" s="77"/>
       <c r="CE2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3117,10 +3264,10 @@
       <c r="CK2" s="5"/>
       <c r="CL2" s="44"/>
       <c r="CM2" s="44"/>
-      <c r="CN2" s="89" t="s">
+      <c r="CN2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="97"/>
+      <c r="CO2" s="103"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:93">
       <c r="A3" s="5"/>
@@ -3318,37 +3465,37 @@
       <c r="BU3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BV3" s="67"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="68"/>
-      <c r="BY3" s="76" t="s">
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="BZ3" s="76" t="s">
+      <c r="BZ3" s="78" t="s">
         <v>46</v>
       </c>
       <c r="CA3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="CB3" s="77" t="s">
+      <c r="CB3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="77" t="s">
+      <c r="CC3" s="79" t="s">
         <v>49</v>
       </c>
       <c r="CD3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="CE3" s="78" t="s">
+      <c r="CE3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="CF3" s="78" t="s">
+      <c r="CF3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="CG3" s="86" t="s">
+      <c r="CG3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="CH3" s="78" t="s">
+      <c r="CH3" s="80" t="s">
         <v>54</v>
       </c>
       <c r="CI3" s="5" t="s">
@@ -3363,11 +3510,11 @@
       <c r="CL3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="CM3" s="76" t="s">
+      <c r="CM3" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="CN3" s="89"/>
-      <c r="CO3" s="97"/>
+      <c r="CN3" s="94"/>
+      <c r="CO3" s="103"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:93">
       <c r="A4" s="6" t="s">
@@ -3469,10 +3616,10 @@
       <c r="BS4" s="8"/>
       <c r="BT4" s="8"/>
       <c r="BU4" s="8"/>
-      <c r="BV4" s="69">
+      <c r="BV4" s="70">
         <v>8.357</v>
       </c>
-      <c r="BW4" s="69">
+      <c r="BW4" s="70">
         <v>8.32</v>
       </c>
       <c r="BX4" s="8"/>
@@ -3482,28 +3629,28 @@
       <c r="CB4" s="8"/>
       <c r="CC4" s="8"/>
       <c r="CD4" s="8"/>
-      <c r="CE4" s="79">
+      <c r="CE4" s="81">
         <v>3</v>
       </c>
-      <c r="CF4" s="80" t="s">
+      <c r="CF4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="CG4" s="80" t="s">
+      <c r="CG4" s="82" t="s">
         <v>63</v>
       </c>
       <c r="CH4" s="8"/>
       <c r="CI4" s="8"/>
       <c r="CJ4" s="8"/>
       <c r="CK4" s="8"/>
-      <c r="CL4" s="79">
+      <c r="CL4" s="81">
         <v>1.28</v>
       </c>
-      <c r="CM4" s="90">
+      <c r="CM4" s="95">
         <f t="shared" ref="CM4:CM12" si="2">CL4/BV4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="CN4" s="8"/>
-      <c r="CO4" s="98">
+      <c r="CO4" s="104">
         <v>44579</v>
       </c>
     </row>
@@ -3607,10 +3754,10 @@
       <c r="BS5" s="9"/>
       <c r="BT5" s="9"/>
       <c r="BU5" s="9"/>
-      <c r="BV5" s="70">
+      <c r="BV5" s="71">
         <v>1.105</v>
       </c>
-      <c r="BW5" s="70">
+      <c r="BW5" s="71">
         <v>1.096</v>
       </c>
       <c r="BX5" s="9"/>
@@ -3623,10 +3770,10 @@
       <c r="CE5" s="29">
         <v>10</v>
       </c>
-      <c r="CF5" s="81" t="s">
+      <c r="CF5" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="CG5" s="82" t="s">
+      <c r="CG5" s="84" t="s">
         <v>68</v>
       </c>
       <c r="CH5" s="9"/>
@@ -3636,14 +3783,14 @@
       <c r="CL5" s="29">
         <v>2.18</v>
       </c>
-      <c r="CM5" s="91">
+      <c r="CM5" s="96">
         <f t="shared" si="2"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="CN5" s="82" t="s">
+      <c r="CN5" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="CO5" s="99">
+      <c r="CO5" s="105">
         <v>44579</v>
       </c>
     </row>
@@ -3747,10 +3894,10 @@
       <c r="BS6" s="9"/>
       <c r="BT6" s="9"/>
       <c r="BU6" s="9"/>
-      <c r="BV6" s="70">
+      <c r="BV6" s="71">
         <v>5.824</v>
       </c>
-      <c r="BW6" s="70">
+      <c r="BW6" s="71">
         <v>4.581</v>
       </c>
       <c r="BX6" s="9"/>
@@ -3763,10 +3910,10 @@
       <c r="CE6" s="29">
         <v>6</v>
       </c>
-      <c r="CF6" s="81" t="s">
+      <c r="CF6" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="CG6" s="80" t="s">
+      <c r="CG6" s="82" t="s">
         <v>74</v>
       </c>
       <c r="CH6" s="9"/>
@@ -3776,12 +3923,12 @@
       <c r="CL6" s="29">
         <v>3.91</v>
       </c>
-      <c r="CM6" s="90">
+      <c r="CM6" s="95">
         <f t="shared" si="2"/>
         <v>0.67135989010989</v>
       </c>
       <c r="CN6" s="9"/>
-      <c r="CO6" s="99">
+      <c r="CO6" s="105">
         <v>44580</v>
       </c>
     </row>
@@ -3887,10 +4034,10 @@
       <c r="BS7" s="9"/>
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
-      <c r="BV7" s="70">
+      <c r="BV7" s="71">
         <v>1.847</v>
       </c>
-      <c r="BW7" s="70">
+      <c r="BW7" s="71">
         <v>1.137</v>
       </c>
       <c r="BX7" s="9"/>
@@ -3903,10 +4050,10 @@
       <c r="CE7" s="29">
         <v>4</v>
       </c>
-      <c r="CF7" s="81" t="s">
+      <c r="CF7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="CG7" s="80" t="s">
+      <c r="CG7" s="82" t="s">
         <v>79</v>
       </c>
       <c r="CH7" s="9"/>
@@ -3916,12 +4063,12 @@
       <c r="CL7" s="29">
         <v>1.26</v>
       </c>
-      <c r="CM7" s="90">
+      <c r="CM7" s="95">
         <f t="shared" si="2"/>
         <v>0.682187330806714</v>
       </c>
       <c r="CN7" s="9"/>
-      <c r="CO7" s="99">
+      <c r="CO7" s="105">
         <v>44580</v>
       </c>
     </row>
@@ -4027,10 +4174,10 @@
       <c r="BS8" s="9"/>
       <c r="BT8" s="9"/>
       <c r="BU8" s="9"/>
-      <c r="BV8" s="70">
+      <c r="BV8" s="71">
         <v>4.562</v>
       </c>
-      <c r="BW8" s="70">
+      <c r="BW8" s="71">
         <v>4.48</v>
       </c>
       <c r="BX8" s="9"/>
@@ -4043,10 +4190,10 @@
       <c r="CE8" s="29">
         <v>9</v>
       </c>
-      <c r="CF8" s="81" t="s">
+      <c r="CF8" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="CG8" s="80" t="s">
+      <c r="CG8" s="82" t="s">
         <v>84</v>
       </c>
       <c r="CH8" s="9"/>
@@ -4056,12 +4203,12 @@
       <c r="CL8" s="29">
         <v>0.462891</v>
       </c>
-      <c r="CM8" s="90">
+      <c r="CM8" s="95">
         <f t="shared" si="2"/>
         <v>0.10146668128014</v>
       </c>
       <c r="CN8" s="9"/>
-      <c r="CO8" s="99">
+      <c r="CO8" s="105">
         <v>44580</v>
       </c>
     </row>
@@ -4167,10 +4314,10 @@
       <c r="BS9" s="9"/>
       <c r="BT9" s="9"/>
       <c r="BU9" s="9"/>
-      <c r="BV9" s="70">
+      <c r="BV9" s="71">
         <v>10.64</v>
       </c>
-      <c r="BW9" s="70">
+      <c r="BW9" s="71">
         <v>10.22</v>
       </c>
       <c r="BX9" s="9"/>
@@ -4183,10 +4330,10 @@
       <c r="CE9" s="29">
         <v>37</v>
       </c>
-      <c r="CF9" s="82" t="s">
+      <c r="CF9" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="CG9" s="80" t="s">
+      <c r="CG9" s="82" t="s">
         <v>89</v>
       </c>
       <c r="CH9" s="9"/>
@@ -4196,12 +4343,12 @@
       <c r="CL9" s="29">
         <v>5.84</v>
       </c>
-      <c r="CM9" s="90">
+      <c r="CM9" s="95">
         <f t="shared" si="2"/>
         <v>0.548872180451128</v>
       </c>
       <c r="CN9" s="9"/>
-      <c r="CO9" s="99">
+      <c r="CO9" s="105">
         <v>44585</v>
       </c>
     </row>
@@ -4307,10 +4454,10 @@
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
       <c r="BU10" s="9"/>
-      <c r="BV10" s="70">
+      <c r="BV10" s="71">
         <v>153</v>
       </c>
-      <c r="BW10" s="70">
+      <c r="BW10" s="71">
         <v>111.4</v>
       </c>
       <c r="BX10" s="9"/>
@@ -4323,10 +4470,10 @@
       <c r="CE10" s="29">
         <v>87</v>
       </c>
-      <c r="CF10" s="80" t="s">
+      <c r="CF10" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="CG10" s="80" t="s">
+      <c r="CG10" s="82" t="s">
         <v>94</v>
       </c>
       <c r="CH10" s="9"/>
@@ -4336,12 +4483,12 @@
       <c r="CL10" s="29">
         <v>64.56</v>
       </c>
-      <c r="CM10" s="90">
+      <c r="CM10" s="95">
         <f t="shared" si="2"/>
         <v>0.421960784313726</v>
       </c>
       <c r="CN10" s="9"/>
-      <c r="CO10" s="99">
+      <c r="CO10" s="105">
         <v>44585</v>
       </c>
     </row>
@@ -4546,10 +4693,10 @@
       <c r="BS11" s="9"/>
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
-      <c r="BV11" s="70">
+      <c r="BV11" s="71">
         <v>1.32</v>
       </c>
-      <c r="BW11" s="70">
+      <c r="BW11" s="71">
         <v>1.184</v>
       </c>
       <c r="BX11" s="9"/>
@@ -4562,10 +4709,10 @@
       <c r="CE11" s="29">
         <v>2</v>
       </c>
-      <c r="CF11" s="81" t="s">
+      <c r="CF11" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="CG11" s="82" t="s">
+      <c r="CG11" s="84" t="s">
         <v>99</v>
       </c>
       <c r="CH11" s="9"/>
@@ -4575,14 +4722,14 @@
       <c r="CL11" s="29">
         <v>0.139699</v>
       </c>
-      <c r="CM11" s="90">
+      <c r="CM11" s="95">
         <f t="shared" si="2"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="CN11" s="92" t="s">
+      <c r="CN11" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="CO11" s="99">
+      <c r="CO11" s="105">
         <v>44586</v>
       </c>
     </row>
@@ -4787,10 +4934,10 @@
       <c r="BS12" s="12"/>
       <c r="BT12" s="12"/>
       <c r="BU12" s="12"/>
-      <c r="BV12" s="71">
+      <c r="BV12" s="72">
         <v>13.29</v>
       </c>
-      <c r="BW12" s="71">
+      <c r="BW12" s="72">
         <v>13.29</v>
       </c>
       <c r="BX12" s="12"/>
@@ -4803,10 +4950,10 @@
       <c r="CE12" s="12">
         <v>4</v>
       </c>
-      <c r="CF12" s="83" t="s">
+      <c r="CF12" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="CG12" s="87" t="s">
+      <c r="CG12" s="90" t="s">
         <v>105</v>
       </c>
       <c r="CH12" s="12"/>
@@ -4816,11 +4963,11 @@
       <c r="CL12" s="12">
         <v>2.29</v>
       </c>
-      <c r="CM12" s="93">
+      <c r="CM12" s="98">
         <f t="shared" si="2"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="CN12" s="81" t="s">
+      <c r="CN12" s="83" t="s">
         <v>106</v>
       </c>
       <c r="CO12" s="59">
@@ -4996,10 +5143,10 @@
       <c r="BS13" s="9"/>
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
-      <c r="BV13" s="70">
+      <c r="BV13" s="71">
         <v>79.23</v>
       </c>
-      <c r="BW13" s="70">
+      <c r="BW13" s="71">
         <v>79.22</v>
       </c>
       <c r="BX13" s="9"/>
@@ -5012,10 +5159,10 @@
       <c r="CE13" s="29">
         <v>123</v>
       </c>
-      <c r="CF13" s="81" t="s">
+      <c r="CF13" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="CG13" s="81" t="s">
+      <c r="CG13" s="83" t="s">
         <v>111</v>
       </c>
       <c r="CH13" s="9"/>
@@ -5025,14 +5172,14 @@
       <c r="CL13" s="29">
         <v>63.51</v>
       </c>
-      <c r="CM13" s="90">
+      <c r="CM13" s="95">
         <f t="shared" ref="CM13:CM15" si="7">CL13/BV13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="CN13" s="82" t="s">
+      <c r="CN13" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="CO13" s="99">
+      <c r="CO13" s="105">
         <v>44601</v>
       </c>
     </row>
@@ -5173,10 +5320,10 @@
       <c r="BS14" s="9"/>
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
-      <c r="BV14" s="70">
+      <c r="BV14" s="71">
         <v>5.912</v>
       </c>
-      <c r="BW14" s="70">
+      <c r="BW14" s="71">
         <v>5.69</v>
       </c>
       <c r="BX14" s="9"/>
@@ -5189,10 +5336,10 @@
       <c r="CE14" s="29">
         <v>11</v>
       </c>
-      <c r="CF14" s="81" t="s">
+      <c r="CF14" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="CG14" s="81" t="s">
+      <c r="CG14" s="83" t="s">
         <v>117</v>
       </c>
       <c r="CH14" s="9"/>
@@ -5202,14 +5349,14 @@
       <c r="CL14" s="29">
         <v>3.41</v>
       </c>
-      <c r="CM14" s="90">
+      <c r="CM14" s="95">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="CN14" s="94" t="s">
+      <c r="CN14" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="CO14" s="99">
+      <c r="CO14" s="105">
         <v>44601</v>
       </c>
     </row>
@@ -5414,10 +5561,10 @@
       <c r="BS15" s="9"/>
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
-      <c r="BV15" s="72">
+      <c r="BV15" s="73">
         <v>21.81</v>
       </c>
-      <c r="BW15" s="72">
+      <c r="BW15" s="73">
         <v>14.33</v>
       </c>
       <c r="BX15" s="9"/>
@@ -5427,13 +5574,13 @@
       <c r="CB15" s="9"/>
       <c r="CC15" s="9"/>
       <c r="CD15" s="9"/>
-      <c r="CE15" s="84">
+      <c r="CE15" s="20">
         <v>1</v>
       </c>
-      <c r="CF15" s="81" t="s">
+      <c r="CF15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="CG15" s="81" t="s">
+      <c r="CG15" s="83" t="s">
         <v>123</v>
       </c>
       <c r="CH15" s="9"/>
@@ -5443,14 +5590,14 @@
       <c r="CL15" s="9">
         <v>19.28</v>
       </c>
-      <c r="CM15" s="90">
+      <c r="CM15" s="95">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="CN15" s="95" t="s">
+      <c r="CN15" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="CO15" s="99">
+      <c r="CO15" s="105">
         <v>44608</v>
       </c>
     </row>
@@ -5591,10 +5738,10 @@
       <c r="BS16" s="9"/>
       <c r="BT16" s="9"/>
       <c r="BU16" s="9"/>
-      <c r="BV16" s="72">
+      <c r="BV16" s="73">
         <v>3.726</v>
       </c>
-      <c r="BW16" s="72">
+      <c r="BW16" s="73">
         <v>3.253</v>
       </c>
       <c r="BX16" s="9"/>
@@ -5607,10 +5754,10 @@
       <c r="CE16" s="9">
         <v>2</v>
       </c>
-      <c r="CF16" s="81" t="s">
+      <c r="CF16" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="CG16" s="81" t="s">
+      <c r="CG16" s="83" t="s">
         <v>129</v>
       </c>
       <c r="CH16" s="9"/>
@@ -5618,18 +5765,18 @@
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
-      <c r="CM16" s="90">
+      <c r="CM16" s="95">
         <f>CL16/BV16</f>
         <v>0</v>
       </c>
-      <c r="CN16" s="96" t="s">
+      <c r="CN16" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="CO16" s="99">
+      <c r="CO16" s="105">
         <v>44608</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:93">
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:93">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
@@ -5784,12 +5931,18 @@
         <f t="shared" si="1"/>
         <v>0.378319521040086</v>
       </c>
-      <c r="BR17" s="62"/>
+      <c r="BR17" s="62">
+        <v>43823</v>
+      </c>
       <c r="BS17" s="19"/>
       <c r="BT17" s="19"/>
       <c r="BU17" s="19"/>
-      <c r="BV17" s="73"/>
-      <c r="BW17" s="73"/>
+      <c r="BV17" s="74">
+        <v>2.331</v>
+      </c>
+      <c r="BW17" s="74">
+        <v>1.118</v>
+      </c>
       <c r="BX17" s="19"/>
       <c r="BY17" s="19"/>
       <c r="BZ17" s="19"/>
@@ -5797,32 +5950,42 @@
       <c r="CB17" s="19"/>
       <c r="CC17" s="19"/>
       <c r="CD17" s="19"/>
-      <c r="CE17" s="19"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="85"/>
-      <c r="CH17" s="19"/>
-      <c r="CI17" s="19"/>
-      <c r="CJ17" s="19"/>
-      <c r="CK17" s="19"/>
-      <c r="CL17" s="19"/>
-      <c r="CM17" s="90" t="e">
+      <c r="CE17" s="86">
+        <v>21</v>
+      </c>
+      <c r="CF17" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG17" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="CH17" s="92"/>
+      <c r="CI17" s="92"/>
+      <c r="CJ17" s="92"/>
+      <c r="CK17" s="92"/>
+      <c r="CL17" s="102">
+        <v>5.25</v>
+      </c>
+      <c r="CM17" s="95">
         <f>CL17/BV17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CN17" s="19"/>
-      <c r="CO17" s="99">
-        <v>44608</v>
+        <v>2.25225225225225</v>
+      </c>
+      <c r="CN17" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="CO17" s="106">
+        <v>44578</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:93">
       <c r="A18" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="37"/>
@@ -6005,12 +6168,12 @@
         <f t="shared" si="1"/>
         <v>0.282280716010816</v>
       </c>
-      <c r="BR18" s="62"/>
+      <c r="BR18" s="63"/>
       <c r="BS18" s="19"/>
       <c r="BT18" s="19"/>
       <c r="BU18" s="19"/>
-      <c r="BV18" s="73"/>
-      <c r="BW18" s="73"/>
+      <c r="BV18" s="75"/>
+      <c r="BW18" s="75"/>
       <c r="BX18" s="19"/>
       <c r="BY18" s="19"/>
       <c r="BZ18" s="19"/>
@@ -6019,31 +6182,31 @@
       <c r="CC18" s="19"/>
       <c r="CD18" s="19"/>
       <c r="CE18" s="19"/>
-      <c r="CF18" s="85"/>
-      <c r="CG18" s="85"/>
+      <c r="CF18" s="88"/>
+      <c r="CG18" s="88"/>
       <c r="CH18" s="19"/>
       <c r="CI18" s="19"/>
       <c r="CJ18" s="19"/>
       <c r="CK18" s="19"/>
       <c r="CL18" s="19"/>
-      <c r="CM18" s="90" t="e">
+      <c r="CM18" s="95" t="e">
         <f>CL18/BV18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CN18" s="19"/>
-      <c r="CO18" s="99">
+      <c r="CO18" s="105">
         <v>44608</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:93">
+    <row r="19" s="1" customFormat="1" ht="53" spans="1:93">
       <c r="A19" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="37"/>
@@ -6226,14 +6389,14 @@
         <f t="shared" si="1"/>
         <v>0.264272227622196</v>
       </c>
-      <c r="BR19" s="62"/>
+      <c r="BR19" s="63"/>
       <c r="BS19" s="19"/>
       <c r="BT19" s="19"/>
       <c r="BU19" s="19"/>
-      <c r="BV19" s="73">
+      <c r="BV19" s="75">
         <v>4.704</v>
       </c>
-      <c r="BW19" s="73">
+      <c r="BW19" s="75">
         <v>3.956</v>
       </c>
       <c r="BX19" s="19"/>
@@ -6243,32 +6406,40 @@
       <c r="CB19" s="19"/>
       <c r="CC19" s="19"/>
       <c r="CD19" s="19"/>
-      <c r="CE19" s="19"/>
-      <c r="CF19" s="85"/>
-      <c r="CG19" s="85"/>
+      <c r="CE19" s="19">
+        <v>4</v>
+      </c>
+      <c r="CF19" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG19" s="83" t="s">
+        <v>144</v>
+      </c>
       <c r="CH19" s="19"/>
       <c r="CI19" s="19"/>
       <c r="CJ19" s="19"/>
       <c r="CK19" s="19"/>
-      <c r="CL19" s="19"/>
-      <c r="CM19" s="90">
+      <c r="CL19" s="19">
+        <v>6.04</v>
+      </c>
+      <c r="CM19" s="95">
         <f>CL19/BV19</f>
-        <v>0</v>
+        <v>1.28401360544218</v>
       </c>
       <c r="CN19" s="19"/>
-      <c r="CO19" s="99">
+      <c r="CO19" s="105">
         <v>44608</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="88" spans="1:93">
       <c r="A20" s="18" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="37">
@@ -6455,14 +6626,14 @@
         <f t="shared" si="1"/>
         <v>0.401384277453832</v>
       </c>
-      <c r="BR20" s="62"/>
+      <c r="BR20" s="63"/>
       <c r="BS20" s="19"/>
       <c r="BT20" s="19"/>
       <c r="BU20" s="19"/>
-      <c r="BV20" s="73">
+      <c r="BV20" s="75">
         <v>8</v>
       </c>
-      <c r="BW20" s="73">
+      <c r="BW20" s="75">
         <v>8</v>
       </c>
       <c r="BX20" s="19"/>
@@ -6475,11 +6646,11 @@
       <c r="CE20" s="19">
         <v>60</v>
       </c>
-      <c r="CF20" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG20" s="81" t="s">
-        <v>144</v>
+      <c r="CF20" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="CG20" s="83" t="s">
+        <v>149</v>
       </c>
       <c r="CH20" s="19"/>
       <c r="CI20" s="19"/>
@@ -6488,20 +6659,20 @@
       <c r="CL20" s="19">
         <v>9.62</v>
       </c>
-      <c r="CM20" s="90">
+      <c r="CM20" s="95">
         <f>CL20/BV20</f>
         <v>1.2025</v>
       </c>
-      <c r="CN20" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="CO20" s="99">
+      <c r="CN20" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="CO20" s="105">
         <v>44608</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:93">
       <c r="A21" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6570,13 +6741,13 @@
       <c r="BN21" s="20"/>
       <c r="BO21" s="20"/>
       <c r="BP21" s="20"/>
-      <c r="BQ21" s="63"/>
-      <c r="BR21" s="64"/>
+      <c r="BQ21" s="64"/>
+      <c r="BR21" s="65"/>
       <c r="BS21" s="20"/>
       <c r="BT21" s="20"/>
       <c r="BU21" s="20"/>
-      <c r="BV21" s="74"/>
-      <c r="BW21" s="74"/>
+      <c r="BV21" s="76"/>
+      <c r="BW21" s="76"/>
       <c r="BX21" s="20"/>
       <c r="BY21" s="20"/>
       <c r="BZ21" s="20"/>
@@ -6594,11 +6765,11 @@
       <c r="CL21" s="20"/>
       <c r="CM21" s="20"/>
       <c r="CN21" s="20"/>
-      <c r="CO21" s="64"/>
+      <c r="CO21" s="65"/>
     </row>
     <row r="22" ht="18" spans="1:93">
       <c r="A22" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6667,13 +6838,13 @@
       <c r="BN22" s="20"/>
       <c r="BO22" s="20"/>
       <c r="BP22" s="20"/>
-      <c r="BQ22" s="63"/>
-      <c r="BR22" s="64"/>
+      <c r="BQ22" s="64"/>
+      <c r="BR22" s="65"/>
       <c r="BS22" s="20"/>
       <c r="BT22" s="20"/>
       <c r="BU22" s="20"/>
-      <c r="BV22" s="74"/>
-      <c r="BW22" s="74"/>
+      <c r="BV22" s="76"/>
+      <c r="BW22" s="76"/>
       <c r="BX22" s="20"/>
       <c r="BY22" s="20"/>
       <c r="BZ22" s="20"/>
@@ -6691,11 +6862,11 @@
       <c r="CL22" s="20"/>
       <c r="CM22" s="20"/>
       <c r="CN22" s="20"/>
-      <c r="CO22" s="64"/>
+      <c r="CO22" s="65"/>
     </row>
     <row r="23" ht="18" spans="1:93">
       <c r="A23" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6764,13 +6935,13 @@
       <c r="BN23" s="20"/>
       <c r="BO23" s="20"/>
       <c r="BP23" s="20"/>
-      <c r="BQ23" s="63"/>
-      <c r="BR23" s="64"/>
+      <c r="BQ23" s="64"/>
+      <c r="BR23" s="65"/>
       <c r="BS23" s="20"/>
       <c r="BT23" s="20"/>
       <c r="BU23" s="20"/>
-      <c r="BV23" s="74"/>
-      <c r="BW23" s="74"/>
+      <c r="BV23" s="76"/>
+      <c r="BW23" s="76"/>
       <c r="BX23" s="20"/>
       <c r="BY23" s="20"/>
       <c r="BZ23" s="20"/>
@@ -6788,11 +6959,11 @@
       <c r="CL23" s="20"/>
       <c r="CM23" s="20"/>
       <c r="CN23" s="20"/>
-      <c r="CO23" s="64"/>
+      <c r="CO23" s="65"/>
     </row>
     <row r="24" ht="18" spans="1:93">
       <c r="A24" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6861,13 +7032,13 @@
       <c r="BN24" s="20"/>
       <c r="BO24" s="20"/>
       <c r="BP24" s="20"/>
-      <c r="BQ24" s="63"/>
-      <c r="BR24" s="64"/>
+      <c r="BQ24" s="64"/>
+      <c r="BR24" s="65"/>
       <c r="BS24" s="20"/>
       <c r="BT24" s="20"/>
       <c r="BU24" s="20"/>
-      <c r="BV24" s="74"/>
-      <c r="BW24" s="74"/>
+      <c r="BV24" s="76"/>
+      <c r="BW24" s="76"/>
       <c r="BX24" s="20"/>
       <c r="BY24" s="20"/>
       <c r="BZ24" s="20"/>
@@ -6885,11 +7056,11 @@
       <c r="CL24" s="20"/>
       <c r="CM24" s="20"/>
       <c r="CN24" s="20"/>
-      <c r="CO24" s="64"/>
+      <c r="CO24" s="65"/>
     </row>
     <row r="25" ht="18" spans="1:93">
       <c r="A25" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6958,13 +7129,13 @@
       <c r="BN25" s="20"/>
       <c r="BO25" s="20"/>
       <c r="BP25" s="20"/>
-      <c r="BQ25" s="63"/>
-      <c r="BR25" s="64"/>
+      <c r="BQ25" s="64"/>
+      <c r="BR25" s="65"/>
       <c r="BS25" s="20"/>
       <c r="BT25" s="20"/>
       <c r="BU25" s="20"/>
-      <c r="BV25" s="74"/>
-      <c r="BW25" s="74"/>
+      <c r="BV25" s="76"/>
+      <c r="BW25" s="76"/>
       <c r="BX25" s="20"/>
       <c r="BY25" s="20"/>
       <c r="BZ25" s="20"/>
@@ -6982,7 +7153,7 @@
       <c r="CL25" s="20"/>
       <c r="CM25" s="20"/>
       <c r="CN25" s="20"/>
-      <c r="CO25" s="64"/>
+      <c r="CO25" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -1394,11 +1394,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -1416,7 +1411,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>利润和销售额下滑减缓，但持有机构数量出现大幅下滑且机构持有股份占比持续下滑</t>
+      <t>利润和销售额下滑减缓，但持有机构数量出现大幅下滑且机构持有股份占比持续下滑，不宜长时间持有</t>
     </r>
     <r>
       <rPr>
@@ -2975,11 +2970,11 @@
   <dimension ref="A1:CO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="CD15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="CJ15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CG17" sqref="CG17"/>
+      <selection pane="bottomRight" activeCell="CN17" sqref="CN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -5776,7 +5771,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:93">
+    <row r="17" s="1" customFormat="1" ht="59" spans="1:93">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -1564,15 +1564,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="13">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2326,7 +2328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2336,12 +2338,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,178 +2395,181 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2633,19 +2638,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2970,11 +2975,11 @@
   <dimension ref="A1:CO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="CJ15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="CF15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN17" sqref="CN17"/>
+      <selection pane="bottomRight" activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3132,8 +3137,8 @@
         <v>10</v>
       </c>
       <c r="CM1" s="44"/>
-      <c r="CN1" s="93"/>
-      <c r="CO1" s="103" t="s">
+      <c r="CN1" s="94"/>
+      <c r="CO1" s="104" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3240,14 +3245,14 @@
       <c r="BX2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="77" t="s">
+      <c r="BY2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="77"/>
-      <c r="CB2" s="77"/>
-      <c r="CC2" s="77"/>
-      <c r="CD2" s="77"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="78"/>
+      <c r="CD2" s="78"/>
       <c r="CE2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3259,10 +3264,10 @@
       <c r="CK2" s="5"/>
       <c r="CL2" s="44"/>
       <c r="CM2" s="44"/>
-      <c r="CN2" s="94" t="s">
+      <c r="CN2" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="103"/>
+      <c r="CO2" s="104"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:93">
       <c r="A3" s="5"/>
@@ -3463,34 +3468,34 @@
       <c r="BV3" s="68"/>
       <c r="BW3" s="68"/>
       <c r="BX3" s="69"/>
-      <c r="BY3" s="78" t="s">
+      <c r="BY3" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="BZ3" s="78" t="s">
+      <c r="BZ3" s="79" t="s">
         <v>46</v>
       </c>
       <c r="CA3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="CB3" s="79" t="s">
+      <c r="CB3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="79" t="s">
+      <c r="CC3" s="80" t="s">
         <v>49</v>
       </c>
       <c r="CD3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="CE3" s="80" t="s">
+      <c r="CE3" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="CF3" s="80" t="s">
+      <c r="CF3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="CG3" s="89" t="s">
+      <c r="CG3" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="CH3" s="80" t="s">
+      <c r="CH3" s="81" t="s">
         <v>54</v>
       </c>
       <c r="CI3" s="5" t="s">
@@ -3505,11 +3510,11 @@
       <c r="CL3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="CM3" s="78" t="s">
+      <c r="CM3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="CN3" s="94"/>
-      <c r="CO3" s="103"/>
+      <c r="CN3" s="95"/>
+      <c r="CO3" s="104"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:93">
       <c r="A4" s="6" t="s">
@@ -3624,28 +3629,28 @@
       <c r="CB4" s="8"/>
       <c r="CC4" s="8"/>
       <c r="CD4" s="8"/>
-      <c r="CE4" s="81">
+      <c r="CE4" s="82">
         <v>3</v>
       </c>
-      <c r="CF4" s="82" t="s">
+      <c r="CF4" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="CG4" s="82" t="s">
+      <c r="CG4" s="83" t="s">
         <v>63</v>
       </c>
       <c r="CH4" s="8"/>
       <c r="CI4" s="8"/>
       <c r="CJ4" s="8"/>
       <c r="CK4" s="8"/>
-      <c r="CL4" s="81">
+      <c r="CL4" s="82">
         <v>1.28</v>
       </c>
-      <c r="CM4" s="95">
+      <c r="CM4" s="96">
         <f t="shared" ref="CM4:CM12" si="2">CL4/BV4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="CN4" s="8"/>
-      <c r="CO4" s="104">
+      <c r="CO4" s="105">
         <v>44579</v>
       </c>
     </row>
@@ -3765,10 +3770,10 @@
       <c r="CE5" s="29">
         <v>10</v>
       </c>
-      <c r="CF5" s="83" t="s">
+      <c r="CF5" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="CG5" s="84" t="s">
+      <c r="CG5" s="85" t="s">
         <v>68</v>
       </c>
       <c r="CH5" s="9"/>
@@ -3778,14 +3783,14 @@
       <c r="CL5" s="29">
         <v>2.18</v>
       </c>
-      <c r="CM5" s="96">
+      <c r="CM5" s="97">
         <f t="shared" si="2"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="CN5" s="84" t="s">
+      <c r="CN5" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="CO5" s="105">
+      <c r="CO5" s="106">
         <v>44579</v>
       </c>
     </row>
@@ -3905,10 +3910,10 @@
       <c r="CE6" s="29">
         <v>6</v>
       </c>
-      <c r="CF6" s="83" t="s">
+      <c r="CF6" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="CG6" s="82" t="s">
+      <c r="CG6" s="83" t="s">
         <v>74</v>
       </c>
       <c r="CH6" s="9"/>
@@ -3918,12 +3923,12 @@
       <c r="CL6" s="29">
         <v>3.91</v>
       </c>
-      <c r="CM6" s="95">
+      <c r="CM6" s="96">
         <f t="shared" si="2"/>
         <v>0.67135989010989</v>
       </c>
       <c r="CN6" s="9"/>
-      <c r="CO6" s="105">
+      <c r="CO6" s="106">
         <v>44580</v>
       </c>
     </row>
@@ -4045,10 +4050,10 @@
       <c r="CE7" s="29">
         <v>4</v>
       </c>
-      <c r="CF7" s="83" t="s">
+      <c r="CF7" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="CG7" s="82" t="s">
+      <c r="CG7" s="83" t="s">
         <v>79</v>
       </c>
       <c r="CH7" s="9"/>
@@ -4058,12 +4063,12 @@
       <c r="CL7" s="29">
         <v>1.26</v>
       </c>
-      <c r="CM7" s="95">
+      <c r="CM7" s="96">
         <f t="shared" si="2"/>
         <v>0.682187330806714</v>
       </c>
       <c r="CN7" s="9"/>
-      <c r="CO7" s="105">
+      <c r="CO7" s="106">
         <v>44580</v>
       </c>
     </row>
@@ -4185,10 +4190,10 @@
       <c r="CE8" s="29">
         <v>9</v>
       </c>
-      <c r="CF8" s="83" t="s">
+      <c r="CF8" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="CG8" s="82" t="s">
+      <c r="CG8" s="83" t="s">
         <v>84</v>
       </c>
       <c r="CH8" s="9"/>
@@ -4198,12 +4203,12 @@
       <c r="CL8" s="29">
         <v>0.462891</v>
       </c>
-      <c r="CM8" s="95">
+      <c r="CM8" s="96">
         <f t="shared" si="2"/>
         <v>0.10146668128014</v>
       </c>
       <c r="CN8" s="9"/>
-      <c r="CO8" s="105">
+      <c r="CO8" s="106">
         <v>44580</v>
       </c>
     </row>
@@ -4325,10 +4330,10 @@
       <c r="CE9" s="29">
         <v>37</v>
       </c>
-      <c r="CF9" s="84" t="s">
+      <c r="CF9" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="CG9" s="82" t="s">
+      <c r="CG9" s="83" t="s">
         <v>89</v>
       </c>
       <c r="CH9" s="9"/>
@@ -4338,12 +4343,12 @@
       <c r="CL9" s="29">
         <v>5.84</v>
       </c>
-      <c r="CM9" s="95">
+      <c r="CM9" s="96">
         <f t="shared" si="2"/>
         <v>0.548872180451128</v>
       </c>
       <c r="CN9" s="9"/>
-      <c r="CO9" s="105">
+      <c r="CO9" s="106">
         <v>44585</v>
       </c>
     </row>
@@ -4465,10 +4470,10 @@
       <c r="CE10" s="29">
         <v>87</v>
       </c>
-      <c r="CF10" s="82" t="s">
+      <c r="CF10" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="CG10" s="82" t="s">
+      <c r="CG10" s="83" t="s">
         <v>94</v>
       </c>
       <c r="CH10" s="9"/>
@@ -4478,12 +4483,12 @@
       <c r="CL10" s="29">
         <v>64.56</v>
       </c>
-      <c r="CM10" s="95">
+      <c r="CM10" s="96">
         <f t="shared" si="2"/>
         <v>0.421960784313726</v>
       </c>
       <c r="CN10" s="9"/>
-      <c r="CO10" s="105">
+      <c r="CO10" s="106">
         <v>44585</v>
       </c>
     </row>
@@ -4704,10 +4709,10 @@
       <c r="CE11" s="29">
         <v>2</v>
       </c>
-      <c r="CF11" s="83" t="s">
+      <c r="CF11" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="CG11" s="84" t="s">
+      <c r="CG11" s="85" t="s">
         <v>99</v>
       </c>
       <c r="CH11" s="9"/>
@@ -4717,14 +4722,14 @@
       <c r="CL11" s="29">
         <v>0.139699</v>
       </c>
-      <c r="CM11" s="95">
+      <c r="CM11" s="96">
         <f t="shared" si="2"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="CN11" s="97" t="s">
+      <c r="CN11" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="CO11" s="105">
+      <c r="CO11" s="106">
         <v>44586</v>
       </c>
     </row>
@@ -4945,10 +4950,10 @@
       <c r="CE12" s="12">
         <v>4</v>
       </c>
-      <c r="CF12" s="85" t="s">
+      <c r="CF12" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="CG12" s="90" t="s">
+      <c r="CG12" s="91" t="s">
         <v>105</v>
       </c>
       <c r="CH12" s="12"/>
@@ -4958,11 +4963,11 @@
       <c r="CL12" s="12">
         <v>2.29</v>
       </c>
-      <c r="CM12" s="98">
+      <c r="CM12" s="99">
         <f t="shared" si="2"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="CN12" s="83" t="s">
+      <c r="CN12" s="84" t="s">
         <v>106</v>
       </c>
       <c r="CO12" s="59">
@@ -5154,10 +5159,10 @@
       <c r="CE13" s="29">
         <v>123</v>
       </c>
-      <c r="CF13" s="83" t="s">
+      <c r="CF13" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="CG13" s="83" t="s">
+      <c r="CG13" s="84" t="s">
         <v>111</v>
       </c>
       <c r="CH13" s="9"/>
@@ -5167,14 +5172,14 @@
       <c r="CL13" s="29">
         <v>63.51</v>
       </c>
-      <c r="CM13" s="95">
+      <c r="CM13" s="96">
         <f t="shared" ref="CM13:CM15" si="7">CL13/BV13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="CN13" s="84" t="s">
+      <c r="CN13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="CO13" s="105">
+      <c r="CO13" s="106">
         <v>44601</v>
       </c>
     </row>
@@ -5331,10 +5336,10 @@
       <c r="CE14" s="29">
         <v>11</v>
       </c>
-      <c r="CF14" s="83" t="s">
+      <c r="CF14" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="CG14" s="83" t="s">
+      <c r="CG14" s="84" t="s">
         <v>117</v>
       </c>
       <c r="CH14" s="9"/>
@@ -5344,14 +5349,14 @@
       <c r="CL14" s="29">
         <v>3.41</v>
       </c>
-      <c r="CM14" s="95">
+      <c r="CM14" s="96">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="CN14" s="99" t="s">
+      <c r="CN14" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="CO14" s="105">
+      <c r="CO14" s="106">
         <v>44601</v>
       </c>
     </row>
@@ -5572,10 +5577,10 @@
       <c r="CE15" s="20">
         <v>1</v>
       </c>
-      <c r="CF15" s="83" t="s">
+      <c r="CF15" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="CG15" s="83" t="s">
+      <c r="CG15" s="84" t="s">
         <v>123</v>
       </c>
       <c r="CH15" s="9"/>
@@ -5585,14 +5590,14 @@
       <c r="CL15" s="9">
         <v>19.28</v>
       </c>
-      <c r="CM15" s="95">
+      <c r="CM15" s="96">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="CN15" s="100" t="s">
+      <c r="CN15" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="CO15" s="105">
+      <c r="CO15" s="106">
         <v>44608</v>
       </c>
     </row>
@@ -5749,10 +5754,10 @@
       <c r="CE16" s="9">
         <v>2</v>
       </c>
-      <c r="CF16" s="83" t="s">
+      <c r="CF16" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="CG16" s="83" t="s">
+      <c r="CG16" s="84" t="s">
         <v>129</v>
       </c>
       <c r="CH16" s="9"/>
@@ -5760,14 +5765,14 @@
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
-      <c r="CM16" s="95">
+      <c r="CM16" s="96">
         <f>CL16/BV16</f>
         <v>0</v>
       </c>
-      <c r="CN16" s="101" t="s">
+      <c r="CN16" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="CO16" s="105">
+      <c r="CO16" s="106">
         <v>44608</v>
       </c>
     </row>
@@ -5935,7 +5940,7 @@
       <c r="BV17" s="74">
         <v>2.331</v>
       </c>
-      <c r="BW17" s="74">
+      <c r="BW17" s="75">
         <v>1.118</v>
       </c>
       <c r="BX17" s="19"/>
@@ -5945,30 +5950,30 @@
       <c r="CB17" s="19"/>
       <c r="CC17" s="19"/>
       <c r="CD17" s="19"/>
-      <c r="CE17" s="86">
+      <c r="CE17" s="87">
         <v>21</v>
       </c>
-      <c r="CF17" s="87" t="s">
+      <c r="CF17" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="CG17" s="91" t="s">
+      <c r="CG17" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="CH17" s="92"/>
-      <c r="CI17" s="92"/>
-      <c r="CJ17" s="92"/>
-      <c r="CK17" s="92"/>
-      <c r="CL17" s="102">
+      <c r="CH17" s="93"/>
+      <c r="CI17" s="93"/>
+      <c r="CJ17" s="93"/>
+      <c r="CK17" s="93"/>
+      <c r="CL17" s="103">
         <v>5.25</v>
       </c>
-      <c r="CM17" s="95">
+      <c r="CM17" s="96">
         <f>CL17/BV17</f>
         <v>2.25225225225225</v>
       </c>
-      <c r="CN17" s="91" t="s">
+      <c r="CN17" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="CO17" s="106">
+      <c r="CO17" s="107">
         <v>44578</v>
       </c>
     </row>
@@ -6167,8 +6172,8 @@
       <c r="BS18" s="19"/>
       <c r="BT18" s="19"/>
       <c r="BU18" s="19"/>
-      <c r="BV18" s="75"/>
-      <c r="BW18" s="75"/>
+      <c r="BV18" s="76"/>
+      <c r="BW18" s="76"/>
       <c r="BX18" s="19"/>
       <c r="BY18" s="19"/>
       <c r="BZ18" s="19"/>
@@ -6177,19 +6182,19 @@
       <c r="CC18" s="19"/>
       <c r="CD18" s="19"/>
       <c r="CE18" s="19"/>
-      <c r="CF18" s="88"/>
-      <c r="CG18" s="88"/>
+      <c r="CF18" s="89"/>
+      <c r="CG18" s="89"/>
       <c r="CH18" s="19"/>
       <c r="CI18" s="19"/>
       <c r="CJ18" s="19"/>
       <c r="CK18" s="19"/>
       <c r="CL18" s="19"/>
-      <c r="CM18" s="95" t="e">
+      <c r="CM18" s="96" t="e">
         <f>CL18/BV18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CN18" s="19"/>
-      <c r="CO18" s="105">
+      <c r="CO18" s="106">
         <v>44608</v>
       </c>
     </row>
@@ -6388,10 +6393,10 @@
       <c r="BS19" s="19"/>
       <c r="BT19" s="19"/>
       <c r="BU19" s="19"/>
-      <c r="BV19" s="75">
+      <c r="BV19" s="76">
         <v>4.704</v>
       </c>
-      <c r="BW19" s="75">
+      <c r="BW19" s="76">
         <v>3.956</v>
       </c>
       <c r="BX19" s="19"/>
@@ -6404,10 +6409,10 @@
       <c r="CE19" s="19">
         <v>4</v>
       </c>
-      <c r="CF19" s="83" t="s">
+      <c r="CF19" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="CG19" s="83" t="s">
+      <c r="CG19" s="84" t="s">
         <v>144</v>
       </c>
       <c r="CH19" s="19"/>
@@ -6417,12 +6422,12 @@
       <c r="CL19" s="19">
         <v>6.04</v>
       </c>
-      <c r="CM19" s="95">
+      <c r="CM19" s="96">
         <f>CL19/BV19</f>
         <v>1.28401360544218</v>
       </c>
       <c r="CN19" s="19"/>
-      <c r="CO19" s="105">
+      <c r="CO19" s="106">
         <v>44608</v>
       </c>
     </row>
@@ -6625,10 +6630,10 @@
       <c r="BS20" s="19"/>
       <c r="BT20" s="19"/>
       <c r="BU20" s="19"/>
-      <c r="BV20" s="75">
+      <c r="BV20" s="76">
         <v>8</v>
       </c>
-      <c r="BW20" s="75">
+      <c r="BW20" s="76">
         <v>8</v>
       </c>
       <c r="BX20" s="19"/>
@@ -6641,10 +6646,10 @@
       <c r="CE20" s="19">
         <v>60</v>
       </c>
-      <c r="CF20" s="83" t="s">
+      <c r="CF20" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="CG20" s="83" t="s">
+      <c r="CG20" s="84" t="s">
         <v>149</v>
       </c>
       <c r="CH20" s="19"/>
@@ -6654,14 +6659,14 @@
       <c r="CL20" s="19">
         <v>9.62</v>
       </c>
-      <c r="CM20" s="95">
+      <c r="CM20" s="96">
         <f>CL20/BV20</f>
         <v>1.2025</v>
       </c>
-      <c r="CN20" s="100" t="s">
+      <c r="CN20" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="CO20" s="105">
+      <c r="CO20" s="106">
         <v>44608</v>
       </c>
     </row>
@@ -6741,8 +6746,8 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="20"/>
       <c r="BU21" s="20"/>
-      <c r="BV21" s="76"/>
-      <c r="BW21" s="76"/>
+      <c r="BV21" s="77"/>
+      <c r="BW21" s="77"/>
       <c r="BX21" s="20"/>
       <c r="BY21" s="20"/>
       <c r="BZ21" s="20"/>
@@ -6838,8 +6843,8 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="20"/>
       <c r="BU22" s="20"/>
-      <c r="BV22" s="76"/>
-      <c r="BW22" s="76"/>
+      <c r="BV22" s="77"/>
+      <c r="BW22" s="77"/>
       <c r="BX22" s="20"/>
       <c r="BY22" s="20"/>
       <c r="BZ22" s="20"/>
@@ -6935,8 +6940,8 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="20"/>
       <c r="BU23" s="20"/>
-      <c r="BV23" s="76"/>
-      <c r="BW23" s="76"/>
+      <c r="BV23" s="77"/>
+      <c r="BW23" s="77"/>
       <c r="BX23" s="20"/>
       <c r="BY23" s="20"/>
       <c r="BZ23" s="20"/>
@@ -7032,8 +7037,8 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="20"/>
       <c r="BU24" s="20"/>
-      <c r="BV24" s="76"/>
-      <c r="BW24" s="76"/>
+      <c r="BV24" s="77"/>
+      <c r="BW24" s="77"/>
       <c r="BX24" s="20"/>
       <c r="BY24" s="20"/>
       <c r="BZ24" s="20"/>
@@ -7129,8 +7134,8 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="20"/>
       <c r="BU25" s="20"/>
-      <c r="BV25" s="76"/>
-      <c r="BW25" s="76"/>
+      <c r="BV25" s="77"/>
+      <c r="BW25" s="77"/>
       <c r="BX25" s="20"/>
       <c r="BY25" s="20"/>
       <c r="BZ25" s="20"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2979,7 +2979,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CG15" sqref="CG15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -38,9 +38,6 @@
     <t>利润增长</t>
   </si>
   <si>
-    <t>销售额增长</t>
-  </si>
-  <si>
     <t>催化剂
 （是否是新公司，是否有新产品、新管理层、股价新高）</t>
   </si>
@@ -75,18 +72,8 @@
 (越小越好)</t>
   </si>
   <si>
-    <t>过去五年的历史记录
-（最近三个季度最少25%且最好最近两个季度加速增长，最次近两个季度不要出现大幅回落)</t>
-  </si>
-  <si>
-    <t>3年的平均增速
-(若不满3年，以6个季度计算)</t>
-  </si>
-  <si>
-    <t>5年的平均增速</t>
-  </si>
-  <si>
-    <t>每两个季度的平均增长速度</t>
+    <t>销售额增长
+（最近3个季度）</t>
   </si>
   <si>
     <t>总股本
@@ -142,15 +129,6 @@
     <t>AVG1</t>
   </si>
   <si>
-    <t>AVG10</t>
-  </si>
-  <si>
-    <t>AVG9</t>
-  </si>
-  <si>
-    <t>AVG8</t>
-  </si>
-  <si>
     <t>上市日期
 (10年以内,即2011年以内)</t>
   </si>
@@ -1318,6 +1296,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先变多再变少</t>
     </r>
     <r>
@@ -1348,6 +1331,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>持续减少</t>
     </r>
     <r>
@@ -1394,6 +1382,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜进场</t>
     </r>
     <r>
@@ -1565,18 +1558,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -1667,12 +1660,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
@@ -1684,31 +1677,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1720,8 +1699,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,29 +1723,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1783,6 +1754,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1797,23 +1789,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1821,7 +1806,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,7 +1871,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,19 +1997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,13 +2015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,97 +2027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,19 +2045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,8 +2077,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2108,17 +2110,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2183,152 +2176,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2338,10 +2331,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2395,186 +2385,183 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2590,39 +2577,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2638,19 +2625,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2972,14 +2950,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CO25"/>
+  <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="CF15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2991,7 +2969,7 @@
     <col min="7" max="7" width="9.28571428571429" style="2"/>
     <col min="8" max="15" width="10.1428571428571" style="2"/>
     <col min="16" max="16" width="10.5714285714286" style="2"/>
-    <col min="17" max="18" width="9.28571428571429" style="2"/>
+    <col min="17" max="18" width="9.5" style="2"/>
     <col min="19" max="19" width="10.5714285714286" style="2"/>
     <col min="20" max="21" width="10.1428571428571" style="2"/>
     <col min="22" max="22" width="10.5714285714286" style="2"/>
@@ -3001,184 +2979,147 @@
     <col min="27" max="27" width="16.9553571428571" customWidth="1"/>
     <col min="28" max="28" width="18.2946428571429" customWidth="1"/>
     <col min="29" max="31" width="9.5" style="2"/>
-    <col min="32" max="33" width="9.57142857142857" style="2"/>
-    <col min="34" max="35" width="9.85714285714286" style="2"/>
+    <col min="32" max="32" width="9.57142857142857" style="2"/>
+    <col min="33" max="35" width="9.85714285714286" style="2"/>
     <col min="36" max="36" width="11.1607142857143" customWidth="1"/>
-    <col min="37" max="37" width="10.5714285714286" style="2"/>
-    <col min="38" max="40" width="9.28571428571429" style="2"/>
-    <col min="41" max="44" width="10.1428571428571" style="2"/>
-    <col min="45" max="52" width="10.5714285714286" style="2"/>
-    <col min="53" max="53" width="10.9285714285714" style="2"/>
-    <col min="54" max="55" width="10.1428571428571" style="2"/>
-    <col min="57" max="57" width="12.7857142857143"/>
-    <col min="69" max="69" width="13.2142857142857" style="3"/>
-    <col min="70" max="70" width="12.9464285714286" customWidth="1"/>
-    <col min="74" max="75" width="10.1428571428571" style="4"/>
-    <col min="84" max="84" width="20.8303571428571" customWidth="1"/>
-    <col min="85" max="85" width="26.1875" customWidth="1"/>
-    <col min="88" max="88" width="21.4285714285714" customWidth="1"/>
-    <col min="90" max="90" width="9.57142857142857"/>
-    <col min="91" max="91" width="9.42857142857143"/>
-    <col min="92" max="92" width="46.7232142857143" customWidth="1"/>
-    <col min="93" max="93" width="13.3839285714286" customWidth="1"/>
+    <col min="37" max="37" width="10.9285714285714" style="2"/>
+    <col min="38" max="39" width="10.1428571428571" style="2"/>
+    <col min="41" max="41" width="12.9464285714286" customWidth="1"/>
+    <col min="45" max="46" width="10.1428571428571" style="3"/>
+    <col min="55" max="55" width="20.8303571428571" customWidth="1"/>
+    <col min="56" max="56" width="26.1875" customWidth="1"/>
+    <col min="59" max="59" width="21.4285714285714" customWidth="1"/>
+    <col min="61" max="61" width="9.57142857142857"/>
+    <col min="62" max="62" width="9.42857142857143"/>
+    <col min="63" max="63" width="46.7232142857143" customWidth="1"/>
+    <col min="64" max="64" width="13.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:64">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="53" t="s">
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="66" t="s">
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="44" t="s">
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="CM1" s="44"/>
-      <c r="CN1" s="94"/>
-      <c r="CO1" s="104" t="s">
+    </row>
+    <row r="2" ht="59" customHeight="1" spans="1:64">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="59" customHeight="1" spans="1:93">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
       <c r="Z2" s="44"/>
       <c r="AA2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AC2" s="47" t="s">
         <v>14</v>
-      </c>
-      <c r="AC2" s="47" t="s">
-        <v>15</v>
       </c>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
@@ -3187,366 +3128,280 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="47"/>
       <c r="AJ2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="45" t="s">
+      <c r="AT2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" s="45" t="s">
+      <c r="AU2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BG2" s="45" t="s">
+      <c r="AV2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR2" s="53"/>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="68" t="s">
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BW2" s="68" t="s">
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="BX2" s="69" t="s">
+      <c r="BL2" s="90"/>
+    </row>
+    <row r="3" ht="55" customHeight="1" spans="1:64">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="78" t="s">
+      <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="78"/>
-      <c r="CE2" s="5" t="s">
+      <c r="I3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="CF2" s="5"/>
-      <c r="CG2" s="5"/>
-      <c r="CH2" s="5"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="5"/>
-      <c r="CK2" s="5"/>
-      <c r="CL2" s="44"/>
-      <c r="CM2" s="44"/>
-      <c r="CN2" s="95" t="s">
+      <c r="J3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="104"/>
-    </row>
-    <row r="3" ht="55" customHeight="1" spans="1:93">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>29</v>
+      <c r="K3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="45"/>
       <c r="AB3" s="45"/>
       <c r="AC3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AH3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="48" t="s">
+      <c r="AI3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AP3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="48" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="48" t="s">
+      <c r="AR3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="48" t="s">
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="BH3" s="48" t="s">
+      <c r="AW3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="BI3" s="48" t="s">
+      <c r="AX3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="BJ3" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK3" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL3" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM3" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN3" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO3" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP3" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="BQ3" s="54"/>
-      <c r="BR3" s="53" t="s">
+      <c r="AY3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="BS3" s="24" t="s">
+      <c r="AZ3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="BT3" s="55" t="s">
+      <c r="BA3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BU3" s="55" t="s">
+      <c r="BB3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="79" t="s">
+      <c r="BC3" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="BZ3" s="79" t="s">
+      <c r="BD3" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="CA3" s="44" t="s">
+      <c r="BE3" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="CB3" s="80" t="s">
+      <c r="BF3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="80" t="s">
+      <c r="BG3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="CD3" s="5" t="s">
+      <c r="BH3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="CE3" s="81" t="s">
+      <c r="BJ3" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="CF3" s="81" t="s">
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="90"/>
+    </row>
+    <row r="4" ht="55" customHeight="1" spans="1:64">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="CG3" s="90" t="s">
+      <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CH3" s="81" t="s">
+      <c r="C4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CI3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="CJ3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="CK3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="CL3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="CM3" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="CN3" s="95"/>
-      <c r="CO3" s="104"/>
-    </row>
-    <row r="4" ht="55" customHeight="1" spans="1:93">
-      <c r="A4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27">
+      <c r="D4" s="7"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26">
         <v>0.16</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="G4" s="25">
+        <v>-0.2369</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.1985</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.1552</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.0621</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.8816</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.3131</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.3269</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0.3212</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.1608</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0.0429</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>-2.2731</v>
+      </c>
+      <c r="R4" s="25">
+        <v>-2.7544</v>
+      </c>
+      <c r="S4" s="25">
+        <v>-0.2012</v>
+      </c>
+      <c r="T4" s="25">
+        <v>-0.1932</v>
+      </c>
+      <c r="U4" s="25">
+        <v>1.4776</v>
+      </c>
+      <c r="V4" s="25">
+        <v>1.2819</v>
+      </c>
       <c r="W4" s="38">
         <v>0.0498</v>
       </c>
@@ -3556,135 +3411,144 @@
       <c r="Y4" s="38">
         <v>0.2626</v>
       </c>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="35">
-        <f t="shared" ref="AA4:AA20" si="0">(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4)/11</f>
-        <v>0.00630909090909091</v>
-      </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="30">
-        <v>0.1529</v>
-      </c>
-      <c r="BB4" s="30">
+        <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
+        <v>-0.150458333333333</v>
+      </c>
+      <c r="AB4" s="35">
+        <f>(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
+        <v>-0.00552631578947369</v>
+      </c>
+      <c r="AC4" s="35">
+        <f>(R4+S4)/2</f>
+        <v>-1.4778</v>
+      </c>
+      <c r="AD4" s="41">
+        <f>(S4+T4)/2</f>
+        <v>-0.1972</v>
+      </c>
+      <c r="AE4" s="41">
+        <f>(T4+U4)/2</f>
+        <v>0.6422</v>
+      </c>
+      <c r="AF4" s="41">
+        <f>(U4+V4)/2</f>
+        <v>1.37975</v>
+      </c>
+      <c r="AG4" s="35">
+        <f>(V4+W4)/2</f>
+        <v>0.66585</v>
+      </c>
+      <c r="AH4" s="35">
+        <f>(W4+X4)/2</f>
+        <v>0.0347</v>
+      </c>
+      <c r="AI4" s="35">
+        <f>(X4+Y4)/2</f>
+        <v>0.1411</v>
+      </c>
+      <c r="AJ4" s="49">
+        <f>STDEV(G4:Y4)</f>
+        <v>0.99904872244779</v>
+      </c>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="69">
+        <v>8.357</v>
+      </c>
+      <c r="AT4" s="69">
+        <v>8.32</v>
+      </c>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="80">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD4" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="80">
+        <v>1.28</v>
+      </c>
+      <c r="BJ4" s="92">
+        <f t="shared" ref="BJ4:BJ12" si="0">BI4/AS4</f>
+        <v>0.153165011367716</v>
+      </c>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="93">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="5" ht="55" customHeight="1" spans="1:64">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26">
+        <v>1.97</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27">
+        <v>0.1473</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-0.2308</v>
+      </c>
+      <c r="O5" s="27">
+        <v>-0.3684</v>
+      </c>
+      <c r="P5" s="27">
+        <v>-0.358</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>-0.3784</v>
+      </c>
+      <c r="R5" s="27">
+        <v>-0.0231</v>
+      </c>
+      <c r="S5" s="27">
         <v>0.1667</v>
       </c>
-      <c r="BC4" s="30">
-        <v>0.1279</v>
-      </c>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="56">
-        <f t="shared" ref="BQ4:BQ20" si="1">STDEV(AK4:BC4)</f>
-        <v>0.0196675706006953</v>
-      </c>
-      <c r="BR4" s="57"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="8"/>
-      <c r="BV4" s="70">
-        <v>8.357</v>
-      </c>
-      <c r="BW4" s="70">
-        <v>8.32</v>
-      </c>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="8"/>
-      <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
-      <c r="CD4" s="8"/>
-      <c r="CE4" s="82">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="CH4" s="8"/>
-      <c r="CI4" s="8"/>
-      <c r="CJ4" s="8"/>
-      <c r="CK4" s="8"/>
-      <c r="CL4" s="82">
-        <v>1.28</v>
-      </c>
-      <c r="CM4" s="96">
-        <f t="shared" ref="CM4:CM12" si="2">CL4/BV4</f>
-        <v>0.153165011367716</v>
-      </c>
-      <c r="CN4" s="8"/>
-      <c r="CO4" s="105">
-        <v>44579</v>
-      </c>
-    </row>
-    <row r="5" ht="55" customHeight="1" spans="1:93">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27">
-        <v>1.97</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
+      <c r="T5" s="27">
+        <v>0.1154</v>
+      </c>
+      <c r="U5" s="27">
+        <v>-0.0761</v>
+      </c>
+      <c r="V5" s="27">
+        <v>0.1654</v>
+      </c>
       <c r="W5" s="39">
         <v>2.9286</v>
       </c>
@@ -3694,137 +3558,158 @@
       <c r="Y5" s="39">
         <v>1.3176</v>
       </c>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="8"/>
       <c r="AA5" s="35">
+        <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
+        <v>0.400883333333333</v>
+      </c>
+      <c r="AB5" s="35">
+        <f>(G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/19</f>
+        <v>0.260942105263158</v>
+      </c>
+      <c r="AC5" s="35">
+        <f>(R5+S5)/2</f>
+        <v>0.0718</v>
+      </c>
+      <c r="AD5" s="35">
+        <f>(S5+T5)/2</f>
+        <v>0.14105</v>
+      </c>
+      <c r="AE5" s="35">
+        <f>(T5+U5)/2</f>
+        <v>0.01965</v>
+      </c>
+      <c r="AF5" s="41">
+        <f>(U5+V5)/2</f>
+        <v>0.04465</v>
+      </c>
+      <c r="AG5" s="41">
+        <f>(V5+W5)/2</f>
+        <v>1.547</v>
+      </c>
+      <c r="AH5" s="41">
+        <f>(W5+X5)/2</f>
+        <v>2.24015</v>
+      </c>
+      <c r="AI5" s="35">
+        <f>(X5+Y5)/2</f>
+        <v>1.43465</v>
+      </c>
+      <c r="AJ5" s="49">
+        <f>STDEV(G5:Y5)</f>
+        <v>0.974103649647413</v>
+      </c>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="70">
+        <v>1.105</v>
+      </c>
+      <c r="AT5" s="70">
+        <v>1.096</v>
+      </c>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="28">
+        <v>10</v>
+      </c>
+      <c r="BC5" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD5" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="28">
+        <v>2.18</v>
+      </c>
+      <c r="BJ5" s="94">
         <f t="shared" si="0"/>
-        <v>0.4073</v>
-      </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="39">
-        <v>0.1608</v>
-      </c>
-      <c r="BB5" s="39">
-        <v>0.2682</v>
-      </c>
-      <c r="BC5" s="40">
-        <v>0.2838</v>
-      </c>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="56">
-        <f t="shared" si="1"/>
-        <v>0.0669665588185626</v>
-      </c>
-      <c r="BR5" s="58"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="71">
-        <v>1.105</v>
-      </c>
-      <c r="BW5" s="71">
-        <v>1.096</v>
-      </c>
-      <c r="BX5" s="9"/>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="9"/>
-      <c r="CA5" s="9"/>
-      <c r="CB5" s="9"/>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="29">
-        <v>10</v>
-      </c>
-      <c r="CF5" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="CG5" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="CH5" s="9"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9"/>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="29">
-        <v>2.18</v>
-      </c>
-      <c r="CM5" s="97">
-        <f t="shared" si="2"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="CN5" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="CO5" s="106">
+      <c r="BK5" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL5" s="95">
         <v>44579</v>
       </c>
     </row>
-    <row r="6" ht="55" customHeight="1" spans="1:93">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29">
+    <row r="6" ht="55" customHeight="1" spans="1:64">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <v>0.672</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
+      <c r="G6" s="29">
+        <v>-0.1686</v>
+      </c>
+      <c r="H6" s="29">
+        <v>-0.2915</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.0513</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.1561</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0.4225</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0.5635</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0.0724</v>
+      </c>
+      <c r="N6" s="27">
+        <v>-0.025</v>
+      </c>
+      <c r="O6" s="27">
+        <v>-0.1437</v>
+      </c>
+      <c r="P6" s="27">
+        <v>0.3149</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0.2253</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0.1397</v>
+      </c>
+      <c r="S6" s="27">
+        <v>-0.5888</v>
+      </c>
+      <c r="T6" s="27">
+        <v>-0.3376</v>
+      </c>
+      <c r="U6" s="27">
+        <v>-0.0115</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0.0822</v>
+      </c>
       <c r="W6" s="39">
         <v>6.9354</v>
       </c>
@@ -3834,137 +3719,158 @@
       <c r="Y6" s="39">
         <v>1.1052</v>
       </c>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="35">
+        <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
+        <v>0.801675</v>
+      </c>
+      <c r="AB6" s="35">
+        <f>(G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/19</f>
+        <v>0.548726315789474</v>
+      </c>
+      <c r="AC6" s="35">
+        <f>(R6+S6)/2</f>
+        <v>-0.22455</v>
+      </c>
+      <c r="AD6" s="35">
+        <f>(S6+T6)/2</f>
+        <v>-0.4632</v>
+      </c>
+      <c r="AE6" s="41">
+        <f>(T6+U6)/2</f>
+        <v>-0.17455</v>
+      </c>
+      <c r="AF6" s="41">
+        <f>(U6+V6)/2</f>
+        <v>0.03535</v>
+      </c>
+      <c r="AG6" s="41">
+        <f>(V6+W6)/2</f>
+        <v>3.5088</v>
+      </c>
+      <c r="AH6" s="41">
+        <f>(W6+X6)/2</f>
+        <v>4.4297</v>
+      </c>
+      <c r="AI6" s="35">
+        <f>(X6+Y6)/2</f>
+        <v>1.5146</v>
+      </c>
+      <c r="AJ6" s="49">
+        <f>STDEV(G6:Y6)</f>
+        <v>1.64320222460161</v>
+      </c>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="70">
+        <v>5.824</v>
+      </c>
+      <c r="AT6" s="70">
+        <v>4.581</v>
+      </c>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="28">
+        <v>6</v>
+      </c>
+      <c r="BC6" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD6" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="28">
+        <v>3.91</v>
+      </c>
+      <c r="BJ6" s="92">
         <f t="shared" si="0"/>
-        <v>0.8054</v>
-      </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="39">
-        <v>4.4042</v>
-      </c>
-      <c r="BB6" s="39">
-        <v>1.8968</v>
-      </c>
-      <c r="BC6" s="39">
-        <v>1.3703</v>
-      </c>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="56">
-        <f t="shared" si="1"/>
-        <v>1.62115217360987</v>
-      </c>
-      <c r="BR6" s="58"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="71">
-        <v>5.824</v>
-      </c>
-      <c r="BW6" s="71">
-        <v>4.581</v>
-      </c>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
-      <c r="CC6" s="9"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="29">
-        <v>6</v>
-      </c>
-      <c r="CF6" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="CG6" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH6" s="9"/>
-      <c r="CI6" s="9"/>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="29">
-        <v>3.91</v>
-      </c>
-      <c r="CM6" s="96">
-        <f t="shared" si="2"/>
         <v>0.67135989010989</v>
       </c>
-      <c r="CN6" s="9"/>
-      <c r="CO6" s="106">
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="95">
         <v>44580</v>
       </c>
     </row>
-    <row r="7" ht="55" customHeight="1" spans="1:93">
-      <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8"/>
+    <row r="7" ht="55" customHeight="1" spans="1:64">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="30">
         <v>0.4234</v>
       </c>
       <c r="F7" s="31">
         <v>0.69</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
+      <c r="G7" s="27">
+        <v>-0.3529</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-0.3095</v>
+      </c>
+      <c r="I7" s="27">
+        <v>-0.5424</v>
+      </c>
+      <c r="J7" s="27">
+        <v>-0.3342</v>
+      </c>
+      <c r="K7" s="27">
+        <v>-0.6364</v>
+      </c>
+      <c r="L7" s="27">
+        <v>-0.6552</v>
+      </c>
+      <c r="M7" s="27">
+        <v>-0.4815</v>
+      </c>
+      <c r="N7" s="27">
+        <v>-0.7297</v>
+      </c>
+      <c r="O7" s="27">
+        <v>-1.5</v>
+      </c>
+      <c r="P7" s="27">
+        <v>-0.7</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>-0.6429</v>
+      </c>
+      <c r="R7" s="27">
+        <v>-0.4</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0.6667</v>
+      </c>
+      <c r="U7" s="27">
+        <v>2</v>
+      </c>
+      <c r="V7" s="27">
+        <v>5.8333</v>
+      </c>
       <c r="W7" s="39">
         <v>21</v>
       </c>
@@ -3974,137 +3880,158 @@
       <c r="Y7" s="39">
         <v>3.6</v>
       </c>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="35">
+        <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
+        <v>3.06895</v>
+      </c>
+      <c r="AB7" s="35">
+        <f>(G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/19</f>
+        <v>1.76396315789474</v>
+      </c>
+      <c r="AC7" s="35">
+        <f>(R7+S7)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD7" s="35">
+        <f>(S7+T7)/2</f>
+        <v>0.58335</v>
+      </c>
+      <c r="AE7" s="41">
+        <f>(T7+U7)/2</f>
+        <v>1.33335</v>
+      </c>
+      <c r="AF7" s="41">
+        <f>(U7+V7)/2</f>
+        <v>3.91665</v>
+      </c>
+      <c r="AG7" s="41">
+        <f>(V7+W7)/2</f>
+        <v>13.41665</v>
+      </c>
+      <c r="AH7" s="41">
+        <f>(W7+X7)/2</f>
+        <v>14.1</v>
+      </c>
+      <c r="AI7" s="35">
+        <f>(X7+Y7)/2</f>
+        <v>5.4</v>
+      </c>
+      <c r="AJ7" s="49">
+        <f>STDEV(G7:Y7)</f>
+        <v>5.22249544526268</v>
+      </c>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="70">
+        <v>1.847</v>
+      </c>
+      <c r="AT7" s="70">
+        <v>1.137</v>
+      </c>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="28">
+        <v>4</v>
+      </c>
+      <c r="BC7" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD7" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="28">
+        <v>1.26</v>
+      </c>
+      <c r="BJ7" s="92">
         <f t="shared" si="0"/>
-        <v>2.56363636363636</v>
-      </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="39">
-        <v>0.1189</v>
-      </c>
-      <c r="BB7" s="39">
-        <v>0.5113</v>
-      </c>
-      <c r="BC7" s="40">
-        <v>0.616</v>
-      </c>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="51"/>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
-      <c r="BO7" s="9"/>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="56">
-        <f t="shared" si="1"/>
-        <v>0.262058600316799</v>
-      </c>
-      <c r="BR7" s="58"/>
-      <c r="BS7" s="9"/>
-      <c r="BT7" s="9"/>
-      <c r="BU7" s="9"/>
-      <c r="BV7" s="71">
-        <v>1.847</v>
-      </c>
-      <c r="BW7" s="71">
-        <v>1.137</v>
-      </c>
-      <c r="BX7" s="9"/>
-      <c r="BY7" s="9"/>
-      <c r="BZ7" s="9"/>
-      <c r="CA7" s="9"/>
-      <c r="CB7" s="9"/>
-      <c r="CC7" s="9"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="29">
-        <v>4</v>
-      </c>
-      <c r="CF7" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG7" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH7" s="9"/>
-      <c r="CI7" s="9"/>
-      <c r="CJ7" s="9"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="29">
-        <v>1.26</v>
-      </c>
-      <c r="CM7" s="96">
-        <f t="shared" si="2"/>
         <v>0.682187330806714</v>
       </c>
-      <c r="CN7" s="9"/>
-      <c r="CO7" s="106">
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="95">
         <v>44580</v>
       </c>
     </row>
-    <row r="8" ht="55" customHeight="1" spans="1:93">
-      <c r="A8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="9"/>
+    <row r="8" ht="55" customHeight="1" spans="1:64">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="32">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>0.101</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
+      <c r="G8" s="27">
+        <v>0.9091</v>
+      </c>
+      <c r="H8" s="27">
+        <v>-0.1724</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.0417</v>
+      </c>
+      <c r="J8" s="27">
+        <v>-0.3478</v>
+      </c>
+      <c r="K8" s="27">
+        <v>-0.1905</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="M8" s="27">
+        <v>-0.26</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0.2444</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.0588</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0.037</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>-0.4324</v>
+      </c>
+      <c r="R8" s="27">
+        <v>-0.4464</v>
+      </c>
+      <c r="S8" s="27">
+        <v>-0.4444</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>0</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
       <c r="W8" s="32">
         <v>1.3</v>
       </c>
@@ -4114,137 +4041,158 @@
       <c r="Y8" s="32">
         <v>-0.4762</v>
       </c>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="8"/>
       <c r="AA8" s="35">
+        <f t="shared" ref="AA8:AA20" si="1">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
+        <v>0.00756666666666668</v>
+      </c>
+      <c r="AB8" s="35">
+        <f>(G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/19</f>
+        <v>0.0103105263157895</v>
+      </c>
+      <c r="AC8" s="35">
+        <f>(R8+S8)/2</f>
+        <v>-0.4454</v>
+      </c>
+      <c r="AD8" s="35">
+        <f>(S8+T8)/2</f>
+        <v>-0.2222</v>
+      </c>
+      <c r="AE8" s="41">
+        <f>(T8+U8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="41">
+        <f>(U8+V8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="41">
+        <f>(V8+W8)/2</f>
+        <v>0.65</v>
+      </c>
+      <c r="AH8" s="41">
+        <f>(W8+X8)/2</f>
+        <v>0.775</v>
+      </c>
+      <c r="AI8" s="35">
+        <f>(X8+Y8)/2</f>
+        <v>-0.1131</v>
+      </c>
+      <c r="AJ8" s="49">
+        <f>STDEV(G8:Y8)</f>
+        <v>0.454846862990095</v>
+      </c>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="70">
+        <v>4.562</v>
+      </c>
+      <c r="AT8" s="70">
+        <v>4.48</v>
+      </c>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="28">
+        <v>9</v>
+      </c>
+      <c r="BC8" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD8" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="28">
+        <v>0.462891</v>
+      </c>
+      <c r="BJ8" s="92">
         <f t="shared" si="0"/>
-        <v>0.140909090909091</v>
-      </c>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="32">
-        <v>0.3467</v>
-      </c>
-      <c r="BB8" s="32">
-        <v>0.1404</v>
-      </c>
-      <c r="BC8" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="9"/>
-      <c r="BG8" s="9"/>
-      <c r="BH8" s="9"/>
-      <c r="BI8" s="9"/>
-      <c r="BJ8" s="51"/>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
-      <c r="BO8" s="9"/>
-      <c r="BP8" s="9"/>
-      <c r="BQ8" s="56">
-        <f t="shared" si="1"/>
-        <v>0.169769814749266</v>
-      </c>
-      <c r="BR8" s="58"/>
-      <c r="BS8" s="9"/>
-      <c r="BT8" s="9"/>
-      <c r="BU8" s="9"/>
-      <c r="BV8" s="71">
-        <v>4.562</v>
-      </c>
-      <c r="BW8" s="71">
-        <v>4.48</v>
-      </c>
-      <c r="BX8" s="9"/>
-      <c r="BY8" s="9"/>
-      <c r="BZ8" s="9"/>
-      <c r="CA8" s="9"/>
-      <c r="CB8" s="9"/>
-      <c r="CC8" s="9"/>
-      <c r="CD8" s="9"/>
-      <c r="CE8" s="29">
-        <v>9</v>
-      </c>
-      <c r="CF8" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG8" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH8" s="9"/>
-      <c r="CI8" s="9"/>
-      <c r="CJ8" s="9"/>
-      <c r="CK8" s="9"/>
-      <c r="CL8" s="29">
-        <v>0.462891</v>
-      </c>
-      <c r="CM8" s="96">
-        <f t="shared" si="2"/>
         <v>0.10146668128014</v>
       </c>
-      <c r="CN8" s="9"/>
-      <c r="CO8" s="106">
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="95">
         <v>44580</v>
       </c>
     </row>
-    <row r="9" ht="55" customHeight="1" spans="1:93">
-      <c r="A9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="9"/>
+    <row r="9" ht="55" customHeight="1" spans="1:64">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="32">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>0.549</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
+      <c r="G9" s="27">
+        <v>1.2703</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.7241</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0.681</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.2231</v>
+      </c>
+      <c r="K9" s="27">
+        <v>3.7</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1.29</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0.8718</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0.6824</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0.766</v>
+      </c>
+      <c r="P9" s="27">
+        <v>0.3537</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0.2986</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0.241</v>
+      </c>
+      <c r="S9" s="27">
+        <v>0.2771</v>
+      </c>
+      <c r="T9" s="27">
+        <v>-0.0742</v>
+      </c>
+      <c r="U9" s="27">
+        <v>-0.1055</v>
+      </c>
+      <c r="V9" s="27">
+        <v>0.2136</v>
+      </c>
       <c r="W9" s="38">
         <v>0.3774</v>
       </c>
@@ -4254,137 +4202,158 @@
       <c r="Y9" s="38">
         <v>0.3019</v>
       </c>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="8"/>
       <c r="AA9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.301766666666667</v>
+      </c>
+      <c r="AB9" s="35">
+        <f>(G9+H9+I9+J9+K9+L9+M9+N9+O9+P9+Q9+R9+S9+T9+U9+V9+W9+X9+Y9)/19</f>
+        <v>0.651657894736842</v>
+      </c>
+      <c r="AC9" s="35">
+        <f>(R9+S9)/2</f>
+        <v>0.25905</v>
+      </c>
+      <c r="AD9" s="35">
+        <f>(S9+T9)/2</f>
+        <v>0.10145</v>
+      </c>
+      <c r="AE9" s="35">
+        <f>(T9+U9)/2</f>
+        <v>-0.08985</v>
+      </c>
+      <c r="AF9" s="41">
+        <f>(U9+V9)/2</f>
+        <v>0.05405</v>
+      </c>
+      <c r="AG9" s="41">
+        <f>(V9+W9)/2</f>
+        <v>0.2955</v>
+      </c>
+      <c r="AH9" s="41">
+        <f>(W9+X9)/2</f>
+        <v>0.3333</v>
+      </c>
+      <c r="AI9" s="35">
+        <f>(X9+Y9)/2</f>
+        <v>0.29555</v>
+      </c>
+      <c r="AJ9" s="49">
+        <f>STDEV(G9:Y9)</f>
+        <v>0.832605655835135</v>
+      </c>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="70">
+        <v>10.64</v>
+      </c>
+      <c r="AT9" s="70">
+        <v>10.22</v>
+      </c>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="28">
+        <v>37</v>
+      </c>
+      <c r="BC9" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD9" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="28">
+        <v>5.84</v>
+      </c>
+      <c r="BJ9" s="92">
         <f t="shared" si="0"/>
-        <v>0.0606</v>
-      </c>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="39">
-        <v>0.6459</v>
-      </c>
-      <c r="BB9" s="39">
-        <v>0.3625</v>
-      </c>
-      <c r="BC9" s="39">
-        <v>0.351</v>
-      </c>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9"/>
-      <c r="BI9" s="9"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
-      <c r="BO9" s="9"/>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="56">
-        <f t="shared" si="1"/>
-        <v>0.167039825590586</v>
-      </c>
-      <c r="BR9" s="58"/>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
-      <c r="BU9" s="9"/>
-      <c r="BV9" s="71">
-        <v>10.64</v>
-      </c>
-      <c r="BW9" s="71">
-        <v>10.22</v>
-      </c>
-      <c r="BX9" s="9"/>
-      <c r="BY9" s="9"/>
-      <c r="BZ9" s="9"/>
-      <c r="CA9" s="9"/>
-      <c r="CB9" s="9"/>
-      <c r="CC9" s="9"/>
-      <c r="CD9" s="9"/>
-      <c r="CE9" s="29">
-        <v>37</v>
-      </c>
-      <c r="CF9" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG9" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="CH9" s="9"/>
-      <c r="CI9" s="9"/>
-      <c r="CJ9" s="9"/>
-      <c r="CK9" s="9"/>
-      <c r="CL9" s="29">
-        <v>5.84</v>
-      </c>
-      <c r="CM9" s="96">
-        <f t="shared" si="2"/>
         <v>0.548872180451128</v>
       </c>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="106">
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="95">
         <v>44585</v>
       </c>
     </row>
-    <row r="10" ht="55" customHeight="1" spans="1:93">
-      <c r="A10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="9"/>
+    <row r="10" ht="55" customHeight="1" spans="1:64">
+      <c r="A10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="32">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>0.407</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
+      <c r="G10" s="27">
+        <v>0.0544</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.0366</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0.009</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.0227</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.0113</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.018</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0.0132</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0.0044</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0.0199</v>
+      </c>
+      <c r="P10" s="27">
+        <v>-0.0241</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>-0.0372</v>
+      </c>
+      <c r="R10" s="27">
+        <v>-0.0568</v>
+      </c>
+      <c r="S10" s="27">
+        <v>-0.1353</v>
+      </c>
+      <c r="T10" s="27">
+        <v>-0.01</v>
+      </c>
+      <c r="U10" s="27">
+        <v>0.0149</v>
+      </c>
+      <c r="V10" s="27">
+        <v>0.0142</v>
+      </c>
       <c r="W10" s="32">
         <v>0.4123</v>
       </c>
@@ -4394,167 +4363,156 @@
       <c r="Y10" s="32">
         <v>0.1046</v>
       </c>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="8"/>
       <c r="AA10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.0377083333333333</v>
+      </c>
+      <c r="AB10" s="35">
+        <f>(G10+H10+I10+J10+K10+L10+M10+N10+O10+P10+Q10+R10+S10+T10+U10+V10+W10+X10+Y10)/19</f>
+        <v>0.0325105263157895</v>
+      </c>
+      <c r="AC10" s="35">
+        <f>(R10+S10)/2</f>
+        <v>-0.09605</v>
+      </c>
+      <c r="AD10" s="41">
+        <f>(S10+T10)/2</f>
+        <v>-0.07265</v>
+      </c>
+      <c r="AE10" s="41">
+        <f>(T10+U10)/2</f>
+        <v>0.00245</v>
+      </c>
+      <c r="AF10" s="41">
+        <f>(U10+V10)/2</f>
+        <v>0.01455</v>
+      </c>
+      <c r="AG10" s="41">
+        <f>(V10+W10)/2</f>
+        <v>0.21325</v>
+      </c>
+      <c r="AH10" s="41">
+        <f>(W10+X10)/2</f>
+        <v>0.27895</v>
+      </c>
+      <c r="AI10" s="35">
+        <f>(X10+Y10)/2</f>
+        <v>0.1251</v>
+      </c>
+      <c r="AJ10" s="49">
+        <f>STDEV(G10:Y10)</f>
+        <v>0.108527312971522</v>
+      </c>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="70">
+        <v>153</v>
+      </c>
+      <c r="AT10" s="70">
+        <v>111.4</v>
+      </c>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="28">
+        <v>87</v>
+      </c>
+      <c r="BC10" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD10" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="28">
+        <v>64.56</v>
+      </c>
+      <c r="BJ10" s="92">
         <f t="shared" si="0"/>
-        <v>0.0507181818181818</v>
-      </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="28"/>
-      <c r="AY10" s="28"/>
-      <c r="AZ10" s="28"/>
-      <c r="BA10" s="32">
-        <v>0.404</v>
-      </c>
-      <c r="BB10" s="32">
-        <v>0.2621</v>
-      </c>
-      <c r="BC10" s="32">
-        <v>0.0774</v>
-      </c>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="9"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="9"/>
-      <c r="BO10" s="9"/>
-      <c r="BP10" s="9"/>
-      <c r="BQ10" s="56">
-        <f t="shared" si="1"/>
-        <v>0.163766734513861</v>
-      </c>
-      <c r="BR10" s="58"/>
-      <c r="BS10" s="9"/>
-      <c r="BT10" s="9"/>
-      <c r="BU10" s="9"/>
-      <c r="BV10" s="71">
-        <v>153</v>
-      </c>
-      <c r="BW10" s="71">
-        <v>111.4</v>
-      </c>
-      <c r="BX10" s="9"/>
-      <c r="BY10" s="9"/>
-      <c r="BZ10" s="9"/>
-      <c r="CA10" s="9"/>
-      <c r="CB10" s="9"/>
-      <c r="CC10" s="9"/>
-      <c r="CD10" s="9"/>
-      <c r="CE10" s="29">
-        <v>87</v>
-      </c>
-      <c r="CF10" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG10" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH10" s="9"/>
-      <c r="CI10" s="9"/>
-      <c r="CJ10" s="9"/>
-      <c r="CK10" s="9"/>
-      <c r="CL10" s="29">
-        <v>64.56</v>
-      </c>
-      <c r="CM10" s="96">
-        <f t="shared" si="2"/>
         <v>0.421960784313726</v>
       </c>
-      <c r="CN10" s="9"/>
-      <c r="CO10" s="106">
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="95">
         <v>44585</v>
       </c>
     </row>
-    <row r="11" ht="89" customHeight="1" spans="1:93">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="9"/>
+    <row r="11" ht="89" customHeight="1" spans="1:64">
+      <c r="A11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="32">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>0.11</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="27">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="27">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="27">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="27">
         <v>-4</v>
       </c>
       <c r="W11" s="40">
@@ -4566,188 +4524,118 @@
       <c r="Y11" s="40">
         <v>3.568</v>
       </c>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="8"/>
       <c r="AA11" s="35">
-        <f t="shared" si="0"/>
-        <v>-0.963436363636364</v>
+        <f t="shared" si="1"/>
+        <v>-0.585816666666667</v>
       </c>
       <c r="AB11" s="35">
-        <f t="shared" ref="AB11:AB20" si="3">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
+        <f t="shared" ref="AB11:AB20" si="2">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
       <c r="AC11" s="35">
-        <f>(R11+S11)/2</f>
+        <f t="shared" ref="AC11:AI11" si="3">(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
       <c r="AD11" s="35">
-        <f>(S11+T11)/2</f>
+        <f t="shared" si="3"/>
         <v>-3.28665</v>
       </c>
       <c r="AE11" s="35">
-        <f>(T11+U11)/2</f>
+        <f t="shared" si="3"/>
         <v>-1.65565</v>
       </c>
       <c r="AF11" s="35">
-        <f>(U11+V11)/2</f>
+        <f t="shared" si="3"/>
         <v>-2.739</v>
       </c>
       <c r="AG11" s="41">
-        <f>(V11+W11)/2</f>
+        <f t="shared" si="3"/>
         <v>-1.5976</v>
       </c>
       <c r="AH11" s="41">
-        <f>(W11+X11)/2</f>
+        <f t="shared" si="3"/>
         <v>1.2024</v>
       </c>
       <c r="AI11" s="41">
-        <f>(X11+Y11)/2</f>
+        <f t="shared" si="3"/>
         <v>2.584</v>
       </c>
       <c r="AJ11" s="49">
         <f t="shared" ref="AJ11:AJ20" si="4">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="28">
-        <v>-0.0547</v>
-      </c>
-      <c r="AL11" s="28">
-        <v>0.0508</v>
-      </c>
-      <c r="AM11" s="28">
-        <v>0.0083</v>
-      </c>
-      <c r="AN11" s="28">
-        <v>0.0411</v>
-      </c>
-      <c r="AO11" s="28">
-        <v>-0.1632</v>
-      </c>
-      <c r="AP11" s="28">
-        <v>-0.1035</v>
-      </c>
-      <c r="AQ11" s="28">
-        <v>-0.1189</v>
-      </c>
-      <c r="AR11" s="28">
-        <v>-0.1039</v>
-      </c>
-      <c r="AS11" s="28">
-        <v>0.0691</v>
-      </c>
-      <c r="AT11" s="28">
-        <v>-0.0024</v>
-      </c>
-      <c r="AU11" s="28">
-        <v>0.0638</v>
-      </c>
-      <c r="AV11" s="28">
-        <v>0.0429</v>
-      </c>
-      <c r="AW11" s="28">
-        <v>-0.1896</v>
-      </c>
-      <c r="AX11" s="28">
-        <v>-0.1348</v>
-      </c>
-      <c r="AY11" s="28">
-        <v>-0.1265</v>
-      </c>
-      <c r="AZ11" s="28">
-        <v>-0.0579</v>
-      </c>
-      <c r="BA11" s="39">
+      <c r="AK11" s="39">
         <v>0.2014</v>
       </c>
-      <c r="BB11" s="39">
+      <c r="AL11" s="39">
         <v>0.0771</v>
       </c>
-      <c r="BC11" s="39">
+      <c r="AM11" s="39">
         <v>0.26</v>
       </c>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="35">
-        <f t="shared" ref="BE11:BE20" si="5">(AS11+AT11+AU11+AV11+AW11+AX11+AY11+AZ11+BA11+BB11+BC11+BD11)/11</f>
-        <v>0.0184636363636364</v>
-      </c>
-      <c r="BF11" s="35">
-        <f t="shared" ref="BF11:BF20" si="6">(AK11+AL11+AM11+AN11+AO11+AP11+AQ11+AR11+AS11+AT11+AU11+AV11+AW11+AX11+AY11+AZ11+BA11+BB11+BC11+BD11)/19</f>
-        <v>-0.012678947368421</v>
-      </c>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="9"/>
-      <c r="BJ11" s="51"/>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
-      <c r="BO11" s="9"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="56">
-        <f t="shared" si="1"/>
-        <v>0.121295559957886</v>
-      </c>
-      <c r="BR11" s="58">
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="56">
         <v>42347</v>
       </c>
-      <c r="BS11" s="9"/>
-      <c r="BT11" s="9"/>
-      <c r="BU11" s="9"/>
-      <c r="BV11" s="71">
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="70">
         <v>1.32</v>
       </c>
-      <c r="BW11" s="71">
+      <c r="AT11" s="70">
         <v>1.184</v>
       </c>
-      <c r="BX11" s="9"/>
-      <c r="BY11" s="9"/>
-      <c r="BZ11" s="9"/>
-      <c r="CA11" s="9"/>
-      <c r="CB11" s="9"/>
-      <c r="CC11" s="9"/>
-      <c r="CD11" s="9"/>
-      <c r="CE11" s="29">
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="28">
         <v>2</v>
       </c>
-      <c r="CF11" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG11" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="CH11" s="9"/>
-      <c r="CI11" s="9"/>
-      <c r="CJ11" s="9"/>
-      <c r="CK11" s="9"/>
-      <c r="CL11" s="29">
+      <c r="BC11" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD11" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="28">
         <v>0.139699</v>
       </c>
-      <c r="CM11" s="96">
-        <f t="shared" si="2"/>
+      <c r="BJ11" s="92">
+        <f t="shared" si="0"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="CN11" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO11" s="106">
+      <c r="BK11" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL11" s="95">
         <v>44586</v>
       </c>
     </row>
-    <row r="12" ht="55" customHeight="1" spans="1:93">
-      <c r="A12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="12"/>
+    <row r="12" ht="55" customHeight="1" spans="1:64">
+      <c r="A12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="33">
         <v>0.3655</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.17</v>
       </c>
       <c r="G12" s="33">
@@ -4807,41 +4695,41 @@
       <c r="Y12" s="33">
         <v>0.1333</v>
       </c>
-      <c r="Z12" s="12"/>
+      <c r="Z12" s="11"/>
       <c r="AA12" s="35">
-        <f t="shared" si="0"/>
-        <v>0.0298818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.0385</v>
       </c>
       <c r="AB12" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.00515789473684209</v>
       </c>
       <c r="AC12" s="35">
-        <f>(R12+S12)/2</f>
+        <f t="shared" ref="AC12:AI12" si="5">(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
       <c r="AD12" s="35">
-        <f>(S12+T12)/2</f>
+        <f t="shared" si="5"/>
         <v>-0.4872</v>
       </c>
       <c r="AE12" s="41">
-        <f>(T12+U12)/2</f>
+        <f t="shared" si="5"/>
         <v>-0.21265</v>
       </c>
       <c r="AF12" s="41">
-        <f>(U12+V12)/2</f>
+        <f t="shared" si="5"/>
         <v>-0.11145</v>
       </c>
       <c r="AG12" s="41">
-        <f>(V12+W12)/2</f>
+        <f t="shared" si="5"/>
         <v>0.69735</v>
       </c>
       <c r="AH12" s="41">
-        <f>(W12+X12)/2</f>
+        <f t="shared" si="5"/>
         <v>0.8611</v>
       </c>
       <c r="AI12" s="35">
-        <f>(X12+Y12)/2</f>
+        <f t="shared" si="5"/>
         <v>0.17775</v>
       </c>
       <c r="AJ12" s="49">
@@ -4849,142 +4737,72 @@
         <v>0.413115667574254</v>
       </c>
       <c r="AK12" s="33">
-        <v>1.0642</v>
+        <v>-0.4742</v>
       </c>
       <c r="AL12" s="33">
-        <v>0.0228</v>
+        <v>-0.4142</v>
       </c>
       <c r="AM12" s="33">
-        <v>0.0841</v>
-      </c>
-      <c r="AN12" s="33">
-        <v>0.5887</v>
-      </c>
-      <c r="AO12" s="33">
-        <v>-0.8787</v>
-      </c>
-      <c r="AP12" s="33">
-        <v>-0.7718</v>
-      </c>
-      <c r="AQ12" s="33">
-        <v>-0.4438</v>
-      </c>
-      <c r="AR12" s="33">
-        <v>-0.57</v>
-      </c>
-      <c r="AS12" s="33">
-        <v>7.3354</v>
-      </c>
-      <c r="AT12" s="33">
-        <v>6.4137</v>
-      </c>
-      <c r="AU12" s="33">
-        <v>1.9991</v>
-      </c>
-      <c r="AV12" s="33">
-        <v>1.3633</v>
-      </c>
-      <c r="AW12" s="33">
-        <v>-0.2726</v>
-      </c>
-      <c r="AX12" s="33">
-        <v>-0.3025</v>
-      </c>
-      <c r="AY12" s="33">
-        <v>-0.2519</v>
-      </c>
-      <c r="AZ12" s="33">
-        <v>-0.2175</v>
-      </c>
-      <c r="BA12" s="33">
-        <v>-0.4742</v>
-      </c>
-      <c r="BB12" s="33">
-        <v>-0.4142</v>
-      </c>
-      <c r="BC12" s="33">
         <v>-0.3214</v>
       </c>
-      <c r="BD12" s="12"/>
-      <c r="BE12" s="35">
-        <f t="shared" si="5"/>
-        <v>1.35065454545455</v>
-      </c>
-      <c r="BF12" s="35">
-        <f t="shared" si="6"/>
-        <v>0.734352631578947</v>
-      </c>
-      <c r="BG12" s="12"/>
-      <c r="BH12" s="12"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="12"/>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="12"/>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="56">
-        <f t="shared" si="1"/>
-        <v>2.29377246337615</v>
-      </c>
-      <c r="BR12" s="59">
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="57">
         <v>35599</v>
       </c>
-      <c r="BS12" s="12"/>
-      <c r="BT12" s="12"/>
-      <c r="BU12" s="12"/>
-      <c r="BV12" s="72">
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="71">
         <v>13.29</v>
       </c>
-      <c r="BW12" s="72">
+      <c r="AT12" s="71">
         <v>13.29</v>
       </c>
-      <c r="BX12" s="12"/>
-      <c r="BY12" s="12"/>
-      <c r="BZ12" s="12"/>
-      <c r="CA12" s="12"/>
-      <c r="CB12" s="12"/>
-      <c r="CC12" s="12"/>
-      <c r="CD12" s="12"/>
-      <c r="CE12" s="12">
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11">
         <v>4</v>
       </c>
-      <c r="CF12" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG12" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="12"/>
-      <c r="CJ12" s="12"/>
-      <c r="CK12" s="12"/>
-      <c r="CL12" s="12">
+      <c r="BC12" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD12" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11">
         <v>2.29</v>
       </c>
-      <c r="CM12" s="99">
-        <f t="shared" si="2"/>
+      <c r="BJ12" s="97">
+        <f t="shared" si="0"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="CN12" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="CO12" s="59">
+      <c r="BK12" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL12" s="57">
         <v>44605</v>
       </c>
     </row>
-    <row r="13" ht="90" customHeight="1" spans="1:93">
-      <c r="A13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="8"/>
+    <row r="13" ht="90" customHeight="1" spans="1:64">
+      <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="32">
         <v>0.3405</v>
       </c>
@@ -5048,156 +4866,118 @@
       <c r="Y13" s="39">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="20"/>
+      <c r="Z13" s="19"/>
       <c r="AA13" s="35">
-        <f t="shared" si="0"/>
-        <v>0.476054545454546</v>
+        <f t="shared" si="1"/>
+        <v>0.655683333333334</v>
       </c>
       <c r="AB13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.696694736842105</v>
       </c>
       <c r="AC13" s="35">
-        <f>(R13+S13)/2</f>
+        <f t="shared" ref="AC13:AI13" si="6">(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
       <c r="AD13" s="35">
-        <f>(S13+T13)/2</f>
+        <f t="shared" si="6"/>
         <v>-0.9115</v>
       </c>
       <c r="AE13" s="41">
-        <f>(T13+U13)/2</f>
+        <f t="shared" si="6"/>
         <v>-0.8</v>
       </c>
       <c r="AF13" s="41">
-        <f>(U13+V13)/2</f>
+        <f t="shared" si="6"/>
         <v>-0.4748</v>
       </c>
       <c r="AG13" s="41">
-        <f>(V13+W13)/2</f>
+        <f t="shared" si="6"/>
         <v>0.2002</v>
       </c>
       <c r="AH13" s="41">
-        <f>(W13+X13)/2</f>
+        <f t="shared" si="6"/>
         <v>4.53335</v>
       </c>
       <c r="AI13" s="41">
-        <f>(X13+Y13)/2</f>
+        <f t="shared" si="6"/>
         <v>5.5158</v>
       </c>
       <c r="AJ13" s="49">
         <f t="shared" si="4"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="32">
+      <c r="AK13" s="32">
         <v>0.7335</v>
       </c>
-      <c r="BB13" s="32">
+      <c r="AL13" s="32">
         <v>0.4001</v>
       </c>
-      <c r="BC13" s="32">
+      <c r="AM13" s="32">
         <v>0.1638</v>
       </c>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="35">
-        <f t="shared" si="5"/>
-        <v>0.117945454545455</v>
-      </c>
-      <c r="BF13" s="35">
-        <f t="shared" si="6"/>
-        <v>0.0682842105263158</v>
-      </c>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
-      <c r="BN13" s="20"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="20"/>
-      <c r="BQ13" s="56">
-        <f t="shared" si="1"/>
-        <v>0.28622582576234</v>
-      </c>
-      <c r="BR13" s="60">
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="58">
         <v>42368</v>
       </c>
-      <c r="BS13" s="9"/>
-      <c r="BT13" s="9"/>
-      <c r="BU13" s="9"/>
-      <c r="BV13" s="71">
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="70">
         <v>79.23</v>
       </c>
-      <c r="BW13" s="71">
+      <c r="AT13" s="70">
         <v>79.22</v>
       </c>
-      <c r="BX13" s="9"/>
-      <c r="BY13" s="9"/>
-      <c r="BZ13" s="9"/>
-      <c r="CA13" s="9"/>
-      <c r="CB13" s="9"/>
-      <c r="CC13" s="9"/>
-      <c r="CD13" s="9"/>
-      <c r="CE13" s="29">
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="28">
         <v>123</v>
       </c>
-      <c r="CF13" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG13" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH13" s="9"/>
-      <c r="CI13" s="9"/>
-      <c r="CJ13" s="9"/>
-      <c r="CK13" s="9"/>
-      <c r="CL13" s="29">
+      <c r="BC13" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD13" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="28">
         <v>63.51</v>
       </c>
-      <c r="CM13" s="96">
-        <f t="shared" ref="CM13:CM15" si="7">CL13/BV13</f>
+      <c r="BJ13" s="92">
+        <f t="shared" ref="BJ13:BJ20" si="7">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="CN13" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO13" s="106">
+      <c r="BK13" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL13" s="95">
         <v>44601</v>
       </c>
     </row>
-    <row r="14" ht="70" customHeight="1" spans="1:93">
-      <c r="A14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="9"/>
+    <row r="14" ht="70" customHeight="1" spans="1:64">
+      <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="32">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>0.577</v>
       </c>
       <c r="G14" s="35"/>
@@ -5225,153 +5005,115 @@
       <c r="Y14" s="32">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="20"/>
+      <c r="Z14" s="19"/>
       <c r="AA14" s="35">
-        <f t="shared" si="0"/>
-        <v>0.0307363636363636</v>
+        <f t="shared" si="1"/>
+        <v>0.0206</v>
       </c>
       <c r="AB14" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.0130105263157895</v>
       </c>
       <c r="AC14" s="35">
-        <f t="shared" ref="AC14:AC19" si="8">(R14+S14)/2</f>
+        <f t="shared" ref="AC14:AC20" si="8">(R14+S14)/2</f>
         <v>0</v>
       </c>
       <c r="AD14" s="35">
-        <f t="shared" ref="AD14:AD19" si="9">(S14+T14)/2</f>
+        <f t="shared" ref="AD14:AD20" si="9">(S14+T14)/2</f>
         <v>0</v>
       </c>
       <c r="AE14" s="35">
-        <f t="shared" ref="AE14:AE19" si="10">(T14+U14)/2</f>
+        <f t="shared" ref="AE14:AE20" si="10">(T14+U14)/2</f>
         <v>0</v>
       </c>
       <c r="AF14" s="35">
-        <f t="shared" ref="AF14:AF19" si="11">(U14+V14)/2</f>
+        <f t="shared" ref="AF14:AF20" si="11">(U14+V14)/2</f>
         <v>0</v>
       </c>
       <c r="AG14" s="35">
-        <f t="shared" ref="AG14:AG19" si="12">(V14+W14)/2</f>
+        <f t="shared" ref="AG14:AG20" si="12">(V14+W14)/2</f>
         <v>0.12905</v>
       </c>
       <c r="AH14" s="35">
-        <f t="shared" ref="AH14:AH19" si="13">(W14+X14)/2</f>
+        <f t="shared" ref="AH14:AH20" si="13">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
       <c r="AI14" s="35">
-        <f t="shared" ref="AI14:AI19" si="14">(X14+Y14)/2</f>
+        <f t="shared" ref="AI14:AI20" si="14">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
       <c r="AJ14" s="49">
         <f t="shared" si="4"/>
         <v>0.1745123777845</v>
       </c>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="39">
+      <c r="AK14" s="39">
         <v>0.2685</v>
       </c>
-      <c r="BB14" s="39">
+      <c r="AL14" s="39">
         <v>0.4227</v>
       </c>
-      <c r="BC14" s="39">
+      <c r="AM14" s="39">
         <v>0.3457</v>
       </c>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="35">
-        <f t="shared" si="5"/>
-        <v>0.0942636363636364</v>
-      </c>
-      <c r="BF14" s="35">
-        <f t="shared" si="6"/>
-        <v>0.0545736842105263</v>
-      </c>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="20"/>
-      <c r="BI14" s="20"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="20"/>
-      <c r="BQ14" s="56">
-        <f t="shared" si="1"/>
-        <v>0.0771000216169447</v>
-      </c>
-      <c r="BR14" s="60">
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="58">
         <v>37757</v>
       </c>
-      <c r="BS14" s="9"/>
-      <c r="BT14" s="9"/>
-      <c r="BU14" s="9"/>
-      <c r="BV14" s="71">
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="70">
         <v>5.912</v>
       </c>
-      <c r="BW14" s="71">
+      <c r="AT14" s="70">
         <v>5.69</v>
       </c>
-      <c r="BX14" s="9"/>
-      <c r="BY14" s="9"/>
-      <c r="BZ14" s="9"/>
-      <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-      <c r="CC14" s="9"/>
-      <c r="CD14" s="9"/>
-      <c r="CE14" s="29">
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="28">
         <v>11</v>
       </c>
-      <c r="CF14" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="CG14" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH14" s="9"/>
-      <c r="CI14" s="9"/>
-      <c r="CJ14" s="9"/>
-      <c r="CK14" s="9"/>
-      <c r="CL14" s="29">
+      <c r="BC14" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD14" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="28">
         <v>3.41</v>
       </c>
-      <c r="CM14" s="96">
+      <c r="BJ14" s="92">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="CN14" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="CO14" s="106">
+      <c r="BK14" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL14" s="95">
         <v>44601</v>
       </c>
     </row>
-    <row r="15" ht="94" customHeight="1" spans="1:93">
-      <c r="A15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="28">
+    <row r="15" ht="94" customHeight="1" spans="1:64">
+      <c r="A15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="27">
         <v>0.5308</v>
       </c>
       <c r="F15" s="36">
@@ -5434,13 +5176,13 @@
       <c r="Y15" s="41">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="20"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="35">
-        <f t="shared" si="0"/>
-        <v>2.23333636363636</v>
+        <f t="shared" si="1"/>
+        <v>2.19015833333333</v>
       </c>
       <c r="AB15" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.47577368421053</v>
       </c>
       <c r="AC15" s="35">
@@ -5475,147 +5217,77 @@
         <f t="shared" si="4"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="35">
-        <v>0.1132</v>
-      </c>
-      <c r="AL15" s="35">
-        <v>0.1398</v>
-      </c>
-      <c r="AM15" s="35">
-        <v>0.2043</v>
-      </c>
-      <c r="AN15" s="35">
-        <v>0.2065</v>
-      </c>
-      <c r="AO15" s="35">
-        <v>0.4333</v>
-      </c>
-      <c r="AP15" s="35">
-        <v>0.2428</v>
-      </c>
-      <c r="AQ15" s="35">
-        <v>0.1544</v>
-      </c>
-      <c r="AR15" s="35">
-        <v>0.1373</v>
-      </c>
-      <c r="AS15" s="35">
-        <v>-0.2385</v>
-      </c>
-      <c r="AT15" s="35">
-        <v>-0.1242</v>
-      </c>
-      <c r="AU15" s="35">
-        <v>-0.1114</v>
-      </c>
-      <c r="AV15" s="35">
-        <v>-0.0105</v>
-      </c>
-      <c r="AW15" s="35">
-        <v>-0.5838</v>
-      </c>
-      <c r="AX15" s="35">
-        <v>-0.225</v>
-      </c>
-      <c r="AY15" s="35">
-        <v>-0.0519</v>
-      </c>
-      <c r="AZ15" s="35">
-        <v>-0.07</v>
-      </c>
-      <c r="BA15" s="41">
+      <c r="AK15" s="41">
         <v>2.2501</v>
       </c>
-      <c r="BB15" s="41">
+      <c r="AL15" s="41">
         <v>0.7909</v>
       </c>
-      <c r="BC15" s="41">
+      <c r="AM15" s="41">
         <v>0.5626</v>
       </c>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="35">
-        <f t="shared" si="5"/>
-        <v>0.198936363636364</v>
-      </c>
-      <c r="BF15" s="35">
-        <f t="shared" si="6"/>
-        <v>0.201047368421053</v>
-      </c>
-      <c r="BG15" s="20"/>
-      <c r="BH15" s="20"/>
-      <c r="BI15" s="20"/>
-      <c r="BJ15" s="20"/>
-      <c r="BK15" s="20"/>
-      <c r="BL15" s="20"/>
-      <c r="BM15" s="20"/>
-      <c r="BN15" s="20"/>
-      <c r="BO15" s="20"/>
-      <c r="BP15" s="20"/>
-      <c r="BQ15" s="56">
-        <f t="shared" si="1"/>
-        <v>0.583429053449823</v>
-      </c>
-      <c r="BR15" s="61">
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="59">
         <v>37250</v>
       </c>
-      <c r="BS15" s="9"/>
-      <c r="BT15" s="9"/>
-      <c r="BU15" s="9"/>
-      <c r="BV15" s="73">
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="72">
         <v>21.81</v>
       </c>
-      <c r="BW15" s="73">
+      <c r="AT15" s="72">
         <v>14.33</v>
       </c>
-      <c r="BX15" s="9"/>
-      <c r="BY15" s="9"/>
-      <c r="BZ15" s="9"/>
-      <c r="CA15" s="9"/>
-      <c r="CB15" s="9"/>
-      <c r="CC15" s="9"/>
-      <c r="CD15" s="9"/>
-      <c r="CE15" s="20">
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="19">
         <v>1</v>
       </c>
-      <c r="CF15" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="CG15" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="CH15" s="9"/>
-      <c r="CI15" s="9"/>
-      <c r="CJ15" s="9"/>
-      <c r="CK15" s="9"/>
-      <c r="CL15" s="9">
+      <c r="BC15" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD15" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8">
         <v>19.28</v>
       </c>
-      <c r="CM15" s="96">
+      <c r="BJ15" s="92">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="CN15" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="CO15" s="106">
+      <c r="BK15" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL15" s="95">
         <v>44608</v>
       </c>
     </row>
-    <row r="16" ht="82" customHeight="1" spans="1:93">
-      <c r="A16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="28">
+    <row r="16" ht="82" customHeight="1" spans="1:64">
+      <c r="A16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="27">
         <v>0.5564</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>0.725</v>
       </c>
       <c r="G16" s="35"/>
@@ -5634,22 +5306,22 @@
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
-      <c r="W16" s="28">
+      <c r="W16" s="27">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="27">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="27">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="19"/>
       <c r="AA16" s="35">
-        <f t="shared" si="0"/>
-        <v>-0.0322090909090909</v>
+        <f t="shared" si="1"/>
+        <v>-0.0540333333333333</v>
       </c>
       <c r="AB16" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.0341263157894737</v>
       </c>
       <c r="AC16" s="35">
@@ -5684,111 +5356,73 @@
         <f t="shared" si="4"/>
         <v>0.0770663566891113</v>
       </c>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="28">
+      <c r="AK16" s="27">
         <v>-0.1922</v>
       </c>
-      <c r="BB16" s="28">
+      <c r="AL16" s="27">
         <v>-0.1946</v>
       </c>
-      <c r="BC16" s="28">
+      <c r="AM16" s="27">
         <v>-0.0688</v>
       </c>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="35">
-        <f t="shared" si="5"/>
-        <v>-0.0414181818181818</v>
-      </c>
-      <c r="BF16" s="35">
-        <f t="shared" si="6"/>
-        <v>-0.0239789473684211</v>
-      </c>
-      <c r="BG16" s="20"/>
-      <c r="BH16" s="20"/>
-      <c r="BI16" s="20"/>
-      <c r="BJ16" s="20"/>
-      <c r="BK16" s="20"/>
-      <c r="BL16" s="20"/>
-      <c r="BM16" s="20"/>
-      <c r="BN16" s="20"/>
-      <c r="BO16" s="20"/>
-      <c r="BP16" s="20"/>
-      <c r="BQ16" s="56">
-        <f t="shared" si="1"/>
-        <v>0.0719478514851787</v>
-      </c>
-      <c r="BR16" s="61">
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="59">
         <v>42031</v>
       </c>
-      <c r="BS16" s="9"/>
-      <c r="BT16" s="9"/>
-      <c r="BU16" s="9"/>
-      <c r="BV16" s="73">
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="72">
         <v>3.726</v>
       </c>
-      <c r="BW16" s="73">
+      <c r="AT16" s="72">
         <v>3.253</v>
       </c>
-      <c r="BX16" s="9"/>
-      <c r="BY16" s="9"/>
-      <c r="BZ16" s="9"/>
-      <c r="CA16" s="9"/>
-      <c r="CB16" s="9"/>
-      <c r="CC16" s="9"/>
-      <c r="CD16" s="9"/>
-      <c r="CE16" s="9">
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8">
         <v>2</v>
       </c>
-      <c r="CF16" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG16" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH16" s="9"/>
-      <c r="CI16" s="9"/>
-      <c r="CJ16" s="9"/>
-      <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="96">
-        <f>CL16/BV16</f>
+      <c r="BC16" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD16" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="92">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="CN16" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="CO16" s="106">
+      <c r="BK16" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL16" s="95">
         <v>44608</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="59" spans="1:93">
-      <c r="A17" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="19"/>
+    <row r="17" s="1" customFormat="1" ht="59" spans="1:64">
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -5828,13 +5462,13 @@
       <c r="Y17" s="42">
         <v>0.6696</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="37">
-        <f t="shared" si="0"/>
-        <v>0.122218181818182</v>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="35">
+        <f t="shared" si="1"/>
+        <v>0.167833333333333</v>
       </c>
       <c r="AB17" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.106</v>
       </c>
       <c r="AC17" s="35">
@@ -5869,127 +5503,75 @@
         <f t="shared" si="4"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37">
-        <v>-0.0412</v>
-      </c>
-      <c r="AU17" s="37">
-        <v>-0.0395</v>
-      </c>
-      <c r="AV17" s="37">
-        <v>-0.0053</v>
-      </c>
-      <c r="AW17" s="37">
-        <v>-0.0058</v>
-      </c>
-      <c r="AX17" s="37">
-        <v>0.1478</v>
-      </c>
-      <c r="AY17" s="37">
-        <v>0.2092</v>
-      </c>
-      <c r="AZ17" s="37">
-        <v>0.2964</v>
-      </c>
-      <c r="BA17" s="42">
+      <c r="AK17" s="42">
         <v>1.0194</v>
       </c>
-      <c r="BB17" s="42">
+      <c r="AL17" s="42">
         <v>0.7661</v>
       </c>
-      <c r="BC17" s="42">
+      <c r="AM17" s="42">
         <v>0.6219</v>
       </c>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="35">
-        <f t="shared" si="5"/>
-        <v>0.269909090909091</v>
-      </c>
-      <c r="BF17" s="35">
-        <f t="shared" si="6"/>
-        <v>0.156263157894737</v>
-      </c>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
-      <c r="BN17" s="19"/>
-      <c r="BO17" s="19"/>
-      <c r="BP17" s="19"/>
-      <c r="BQ17" s="56">
-        <f t="shared" si="1"/>
-        <v>0.378319521040086</v>
-      </c>
-      <c r="BR17" s="62">
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="60">
         <v>43823</v>
       </c>
-      <c r="BS17" s="19"/>
-      <c r="BT17" s="19"/>
-      <c r="BU17" s="19"/>
-      <c r="BV17" s="74">
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="73">
         <v>2.331</v>
       </c>
-      <c r="BW17" s="75">
+      <c r="AT17" s="74">
         <v>1.118</v>
       </c>
-      <c r="BX17" s="19"/>
-      <c r="BY17" s="19"/>
-      <c r="BZ17" s="19"/>
-      <c r="CA17" s="19"/>
-      <c r="CB17" s="19"/>
-      <c r="CC17" s="19"/>
-      <c r="CD17" s="19"/>
-      <c r="CE17" s="87">
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="86">
         <v>21</v>
       </c>
-      <c r="CF17" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="CG17" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="CH17" s="93"/>
-      <c r="CI17" s="93"/>
-      <c r="CJ17" s="93"/>
-      <c r="CK17" s="93"/>
-      <c r="CL17" s="103">
+      <c r="BC17" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD17" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE17" s="86"/>
+      <c r="BF17" s="86"/>
+      <c r="BG17" s="86"/>
+      <c r="BH17" s="86"/>
+      <c r="BI17" s="101">
         <v>5.25</v>
       </c>
-      <c r="CM17" s="96">
-        <f>CL17/BV17</f>
+      <c r="BJ17" s="92">
+        <f t="shared" si="7"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="CN17" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="CO17" s="107">
+      <c r="BK17" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL17" s="102">
         <v>44578</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:93">
-      <c r="A18" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="19"/>
+    <row r="18" s="1" customFormat="1" spans="1:64">
+      <c r="A18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="37">
         <v>0.4231</v>
       </c>
@@ -6047,13 +5629,13 @@
       <c r="Y18" s="42">
         <v>0.4021</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="37">
-        <f t="shared" si="0"/>
-        <v>0.367263636363636</v>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="35">
+        <f t="shared" si="1"/>
+        <v>0.370166666666667</v>
       </c>
       <c r="AB18" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25921052631579</v>
       </c>
       <c r="AC18" s="35">
@@ -6089,128 +5671,58 @@
         <v>0.509476975703446</v>
       </c>
       <c r="AK18" s="37">
-        <v>0.1282</v>
+        <v>0.3237</v>
       </c>
       <c r="AL18" s="37">
-        <v>0.1225</v>
+        <v>0.2459</v>
       </c>
       <c r="AM18" s="37">
-        <v>0.0947</v>
-      </c>
-      <c r="AN18" s="37">
-        <v>0.0643</v>
-      </c>
-      <c r="AO18" s="37">
-        <v>0.2451</v>
-      </c>
-      <c r="AP18" s="37">
-        <v>0.2481</v>
-      </c>
-      <c r="AQ18" s="37">
-        <v>0.1939</v>
-      </c>
-      <c r="AR18" s="37">
-        <v>0.0642</v>
-      </c>
-      <c r="AS18" s="37">
-        <v>-0.4362</v>
-      </c>
-      <c r="AT18" s="37">
-        <v>-0.4157</v>
-      </c>
-      <c r="AU18" s="37">
-        <v>-0.3014</v>
-      </c>
-      <c r="AV18" s="37">
-        <v>-0.1658</v>
-      </c>
-      <c r="AW18" s="37">
-        <v>0.516</v>
-      </c>
-      <c r="AX18" s="37">
-        <v>0.5713</v>
-      </c>
-      <c r="AY18" s="37">
-        <v>0.3788</v>
-      </c>
-      <c r="AZ18" s="37">
-        <v>0.3276</v>
-      </c>
-      <c r="BA18" s="37">
-        <v>0.3237</v>
-      </c>
-      <c r="BB18" s="37">
-        <v>0.2459</v>
-      </c>
-      <c r="BC18" s="37">
         <v>0.205</v>
       </c>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="35">
-        <f t="shared" si="5"/>
-        <v>0.113563636363636</v>
-      </c>
-      <c r="BF18" s="35">
-        <f t="shared" si="6"/>
-        <v>0.126852631578947</v>
-      </c>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-      <c r="BJ18" s="19"/>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="19"/>
-      <c r="BM18" s="19"/>
-      <c r="BN18" s="19"/>
-      <c r="BO18" s="19"/>
-      <c r="BP18" s="19"/>
-      <c r="BQ18" s="56">
-        <f t="shared" si="1"/>
-        <v>0.282280716010816</v>
-      </c>
-      <c r="BR18" s="63"/>
-      <c r="BS18" s="19"/>
-      <c r="BT18" s="19"/>
-      <c r="BU18" s="19"/>
-      <c r="BV18" s="76"/>
-      <c r="BW18" s="76"/>
-      <c r="BX18" s="19"/>
-      <c r="BY18" s="19"/>
-      <c r="BZ18" s="19"/>
-      <c r="CA18" s="19"/>
-      <c r="CB18" s="19"/>
-      <c r="CC18" s="19"/>
-      <c r="CD18" s="19"/>
-      <c r="CE18" s="19"/>
-      <c r="CF18" s="89"/>
-      <c r="CG18" s="89"/>
-      <c r="CH18" s="19"/>
-      <c r="CI18" s="19"/>
-      <c r="CJ18" s="19"/>
-      <c r="CK18" s="19"/>
-      <c r="CL18" s="19"/>
-      <c r="CM18" s="96" t="e">
-        <f>CL18/BV18</f>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="92" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CN18" s="19"/>
-      <c r="CO18" s="106">
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="95">
         <v>44608</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="53" spans="1:93">
-      <c r="A19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="19"/>
+    <row r="19" s="1" customFormat="1" ht="53" spans="1:64">
+      <c r="A19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="37">
         <v>0.2019</v>
       </c>
@@ -6268,13 +5780,13 @@
       <c r="Y19" s="42">
         <v>0.4943</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="37">
-        <f t="shared" si="0"/>
-        <v>0.604445454545455</v>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="35">
+        <f t="shared" si="1"/>
+        <v>0.595266666666667</v>
       </c>
       <c r="AB19" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.502252631578947</v>
       </c>
       <c r="AC19" s="35">
@@ -6309,143 +5821,73 @@
         <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="37">
-        <v>0.4793</v>
-      </c>
-      <c r="AL19" s="37">
-        <v>0.5105</v>
-      </c>
-      <c r="AM19" s="37">
-        <v>0.453</v>
-      </c>
-      <c r="AN19" s="37">
-        <v>0.7798</v>
-      </c>
-      <c r="AO19" s="37">
-        <v>0.4203</v>
-      </c>
-      <c r="AP19" s="37">
-        <v>0.1721</v>
-      </c>
-      <c r="AQ19" s="37">
-        <v>0.0102</v>
-      </c>
-      <c r="AR19" s="37">
-        <v>0.0331</v>
-      </c>
-      <c r="AS19" s="37">
-        <v>-0.0035</v>
-      </c>
-      <c r="AT19" s="37">
-        <v>-0.0951</v>
-      </c>
-      <c r="AU19" s="37">
-        <v>-0.0742</v>
-      </c>
-      <c r="AV19" s="37">
-        <v>0.0282</v>
-      </c>
-      <c r="AW19" s="37">
-        <v>0.3067</v>
-      </c>
-      <c r="AX19" s="37">
-        <v>-0.0422</v>
-      </c>
-      <c r="AY19" s="37">
-        <v>0.0661</v>
-      </c>
-      <c r="AZ19" s="37">
-        <v>0.2519</v>
-      </c>
-      <c r="BA19" s="42">
+      <c r="AK19" s="42">
         <v>0.178</v>
       </c>
-      <c r="BB19" s="42">
+      <c r="AL19" s="42">
         <v>0.5323</v>
       </c>
-      <c r="BC19" s="43">
+      <c r="AM19" s="43">
         <v>0.6121</v>
       </c>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="35">
-        <f t="shared" si="5"/>
-        <v>0.160027272727273</v>
-      </c>
-      <c r="BF19" s="35">
-        <f t="shared" si="6"/>
-        <v>0.243084210526316</v>
-      </c>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="19"/>
-      <c r="BN19" s="19"/>
-      <c r="BO19" s="19"/>
-      <c r="BP19" s="19"/>
-      <c r="BQ19" s="56">
-        <f t="shared" si="1"/>
-        <v>0.264272227622196</v>
-      </c>
-      <c r="BR19" s="63"/>
-      <c r="BS19" s="19"/>
-      <c r="BT19" s="19"/>
-      <c r="BU19" s="19"/>
-      <c r="BV19" s="76">
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="75">
         <v>4.704</v>
       </c>
-      <c r="BW19" s="76">
+      <c r="AT19" s="75">
         <v>3.956</v>
       </c>
-      <c r="BX19" s="19"/>
-      <c r="BY19" s="19"/>
-      <c r="BZ19" s="19"/>
-      <c r="CA19" s="19"/>
-      <c r="CB19" s="19"/>
-      <c r="CC19" s="19"/>
-      <c r="CD19" s="19"/>
-      <c r="CE19" s="19">
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18">
         <v>4</v>
       </c>
-      <c r="CF19" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG19" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH19" s="19"/>
-      <c r="CI19" s="19"/>
-      <c r="CJ19" s="19"/>
-      <c r="CK19" s="19"/>
-      <c r="CL19" s="19">
+      <c r="BC19" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD19" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18">
         <v>6.04</v>
       </c>
-      <c r="CM19" s="96">
-        <f>CL19/BV19</f>
+      <c r="BJ19" s="92">
+        <f t="shared" si="7"/>
         <v>1.28401360544218</v>
       </c>
-      <c r="CN19" s="19"/>
-      <c r="CO19" s="106">
+      <c r="BK19" s="18"/>
+      <c r="BL19" s="95">
         <v>44608</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="88" spans="1:93">
-      <c r="A20" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="19"/>
+    <row r="20" s="1" customFormat="1" ht="88" spans="1:64">
+      <c r="A20" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="37">
         <v>0.2676</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>1.2</v>
       </c>
       <c r="G20" s="37">
@@ -6505,180 +5947,110 @@
       <c r="Y20" s="43">
         <v>0.8182</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="37">
-        <f t="shared" si="0"/>
-        <v>0.1343</v>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="35">
+        <f t="shared" si="1"/>
+        <v>0.191291666666667</v>
       </c>
       <c r="AB20" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.146036842105263</v>
       </c>
       <c r="AC20" s="35">
-        <f>(R20+S20)/2</f>
+        <f t="shared" si="8"/>
         <v>-0.0725</v>
       </c>
       <c r="AD20" s="35">
-        <f>(S20+T20)/2</f>
+        <f t="shared" si="9"/>
         <v>-0.29545</v>
       </c>
       <c r="AE20" s="41">
-        <f>(T20+U20)/2</f>
+        <f t="shared" si="10"/>
         <v>-0.185</v>
       </c>
       <c r="AF20" s="41">
-        <f>(U20+V20)/2</f>
+        <f t="shared" si="11"/>
         <v>-0.04705</v>
       </c>
       <c r="AG20" s="41">
-        <f>(V20+W20)/2</f>
+        <f t="shared" si="12"/>
         <v>0.30605</v>
       </c>
       <c r="AH20" s="41">
-        <f>(W20+X20)/2</f>
+        <f t="shared" si="13"/>
         <v>0.67405</v>
       </c>
       <c r="AI20" s="41">
-        <f>(X20+Y20)/2</f>
+        <f t="shared" si="14"/>
         <v>0.79005</v>
       </c>
       <c r="AJ20" s="50">
         <f t="shared" si="4"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="37">
-        <v>0.0285</v>
-      </c>
-      <c r="AL20" s="37">
-        <v>0.0028</v>
-      </c>
-      <c r="AM20" s="37">
-        <v>0.0324</v>
-      </c>
-      <c r="AN20" s="37">
-        <v>0.035</v>
-      </c>
-      <c r="AO20" s="37">
-        <v>0.1806</v>
-      </c>
-      <c r="AP20" s="37">
-        <v>0.1572</v>
-      </c>
-      <c r="AQ20" s="37">
-        <v>0.1316</v>
-      </c>
-      <c r="AR20" s="37">
-        <v>0.153</v>
-      </c>
-      <c r="AS20" s="37">
-        <v>-0.0222</v>
-      </c>
-      <c r="AT20" s="37">
-        <v>0.0267</v>
-      </c>
-      <c r="AU20" s="37">
-        <v>0.0269</v>
-      </c>
-      <c r="AV20" s="37">
-        <v>0.067</v>
-      </c>
-      <c r="AW20" s="37">
-        <v>-0.4955</v>
-      </c>
-      <c r="AX20" s="37">
-        <v>-0.3132</v>
-      </c>
-      <c r="AY20" s="37">
-        <v>-0.1528</v>
-      </c>
-      <c r="AZ20" s="37">
-        <v>-0.1331</v>
-      </c>
-      <c r="BA20" s="42">
+      <c r="AK20" s="42">
         <v>1.3196</v>
       </c>
-      <c r="BB20" s="42">
+      <c r="AL20" s="42">
         <v>0.8147</v>
       </c>
-      <c r="BC20" s="42">
+      <c r="AM20" s="42">
         <v>0.5566</v>
       </c>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="35">
-        <f t="shared" si="5"/>
-        <v>0.154063636363636</v>
-      </c>
-      <c r="BF20" s="35">
-        <f t="shared" si="6"/>
-        <v>0.127147368421053</v>
-      </c>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="56">
-        <f t="shared" si="1"/>
-        <v>0.401384277453832</v>
-      </c>
-      <c r="BR20" s="63"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="76">
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="75">
         <v>8</v>
       </c>
-      <c r="BW20" s="76">
+      <c r="AT20" s="75">
         <v>8</v>
       </c>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="19"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="19"/>
-      <c r="CE20" s="19">
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18">
         <v>60</v>
       </c>
-      <c r="CF20" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="CG20" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="19"/>
-      <c r="CJ20" s="19"/>
-      <c r="CK20" s="19"/>
-      <c r="CL20" s="19">
+      <c r="BC20" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD20" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18">
         <v>9.62</v>
       </c>
-      <c r="CM20" s="96">
-        <f>CL20/BV20</f>
+      <c r="BJ20" s="92">
+        <f t="shared" si="7"/>
         <v>1.2025</v>
       </c>
-      <c r="CN20" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="CO20" s="106">
+      <c r="BK20" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL20" s="95">
         <v>44608</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:93">
-      <c r="A21" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+    <row r="21" ht="18" spans="1:64">
+      <c r="A21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -6698,9 +6070,9 @@
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
@@ -6708,74 +6080,45 @@
       <c r="AG21" s="35"/>
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
-      <c r="AJ21" s="20"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="35"/>
       <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
-      <c r="BK21" s="20"/>
-      <c r="BL21" s="20"/>
-      <c r="BM21" s="20"/>
-      <c r="BN21" s="20"/>
-      <c r="BO21" s="20"/>
-      <c r="BP21" s="20"/>
-      <c r="BQ21" s="64"/>
-      <c r="BR21" s="65"/>
-      <c r="BS21" s="20"/>
-      <c r="BT21" s="20"/>
-      <c r="BU21" s="20"/>
-      <c r="BV21" s="77"/>
-      <c r="BW21" s="77"/>
-      <c r="BX21" s="20"/>
-      <c r="BY21" s="20"/>
-      <c r="BZ21" s="20"/>
-      <c r="CA21" s="20"/>
-      <c r="CB21" s="20"/>
-      <c r="CC21" s="20"/>
-      <c r="CD21" s="20"/>
-      <c r="CE21" s="20"/>
-      <c r="CF21" s="20"/>
-      <c r="CG21" s="20"/>
-      <c r="CH21" s="20"/>
-      <c r="CI21" s="20"/>
-      <c r="CJ21" s="20"/>
-      <c r="CK21" s="20"/>
-      <c r="CL21" s="20"/>
-      <c r="CM21" s="20"/>
-      <c r="CN21" s="20"/>
-      <c r="CO21" s="65"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="19"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="62"/>
     </row>
-    <row r="22" ht="18" spans="1:93">
-      <c r="A22" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+    <row r="22" ht="18" spans="1:64">
+      <c r="A22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -6795,9 +6138,9 @@
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
@@ -6805,74 +6148,45 @@
       <c r="AG22" s="35"/>
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
-      <c r="AJ22" s="20"/>
+      <c r="AJ22" s="19"/>
       <c r="AK22" s="35"/>
       <c r="AL22" s="35"/>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="20"/>
-      <c r="BL22" s="20"/>
-      <c r="BM22" s="20"/>
-      <c r="BN22" s="20"/>
-      <c r="BO22" s="20"/>
-      <c r="BP22" s="20"/>
-      <c r="BQ22" s="64"/>
-      <c r="BR22" s="65"/>
-      <c r="BS22" s="20"/>
-      <c r="BT22" s="20"/>
-      <c r="BU22" s="20"/>
-      <c r="BV22" s="77"/>
-      <c r="BW22" s="77"/>
-      <c r="BX22" s="20"/>
-      <c r="BY22" s="20"/>
-      <c r="BZ22" s="20"/>
-      <c r="CA22" s="20"/>
-      <c r="CB22" s="20"/>
-      <c r="CC22" s="20"/>
-      <c r="CD22" s="20"/>
-      <c r="CE22" s="20"/>
-      <c r="CF22" s="20"/>
-      <c r="CG22" s="20"/>
-      <c r="CH22" s="20"/>
-      <c r="CI22" s="20"/>
-      <c r="CJ22" s="20"/>
-      <c r="CK22" s="20"/>
-      <c r="CL22" s="20"/>
-      <c r="CM22" s="20"/>
-      <c r="CN22" s="20"/>
-      <c r="CO22" s="65"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="62"/>
     </row>
-    <row r="23" ht="18" spans="1:93">
-      <c r="A23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+    <row r="23" ht="18" spans="1:64">
+      <c r="A23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
@@ -6892,9 +6206,9 @@
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
@@ -6902,74 +6216,45 @@
       <c r="AG23" s="35"/>
       <c r="AH23" s="35"/>
       <c r="AI23" s="35"/>
-      <c r="AJ23" s="20"/>
+      <c r="AJ23" s="19"/>
       <c r="AK23" s="35"/>
       <c r="AL23" s="35"/>
       <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="20"/>
-      <c r="BE23" s="20"/>
-      <c r="BF23" s="20"/>
-      <c r="BG23" s="20"/>
-      <c r="BH23" s="20"/>
-      <c r="BI23" s="20"/>
-      <c r="BJ23" s="20"/>
-      <c r="BK23" s="20"/>
-      <c r="BL23" s="20"/>
-      <c r="BM23" s="20"/>
-      <c r="BN23" s="20"/>
-      <c r="BO23" s="20"/>
-      <c r="BP23" s="20"/>
-      <c r="BQ23" s="64"/>
-      <c r="BR23" s="65"/>
-      <c r="BS23" s="20"/>
-      <c r="BT23" s="20"/>
-      <c r="BU23" s="20"/>
-      <c r="BV23" s="77"/>
-      <c r="BW23" s="77"/>
-      <c r="BX23" s="20"/>
-      <c r="BY23" s="20"/>
-      <c r="BZ23" s="20"/>
-      <c r="CA23" s="20"/>
-      <c r="CB23" s="20"/>
-      <c r="CC23" s="20"/>
-      <c r="CD23" s="20"/>
-      <c r="CE23" s="20"/>
-      <c r="CF23" s="20"/>
-      <c r="CG23" s="20"/>
-      <c r="CH23" s="20"/>
-      <c r="CI23" s="20"/>
-      <c r="CJ23" s="20"/>
-      <c r="CK23" s="20"/>
-      <c r="CL23" s="20"/>
-      <c r="CM23" s="20"/>
-      <c r="CN23" s="20"/>
-      <c r="CO23" s="65"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="19"/>
+      <c r="BH23" s="19"/>
+      <c r="BI23" s="19"/>
+      <c r="BJ23" s="19"/>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="62"/>
     </row>
-    <row r="24" ht="18" spans="1:93">
-      <c r="A24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+    <row r="24" ht="18" spans="1:64">
+      <c r="A24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
@@ -6989,9 +6274,9 @@
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="35"/>
       <c r="AE24" s="35"/>
@@ -6999,74 +6284,45 @@
       <c r="AG24" s="35"/>
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
-      <c r="AJ24" s="20"/>
+      <c r="AJ24" s="19"/>
       <c r="AK24" s="35"/>
       <c r="AL24" s="35"/>
       <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="64"/>
-      <c r="BR24" s="65"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="77"/>
-      <c r="BW24" s="77"/>
-      <c r="BX24" s="20"/>
-      <c r="BY24" s="20"/>
-      <c r="BZ24" s="20"/>
-      <c r="CA24" s="20"/>
-      <c r="CB24" s="20"/>
-      <c r="CC24" s="20"/>
-      <c r="CD24" s="20"/>
-      <c r="CE24" s="20"/>
-      <c r="CF24" s="20"/>
-      <c r="CG24" s="20"/>
-      <c r="CH24" s="20"/>
-      <c r="CI24" s="20"/>
-      <c r="CJ24" s="20"/>
-      <c r="CK24" s="20"/>
-      <c r="CL24" s="20"/>
-      <c r="CM24" s="20"/>
-      <c r="CN24" s="20"/>
-      <c r="CO24" s="65"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="62"/>
     </row>
-    <row r="25" ht="18" spans="1:93">
-      <c r="A25" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+    <row r="25" ht="18" spans="1:64">
+      <c r="A25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -7086,9 +6342,9 @@
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
@@ -7096,76 +6352,46 @@
       <c r="AG25" s="35"/>
       <c r="AH25" s="35"/>
       <c r="AI25" s="35"/>
-      <c r="AJ25" s="20"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="35"/>
       <c r="AL25" s="35"/>
       <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="35"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="20"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="20"/>
-      <c r="BN25" s="20"/>
-      <c r="BO25" s="20"/>
-      <c r="BP25" s="20"/>
-      <c r="BQ25" s="64"/>
-      <c r="BR25" s="65"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="77"/>
-      <c r="BX25" s="20"/>
-      <c r="BY25" s="20"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="20"/>
-      <c r="CB25" s="20"/>
-      <c r="CC25" s="20"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="20"/>
-      <c r="CI25" s="20"/>
-      <c r="CJ25" s="20"/>
-      <c r="CK25" s="20"/>
-      <c r="CL25" s="20"/>
-      <c r="CM25" s="20"/>
-      <c r="CN25" s="20"/>
-      <c r="CO25" s="65"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="24">
     <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BP1"/>
-    <mergeCell ref="BV1:CK1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AS1:BH1"/>
     <mergeCell ref="G2:Z2"/>
     <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="AK2:BD2"/>
-    <mergeCell ref="BG2:BP2"/>
-    <mergeCell ref="BY2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AV2:BA2"/>
+    <mergeCell ref="BB2:BH2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -7175,16 +6401,13 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CO1:CO3"/>
-    <mergeCell ref="CL1:CM2"/>
-    <mergeCell ref="BR1:BU2"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BI1:BJ2"/>
+    <mergeCell ref="AO1:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -1479,6 +1479,12 @@
       </rPr>
       <t>M_000018</t>
     </r>
+  </si>
+  <si>
+    <t>002293.SZ</t>
+  </si>
+  <si>
+    <t>罗莱生活</t>
   </si>
   <si>
     <r>
@@ -2321,7 +2327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2378,6 +2384,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2953,11 +2962,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AR15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="BD21" sqref="BD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3008,78 +3017,78 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="53" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="63" t="s">
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="44" t="s">
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="90" t="s">
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="91" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3088,75 +3097,75 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="47" t="s">
+      <c r="AC2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="45" t="s">
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="65" t="s">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="65" t="s">
+      <c r="AT2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="66" t="s">
+      <c r="AU2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="67" t="s">
+      <c r="AV2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
       <c r="BB2" s="4" t="s">
         <v>21</v>
       </c>
@@ -3166,159 +3175,159 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="91" t="s">
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="90"/>
+      <c r="BL2" s="91"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:64">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="48" t="s">
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="48" t="s">
+      <c r="AE3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AF3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AG3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="48" t="s">
+      <c r="AH3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="48" t="s">
+      <c r="AI3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="24" t="s">
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AN3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="53" t="s">
+      <c r="AO3" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="23" t="s">
+      <c r="AP3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AQ3" s="54" t="s">
+      <c r="AQ3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="54" t="s">
+      <c r="AR3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="68" t="s">
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="68" t="s">
+      <c r="AW3" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="44" t="s">
+      <c r="AX3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="77" t="s">
+      <c r="AY3" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="77" t="s">
+      <c r="AZ3" s="78" t="s">
         <v>42</v>
       </c>
       <c r="BA3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="78" t="s">
+      <c r="BB3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="78" t="s">
+      <c r="BC3" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="BD3" s="79" t="s">
+      <c r="BD3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="BE3" s="78" t="s">
+      <c r="BE3" s="79" t="s">
         <v>47</v>
       </c>
       <c r="BF3" s="4" t="s">
@@ -3330,14 +3339,14 @@
       <c r="BH3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="21" t="s">
+      <c r="BI3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="68" t="s">
+      <c r="BJ3" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="91"/>
-      <c r="BL3" s="90"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="91"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:64">
       <c r="A4" s="5" t="s">
@@ -3350,120 +3359,120 @@
         <v>54</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26">
+      <c r="E4" s="26"/>
+      <c r="F4" s="27">
         <v>0.16</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="26">
         <v>-0.2369</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>0.1985</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="26">
         <v>0.1552</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="26">
         <v>0.0621</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="26">
         <v>0.8816</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="26">
         <v>0.3131</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="26">
         <v>0.3269</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="26">
         <v>0.3212</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="26">
         <v>0.1608</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="26">
         <v>0.0429</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="26">
         <v>-2.2731</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="26">
         <v>-2.7544</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="26">
         <v>-0.2012</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="26">
         <v>-0.1932</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="26">
         <v>1.4776</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="26">
         <v>1.2819</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="39">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="39">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="38">
+      <c r="Y4" s="39">
         <v>0.2626</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="35">
+      <c r="AA4" s="36">
         <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
         <v>-0.150458333333333</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4" s="36">
         <f>(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
         <v>-0.00552631578947369</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="36">
         <f>(R4+S4)/2</f>
         <v>-1.4778</v>
       </c>
-      <c r="AD4" s="41">
+      <c r="AD4" s="42">
         <f>(S4+T4)/2</f>
         <v>-0.1972</v>
       </c>
-      <c r="AE4" s="41">
+      <c r="AE4" s="42">
         <f>(T4+U4)/2</f>
         <v>0.6422</v>
       </c>
-      <c r="AF4" s="41">
+      <c r="AF4" s="42">
         <f>(U4+V4)/2</f>
         <v>1.37975</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AG4" s="36">
         <f>(V4+W4)/2</f>
         <v>0.66585</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="36">
         <f>(W4+X4)/2</f>
         <v>0.0347</v>
       </c>
-      <c r="AI4" s="35">
+      <c r="AI4" s="36">
         <f>(X4+Y4)/2</f>
         <v>0.1411</v>
       </c>
-      <c r="AJ4" s="49">
+      <c r="AJ4" s="50">
         <f>STDEV(G4:Y4)</f>
         <v>0.99904872244779</v>
       </c>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="55"/>
+      <c r="AO4" s="56"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
-      <c r="AS4" s="69">
+      <c r="AS4" s="70">
         <v>8.357</v>
       </c>
-      <c r="AT4" s="69">
+      <c r="AT4" s="70">
         <v>8.32</v>
       </c>
       <c r="AU4" s="7"/>
@@ -3473,28 +3482,28 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
-      <c r="BB4" s="80">
+      <c r="BB4" s="81">
         <v>3</v>
       </c>
-      <c r="BC4" s="81" t="s">
+      <c r="BC4" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" s="81" t="s">
+      <c r="BD4" s="82" t="s">
         <v>56</v>
       </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="80">
+      <c r="BI4" s="81">
         <v>1.28</v>
       </c>
-      <c r="BJ4" s="92">
+      <c r="BJ4" s="93">
         <f t="shared" ref="BJ4:BJ12" si="0">BI4/AS4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="BK4" s="7"/>
-      <c r="BL4" s="93">
+      <c r="BL4" s="94">
         <v>44579</v>
       </c>
     </row>
@@ -3509,108 +3518,108 @@
         <v>59</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27">
         <v>1.97</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28">
         <v>0.1473</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="28">
         <v>-0.2308</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="28">
         <v>-0.3684</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="28">
         <v>-0.358</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="28">
         <v>-0.3784</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="28">
         <v>-0.0231</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="28">
         <v>0.1667</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="28">
         <v>0.1154</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="28">
         <v>-0.0761</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="28">
         <v>0.1654</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="40">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="40">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="40">
         <v>1.3176</v>
       </c>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="35">
+      <c r="AA5" s="36">
         <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
         <v>0.400883333333333</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="36">
         <f>(G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/19</f>
         <v>0.260942105263158</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="36">
         <f>(R5+S5)/2</f>
         <v>0.0718</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AD5" s="36">
         <f>(S5+T5)/2</f>
         <v>0.14105</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="36">
         <f>(T5+U5)/2</f>
         <v>0.01965</v>
       </c>
-      <c r="AF5" s="41">
+      <c r="AF5" s="42">
         <f>(U5+V5)/2</f>
         <v>0.04465</v>
       </c>
-      <c r="AG5" s="41">
+      <c r="AG5" s="42">
         <f>(V5+W5)/2</f>
         <v>1.547</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AH5" s="42">
         <f>(W5+X5)/2</f>
         <v>2.24015</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="36">
         <f>(X5+Y5)/2</f>
         <v>1.43465</v>
       </c>
-      <c r="AJ5" s="49">
+      <c r="AJ5" s="50">
         <f>STDEV(G5:Y5)</f>
         <v>0.974103649647413</v>
       </c>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
       <c r="AN5" s="8"/>
-      <c r="AO5" s="56"/>
+      <c r="AO5" s="57"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
-      <c r="AS5" s="70">
+      <c r="AS5" s="71">
         <v>1.105</v>
       </c>
-      <c r="AT5" s="70">
+      <c r="AT5" s="71">
         <v>1.096</v>
       </c>
       <c r="AU5" s="8"/>
@@ -3620,30 +3629,30 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="28">
+      <c r="BB5" s="29">
         <v>10</v>
       </c>
-      <c r="BC5" s="82" t="s">
+      <c r="BC5" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" s="83" t="s">
+      <c r="BD5" s="84" t="s">
         <v>61</v>
       </c>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
-      <c r="BI5" s="28">
+      <c r="BI5" s="29">
         <v>2.18</v>
       </c>
-      <c r="BJ5" s="94">
+      <c r="BJ5" s="95">
         <f t="shared" si="0"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="BK5" s="83" t="s">
+      <c r="BK5" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" s="95">
+      <c r="BL5" s="96">
         <v>44579</v>
       </c>
     </row>
@@ -3658,120 +3667,120 @@
         <v>65</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29">
         <v>0.672</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="30">
         <v>-0.1686</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="30">
         <v>-0.2915</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="30">
         <v>0.0513</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="28">
         <v>0.1561</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="28">
         <v>0.4225</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="28">
         <v>0.5635</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="28">
         <v>0.0724</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="28">
         <v>-0.025</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="28">
         <v>-0.1437</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <v>0.3149</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="28">
         <v>0.2253</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="28">
         <v>0.1397</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="28">
         <v>-0.5888</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="28">
         <v>-0.3376</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="28">
         <v>-0.0115</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="28">
         <v>0.0822</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="40">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="40">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6" s="40">
         <v>1.1052</v>
       </c>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="35">
+      <c r="AA6" s="36">
         <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
         <v>0.801675</v>
       </c>
-      <c r="AB6" s="35">
+      <c r="AB6" s="36">
         <f>(G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/19</f>
         <v>0.548726315789474</v>
       </c>
-      <c r="AC6" s="35">
+      <c r="AC6" s="36">
         <f>(R6+S6)/2</f>
         <v>-0.22455</v>
       </c>
-      <c r="AD6" s="35">
+      <c r="AD6" s="36">
         <f>(S6+T6)/2</f>
         <v>-0.4632</v>
       </c>
-      <c r="AE6" s="41">
+      <c r="AE6" s="42">
         <f>(T6+U6)/2</f>
         <v>-0.17455</v>
       </c>
-      <c r="AF6" s="41">
+      <c r="AF6" s="42">
         <f>(U6+V6)/2</f>
         <v>0.03535</v>
       </c>
-      <c r="AG6" s="41">
+      <c r="AG6" s="42">
         <f>(V6+W6)/2</f>
         <v>3.5088</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AH6" s="42">
         <f>(W6+X6)/2</f>
         <v>4.4297</v>
       </c>
-      <c r="AI6" s="35">
+      <c r="AI6" s="36">
         <f>(X6+Y6)/2</f>
         <v>1.5146</v>
       </c>
-      <c r="AJ6" s="49">
+      <c r="AJ6" s="50">
         <f>STDEV(G6:Y6)</f>
         <v>1.64320222460161</v>
       </c>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
       <c r="AN6" s="8"/>
-      <c r="AO6" s="56"/>
+      <c r="AO6" s="57"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
-      <c r="AS6" s="70">
+      <c r="AS6" s="71">
         <v>5.824</v>
       </c>
-      <c r="AT6" s="70">
+      <c r="AT6" s="71">
         <v>4.581</v>
       </c>
       <c r="AU6" s="8"/>
@@ -3781,28 +3790,28 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
-      <c r="BB6" s="28">
+      <c r="BB6" s="29">
         <v>6</v>
       </c>
-      <c r="BC6" s="82" t="s">
+      <c r="BC6" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="81" t="s">
+      <c r="BD6" s="82" t="s">
         <v>67</v>
       </c>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
       <c r="BH6" s="8"/>
-      <c r="BI6" s="28">
+      <c r="BI6" s="29">
         <v>3.91</v>
       </c>
-      <c r="BJ6" s="92">
+      <c r="BJ6" s="93">
         <f t="shared" si="0"/>
         <v>0.67135989010989</v>
       </c>
       <c r="BK6" s="8"/>
-      <c r="BL6" s="95">
+      <c r="BL6" s="96">
         <v>44580</v>
       </c>
     </row>
@@ -3817,122 +3826,122 @@
         <v>70</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>0.69</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="28">
         <v>-0.3529</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <v>-0.3095</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="28">
         <v>-0.5424</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="28">
         <v>-0.3342</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="28">
         <v>-0.6364</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="28">
         <v>-0.6552</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="28">
         <v>-0.4815</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="28">
         <v>-0.7297</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="28">
         <v>-1.5</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="28">
         <v>-0.7</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="28">
         <v>-0.6429</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="28">
         <v>-0.4</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="28">
         <v>0.5</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="28">
         <v>0.6667</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="28">
         <v>2</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="28">
         <v>5.8333</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="40">
         <v>21</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="40">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="40">
         <v>3.6</v>
       </c>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="35">
+      <c r="AA7" s="36">
         <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
         <v>3.06895</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="AB7" s="36">
         <f>(G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/19</f>
         <v>1.76396315789474</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="36">
         <f>(R7+S7)/2</f>
         <v>0.05</v>
       </c>
-      <c r="AD7" s="35">
+      <c r="AD7" s="36">
         <f>(S7+T7)/2</f>
         <v>0.58335</v>
       </c>
-      <c r="AE7" s="41">
+      <c r="AE7" s="42">
         <f>(T7+U7)/2</f>
         <v>1.33335</v>
       </c>
-      <c r="AF7" s="41">
+      <c r="AF7" s="42">
         <f>(U7+V7)/2</f>
         <v>3.91665</v>
       </c>
-      <c r="AG7" s="41">
+      <c r="AG7" s="42">
         <f>(V7+W7)/2</f>
         <v>13.41665</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AH7" s="42">
         <f>(W7+X7)/2</f>
         <v>14.1</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI7" s="36">
         <f>(X7+Y7)/2</f>
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="50">
         <f>STDEV(G7:Y7)</f>
         <v>5.22249544526268</v>
       </c>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
       <c r="AN7" s="8"/>
-      <c r="AO7" s="56"/>
+      <c r="AO7" s="57"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="70">
+      <c r="AS7" s="71">
         <v>1.847</v>
       </c>
-      <c r="AT7" s="70">
+      <c r="AT7" s="71">
         <v>1.137</v>
       </c>
       <c r="AU7" s="8"/>
@@ -3942,28 +3951,28 @@
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
-      <c r="BB7" s="28">
+      <c r="BB7" s="29">
         <v>4</v>
       </c>
-      <c r="BC7" s="82" t="s">
+      <c r="BC7" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="81" t="s">
+      <c r="BD7" s="82" t="s">
         <v>72</v>
       </c>
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
       <c r="BG7" s="8"/>
       <c r="BH7" s="8"/>
-      <c r="BI7" s="28">
+      <c r="BI7" s="29">
         <v>1.26</v>
       </c>
-      <c r="BJ7" s="92">
+      <c r="BJ7" s="93">
         <f t="shared" si="0"/>
         <v>0.682187330806714</v>
       </c>
       <c r="BK7" s="8"/>
-      <c r="BL7" s="95">
+      <c r="BL7" s="96">
         <v>44580</v>
       </c>
     </row>
@@ -3978,122 +3987,122 @@
         <v>75</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="32">
+      <c r="E8" s="33">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>0.101</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <v>0.9091</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="28">
         <v>-0.1724</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="28">
         <v>0.0417</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="28">
         <v>-0.3478</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="28">
         <v>-0.1905</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="28">
         <v>0.125</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="28">
         <v>-0.26</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="28">
         <v>0.2444</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="28">
         <v>0.0588</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="28">
         <v>0.037</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="28">
         <v>-0.4324</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <v>-0.4464</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="28">
         <v>-0.4444</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="28">
         <v>0</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="28">
         <v>0</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="28">
         <v>0</v>
       </c>
-      <c r="W8" s="32">
+      <c r="W8" s="33">
         <v>1.3</v>
       </c>
-      <c r="X8" s="32">
+      <c r="X8" s="33">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="33">
         <v>-0.4762</v>
       </c>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="35">
+      <c r="AA8" s="36">
         <f t="shared" ref="AA8:AA20" si="1">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
         <v>0.00756666666666668</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8" s="36">
         <f>(G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/19</f>
         <v>0.0103105263157895</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="36">
         <f>(R8+S8)/2</f>
         <v>-0.4454</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="36">
         <f>(S8+T8)/2</f>
         <v>-0.2222</v>
       </c>
-      <c r="AE8" s="41">
+      <c r="AE8" s="42">
         <f>(T8+U8)/2</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="41">
+      <c r="AF8" s="42">
         <f>(U8+V8)/2</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="41">
+      <c r="AG8" s="42">
         <f>(V8+W8)/2</f>
         <v>0.65</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="42">
         <f>(W8+X8)/2</f>
         <v>0.775</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AI8" s="36">
         <f>(X8+Y8)/2</f>
         <v>-0.1131</v>
       </c>
-      <c r="AJ8" s="49">
+      <c r="AJ8" s="50">
         <f>STDEV(G8:Y8)</f>
         <v>0.454846862990095</v>
       </c>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="56"/>
+      <c r="AO8" s="57"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
-      <c r="AS8" s="70">
+      <c r="AS8" s="71">
         <v>4.562</v>
       </c>
-      <c r="AT8" s="70">
+      <c r="AT8" s="71">
         <v>4.48</v>
       </c>
       <c r="AU8" s="8"/>
@@ -4103,28 +4112,28 @@
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
-      <c r="BB8" s="28">
+      <c r="BB8" s="29">
         <v>9</v>
       </c>
-      <c r="BC8" s="82" t="s">
+      <c r="BC8" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="BD8" s="81" t="s">
+      <c r="BD8" s="82" t="s">
         <v>77</v>
       </c>
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
       <c r="BG8" s="8"/>
       <c r="BH8" s="8"/>
-      <c r="BI8" s="28">
+      <c r="BI8" s="29">
         <v>0.462891</v>
       </c>
-      <c r="BJ8" s="92">
+      <c r="BJ8" s="93">
         <f t="shared" si="0"/>
         <v>0.10146668128014</v>
       </c>
       <c r="BK8" s="8"/>
-      <c r="BL8" s="95">
+      <c r="BL8" s="96">
         <v>44580</v>
       </c>
     </row>
@@ -4139,122 +4148,122 @@
         <v>80</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="32">
+      <c r="E9" s="33">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>0.549</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="28">
         <v>1.2703</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="28">
         <v>0.7241</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="28">
         <v>0.681</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="28">
         <v>0.2231</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="28">
         <v>3.7</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="28">
         <v>1.29</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="28">
         <v>0.8718</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="28">
         <v>0.6824</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="28">
         <v>0.766</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="28">
         <v>0.3537</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="28">
         <v>0.2986</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="28">
         <v>0.241</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="28">
         <v>0.2771</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="28">
         <v>-0.0742</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="28">
         <v>-0.1055</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="28">
         <v>0.2136</v>
       </c>
-      <c r="W9" s="38">
+      <c r="W9" s="39">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="38">
+      <c r="X9" s="39">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Y9" s="39">
         <v>0.3019</v>
       </c>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="35">
+      <c r="AA9" s="36">
         <f t="shared" si="1"/>
         <v>0.301766666666667</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9" s="36">
         <f>(G9+H9+I9+J9+K9+L9+M9+N9+O9+P9+Q9+R9+S9+T9+U9+V9+W9+X9+Y9)/19</f>
         <v>0.651657894736842</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="36">
         <f>(R9+S9)/2</f>
         <v>0.25905</v>
       </c>
-      <c r="AD9" s="35">
+      <c r="AD9" s="36">
         <f>(S9+T9)/2</f>
         <v>0.10145</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="36">
         <f>(T9+U9)/2</f>
         <v>-0.08985</v>
       </c>
-      <c r="AF9" s="41">
+      <c r="AF9" s="42">
         <f>(U9+V9)/2</f>
         <v>0.05405</v>
       </c>
-      <c r="AG9" s="41">
+      <c r="AG9" s="42">
         <f>(V9+W9)/2</f>
         <v>0.2955</v>
       </c>
-      <c r="AH9" s="41">
+      <c r="AH9" s="42">
         <f>(W9+X9)/2</f>
         <v>0.3333</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AI9" s="36">
         <f>(X9+Y9)/2</f>
         <v>0.29555</v>
       </c>
-      <c r="AJ9" s="49">
+      <c r="AJ9" s="50">
         <f>STDEV(G9:Y9)</f>
         <v>0.832605655835135</v>
       </c>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
       <c r="AN9" s="8"/>
-      <c r="AO9" s="56"/>
+      <c r="AO9" s="57"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="70">
+      <c r="AS9" s="71">
         <v>10.64</v>
       </c>
-      <c r="AT9" s="70">
+      <c r="AT9" s="71">
         <v>10.22</v>
       </c>
       <c r="AU9" s="8"/>
@@ -4264,28 +4273,28 @@
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
-      <c r="BB9" s="28">
+      <c r="BB9" s="29">
         <v>37</v>
       </c>
-      <c r="BC9" s="83" t="s">
+      <c r="BC9" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="81" t="s">
+      <c r="BD9" s="82" t="s">
         <v>82</v>
       </c>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
       <c r="BG9" s="8"/>
       <c r="BH9" s="8"/>
-      <c r="BI9" s="28">
+      <c r="BI9" s="29">
         <v>5.84</v>
       </c>
-      <c r="BJ9" s="92">
+      <c r="BJ9" s="93">
         <f t="shared" si="0"/>
         <v>0.548872180451128</v>
       </c>
       <c r="BK9" s="8"/>
-      <c r="BL9" s="95">
+      <c r="BL9" s="96">
         <v>44585</v>
       </c>
     </row>
@@ -4300,122 +4309,122 @@
         <v>85</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="32">
+      <c r="E10" s="33">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>0.407</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>0.0544</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <v>0.0366</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="28">
         <v>0.009</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="28">
         <v>0.0227</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="28">
         <v>0.0113</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="28">
         <v>0.018</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="28">
         <v>0.0132</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="28">
         <v>0.0044</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="28">
         <v>0.0199</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="28">
         <v>-0.0241</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="28">
         <v>-0.0372</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="28">
         <v>-0.0568</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="28">
         <v>-0.1353</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="28">
         <v>-0.01</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="28">
         <v>0.0149</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="28">
         <v>0.0142</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="33">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="33">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="33">
         <v>0.1046</v>
       </c>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="35">
+      <c r="AA10" s="36">
         <f t="shared" si="1"/>
         <v>0.0377083333333333</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10" s="36">
         <f>(G10+H10+I10+J10+K10+L10+M10+N10+O10+P10+Q10+R10+S10+T10+U10+V10+W10+X10+Y10)/19</f>
         <v>0.0325105263157895</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC10" s="36">
         <f>(R10+S10)/2</f>
         <v>-0.09605</v>
       </c>
-      <c r="AD10" s="41">
+      <c r="AD10" s="42">
         <f>(S10+T10)/2</f>
         <v>-0.07265</v>
       </c>
-      <c r="AE10" s="41">
+      <c r="AE10" s="42">
         <f>(T10+U10)/2</f>
         <v>0.00245</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AF10" s="42">
         <f>(U10+V10)/2</f>
         <v>0.01455</v>
       </c>
-      <c r="AG10" s="41">
+      <c r="AG10" s="42">
         <f>(V10+W10)/2</f>
         <v>0.21325</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="42">
         <f>(W10+X10)/2</f>
         <v>0.27895</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AI10" s="36">
         <f>(X10+Y10)/2</f>
         <v>0.1251</v>
       </c>
-      <c r="AJ10" s="49">
+      <c r="AJ10" s="50">
         <f>STDEV(G10:Y10)</f>
         <v>0.108527312971522</v>
       </c>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
       <c r="AN10" s="8"/>
-      <c r="AO10" s="56"/>
+      <c r="AO10" s="57"/>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
-      <c r="AS10" s="70">
+      <c r="AS10" s="71">
         <v>153</v>
       </c>
-      <c r="AT10" s="70">
+      <c r="AT10" s="71">
         <v>111.4</v>
       </c>
       <c r="AU10" s="8"/>
@@ -4425,28 +4434,28 @@
       <c r="AY10" s="8"/>
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
-      <c r="BB10" s="28">
+      <c r="BB10" s="29">
         <v>87</v>
       </c>
-      <c r="BC10" s="81" t="s">
+      <c r="BC10" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="BD10" s="81" t="s">
+      <c r="BD10" s="82" t="s">
         <v>87</v>
       </c>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
       <c r="BG10" s="8"/>
       <c r="BH10" s="8"/>
-      <c r="BI10" s="28">
+      <c r="BI10" s="29">
         <v>64.56</v>
       </c>
-      <c r="BJ10" s="92">
+      <c r="BJ10" s="93">
         <f t="shared" si="0"/>
         <v>0.421960784313726</v>
       </c>
       <c r="BK10" s="8"/>
-      <c r="BL10" s="95">
+      <c r="BL10" s="96">
         <v>44585</v>
       </c>
     </row>
@@ -4461,130 +4470,130 @@
         <v>90</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="32">
+      <c r="E11" s="33">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>0.11</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="28">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="28">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="28">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="28">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="28">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="28">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="28">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="28">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="28">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="28">
         <v>-4</v>
       </c>
-      <c r="W11" s="40">
+      <c r="W11" s="41">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="40">
+      <c r="X11" s="41">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="40">
+      <c r="Y11" s="41">
         <v>3.568</v>
       </c>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="35">
+      <c r="AA11" s="36">
         <f t="shared" si="1"/>
         <v>-0.585816666666667</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11" s="36">
         <f t="shared" ref="AB11:AB20" si="2">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11" s="36">
         <f t="shared" ref="AC11:AI11" si="3">(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
-      <c r="AD11" s="35">
+      <c r="AD11" s="36">
         <f t="shared" si="3"/>
         <v>-3.28665</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AE11" s="36">
         <f t="shared" si="3"/>
         <v>-1.65565</v>
       </c>
-      <c r="AF11" s="35">
+      <c r="AF11" s="36">
         <f t="shared" si="3"/>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="41">
+      <c r="AG11" s="42">
         <f t="shared" si="3"/>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="41">
+      <c r="AH11" s="42">
         <f t="shared" si="3"/>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="41">
+      <c r="AI11" s="42">
         <f t="shared" si="3"/>
         <v>2.584</v>
       </c>
-      <c r="AJ11" s="49">
+      <c r="AJ11" s="50">
         <f t="shared" ref="AJ11:AJ20" si="4">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="39">
+      <c r="AK11" s="40">
         <v>0.2014</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="40">
         <v>0.0771</v>
       </c>
-      <c r="AM11" s="39">
+      <c r="AM11" s="40">
         <v>0.26</v>
       </c>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="56">
+      <c r="AO11" s="57">
         <v>42347</v>
       </c>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="70">
+      <c r="AS11" s="71">
         <v>1.32</v>
       </c>
-      <c r="AT11" s="70">
+      <c r="AT11" s="71">
         <v>1.184</v>
       </c>
       <c r="AU11" s="8"/>
@@ -4594,30 +4603,30 @@
       <c r="AY11" s="8"/>
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
-      <c r="BB11" s="28">
+      <c r="BB11" s="29">
         <v>2</v>
       </c>
-      <c r="BC11" s="82" t="s">
+      <c r="BC11" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="BD11" s="83" t="s">
+      <c r="BD11" s="84" t="s">
         <v>92</v>
       </c>
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
       <c r="BG11" s="8"/>
       <c r="BH11" s="8"/>
-      <c r="BI11" s="28">
+      <c r="BI11" s="29">
         <v>0.139699</v>
       </c>
-      <c r="BJ11" s="92">
+      <c r="BJ11" s="93">
         <f t="shared" si="0"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="BK11" s="96" t="s">
+      <c r="BK11" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="BL11" s="95">
+      <c r="BL11" s="96">
         <v>44586</v>
       </c>
     </row>
@@ -4632,130 +4641,130 @@
         <v>96</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <v>0.3655</v>
       </c>
       <c r="F12" s="11">
         <v>0.17</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <v>-0.0338</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <v>-0.125</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="34">
         <v>-0.1333</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="34">
         <v>0</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="34">
         <v>-0.125</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="34">
         <v>-0.1429</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="34">
         <v>-0.2692</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="34">
         <v>0.2</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="34">
         <v>-0.0714</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="34">
         <v>-0.0556</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="34">
         <v>0</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="34">
         <v>-0.6667</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="34">
         <v>-0.3077</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="34">
         <v>-0.1176</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="34">
         <v>-0.1053</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="34">
         <v>1.5</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="34">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="34">
         <v>0.1333</v>
       </c>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="35">
+      <c r="AA12" s="36">
         <f t="shared" si="1"/>
         <v>0.0385</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AB12" s="36">
         <f t="shared" si="2"/>
         <v>-0.00515789473684209</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="36">
         <f t="shared" ref="AC12:AI12" si="5">(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
-      <c r="AD12" s="35">
+      <c r="AD12" s="36">
         <f t="shared" si="5"/>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="41">
+      <c r="AE12" s="42">
         <f t="shared" si="5"/>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="41">
+      <c r="AF12" s="42">
         <f t="shared" si="5"/>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="41">
+      <c r="AG12" s="42">
         <f t="shared" si="5"/>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="41">
+      <c r="AH12" s="42">
         <f t="shared" si="5"/>
         <v>0.8611</v>
       </c>
-      <c r="AI12" s="35">
+      <c r="AI12" s="36">
         <f t="shared" si="5"/>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="49">
+      <c r="AJ12" s="50">
         <f t="shared" si="4"/>
         <v>0.413115667574254</v>
       </c>
-      <c r="AK12" s="33">
+      <c r="AK12" s="34">
         <v>-0.4742</v>
       </c>
-      <c r="AL12" s="33">
+      <c r="AL12" s="34">
         <v>-0.4142</v>
       </c>
-      <c r="AM12" s="33">
+      <c r="AM12" s="34">
         <v>-0.3214</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="57">
+      <c r="AO12" s="58">
         <v>35599</v>
       </c>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="71">
+      <c r="AS12" s="72">
         <v>13.29</v>
       </c>
-      <c r="AT12" s="71">
+      <c r="AT12" s="72">
         <v>13.29</v>
       </c>
       <c r="AU12" s="11"/>
@@ -4768,10 +4777,10 @@
       <c r="BB12" s="11">
         <v>4</v>
       </c>
-      <c r="BC12" s="84" t="s">
+      <c r="BC12" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="85" t="s">
+      <c r="BD12" s="86" t="s">
         <v>98</v>
       </c>
       <c r="BE12" s="11"/>
@@ -4781,14 +4790,14 @@
       <c r="BI12" s="11">
         <v>2.29</v>
       </c>
-      <c r="BJ12" s="97">
+      <c r="BJ12" s="98">
         <f t="shared" si="0"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="BK12" s="82" t="s">
+      <c r="BK12" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="BL12" s="57">
+      <c r="BL12" s="58">
         <v>44605</v>
       </c>
     </row>
@@ -4803,130 +4812,130 @@
         <v>102</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="32">
+      <c r="E13" s="33">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="35">
         <v>0.69</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="36">
         <v>1.7</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="36">
         <v>-0.0417</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="36">
         <v>-0.3099</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="36">
         <v>0.3223</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="36">
         <v>1.7037</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="36">
         <v>0.913</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="36">
         <v>1.0816</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="36">
         <v>0.1812</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="36">
         <v>-0.5616</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="36">
         <v>-0.3182</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="36">
         <v>-0.4118</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="36">
         <v>0.0529</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="36">
         <v>-0.9063</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="36">
         <v>-0.9167</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="36">
         <v>-0.6833</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="36">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="40">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="40">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="40">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="35">
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="36">
         <f t="shared" si="1"/>
         <v>0.655683333333334</v>
       </c>
-      <c r="AB13" s="35">
+      <c r="AB13" s="36">
         <f t="shared" si="2"/>
         <v>0.696694736842105</v>
       </c>
-      <c r="AC13" s="35">
+      <c r="AC13" s="36">
         <f t="shared" ref="AC13:AI13" si="6">(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
-      <c r="AD13" s="35">
+      <c r="AD13" s="36">
         <f t="shared" si="6"/>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="42">
         <f t="shared" si="6"/>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="41">
+      <c r="AF13" s="42">
         <f t="shared" si="6"/>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="41">
+      <c r="AG13" s="42">
         <f t="shared" si="6"/>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="41">
+      <c r="AH13" s="42">
         <f t="shared" si="6"/>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="41">
+      <c r="AI13" s="42">
         <f t="shared" si="6"/>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="49">
+      <c r="AJ13" s="50">
         <f t="shared" si="4"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="32">
+      <c r="AK13" s="33">
         <v>0.7335</v>
       </c>
-      <c r="AL13" s="32">
+      <c r="AL13" s="33">
         <v>0.4001</v>
       </c>
-      <c r="AM13" s="32">
+      <c r="AM13" s="33">
         <v>0.1638</v>
       </c>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="58">
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="59">
         <v>42368</v>
       </c>
       <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
-      <c r="AS13" s="70">
+      <c r="AS13" s="71">
         <v>79.23</v>
       </c>
-      <c r="AT13" s="70">
+      <c r="AT13" s="71">
         <v>79.22</v>
       </c>
       <c r="AU13" s="8"/>
@@ -4936,30 +4945,30 @@
       <c r="AY13" s="8"/>
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="28">
+      <c r="BB13" s="29">
         <v>123</v>
       </c>
-      <c r="BC13" s="82" t="s">
+      <c r="BC13" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="BD13" s="82" t="s">
+      <c r="BD13" s="83" t="s">
         <v>104</v>
       </c>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
       <c r="BG13" s="8"/>
       <c r="BH13" s="8"/>
-      <c r="BI13" s="28">
+      <c r="BI13" s="29">
         <v>63.51</v>
       </c>
-      <c r="BJ13" s="92">
+      <c r="BJ13" s="93">
         <f t="shared" ref="BJ13:BJ20" si="7">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="BK13" s="83" t="s">
+      <c r="BK13" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="BL13" s="95">
+      <c r="BL13" s="96">
         <v>44601</v>
       </c>
     </row>
@@ -4974,98 +4983,130 @@
         <v>108</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="32">
+      <c r="E14" s="33">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>0.577</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="32">
+      <c r="G14" s="36">
+        <v>0.8333</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0.4375</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0.5455</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0.0937</v>
+      </c>
+      <c r="K14" s="36">
+        <v>-0.4545</v>
+      </c>
+      <c r="L14" s="36">
+        <v>-0.0435</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0.0294</v>
+      </c>
+      <c r="N14" s="36">
+        <v>0.3143</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0.6667</v>
+      </c>
+      <c r="P14" s="36">
+        <v>0.3182</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>0.1143</v>
+      </c>
+      <c r="R14" s="36">
+        <v>0.2174</v>
+      </c>
+      <c r="S14" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="T14" s="36">
+        <v>0.7241</v>
+      </c>
+      <c r="U14" s="36">
+        <v>0.6923</v>
+      </c>
+      <c r="V14" s="36">
+        <v>0.3393</v>
+      </c>
+      <c r="W14" s="33">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="32">
+      <c r="X14" s="33">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="33">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="35">
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="36">
         <f t="shared" si="1"/>
-        <v>0.0206</v>
-      </c>
-      <c r="AB14" s="35">
+        <v>0.477816666666667</v>
+      </c>
+      <c r="AB14" s="36">
         <f t="shared" si="2"/>
-        <v>0.0130105263157895</v>
-      </c>
-      <c r="AC14" s="35">
+        <v>0.377642105263158</v>
+      </c>
+      <c r="AC14" s="36">
         <f t="shared" ref="AC14:AC20" si="8">(R14+S14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="35">
+        <v>1.1587</v>
+      </c>
+      <c r="AD14" s="36">
         <f t="shared" ref="AD14:AD20" si="9">(S14+T14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="35">
+        <v>1.41205</v>
+      </c>
+      <c r="AE14" s="36">
         <f t="shared" ref="AE14:AE20" si="10">(T14+U14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="35">
+        <v>0.7082</v>
+      </c>
+      <c r="AF14" s="36">
         <f t="shared" ref="AF14:AF20" si="11">(U14+V14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="35">
+        <v>0.5158</v>
+      </c>
+      <c r="AG14" s="36">
         <f t="shared" ref="AG14:AG20" si="12">(V14+W14)/2</f>
-        <v>0.12905</v>
-      </c>
-      <c r="AH14" s="35">
+        <v>0.2987</v>
+      </c>
+      <c r="AH14" s="36">
         <f t="shared" ref="AH14:AH20" si="13">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
-      <c r="AI14" s="35">
+      <c r="AI14" s="36">
         <f t="shared" ref="AI14:AI20" si="14">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="49">
+      <c r="AJ14" s="50">
         <f t="shared" si="4"/>
-        <v>0.1745123777845</v>
-      </c>
-      <c r="AK14" s="39">
+        <v>0.527397656544523</v>
+      </c>
+      <c r="AK14" s="40">
         <v>0.2685</v>
       </c>
-      <c r="AL14" s="39">
+      <c r="AL14" s="40">
         <v>0.4227</v>
       </c>
-      <c r="AM14" s="39">
+      <c r="AM14" s="40">
         <v>0.3457</v>
       </c>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="58">
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="59">
         <v>37757</v>
       </c>
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="70">
+      <c r="AS14" s="71">
         <v>5.912</v>
       </c>
-      <c r="AT14" s="70">
+      <c r="AT14" s="71">
         <v>5.69</v>
       </c>
       <c r="AU14" s="8"/>
@@ -5075,30 +5116,30 @@
       <c r="AY14" s="8"/>
       <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="28">
+      <c r="BB14" s="29">
         <v>11</v>
       </c>
-      <c r="BC14" s="82" t="s">
+      <c r="BC14" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" s="82" t="s">
+      <c r="BD14" s="83" t="s">
         <v>110</v>
       </c>
       <c r="BE14" s="8"/>
       <c r="BF14" s="8"/>
       <c r="BG14" s="8"/>
       <c r="BH14" s="8"/>
-      <c r="BI14" s="28">
+      <c r="BI14" s="29">
         <v>3.41</v>
       </c>
-      <c r="BJ14" s="92">
+      <c r="BJ14" s="93">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="BK14" s="98" t="s">
+      <c r="BK14" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" s="95">
+      <c r="BL14" s="96">
         <v>44601</v>
       </c>
     </row>
@@ -5113,130 +5154,130 @@
         <v>114</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="27">
+      <c r="E15" s="28">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="37">
         <v>0.82</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="36">
         <v>0.3043</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="36">
         <v>0.1454</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="36">
         <v>0.2327</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="36">
         <v>0.1847</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="36">
         <v>0.2133</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="36">
         <v>0.3746</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="36">
         <v>0.3028</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="36">
         <v>1.4835</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="36">
         <v>0.1758</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="36">
         <v>0.6306</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="36">
         <v>0.4161</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="36">
         <v>-0.2543</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="36">
         <v>-1.285</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="36">
         <v>-0.9669</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="36">
         <v>-0.6954</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="36">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="41">
+      <c r="W15" s="42">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="42">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="41">
+      <c r="Y15" s="42">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="35">
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="36">
         <f t="shared" si="1"/>
         <v>2.19015833333333</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AB15" s="36">
         <f t="shared" si="2"/>
         <v>1.47577368421053</v>
       </c>
-      <c r="AC15" s="35">
+      <c r="AC15" s="36">
         <f t="shared" si="8"/>
         <v>-0.76965</v>
       </c>
-      <c r="AD15" s="35">
+      <c r="AD15" s="36">
         <f t="shared" si="9"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="41">
+      <c r="AE15" s="42">
         <f t="shared" si="10"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="41">
+      <c r="AF15" s="42">
         <f t="shared" si="11"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="41">
+      <c r="AG15" s="42">
         <f t="shared" si="12"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="41">
+      <c r="AH15" s="42">
         <f t="shared" si="13"/>
         <v>12.6315</v>
       </c>
-      <c r="AI15" s="35">
+      <c r="AI15" s="36">
         <f t="shared" si="14"/>
         <v>11.12845</v>
       </c>
-      <c r="AJ15" s="49">
+      <c r="AJ15" s="50">
         <f t="shared" si="4"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="41">
+      <c r="AK15" s="42">
         <v>2.2501</v>
       </c>
-      <c r="AL15" s="41">
+      <c r="AL15" s="42">
         <v>0.7909</v>
       </c>
-      <c r="AM15" s="41">
+      <c r="AM15" s="42">
         <v>0.5626</v>
       </c>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="59">
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="60">
         <v>37250</v>
       </c>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
-      <c r="AS15" s="72">
+      <c r="AS15" s="73">
         <v>21.81</v>
       </c>
-      <c r="AT15" s="72">
+      <c r="AT15" s="73">
         <v>14.33</v>
       </c>
       <c r="AU15" s="8"/>
@@ -5246,13 +5287,13 @@
       <c r="AY15" s="8"/>
       <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="19">
+      <c r="BB15" s="20">
         <v>1</v>
       </c>
-      <c r="BC15" s="82" t="s">
+      <c r="BC15" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BD15" s="82" t="s">
+      <c r="BD15" s="83" t="s">
         <v>116</v>
       </c>
       <c r="BE15" s="8"/>
@@ -5262,14 +5303,14 @@
       <c r="BI15" s="8">
         <v>19.28</v>
       </c>
-      <c r="BJ15" s="92">
+      <c r="BJ15" s="93">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="BK15" s="99" t="s">
+      <c r="BK15" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="BL15" s="95">
+      <c r="BL15" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -5284,98 +5325,130 @@
         <v>120</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="27">
+      <c r="E16" s="28">
         <v>0.5564</v>
       </c>
       <c r="F16" s="8">
         <v>0.725</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="27">
+      <c r="G16" s="36">
+        <v>0.7222</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-0.1944</v>
+      </c>
+      <c r="I16" s="36">
+        <v>-0.0698</v>
+      </c>
+      <c r="J16" s="36">
+        <v>-0.4096</v>
+      </c>
+      <c r="K16" s="36">
+        <v>-0.3226</v>
+      </c>
+      <c r="L16" s="36">
+        <v>0.2759</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="36">
+        <v>0.5102</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0.381</v>
+      </c>
+      <c r="P16" s="36">
+        <v>0.4865</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="36">
+        <v>0.2027</v>
+      </c>
+      <c r="S16" s="36">
+        <v>0.7241</v>
+      </c>
+      <c r="T16" s="36">
+        <v>0.5273</v>
+      </c>
+      <c r="U16" s="36">
+        <v>0.3077</v>
+      </c>
+      <c r="V16" s="36">
+        <v>0.1798</v>
+      </c>
+      <c r="W16" s="28">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="28">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="28">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="35">
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="36">
         <f t="shared" si="1"/>
-        <v>-0.0540333333333333</v>
-      </c>
-      <c r="AB16" s="35">
+        <v>0.264241666666667</v>
+      </c>
+      <c r="AB16" s="36">
         <f t="shared" si="2"/>
-        <v>-0.0341263157894737</v>
-      </c>
-      <c r="AC16" s="35">
+        <v>0.182768421052632</v>
+      </c>
+      <c r="AC16" s="36">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="35">
+        <v>0.4634</v>
+      </c>
+      <c r="AD16" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="35">
+        <v>0.6257</v>
+      </c>
+      <c r="AE16" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="35">
+        <v>0.4175</v>
+      </c>
+      <c r="AF16" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="35">
+        <v>0.24375</v>
+      </c>
+      <c r="AG16" s="36">
         <f t="shared" si="12"/>
-        <v>-0.07</v>
-      </c>
-      <c r="AH16" s="35">
+        <v>0.0199</v>
+      </c>
+      <c r="AH16" s="36">
         <f t="shared" si="13"/>
         <v>-0.17715</v>
       </c>
-      <c r="AI16" s="35">
+      <c r="AI16" s="36">
         <f t="shared" si="14"/>
         <v>-0.2542</v>
       </c>
-      <c r="AJ16" s="49">
+      <c r="AJ16" s="50">
         <f t="shared" si="4"/>
-        <v>0.0770663566891113</v>
-      </c>
-      <c r="AK16" s="27">
+        <v>0.363787610583476</v>
+      </c>
+      <c r="AK16" s="28">
         <v>-0.1922</v>
       </c>
-      <c r="AL16" s="27">
+      <c r="AL16" s="28">
         <v>-0.1946</v>
       </c>
-      <c r="AM16" s="27">
+      <c r="AM16" s="28">
         <v>-0.0688</v>
       </c>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="59">
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="60">
         <v>42031</v>
       </c>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="72">
+      <c r="AS16" s="73">
         <v>3.726</v>
       </c>
-      <c r="AT16" s="72">
+      <c r="AT16" s="73">
         <v>3.253</v>
       </c>
       <c r="AU16" s="8"/>
@@ -5388,10 +5461,10 @@
       <c r="BB16" s="8">
         <v>2</v>
       </c>
-      <c r="BC16" s="82" t="s">
+      <c r="BC16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="BD16" s="82" t="s">
+      <c r="BD16" s="83" t="s">
         <v>122</v>
       </c>
       <c r="BE16" s="8"/>
@@ -5399,14 +5472,14 @@
       <c r="BG16" s="8"/>
       <c r="BH16" s="8"/>
       <c r="BI16" s="8"/>
-      <c r="BJ16" s="92">
+      <c r="BJ16" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BK16" s="100" t="s">
+      <c r="BK16" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="BL16" s="95">
+      <c r="BL16" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -5421,108 +5494,108 @@
         <v>126</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37">
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38">
         <v>0.0625</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="38">
         <v>0.0534</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="38">
         <v>0.0052</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="38">
         <v>-0.2069</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="38">
         <v>-0.2</v>
       </c>
-      <c r="U17" s="37">
+      <c r="U17" s="38">
         <v>-0.1884</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="38">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="43">
         <v>1.087</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="43">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="42">
+      <c r="Y17" s="43">
         <v>0.6696</v>
       </c>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="35">
+      <c r="AA17" s="36">
         <f t="shared" si="1"/>
         <v>0.167833333333333</v>
       </c>
-      <c r="AB17" s="37">
+      <c r="AB17" s="38">
         <f t="shared" si="2"/>
         <v>0.106</v>
       </c>
-      <c r="AC17" s="35">
+      <c r="AC17" s="36">
         <f t="shared" si="8"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD17" s="35">
+      <c r="AD17" s="36">
         <f t="shared" si="9"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="41">
+      <c r="AE17" s="42">
         <f t="shared" si="10"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="41">
+      <c r="AF17" s="42">
         <f t="shared" si="11"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="41">
+      <c r="AG17" s="42">
         <f t="shared" si="12"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="41">
+      <c r="AH17" s="42">
         <f t="shared" si="13"/>
         <v>0.94055</v>
       </c>
-      <c r="AI17" s="35">
+      <c r="AI17" s="36">
         <f t="shared" si="14"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ17" s="50">
+      <c r="AJ17" s="51">
         <f t="shared" si="4"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="42">
+      <c r="AK17" s="43">
         <v>1.0194</v>
       </c>
-      <c r="AL17" s="42">
+      <c r="AL17" s="43">
         <v>0.7661</v>
       </c>
-      <c r="AM17" s="42">
+      <c r="AM17" s="43">
         <v>0.6219</v>
       </c>
       <c r="AN17" s="18"/>
-      <c r="AO17" s="60">
+      <c r="AO17" s="61">
         <v>43823</v>
       </c>
       <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
-      <c r="AS17" s="73">
+      <c r="AS17" s="74">
         <v>2.331</v>
       </c>
-      <c r="AT17" s="74">
+      <c r="AT17" s="75">
         <v>1.118</v>
       </c>
       <c r="AU17" s="18"/>
@@ -5532,30 +5605,30 @@
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
-      <c r="BB17" s="86">
+      <c r="BB17" s="87">
         <v>21</v>
       </c>
-      <c r="BC17" s="87" t="s">
+      <c r="BC17" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="BD17" s="87" t="s">
+      <c r="BD17" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="BE17" s="86"/>
-      <c r="BF17" s="86"/>
-      <c r="BG17" s="86"/>
-      <c r="BH17" s="86"/>
-      <c r="BI17" s="101">
+      <c r="BE17" s="87"/>
+      <c r="BF17" s="87"/>
+      <c r="BG17" s="87"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="102">
         <v>5.25</v>
       </c>
-      <c r="BJ17" s="92">
+      <c r="BJ17" s="93">
         <f t="shared" si="7"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="BK17" s="87" t="s">
+      <c r="BK17" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="BL17" s="102">
+      <c r="BL17" s="103">
         <v>44578</v>
       </c>
     </row>
@@ -5570,122 +5643,122 @@
         <v>132</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="37">
+      <c r="G18" s="38">
         <v>0.4231</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="38">
         <v>0.4</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="38">
         <v>0.3529</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="38">
         <v>0.2235</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="38">
         <v>-0.1351</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="38">
         <v>-0.4444</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="38">
         <v>-0.337</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="38">
         <v>-0.4712</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="38">
         <v>-0.6875</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="38">
         <v>0.0857</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="38">
         <v>0.082</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="38">
         <v>0.5818</v>
       </c>
-      <c r="S18" s="37">
+      <c r="S18" s="38">
         <v>1.1</v>
       </c>
-      <c r="T18" s="37">
+      <c r="T18" s="38">
         <v>0.5263</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="38">
         <v>0.4697</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="38">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="43">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="43">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="42">
+      <c r="Y18" s="43">
         <v>0.4021</v>
       </c>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="35">
+      <c r="AA18" s="36">
         <f t="shared" si="1"/>
         <v>0.370166666666667</v>
       </c>
-      <c r="AB18" s="37">
+      <c r="AB18" s="38">
         <f t="shared" si="2"/>
-        <v>0.25921052631579</v>
-      </c>
-      <c r="AC18" s="35">
+        <v>0.259210526315789</v>
+      </c>
+      <c r="AC18" s="36">
         <f t="shared" si="8"/>
         <v>0.8409</v>
       </c>
-      <c r="AD18" s="35">
+      <c r="AD18" s="36">
         <f t="shared" si="9"/>
         <v>0.81315</v>
       </c>
-      <c r="AE18" s="35">
+      <c r="AE18" s="36">
         <f t="shared" si="10"/>
         <v>0.498</v>
       </c>
-      <c r="AF18" s="35">
+      <c r="AF18" s="36">
         <f t="shared" si="11"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="41">
+      <c r="AG18" s="42">
         <f t="shared" si="12"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18" s="42">
         <f t="shared" si="13"/>
         <v>0.9639</v>
       </c>
-      <c r="AI18" s="35">
+      <c r="AI18" s="36">
         <f t="shared" si="14"/>
         <v>0.5459</v>
       </c>
-      <c r="AJ18" s="50">
+      <c r="AJ18" s="51">
         <f t="shared" si="4"/>
         <v>0.509476975703446</v>
       </c>
-      <c r="AK18" s="37">
+      <c r="AK18" s="38">
         <v>0.3237</v>
       </c>
-      <c r="AL18" s="37">
+      <c r="AL18" s="38">
         <v>0.2459</v>
       </c>
-      <c r="AM18" s="37">
+      <c r="AM18" s="38">
         <v>0.205</v>
       </c>
       <c r="AN18" s="18"/>
-      <c r="AO18" s="61"/>
+      <c r="AO18" s="62"/>
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="18"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
       <c r="AU18" s="18"/>
       <c r="AV18" s="18"/>
       <c r="AW18" s="18"/>
@@ -5694,19 +5767,19 @@
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
       <c r="BB18" s="18"/>
-      <c r="BC18" s="88"/>
-      <c r="BD18" s="88"/>
+      <c r="BC18" s="89"/>
+      <c r="BD18" s="89"/>
       <c r="BE18" s="18"/>
       <c r="BF18" s="18"/>
       <c r="BG18" s="18"/>
       <c r="BH18" s="18"/>
       <c r="BI18" s="18"/>
-      <c r="BJ18" s="92" t="e">
+      <c r="BJ18" s="93" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK18" s="18"/>
-      <c r="BL18" s="95">
+      <c r="BL18" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -5721,124 +5794,124 @@
         <v>135</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="37">
+      <c r="G19" s="38">
         <v>0.2019</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="38">
         <v>-0.1083</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="38">
         <v>-0.1304</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="38">
         <v>-0.0952</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="38">
         <v>0.926</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="38">
         <v>0.8056</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="38">
         <v>0.8</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="38">
         <v>0.1316</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="38">
         <v>0.0748</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="38">
         <v>1.2774</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="38">
         <v>0.5556</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="38">
         <v>0.9535</v>
       </c>
-      <c r="S19" s="37">
+      <c r="S19" s="38">
         <v>1.4155</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="38">
         <v>0.0455</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="38">
         <v>0.5536</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="38">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="43">
         <v>0.6</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="43">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Y19" s="43">
         <v>0.4943</v>
       </c>
       <c r="Z19" s="18"/>
-      <c r="AA19" s="35">
+      <c r="AA19" s="36">
         <f t="shared" si="1"/>
         <v>0.595266666666667</v>
       </c>
-      <c r="AB19" s="37">
+      <c r="AB19" s="38">
         <f t="shared" si="2"/>
         <v>0.502252631578947</v>
       </c>
-      <c r="AC19" s="35">
+      <c r="AC19" s="36">
         <f t="shared" si="8"/>
         <v>1.1845</v>
       </c>
-      <c r="AD19" s="35">
+      <c r="AD19" s="36">
         <f t="shared" si="9"/>
         <v>0.7305</v>
       </c>
-      <c r="AE19" s="35">
+      <c r="AE19" s="36">
         <f t="shared" si="10"/>
         <v>0.29955</v>
       </c>
-      <c r="AF19" s="35">
+      <c r="AF19" s="36">
         <f t="shared" si="11"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="41">
+      <c r="AG19" s="42">
         <f t="shared" si="12"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="41">
+      <c r="AH19" s="42">
         <f t="shared" si="13"/>
         <v>0.8326</v>
       </c>
-      <c r="AI19" s="35">
+      <c r="AI19" s="36">
         <f t="shared" si="14"/>
         <v>0.77975</v>
       </c>
-      <c r="AJ19" s="50">
+      <c r="AJ19" s="51">
         <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="42">
+      <c r="AK19" s="43">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="42">
+      <c r="AL19" s="43">
         <v>0.5323</v>
       </c>
-      <c r="AM19" s="43">
+      <c r="AM19" s="44">
         <v>0.6121</v>
       </c>
       <c r="AN19" s="18"/>
-      <c r="AO19" s="61"/>
+      <c r="AO19" s="62"/>
       <c r="AP19" s="18"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
-      <c r="AS19" s="75">
+      <c r="AS19" s="76">
         <v>4.704</v>
       </c>
-      <c r="AT19" s="75">
+      <c r="AT19" s="76">
         <v>3.956</v>
       </c>
       <c r="AU19" s="18"/>
@@ -5851,10 +5924,10 @@
       <c r="BB19" s="18">
         <v>4</v>
       </c>
-      <c r="BC19" s="82" t="s">
+      <c r="BC19" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="BD19" s="82" t="s">
+      <c r="BD19" s="83" t="s">
         <v>137</v>
       </c>
       <c r="BE19" s="18"/>
@@ -5864,12 +5937,12 @@
       <c r="BI19" s="18">
         <v>6.04</v>
       </c>
-      <c r="BJ19" s="92">
+      <c r="BJ19" s="93">
         <f t="shared" si="7"/>
         <v>1.28401360544218</v>
       </c>
       <c r="BK19" s="18"/>
-      <c r="BL19" s="95">
+      <c r="BL19" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -5884,128 +5957,128 @@
         <v>140</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="37">
+      <c r="E20" s="38">
         <v>0.2676</v>
       </c>
       <c r="F20" s="18">
         <v>1.2</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="38">
         <v>0.125</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="38">
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="38">
         <v>-0.1017</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="38">
         <v>-0.0235</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="38">
         <v>0.1389</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="38">
         <v>0.1707</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="38">
         <v>0.1698</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="38">
         <v>0.1687</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="38">
         <v>0.0732</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="38">
         <v>0.1667</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="38">
         <v>0.2097</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="38">
         <v>0.1959</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="38">
         <v>-0.3409</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="38">
         <v>-0.25</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="38">
         <v>-0.12</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="38">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="43">
+      <c r="W20" s="44">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="43">
+      <c r="X20" s="44">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="43">
+      <c r="Y20" s="44">
         <v>0.8182</v>
       </c>
       <c r="Z20" s="18"/>
-      <c r="AA20" s="35">
+      <c r="AA20" s="36">
         <f t="shared" si="1"/>
         <v>0.191291666666667</v>
       </c>
-      <c r="AB20" s="37">
+      <c r="AB20" s="38">
         <f t="shared" si="2"/>
         <v>0.146036842105263</v>
       </c>
-      <c r="AC20" s="35">
+      <c r="AC20" s="36">
         <f t="shared" si="8"/>
         <v>-0.0725</v>
       </c>
-      <c r="AD20" s="35">
+      <c r="AD20" s="36">
         <f t="shared" si="9"/>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="41">
+      <c r="AE20" s="42">
         <f t="shared" si="10"/>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="41">
+      <c r="AF20" s="42">
         <f t="shared" si="11"/>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="41">
+      <c r="AG20" s="42">
         <f t="shared" si="12"/>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="41">
+      <c r="AH20" s="42">
         <f t="shared" si="13"/>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="41">
+      <c r="AI20" s="42">
         <f t="shared" si="14"/>
         <v>0.79005</v>
       </c>
-      <c r="AJ20" s="50">
+      <c r="AJ20" s="51">
         <f t="shared" si="4"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="42">
+      <c r="AK20" s="43">
         <v>1.3196</v>
       </c>
-      <c r="AL20" s="42">
+      <c r="AL20" s="43">
         <v>0.8147</v>
       </c>
-      <c r="AM20" s="42">
+      <c r="AM20" s="43">
         <v>0.5566</v>
       </c>
       <c r="AN20" s="18"/>
-      <c r="AO20" s="61"/>
+      <c r="AO20" s="62"/>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
-      <c r="AS20" s="75">
+      <c r="AS20" s="76">
         <v>8</v>
       </c>
-      <c r="AT20" s="75">
+      <c r="AT20" s="76">
         <v>8</v>
       </c>
       <c r="AU20" s="18"/>
@@ -6018,10 +6091,10 @@
       <c r="BB20" s="18">
         <v>60</v>
       </c>
-      <c r="BC20" s="82" t="s">
+      <c r="BC20" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="BD20" s="82" t="s">
+      <c r="BD20" s="83" t="s">
         <v>142</v>
       </c>
       <c r="BE20" s="18"/>
@@ -6031,14 +6104,14 @@
       <c r="BI20" s="18">
         <v>9.62</v>
       </c>
-      <c r="BJ20" s="92">
+      <c r="BJ20" s="93">
         <f t="shared" si="7"/>
         <v>1.2025</v>
       </c>
-      <c r="BK20" s="99" t="s">
+      <c r="BK20" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="BL20" s="95">
+      <c r="BL20" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -6046,341 +6119,417 @@
       <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="62"/>
+      <c r="B21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="36">
+        <v>0.3207</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.585</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.0742</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.0717</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0.1941</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0.3455</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0.2853</v>
+      </c>
+      <c r="L21" s="36">
+        <v>0.2853</v>
+      </c>
+      <c r="M21" s="36">
+        <v>0.1566</v>
+      </c>
+      <c r="N21" s="36">
+        <v>0.1897</v>
+      </c>
+      <c r="O21" s="36">
+        <v>-0.0897</v>
+      </c>
+      <c r="P21" s="36">
+        <v>-0.1581</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>-0.1517</v>
+      </c>
+      <c r="R21" s="36">
+        <v>-0.0882</v>
+      </c>
+      <c r="S21" s="36">
+        <v>-0.559</v>
+      </c>
+      <c r="T21" s="36">
+        <v>-0.1974</v>
+      </c>
+      <c r="U21" s="36">
+        <v>0.0085</v>
+      </c>
+      <c r="V21" s="36">
+        <v>0.0706</v>
+      </c>
+      <c r="W21" s="36">
+        <v>1.5611</v>
+      </c>
+      <c r="X21" s="36">
+        <v>0.704</v>
+      </c>
+      <c r="Y21" s="36">
+        <v>0.3564</v>
+      </c>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="36">
+        <f>(N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/12</f>
+        <v>0.137183333333333</v>
+      </c>
+      <c r="AB21" s="38">
+        <f>(G21+H21+I21+J21+K21+L21+M21+N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/19</f>
+        <v>0.160994736842105</v>
+      </c>
+      <c r="AC21" s="36">
+        <f>(R21+S21)/2</f>
+        <v>-0.3236</v>
+      </c>
+      <c r="AD21" s="36">
+        <f>(S21+T21)/2</f>
+        <v>-0.3782</v>
+      </c>
+      <c r="AE21" s="42">
+        <f>(T21+U21)/2</f>
+        <v>-0.09445</v>
+      </c>
+      <c r="AF21" s="42">
+        <f>(U21+V21)/2</f>
+        <v>0.03955</v>
+      </c>
+      <c r="AG21" s="42">
+        <f>(V21+W21)/2</f>
+        <v>0.81585</v>
+      </c>
+      <c r="AH21" s="42">
+        <f>(W21+X21)/2</f>
+        <v>1.13255</v>
+      </c>
+      <c r="AI21" s="36">
+        <f>(X21+Y21)/2</f>
+        <v>0.5302</v>
+      </c>
+      <c r="AJ21" s="51">
+        <f>STDEV(G21:Y21)</f>
+        <v>0.433239412223881</v>
+      </c>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="63"/>
     </row>
     <row r="22" ht="18" spans="1:64">
       <c r="A22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="76"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
-      <c r="BF22" s="19"/>
-      <c r="BG22" s="19"/>
-      <c r="BH22" s="19"/>
-      <c r="BI22" s="19"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19"/>
-      <c r="BL22" s="62"/>
+        <v>147</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="63"/>
     </row>
     <row r="23" ht="18" spans="1:64">
       <c r="A23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="19"/>
-      <c r="BE23" s="19"/>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="19"/>
-      <c r="BH23" s="19"/>
-      <c r="BI23" s="19"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19"/>
-      <c r="BL23" s="62"/>
+        <v>148</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="63"/>
     </row>
     <row r="24" ht="18" spans="1:64">
       <c r="A24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="19"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="19"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="62"/>
+        <v>149</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="63"/>
     </row>
     <row r="25" ht="18" spans="1:64">
       <c r="A25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -1503,6 +1503,12 @@
       </rPr>
       <t>M_000019</t>
     </r>
+  </si>
+  <si>
+    <t>002761</t>
+  </si>
+  <si>
+    <t>浙江建投</t>
   </si>
   <si>
     <r>
@@ -1826,7 +1832,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1860,6 +1866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,152 +2194,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2445,6 +2457,9 @@
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2472,6 +2487,12 @@
     <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2484,10 +2505,10 @@
     <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2559,9 +2580,6 @@
     <xf numFmtId="183" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,6 +2657,9 @@
     </xf>
     <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2962,11 +2983,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AR15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="BK16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD21" sqref="BD21"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3059,36 +3080,36 @@
       <c r="AL1" s="23"/>
       <c r="AM1" s="23"/>
       <c r="AN1" s="23"/>
-      <c r="AO1" s="54" t="s">
+      <c r="AO1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="45" t="s">
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="90"/>
-      <c r="BL1" s="91" t="s">
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="93" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3120,23 +3141,23 @@
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AC2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="AK2" s="24" t="s">
@@ -3145,27 +3166,27 @@
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
       <c r="AN2" s="24"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="66" t="s">
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="67" t="s">
+      <c r="AU2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="68" t="s">
+      <c r="AV2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
       <c r="BB2" s="4" t="s">
         <v>21</v>
       </c>
@@ -3175,12 +3196,12 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="92" t="s">
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="91"/>
+      <c r="BL2" s="93"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:64">
       <c r="A3" s="4"/>
@@ -3246,33 +3267,33 @@
       <c r="Y3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="49" t="s">
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="49" t="s">
+      <c r="AD3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="49" t="s">
+      <c r="AE3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AF3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AG3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="49" t="s">
+      <c r="AH3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="49" t="s">
+      <c r="AI3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="46"/>
+      <c r="AJ3" s="47"/>
       <c r="AK3" s="25" t="s">
         <v>23</v>
       </c>
@@ -3285,49 +3306,49 @@
       <c r="AN3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="57" t="s">
         <v>34</v>
       </c>
       <c r="AP3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AQ3" s="55" t="s">
+      <c r="AQ3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="55" t="s">
+      <c r="AR3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="69" t="s">
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="69" t="s">
+      <c r="AW3" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="45" t="s">
+      <c r="AX3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="78" t="s">
+      <c r="AY3" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="78" t="s">
+      <c r="AZ3" s="80" t="s">
         <v>42</v>
       </c>
       <c r="BA3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="79" t="s">
+      <c r="BB3" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="79" t="s">
+      <c r="BC3" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="BD3" s="80" t="s">
+      <c r="BD3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="BE3" s="79" t="s">
+      <c r="BE3" s="81" t="s">
         <v>47</v>
       </c>
       <c r="BF3" s="4" t="s">
@@ -3342,11 +3363,11 @@
       <c r="BI3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="69" t="s">
+      <c r="BJ3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="91"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="93"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:64">
       <c r="A4" s="5" t="s">
@@ -3411,21 +3432,21 @@
       <c r="V4" s="26">
         <v>1.2819</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="40">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="40">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="40">
         <v>0.2626</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="36">
+      <c r="AA4" s="43">
         <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
         <v>-0.150458333333333</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="43">
         <f>(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
         <v>-0.00552631578947369</v>
       </c>
@@ -3433,15 +3454,15 @@
         <f>(R4+S4)/2</f>
         <v>-1.4778</v>
       </c>
-      <c r="AD4" s="42">
+      <c r="AD4" s="43">
         <f>(S4+T4)/2</f>
         <v>-0.1972</v>
       </c>
-      <c r="AE4" s="42">
+      <c r="AE4" s="43">
         <f>(T4+U4)/2</f>
         <v>0.6422</v>
       </c>
-      <c r="AF4" s="42">
+      <c r="AF4" s="43">
         <f>(U4+V4)/2</f>
         <v>1.37975</v>
       </c>
@@ -3457,22 +3478,22 @@
         <f>(X4+Y4)/2</f>
         <v>0.1411</v>
       </c>
-      <c r="AJ4" s="50">
+      <c r="AJ4" s="53">
         <f>STDEV(G4:Y4)</f>
         <v>0.99904872244779</v>
       </c>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="56"/>
+      <c r="AO4" s="59"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
-      <c r="AS4" s="70">
+      <c r="AS4" s="73">
         <v>8.357</v>
       </c>
-      <c r="AT4" s="70">
+      <c r="AT4" s="73">
         <v>8.32</v>
       </c>
       <c r="AU4" s="7"/>
@@ -3482,28 +3503,28 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
-      <c r="BB4" s="81">
+      <c r="BB4" s="83">
         <v>3</v>
       </c>
-      <c r="BC4" s="82" t="s">
+      <c r="BC4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" s="82" t="s">
+      <c r="BD4" s="84" t="s">
         <v>56</v>
       </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="81">
+      <c r="BI4" s="83">
         <v>1.28</v>
       </c>
-      <c r="BJ4" s="93">
+      <c r="BJ4" s="95">
         <f t="shared" ref="BJ4:BJ12" si="0">BI4/AS4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="BK4" s="7"/>
-      <c r="BL4" s="94">
+      <c r="BL4" s="96">
         <v>44579</v>
       </c>
     </row>
@@ -3558,21 +3579,21 @@
       <c r="V5" s="28">
         <v>0.1654</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="41">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="41">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Y5" s="41">
         <v>1.3176</v>
       </c>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="36">
+      <c r="AA5" s="43">
         <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
         <v>0.400883333333333</v>
       </c>
-      <c r="AB5" s="36">
+      <c r="AB5" s="43">
         <f>(G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/19</f>
         <v>0.260942105263158</v>
       </c>
@@ -3588,15 +3609,15 @@
         <f>(T5+U5)/2</f>
         <v>0.01965</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="43">
         <f>(U5+V5)/2</f>
         <v>0.04465</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="43">
         <f>(V5+W5)/2</f>
         <v>1.547</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="43">
         <f>(W5+X5)/2</f>
         <v>2.24015</v>
       </c>
@@ -3604,22 +3625,22 @@
         <f>(X5+Y5)/2</f>
         <v>1.43465</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="53">
         <f>STDEV(G5:Y5)</f>
         <v>0.974103649647413</v>
       </c>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
       <c r="AN5" s="8"/>
-      <c r="AO5" s="57"/>
+      <c r="AO5" s="60"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
-      <c r="AS5" s="71">
+      <c r="AS5" s="74">
         <v>1.105</v>
       </c>
-      <c r="AT5" s="71">
+      <c r="AT5" s="74">
         <v>1.096</v>
       </c>
       <c r="AU5" s="8"/>
@@ -3632,10 +3653,10 @@
       <c r="BB5" s="29">
         <v>10</v>
       </c>
-      <c r="BC5" s="83" t="s">
+      <c r="BC5" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" s="84" t="s">
+      <c r="BD5" s="86" t="s">
         <v>61</v>
       </c>
       <c r="BE5" s="8"/>
@@ -3645,14 +3666,14 @@
       <c r="BI5" s="29">
         <v>2.18</v>
       </c>
-      <c r="BJ5" s="95">
+      <c r="BJ5" s="97">
         <f t="shared" si="0"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="BK5" s="84" t="s">
+      <c r="BK5" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" s="96">
+      <c r="BL5" s="98">
         <v>44579</v>
       </c>
     </row>
@@ -3719,21 +3740,21 @@
       <c r="V6" s="28">
         <v>0.0822</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="41">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="41">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="41">
         <v>1.1052</v>
       </c>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="36">
+      <c r="AA6" s="43">
         <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
         <v>0.801675</v>
       </c>
-      <c r="AB6" s="36">
+      <c r="AB6" s="43">
         <f>(G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/19</f>
         <v>0.548726315789474</v>
       </c>
@@ -3745,19 +3766,19 @@
         <f>(S6+T6)/2</f>
         <v>-0.4632</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="43">
         <f>(T6+U6)/2</f>
         <v>-0.17455</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="43">
         <f>(U6+V6)/2</f>
         <v>0.03535</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="43">
         <f>(V6+W6)/2</f>
         <v>3.5088</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="43">
         <f>(W6+X6)/2</f>
         <v>4.4297</v>
       </c>
@@ -3765,22 +3786,22 @@
         <f>(X6+Y6)/2</f>
         <v>1.5146</v>
       </c>
-      <c r="AJ6" s="50">
+      <c r="AJ6" s="53">
         <f>STDEV(G6:Y6)</f>
         <v>1.64320222460161</v>
       </c>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
       <c r="AN6" s="8"/>
-      <c r="AO6" s="57"/>
+      <c r="AO6" s="60"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
-      <c r="AS6" s="71">
+      <c r="AS6" s="74">
         <v>5.824</v>
       </c>
-      <c r="AT6" s="71">
+      <c r="AT6" s="74">
         <v>4.581</v>
       </c>
       <c r="AU6" s="8"/>
@@ -3793,10 +3814,10 @@
       <c r="BB6" s="29">
         <v>6</v>
       </c>
-      <c r="BC6" s="83" t="s">
+      <c r="BC6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="82" t="s">
+      <c r="BD6" s="84" t="s">
         <v>67</v>
       </c>
       <c r="BE6" s="8"/>
@@ -3806,12 +3827,12 @@
       <c r="BI6" s="29">
         <v>3.91</v>
       </c>
-      <c r="BJ6" s="93">
+      <c r="BJ6" s="95">
         <f t="shared" si="0"/>
         <v>0.67135989010989</v>
       </c>
       <c r="BK6" s="8"/>
-      <c r="BL6" s="96">
+      <c r="BL6" s="98">
         <v>44580</v>
       </c>
     </row>
@@ -3880,21 +3901,21 @@
       <c r="V7" s="28">
         <v>5.8333</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="41">
         <v>21</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="41">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="41">
         <v>3.6</v>
       </c>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="36">
+      <c r="AA7" s="43">
         <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
         <v>3.06895</v>
       </c>
-      <c r="AB7" s="36">
+      <c r="AB7" s="43">
         <f>(G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/19</f>
         <v>1.76396315789474</v>
       </c>
@@ -3906,19 +3927,19 @@
         <f>(S7+T7)/2</f>
         <v>0.58335</v>
       </c>
-      <c r="AE7" s="42">
+      <c r="AE7" s="43">
         <f>(T7+U7)/2</f>
         <v>1.33335</v>
       </c>
-      <c r="AF7" s="42">
+      <c r="AF7" s="43">
         <f>(U7+V7)/2</f>
         <v>3.91665</v>
       </c>
-      <c r="AG7" s="42">
+      <c r="AG7" s="43">
         <f>(V7+W7)/2</f>
         <v>13.41665</v>
       </c>
-      <c r="AH7" s="42">
+      <c r="AH7" s="43">
         <f>(W7+X7)/2</f>
         <v>14.1</v>
       </c>
@@ -3926,22 +3947,22 @@
         <f>(X7+Y7)/2</f>
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="50">
+      <c r="AJ7" s="53">
         <f>STDEV(G7:Y7)</f>
         <v>5.22249544526268</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
       <c r="AN7" s="8"/>
-      <c r="AO7" s="57"/>
+      <c r="AO7" s="60"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="71">
+      <c r="AS7" s="74">
         <v>1.847</v>
       </c>
-      <c r="AT7" s="71">
+      <c r="AT7" s="74">
         <v>1.137</v>
       </c>
       <c r="AU7" s="8"/>
@@ -3954,10 +3975,10 @@
       <c r="BB7" s="29">
         <v>4</v>
       </c>
-      <c r="BC7" s="83" t="s">
+      <c r="BC7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="82" t="s">
+      <c r="BD7" s="84" t="s">
         <v>72</v>
       </c>
       <c r="BE7" s="8"/>
@@ -3967,12 +3988,12 @@
       <c r="BI7" s="29">
         <v>1.26</v>
       </c>
-      <c r="BJ7" s="93">
+      <c r="BJ7" s="95">
         <f t="shared" si="0"/>
         <v>0.682187330806714</v>
       </c>
       <c r="BK7" s="8"/>
-      <c r="BL7" s="96">
+      <c r="BL7" s="98">
         <v>44580</v>
       </c>
     </row>
@@ -4051,11 +4072,11 @@
         <v>-0.4762</v>
       </c>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="36">
+      <c r="AA8" s="49">
         <f t="shared" ref="AA8:AA20" si="1">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
         <v>0.00756666666666668</v>
       </c>
-      <c r="AB8" s="36">
+      <c r="AB8" s="49">
         <f>(G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/19</f>
         <v>0.0103105263157895</v>
       </c>
@@ -4067,19 +4088,19 @@
         <f>(S8+T8)/2</f>
         <v>-0.2222</v>
       </c>
-      <c r="AE8" s="42">
+      <c r="AE8" s="43">
         <f>(T8+U8)/2</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="42">
+      <c r="AF8" s="43">
         <f>(U8+V8)/2</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="42">
+      <c r="AG8" s="43">
         <f>(V8+W8)/2</f>
         <v>0.65</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="43">
         <f>(W8+X8)/2</f>
         <v>0.775</v>
       </c>
@@ -4087,22 +4108,22 @@
         <f>(X8+Y8)/2</f>
         <v>-0.1131</v>
       </c>
-      <c r="AJ8" s="50">
+      <c r="AJ8" s="53">
         <f>STDEV(G8:Y8)</f>
         <v>0.454846862990095</v>
       </c>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="57"/>
+      <c r="AO8" s="60"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
-      <c r="AS8" s="71">
+      <c r="AS8" s="74">
         <v>4.562</v>
       </c>
-      <c r="AT8" s="71">
+      <c r="AT8" s="74">
         <v>4.48</v>
       </c>
       <c r="AU8" s="8"/>
@@ -4115,10 +4136,10 @@
       <c r="BB8" s="29">
         <v>9</v>
       </c>
-      <c r="BC8" s="83" t="s">
+      <c r="BC8" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="BD8" s="82" t="s">
+      <c r="BD8" s="84" t="s">
         <v>77</v>
       </c>
       <c r="BE8" s="8"/>
@@ -4128,12 +4149,12 @@
       <c r="BI8" s="29">
         <v>0.462891</v>
       </c>
-      <c r="BJ8" s="93">
+      <c r="BJ8" s="95">
         <f t="shared" si="0"/>
         <v>0.10146668128014</v>
       </c>
       <c r="BK8" s="8"/>
-      <c r="BL8" s="96">
+      <c r="BL8" s="98">
         <v>44580</v>
       </c>
     </row>
@@ -4202,21 +4223,21 @@
       <c r="V9" s="28">
         <v>0.2136</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="40">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="40">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="40">
         <v>0.3019</v>
       </c>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="36">
+      <c r="AA9" s="43">
         <f t="shared" si="1"/>
         <v>0.301766666666667</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="49">
         <f>(G9+H9+I9+J9+K9+L9+M9+N9+O9+P9+Q9+R9+S9+T9+U9+V9+W9+X9+Y9)/19</f>
         <v>0.651657894736842</v>
       </c>
@@ -4232,15 +4253,15 @@
         <f>(T9+U9)/2</f>
         <v>-0.08985</v>
       </c>
-      <c r="AF9" s="42">
+      <c r="AF9" s="43">
         <f>(U9+V9)/2</f>
         <v>0.05405</v>
       </c>
-      <c r="AG9" s="42">
+      <c r="AG9" s="43">
         <f>(V9+W9)/2</f>
         <v>0.2955</v>
       </c>
-      <c r="AH9" s="42">
+      <c r="AH9" s="43">
         <f>(W9+X9)/2</f>
         <v>0.3333</v>
       </c>
@@ -4248,22 +4269,22 @@
         <f>(X9+Y9)/2</f>
         <v>0.29555</v>
       </c>
-      <c r="AJ9" s="50">
+      <c r="AJ9" s="53">
         <f>STDEV(G9:Y9)</f>
         <v>0.832605655835135</v>
       </c>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
       <c r="AN9" s="8"/>
-      <c r="AO9" s="57"/>
+      <c r="AO9" s="60"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="71">
+      <c r="AS9" s="74">
         <v>10.64</v>
       </c>
-      <c r="AT9" s="71">
+      <c r="AT9" s="74">
         <v>10.22</v>
       </c>
       <c r="AU9" s="8"/>
@@ -4276,10 +4297,10 @@
       <c r="BB9" s="29">
         <v>37</v>
       </c>
-      <c r="BC9" s="84" t="s">
+      <c r="BC9" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="82" t="s">
+      <c r="BD9" s="84" t="s">
         <v>82</v>
       </c>
       <c r="BE9" s="8"/>
@@ -4289,12 +4310,12 @@
       <c r="BI9" s="29">
         <v>5.84</v>
       </c>
-      <c r="BJ9" s="93">
+      <c r="BJ9" s="95">
         <f t="shared" si="0"/>
         <v>0.548872180451128</v>
       </c>
       <c r="BK9" s="8"/>
-      <c r="BL9" s="96">
+      <c r="BL9" s="98">
         <v>44585</v>
       </c>
     </row>
@@ -4373,11 +4394,11 @@
         <v>0.1046</v>
       </c>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="36">
+      <c r="AA10" s="43">
         <f t="shared" si="1"/>
         <v>0.0377083333333333</v>
       </c>
-      <c r="AB10" s="36">
+      <c r="AB10" s="43">
         <f>(G10+H10+I10+J10+K10+L10+M10+N10+O10+P10+Q10+R10+S10+T10+U10+V10+W10+X10+Y10)/19</f>
         <v>0.0325105263157895</v>
       </c>
@@ -4385,23 +4406,23 @@
         <f>(R10+S10)/2</f>
         <v>-0.09605</v>
       </c>
-      <c r="AD10" s="42">
+      <c r="AD10" s="43">
         <f>(S10+T10)/2</f>
         <v>-0.07265</v>
       </c>
-      <c r="AE10" s="42">
+      <c r="AE10" s="43">
         <f>(T10+U10)/2</f>
         <v>0.00245</v>
       </c>
-      <c r="AF10" s="42">
+      <c r="AF10" s="43">
         <f>(U10+V10)/2</f>
         <v>0.01455</v>
       </c>
-      <c r="AG10" s="42">
+      <c r="AG10" s="43">
         <f>(V10+W10)/2</f>
         <v>0.21325</v>
       </c>
-      <c r="AH10" s="42">
+      <c r="AH10" s="43">
         <f>(W10+X10)/2</f>
         <v>0.27895</v>
       </c>
@@ -4409,22 +4430,22 @@
         <f>(X10+Y10)/2</f>
         <v>0.1251</v>
       </c>
-      <c r="AJ10" s="50">
+      <c r="AJ10" s="53">
         <f>STDEV(G10:Y10)</f>
         <v>0.108527312971522</v>
       </c>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
       <c r="AN10" s="8"/>
-      <c r="AO10" s="57"/>
+      <c r="AO10" s="60"/>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
-      <c r="AS10" s="71">
+      <c r="AS10" s="74">
         <v>153</v>
       </c>
-      <c r="AT10" s="71">
+      <c r="AT10" s="74">
         <v>111.4</v>
       </c>
       <c r="AU10" s="8"/>
@@ -4437,10 +4458,10 @@
       <c r="BB10" s="29">
         <v>87</v>
       </c>
-      <c r="BC10" s="82" t="s">
+      <c r="BC10" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="BD10" s="82" t="s">
+      <c r="BD10" s="84" t="s">
         <v>87</v>
       </c>
       <c r="BE10" s="8"/>
@@ -4450,12 +4471,12 @@
       <c r="BI10" s="29">
         <v>64.56</v>
       </c>
-      <c r="BJ10" s="93">
+      <c r="BJ10" s="95">
         <f t="shared" si="0"/>
         <v>0.421960784313726</v>
       </c>
       <c r="BK10" s="8"/>
-      <c r="BL10" s="96">
+      <c r="BL10" s="98">
         <v>44585</v>
       </c>
     </row>
@@ -4524,21 +4545,21 @@
       <c r="V11" s="28">
         <v>-4</v>
       </c>
-      <c r="W11" s="41">
+      <c r="W11" s="42">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="41">
+      <c r="X11" s="42">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="41">
+      <c r="Y11" s="42">
         <v>3.568</v>
       </c>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="36">
+      <c r="AA11" s="43">
         <f t="shared" si="1"/>
         <v>-0.585816666666667</v>
       </c>
-      <c r="AB11" s="36">
+      <c r="AB11" s="43">
         <f t="shared" ref="AB11:AB20" si="2">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
@@ -4558,42 +4579,42 @@
         <f t="shared" si="3"/>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="42">
+      <c r="AG11" s="43">
         <f t="shared" si="3"/>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="42">
+      <c r="AH11" s="43">
         <f t="shared" si="3"/>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="42">
+      <c r="AI11" s="43">
         <f t="shared" si="3"/>
         <v>2.584</v>
       </c>
-      <c r="AJ11" s="50">
+      <c r="AJ11" s="53">
         <f t="shared" ref="AJ11:AJ20" si="4">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="41">
         <v>0.2014</v>
       </c>
-      <c r="AL11" s="40">
+      <c r="AL11" s="41">
         <v>0.0771</v>
       </c>
-      <c r="AM11" s="40">
+      <c r="AM11" s="41">
         <v>0.26</v>
       </c>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="57">
+      <c r="AO11" s="60">
         <v>42347</v>
       </c>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="71">
+      <c r="AS11" s="74">
         <v>1.32</v>
       </c>
-      <c r="AT11" s="71">
+      <c r="AT11" s="74">
         <v>1.184</v>
       </c>
       <c r="AU11" s="8"/>
@@ -4606,10 +4627,10 @@
       <c r="BB11" s="29">
         <v>2</v>
       </c>
-      <c r="BC11" s="83" t="s">
+      <c r="BC11" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="BD11" s="84" t="s">
+      <c r="BD11" s="86" t="s">
         <v>92</v>
       </c>
       <c r="BE11" s="8"/>
@@ -4619,14 +4640,14 @@
       <c r="BI11" s="29">
         <v>0.139699</v>
       </c>
-      <c r="BJ11" s="93">
+      <c r="BJ11" s="95">
         <f t="shared" si="0"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="BK11" s="97" t="s">
+      <c r="BK11" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="BL11" s="96">
+      <c r="BL11" s="98">
         <v>44586</v>
       </c>
     </row>
@@ -4705,11 +4726,11 @@
         <v>0.1333</v>
       </c>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="36">
+      <c r="AA12" s="43">
         <f t="shared" si="1"/>
         <v>0.0385</v>
       </c>
-      <c r="AB12" s="36">
+      <c r="AB12" s="43">
         <f t="shared" si="2"/>
         <v>-0.00515789473684209</v>
       </c>
@@ -4721,19 +4742,19 @@
         <f t="shared" si="5"/>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="42">
+      <c r="AE12" s="43">
         <f t="shared" si="5"/>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="42">
+      <c r="AF12" s="43">
         <f t="shared" si="5"/>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="42">
+      <c r="AG12" s="43">
         <f t="shared" si="5"/>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="42">
+      <c r="AH12" s="43">
         <f t="shared" si="5"/>
         <v>0.8611</v>
       </c>
@@ -4741,7 +4762,7 @@
         <f t="shared" si="5"/>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="50">
+      <c r="AJ12" s="53">
         <f t="shared" si="4"/>
         <v>0.413115667574254</v>
       </c>
@@ -4755,16 +4776,16 @@
         <v>-0.3214</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="58">
+      <c r="AO12" s="61">
         <v>35599</v>
       </c>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="72">
+      <c r="AS12" s="75">
         <v>13.29</v>
       </c>
-      <c r="AT12" s="72">
+      <c r="AT12" s="75">
         <v>13.29</v>
       </c>
       <c r="AU12" s="11"/>
@@ -4777,10 +4798,10 @@
       <c r="BB12" s="11">
         <v>4</v>
       </c>
-      <c r="BC12" s="85" t="s">
+      <c r="BC12" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="86" t="s">
+      <c r="BD12" s="88" t="s">
         <v>98</v>
       </c>
       <c r="BE12" s="11"/>
@@ -4790,14 +4811,14 @@
       <c r="BI12" s="11">
         <v>2.29</v>
       </c>
-      <c r="BJ12" s="98">
+      <c r="BJ12" s="100">
         <f t="shared" si="0"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="BK12" s="83" t="s">
+      <c r="BK12" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="BL12" s="58">
+      <c r="BL12" s="61">
         <v>44605</v>
       </c>
     </row>
@@ -4866,21 +4887,21 @@
       <c r="V13" s="36">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="40">
+      <c r="W13" s="41">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="40">
+      <c r="X13" s="41">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="41">
         <v>2.6316</v>
       </c>
       <c r="Z13" s="20"/>
-      <c r="AA13" s="36">
+      <c r="AA13" s="43">
         <f t="shared" si="1"/>
         <v>0.655683333333334</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AB13" s="43">
         <f t="shared" si="2"/>
         <v>0.696694736842105</v>
       </c>
@@ -4892,27 +4913,27 @@
         <f t="shared" si="6"/>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="42">
+      <c r="AE13" s="43">
         <f t="shared" si="6"/>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="42">
+      <c r="AF13" s="43">
         <f t="shared" si="6"/>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="42">
+      <c r="AG13" s="43">
         <f t="shared" si="6"/>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="42">
+      <c r="AH13" s="43">
         <f t="shared" si="6"/>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="42">
+      <c r="AI13" s="43">
         <f t="shared" si="6"/>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="50">
+      <c r="AJ13" s="53">
         <f t="shared" si="4"/>
         <v>2.10193806560456</v>
       </c>
@@ -4926,16 +4947,16 @@
         <v>0.1638</v>
       </c>
       <c r="AN13" s="20"/>
-      <c r="AO13" s="59">
+      <c r="AO13" s="62">
         <v>42368</v>
       </c>
       <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
-      <c r="AS13" s="71">
+      <c r="AS13" s="74">
         <v>79.23</v>
       </c>
-      <c r="AT13" s="71">
+      <c r="AT13" s="74">
         <v>79.22</v>
       </c>
       <c r="AU13" s="8"/>
@@ -4948,10 +4969,10 @@
       <c r="BB13" s="29">
         <v>123</v>
       </c>
-      <c r="BC13" s="83" t="s">
+      <c r="BC13" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="BD13" s="83" t="s">
+      <c r="BD13" s="85" t="s">
         <v>104</v>
       </c>
       <c r="BE13" s="8"/>
@@ -4961,14 +4982,14 @@
       <c r="BI13" s="29">
         <v>63.51</v>
       </c>
-      <c r="BJ13" s="93">
+      <c r="BJ13" s="95">
         <f t="shared" ref="BJ13:BJ20" si="7">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="BK13" s="84" t="s">
+      <c r="BK13" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="BL13" s="96">
+      <c r="BL13" s="98">
         <v>44601</v>
       </c>
     </row>
@@ -5047,11 +5068,11 @@
         <v>-0.0909</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AA14" s="36">
+      <c r="AA14" s="49">
         <f t="shared" si="1"/>
         <v>0.477816666666667</v>
       </c>
-      <c r="AB14" s="36">
+      <c r="AB14" s="49">
         <f t="shared" si="2"/>
         <v>0.377642105263158</v>
       </c>
@@ -5083,30 +5104,30 @@
         <f t="shared" ref="AI14:AI20" si="14">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="50">
+      <c r="AJ14" s="53">
         <f t="shared" si="4"/>
         <v>0.527397656544523</v>
       </c>
-      <c r="AK14" s="40">
+      <c r="AK14" s="41">
         <v>0.2685</v>
       </c>
-      <c r="AL14" s="40">
+      <c r="AL14" s="41">
         <v>0.4227</v>
       </c>
-      <c r="AM14" s="40">
+      <c r="AM14" s="41">
         <v>0.3457</v>
       </c>
       <c r="AN14" s="20"/>
-      <c r="AO14" s="59">
+      <c r="AO14" s="62">
         <v>37757</v>
       </c>
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="71">
+      <c r="AS14" s="74">
         <v>5.912</v>
       </c>
-      <c r="AT14" s="71">
+      <c r="AT14" s="74">
         <v>5.69</v>
       </c>
       <c r="AU14" s="8"/>
@@ -5119,10 +5140,10 @@
       <c r="BB14" s="29">
         <v>11</v>
       </c>
-      <c r="BC14" s="83" t="s">
+      <c r="BC14" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" s="83" t="s">
+      <c r="BD14" s="85" t="s">
         <v>110</v>
       </c>
       <c r="BE14" s="8"/>
@@ -5132,14 +5153,14 @@
       <c r="BI14" s="29">
         <v>3.41</v>
       </c>
-      <c r="BJ14" s="93">
+      <c r="BJ14" s="95">
         <f t="shared" si="7"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="BK14" s="99" t="s">
+      <c r="BK14" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" s="96">
+      <c r="BL14" s="98">
         <v>44601</v>
       </c>
     </row>
@@ -5208,21 +5229,21 @@
       <c r="V15" s="36">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="43">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="43">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="43">
         <v>1.7152</v>
       </c>
       <c r="Z15" s="20"/>
-      <c r="AA15" s="36">
+      <c r="AA15" s="49">
         <f t="shared" si="1"/>
         <v>2.19015833333333</v>
       </c>
-      <c r="AB15" s="36">
+      <c r="AB15" s="43">
         <f t="shared" si="2"/>
         <v>1.47577368421053</v>
       </c>
@@ -5234,19 +5255,19 @@
         <f t="shared" si="9"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="42">
+      <c r="AE15" s="43">
         <f t="shared" si="10"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="42">
+      <c r="AF15" s="43">
         <f t="shared" si="11"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="42">
+      <c r="AG15" s="43">
         <f t="shared" si="12"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="42">
+      <c r="AH15" s="43">
         <f t="shared" si="13"/>
         <v>12.6315</v>
       </c>
@@ -5254,30 +5275,30 @@
         <f t="shared" si="14"/>
         <v>11.12845</v>
       </c>
-      <c r="AJ15" s="50">
+      <c r="AJ15" s="53">
         <f t="shared" si="4"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="42">
+      <c r="AK15" s="43">
         <v>2.2501</v>
       </c>
-      <c r="AL15" s="42">
+      <c r="AL15" s="43">
         <v>0.7909</v>
       </c>
-      <c r="AM15" s="42">
+      <c r="AM15" s="43">
         <v>0.5626</v>
       </c>
       <c r="AN15" s="20"/>
-      <c r="AO15" s="60">
+      <c r="AO15" s="63">
         <v>37250</v>
       </c>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
-      <c r="AS15" s="73">
+      <c r="AS15" s="76">
         <v>21.81</v>
       </c>
-      <c r="AT15" s="73">
+      <c r="AT15" s="76">
         <v>14.33</v>
       </c>
       <c r="AU15" s="8"/>
@@ -5290,10 +5311,10 @@
       <c r="BB15" s="20">
         <v>1</v>
       </c>
-      <c r="BC15" s="83" t="s">
+      <c r="BC15" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="BD15" s="83" t="s">
+      <c r="BD15" s="85" t="s">
         <v>116</v>
       </c>
       <c r="BE15" s="8"/>
@@ -5303,14 +5324,14 @@
       <c r="BI15" s="8">
         <v>19.28</v>
       </c>
-      <c r="BJ15" s="93">
+      <c r="BJ15" s="95">
         <f t="shared" si="7"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="BK15" s="100" t="s">
+      <c r="BK15" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="BL15" s="96">
+      <c r="BL15" s="98">
         <v>44608</v>
       </c>
     </row>
@@ -5389,11 +5410,11 @@
         <v>-0.2941</v>
       </c>
       <c r="Z16" s="20"/>
-      <c r="AA16" s="36">
+      <c r="AA16" s="49">
         <f t="shared" si="1"/>
         <v>0.264241666666667</v>
       </c>
-      <c r="AB16" s="36">
+      <c r="AB16" s="49">
         <f t="shared" si="2"/>
         <v>0.182768421052632</v>
       </c>
@@ -5425,7 +5446,7 @@
         <f t="shared" si="14"/>
         <v>-0.2542</v>
       </c>
-      <c r="AJ16" s="50">
+      <c r="AJ16" s="53">
         <f t="shared" si="4"/>
         <v>0.363787610583476</v>
       </c>
@@ -5439,16 +5460,16 @@
         <v>-0.0688</v>
       </c>
       <c r="AN16" s="20"/>
-      <c r="AO16" s="60">
+      <c r="AO16" s="63">
         <v>42031</v>
       </c>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="73">
+      <c r="AS16" s="76">
         <v>3.726</v>
       </c>
-      <c r="AT16" s="73">
+      <c r="AT16" s="76">
         <v>3.253</v>
       </c>
       <c r="AU16" s="8"/>
@@ -5461,10 +5482,10 @@
       <c r="BB16" s="8">
         <v>2</v>
       </c>
-      <c r="BC16" s="83" t="s">
+      <c r="BC16" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="BD16" s="83" t="s">
+      <c r="BD16" s="85" t="s">
         <v>122</v>
       </c>
       <c r="BE16" s="8"/>
@@ -5472,14 +5493,14 @@
       <c r="BG16" s="8"/>
       <c r="BH16" s="8"/>
       <c r="BI16" s="8"/>
-      <c r="BJ16" s="93">
+      <c r="BJ16" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BK16" s="101" t="s">
+      <c r="BK16" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="BL16" s="96">
+      <c r="BL16" s="98">
         <v>44608</v>
       </c>
     </row>
@@ -5526,21 +5547,21 @@
       <c r="V17" s="38">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="43">
+      <c r="W17" s="44">
         <v>1.087</v>
       </c>
-      <c r="X17" s="43">
+      <c r="X17" s="44">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="43">
+      <c r="Y17" s="44">
         <v>0.6696</v>
       </c>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="36">
+      <c r="AA17" s="43">
         <f t="shared" si="1"/>
         <v>0.167833333333333</v>
       </c>
-      <c r="AB17" s="38">
+      <c r="AB17" s="44">
         <f t="shared" si="2"/>
         <v>0.106</v>
       </c>
@@ -5552,19 +5573,19 @@
         <f t="shared" si="9"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="42">
+      <c r="AE17" s="43">
         <f t="shared" si="10"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="42">
+      <c r="AF17" s="43">
         <f t="shared" si="11"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="42">
+      <c r="AG17" s="43">
         <f t="shared" si="12"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="42">
+      <c r="AH17" s="43">
         <f t="shared" si="13"/>
         <v>0.94055</v>
       </c>
@@ -5572,30 +5593,30 @@
         <f t="shared" si="14"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ17" s="51">
+      <c r="AJ17" s="54">
         <f t="shared" si="4"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="43">
+      <c r="AK17" s="44">
         <v>1.0194</v>
       </c>
-      <c r="AL17" s="43">
+      <c r="AL17" s="44">
         <v>0.7661</v>
       </c>
-      <c r="AM17" s="43">
+      <c r="AM17" s="44">
         <v>0.6219</v>
       </c>
       <c r="AN17" s="18"/>
-      <c r="AO17" s="61">
+      <c r="AO17" s="64">
         <v>43823</v>
       </c>
       <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
-      <c r="AS17" s="74">
+      <c r="AS17" s="77">
         <v>2.331</v>
       </c>
-      <c r="AT17" s="75">
+      <c r="AT17" s="78">
         <v>1.118</v>
       </c>
       <c r="AU17" s="18"/>
@@ -5605,30 +5626,30 @@
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
-      <c r="BB17" s="87">
+      <c r="BB17" s="89">
         <v>21</v>
       </c>
-      <c r="BC17" s="88" t="s">
+      <c r="BC17" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="BD17" s="88" t="s">
+      <c r="BD17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="BE17" s="87"/>
-      <c r="BF17" s="87"/>
-      <c r="BG17" s="87"/>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="102">
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="89"/>
+      <c r="BG17" s="89"/>
+      <c r="BH17" s="89"/>
+      <c r="BI17" s="104">
         <v>5.25</v>
       </c>
-      <c r="BJ17" s="93">
+      <c r="BJ17" s="95">
         <f t="shared" si="7"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="BK17" s="88" t="s">
+      <c r="BK17" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="BL17" s="103">
+      <c r="BL17" s="105">
         <v>44578</v>
       </c>
     </row>
@@ -5693,21 +5714,21 @@
       <c r="V18" s="38">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="43">
+      <c r="W18" s="44">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="43">
+      <c r="X18" s="44">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="43">
+      <c r="Y18" s="44">
         <v>0.4021</v>
       </c>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="36">
+      <c r="AA18" s="43">
         <f t="shared" si="1"/>
         <v>0.370166666666667</v>
       </c>
-      <c r="AB18" s="38">
+      <c r="AB18" s="44">
         <f t="shared" si="2"/>
         <v>0.259210526315789</v>
       </c>
@@ -5727,11 +5748,11 @@
         <f t="shared" si="11"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="42">
+      <c r="AG18" s="43">
         <f t="shared" si="12"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="42">
+      <c r="AH18" s="43">
         <f t="shared" si="13"/>
         <v>0.9639</v>
       </c>
@@ -5739,7 +5760,7 @@
         <f t="shared" si="14"/>
         <v>0.5459</v>
       </c>
-      <c r="AJ18" s="51">
+      <c r="AJ18" s="54">
         <f t="shared" si="4"/>
         <v>0.509476975703446</v>
       </c>
@@ -5753,12 +5774,12 @@
         <v>0.205</v>
       </c>
       <c r="AN18" s="18"/>
-      <c r="AO18" s="62"/>
+      <c r="AO18" s="65"/>
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="18"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
       <c r="AU18" s="18"/>
       <c r="AV18" s="18"/>
       <c r="AW18" s="18"/>
@@ -5767,19 +5788,19 @@
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
       <c r="BB18" s="18"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
       <c r="BE18" s="18"/>
       <c r="BF18" s="18"/>
       <c r="BG18" s="18"/>
       <c r="BH18" s="18"/>
       <c r="BI18" s="18"/>
-      <c r="BJ18" s="93" t="e">
+      <c r="BJ18" s="95" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK18" s="18"/>
-      <c r="BL18" s="96">
+      <c r="BL18" s="98">
         <v>44608</v>
       </c>
     </row>
@@ -5844,21 +5865,21 @@
       <c r="V19" s="38">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="43">
+      <c r="W19" s="44">
         <v>0.6</v>
       </c>
-      <c r="X19" s="43">
+      <c r="X19" s="44">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="43">
+      <c r="Y19" s="44">
         <v>0.4943</v>
       </c>
       <c r="Z19" s="18"/>
-      <c r="AA19" s="36">
+      <c r="AA19" s="49">
         <f t="shared" si="1"/>
         <v>0.595266666666667</v>
       </c>
-      <c r="AB19" s="38">
+      <c r="AB19" s="50">
         <f t="shared" si="2"/>
         <v>0.502252631578947</v>
       </c>
@@ -5878,11 +5899,11 @@
         <f t="shared" si="11"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="42">
+      <c r="AG19" s="43">
         <f t="shared" si="12"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="42">
+      <c r="AH19" s="43">
         <f t="shared" si="13"/>
         <v>0.8326</v>
       </c>
@@ -5890,28 +5911,28 @@
         <f t="shared" si="14"/>
         <v>0.77975</v>
       </c>
-      <c r="AJ19" s="51">
+      <c r="AJ19" s="54">
         <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="43">
+      <c r="AK19" s="44">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="43">
+      <c r="AL19" s="44">
         <v>0.5323</v>
       </c>
-      <c r="AM19" s="44">
+      <c r="AM19" s="45">
         <v>0.6121</v>
       </c>
       <c r="AN19" s="18"/>
-      <c r="AO19" s="62"/>
+      <c r="AO19" s="65"/>
       <c r="AP19" s="18"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
-      <c r="AS19" s="76">
+      <c r="AS19" s="79">
         <v>4.704</v>
       </c>
-      <c r="AT19" s="76">
+      <c r="AT19" s="79">
         <v>3.956</v>
       </c>
       <c r="AU19" s="18"/>
@@ -5924,10 +5945,10 @@
       <c r="BB19" s="18">
         <v>4</v>
       </c>
-      <c r="BC19" s="83" t="s">
+      <c r="BC19" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="BD19" s="83" t="s">
+      <c r="BD19" s="85" t="s">
         <v>137</v>
       </c>
       <c r="BE19" s="18"/>
@@ -5937,12 +5958,12 @@
       <c r="BI19" s="18">
         <v>6.04</v>
       </c>
-      <c r="BJ19" s="93">
+      <c r="BJ19" s="95">
         <f t="shared" si="7"/>
         <v>1.28401360544218</v>
       </c>
       <c r="BK19" s="18"/>
-      <c r="BL19" s="96">
+      <c r="BL19" s="98">
         <v>44608</v>
       </c>
     </row>
@@ -6011,21 +6032,21 @@
       <c r="V20" s="38">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="44">
+      <c r="W20" s="45">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="44">
+      <c r="X20" s="45">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="44">
+      <c r="Y20" s="45">
         <v>0.8182</v>
       </c>
       <c r="Z20" s="18"/>
-      <c r="AA20" s="36">
+      <c r="AA20" s="43">
         <f t="shared" si="1"/>
         <v>0.191291666666667</v>
       </c>
-      <c r="AB20" s="38">
+      <c r="AB20" s="44">
         <f t="shared" si="2"/>
         <v>0.146036842105263</v>
       </c>
@@ -6037,48 +6058,48 @@
         <f t="shared" si="9"/>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="42">
+      <c r="AE20" s="43">
         <f t="shared" si="10"/>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="42">
+      <c r="AF20" s="43">
         <f t="shared" si="11"/>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="42">
+      <c r="AG20" s="43">
         <f t="shared" si="12"/>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="42">
+      <c r="AH20" s="43">
         <f t="shared" si="13"/>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="42">
+      <c r="AI20" s="43">
         <f t="shared" si="14"/>
         <v>0.79005</v>
       </c>
-      <c r="AJ20" s="51">
+      <c r="AJ20" s="54">
         <f t="shared" si="4"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="43">
+      <c r="AK20" s="44">
         <v>1.3196</v>
       </c>
-      <c r="AL20" s="43">
+      <c r="AL20" s="44">
         <v>0.8147</v>
       </c>
-      <c r="AM20" s="43">
+      <c r="AM20" s="44">
         <v>0.5566</v>
       </c>
       <c r="AN20" s="18"/>
-      <c r="AO20" s="62"/>
+      <c r="AO20" s="65"/>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
-      <c r="AS20" s="76">
+      <c r="AS20" s="79">
         <v>8</v>
       </c>
-      <c r="AT20" s="76">
+      <c r="AT20" s="79">
         <v>8</v>
       </c>
       <c r="AU20" s="18"/>
@@ -6091,10 +6112,10 @@
       <c r="BB20" s="18">
         <v>60</v>
       </c>
-      <c r="BC20" s="83" t="s">
+      <c r="BC20" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="BD20" s="83" t="s">
+      <c r="BD20" s="85" t="s">
         <v>142</v>
       </c>
       <c r="BE20" s="18"/>
@@ -6104,14 +6125,14 @@
       <c r="BI20" s="18">
         <v>9.62</v>
       </c>
-      <c r="BJ20" s="93">
+      <c r="BJ20" s="95">
         <f t="shared" si="7"/>
         <v>1.2025</v>
       </c>
-      <c r="BK20" s="100" t="s">
+      <c r="BK20" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="BL20" s="96">
+      <c r="BL20" s="98">
         <v>44608</v>
       </c>
     </row>
@@ -6190,11 +6211,11 @@
         <v>0.3564</v>
       </c>
       <c r="Z21" s="20"/>
-      <c r="AA21" s="36">
+      <c r="AA21" s="43">
         <f>(N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/12</f>
         <v>0.137183333333333</v>
       </c>
-      <c r="AB21" s="38">
+      <c r="AB21" s="44">
         <f>(G21+H21+I21+J21+K21+L21+M21+N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/19</f>
         <v>0.160994736842105</v>
       </c>
@@ -6206,19 +6227,19 @@
         <f>(S21+T21)/2</f>
         <v>-0.3782</v>
       </c>
-      <c r="AE21" s="42">
+      <c r="AE21" s="43">
         <f>(T21+U21)/2</f>
         <v>-0.09445</v>
       </c>
-      <c r="AF21" s="42">
+      <c r="AF21" s="43">
         <f>(U21+V21)/2</f>
         <v>0.03955</v>
       </c>
-      <c r="AG21" s="42">
+      <c r="AG21" s="43">
         <f>(V21+W21)/2</f>
         <v>0.81585</v>
       </c>
-      <c r="AH21" s="42">
+      <c r="AH21" s="43">
         <f>(W21+X21)/2</f>
         <v>1.13255</v>
       </c>
@@ -6226,7 +6247,7 @@
         <f>(X21+Y21)/2</f>
         <v>0.5302</v>
       </c>
-      <c r="AJ21" s="51">
+      <c r="AJ21" s="54">
         <f>STDEV(G21:Y21)</f>
         <v>0.433239412223881</v>
       </c>
@@ -6234,12 +6255,12 @@
       <c r="AL21" s="36"/>
       <c r="AM21" s="36"/>
       <c r="AN21" s="20"/>
-      <c r="AO21" s="63"/>
+      <c r="AO21" s="66"/>
       <c r="AP21" s="20"/>
       <c r="AQ21" s="20"/>
       <c r="AR21" s="20"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
       <c r="AU21" s="20"/>
       <c r="AV21" s="20"/>
       <c r="AW21" s="20"/>
@@ -6257,57 +6278,133 @@
       <c r="BI21" s="20"/>
       <c r="BJ21" s="20"/>
       <c r="BK21" s="20"/>
-      <c r="BL21" s="63"/>
+      <c r="BL21" s="66"/>
     </row>
     <row r="22" ht="18" spans="1:64">
       <c r="A22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
+      <c r="E22" s="36">
+        <v>0.9142</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="36">
+        <v>-0.4892</v>
+      </c>
+      <c r="H22" s="36">
+        <v>-0.625</v>
+      </c>
+      <c r="I22" s="36">
+        <v>-0.4963</v>
+      </c>
+      <c r="J22" s="36">
+        <v>-0.3889</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0.0648</v>
+      </c>
+      <c r="L22" s="36">
+        <v>1.37</v>
+      </c>
+      <c r="M22" s="36">
+        <v>1.0951</v>
+      </c>
+      <c r="N22" s="36">
+        <v>6.7273</v>
+      </c>
+      <c r="O22" s="36">
+        <v>3.7619</v>
+      </c>
+      <c r="P22" s="36">
+        <v>5.4698</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>6.3341</v>
+      </c>
+      <c r="R22" s="36">
+        <v>0</v>
+      </c>
+      <c r="S22" s="36">
+        <v>-0.1111</v>
+      </c>
+      <c r="T22" s="36">
+        <v>0.0028</v>
+      </c>
+      <c r="U22" s="36">
+        <v>0.0635</v>
+      </c>
+      <c r="V22" s="36">
+        <v>0.1176</v>
+      </c>
+      <c r="W22" s="36">
+        <v>0.4375</v>
+      </c>
+      <c r="X22" s="36">
+        <v>0.1166</v>
+      </c>
+      <c r="Y22" s="36">
+        <v>0.194</v>
+      </c>
       <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="20"/>
+      <c r="AA22" s="49">
+        <f>(N22+O22+P22+Q22+R22+S22+T22+U22+V22+W22+X22+Y22)/12</f>
+        <v>1.92616666666667</v>
+      </c>
+      <c r="AB22" s="50">
+        <f>(G22+H22+I22+J22+K22+L22+M22+N22+O22+P22+Q22+R22+S22+T22+U22+V22+W22+X22+Y22)/19</f>
+        <v>1.24444736842105</v>
+      </c>
+      <c r="AC22" s="36">
+        <f>(R22+S22)/2</f>
+        <v>-0.05555</v>
+      </c>
+      <c r="AD22" s="43">
+        <f>(S22+T22)/2</f>
+        <v>-0.05415</v>
+      </c>
+      <c r="AE22" s="43">
+        <f>(T22+U22)/2</f>
+        <v>0.03315</v>
+      </c>
+      <c r="AF22" s="43">
+        <f>(U22+V22)/2</f>
+        <v>0.09055</v>
+      </c>
+      <c r="AG22" s="43">
+        <f>(V22+W22)/2</f>
+        <v>0.27755</v>
+      </c>
+      <c r="AH22" s="36">
+        <f>(W22+X22)/2</f>
+        <v>0.27705</v>
+      </c>
+      <c r="AI22" s="36">
+        <f>(X22+Y22)/2</f>
+        <v>0.1553</v>
+      </c>
+      <c r="AJ22" s="54">
+        <f>STDEV(G22:Y22)</f>
+        <v>2.4083690701774</v>
+      </c>
       <c r="AK22" s="36"/>
       <c r="AL22" s="36"/>
       <c r="AM22" s="36"/>
       <c r="AN22" s="20"/>
-      <c r="AO22" s="63"/>
+      <c r="AO22" s="66"/>
       <c r="AP22" s="20"/>
       <c r="AQ22" s="20"/>
       <c r="AR22" s="20"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
       <c r="AU22" s="20"/>
       <c r="AV22" s="20"/>
       <c r="AW22" s="20"/>
@@ -6325,11 +6422,11 @@
       <c r="BI22" s="20"/>
       <c r="BJ22" s="20"/>
       <c r="BK22" s="20"/>
-      <c r="BL22" s="63"/>
+      <c r="BL22" s="66"/>
     </row>
     <row r="23" ht="18" spans="1:64">
       <c r="A23" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6370,12 +6467,12 @@
       <c r="AL23" s="36"/>
       <c r="AM23" s="36"/>
       <c r="AN23" s="20"/>
-      <c r="AO23" s="63"/>
+      <c r="AO23" s="66"/>
       <c r="AP23" s="20"/>
       <c r="AQ23" s="20"/>
       <c r="AR23" s="20"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
       <c r="AU23" s="20"/>
       <c r="AV23" s="20"/>
       <c r="AW23" s="20"/>
@@ -6393,11 +6490,11 @@
       <c r="BI23" s="20"/>
       <c r="BJ23" s="20"/>
       <c r="BK23" s="20"/>
-      <c r="BL23" s="63"/>
+      <c r="BL23" s="66"/>
     </row>
     <row r="24" ht="18" spans="1:64">
       <c r="A24" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6438,12 +6535,12 @@
       <c r="AL24" s="36"/>
       <c r="AM24" s="36"/>
       <c r="AN24" s="20"/>
-      <c r="AO24" s="63"/>
+      <c r="AO24" s="66"/>
       <c r="AP24" s="20"/>
       <c r="AQ24" s="20"/>
       <c r="AR24" s="20"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
       <c r="AU24" s="20"/>
       <c r="AV24" s="20"/>
       <c r="AW24" s="20"/>
@@ -6461,11 +6558,11 @@
       <c r="BI24" s="20"/>
       <c r="BJ24" s="20"/>
       <c r="BK24" s="20"/>
-      <c r="BL24" s="63"/>
+      <c r="BL24" s="66"/>
     </row>
     <row r="25" ht="18" spans="1:64">
       <c r="A25" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6506,12 +6603,12 @@
       <c r="AL25" s="36"/>
       <c r="AM25" s="36"/>
       <c r="AN25" s="20"/>
-      <c r="AO25" s="63"/>
+      <c r="AO25" s="66"/>
       <c r="AP25" s="20"/>
       <c r="AQ25" s="20"/>
       <c r="AR25" s="20"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
       <c r="AU25" s="20"/>
       <c r="AV25" s="20"/>
       <c r="AW25" s="20"/>
@@ -6529,7 +6626,7 @@
       <c r="BI25" s="20"/>
       <c r="BJ25" s="20"/>
       <c r="BK25" s="20"/>
-      <c r="BL25" s="63"/>
+      <c r="BL25" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -73,7 +73,7 @@
   </si>
   <si>
     <t>销售额增长
-（最近3个季度）</t>
+（最近3个季度加速增长最好）</t>
   </si>
   <si>
     <t>总股本
@@ -2983,11 +2983,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="BK16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -5915,10 +5915,10 @@
         <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="44">
+      <c r="AK19" s="45">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="44">
+      <c r="AL19" s="45">
         <v>0.5323</v>
       </c>
       <c r="AM19" s="45">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -2987,7 +2987,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -1570,18 +1570,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -1623,6 +1623,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF152122"/>
       <name val="Arial"/>
@@ -1638,12 +1644,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF152122"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1695,11 +1695,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1712,6 +1727,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1719,33 +1750,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1766,7 +1783,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,59 +1826,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,12 +1877,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1895,7 +1889,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,61 +1961,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,97 +2051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,20 +2086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2128,23 +2119,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,163 +2174,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2373,253 +2370,256 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2628,13 +2628,13 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2652,10 +2652,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2983,39 +2983,39 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F3"/>
+      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="13.0892857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.9017857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.9017857142857" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.4553571428571" customWidth="1"/>
     <col min="5" max="5" width="11.5982142857143" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" style="2"/>
-    <col min="8" max="15" width="10.1428571428571" style="2"/>
-    <col min="16" max="16" width="10.5714285714286" style="2"/>
-    <col min="17" max="18" width="9.5" style="2"/>
-    <col min="19" max="19" width="10.5714285714286" style="2"/>
-    <col min="20" max="21" width="10.1428571428571" style="2"/>
-    <col min="22" max="22" width="10.5714285714286" style="2"/>
-    <col min="23" max="23" width="11.0089285714286" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.5714285714286" style="2"/>
-    <col min="25" max="25" width="9.85714285714286" style="2"/>
+    <col min="7" max="7" width="9.28571428571429" style="3"/>
+    <col min="8" max="15" width="10.1428571428571" style="3"/>
+    <col min="16" max="16" width="10.5714285714286" style="3"/>
+    <col min="17" max="18" width="9.5" style="3"/>
+    <col min="19" max="19" width="10.5714285714286" style="3"/>
+    <col min="20" max="21" width="10.1428571428571" style="3"/>
+    <col min="22" max="22" width="10.5714285714286" style="3"/>
+    <col min="23" max="23" width="11.0089285714286" style="3" customWidth="1"/>
+    <col min="24" max="24" width="10.5714285714286" style="3"/>
+    <col min="25" max="25" width="9.85714285714286" style="3"/>
     <col min="27" max="27" width="16.9553571428571" customWidth="1"/>
     <col min="28" max="28" width="18.2946428571429" customWidth="1"/>
-    <col min="29" max="31" width="9.5" style="2"/>
-    <col min="32" max="32" width="9.57142857142857" style="2"/>
-    <col min="33" max="35" width="9.85714285714286" style="2"/>
+    <col min="29" max="31" width="9.5" style="3"/>
+    <col min="32" max="32" width="9.57142857142857" style="3"/>
+    <col min="33" max="35" width="9.85714285714286" style="3"/>
     <col min="36" max="36" width="11.1607142857143" customWidth="1"/>
-    <col min="37" max="37" width="10.9285714285714" style="2"/>
-    <col min="38" max="39" width="10.1428571428571" style="2"/>
+    <col min="37" max="37" width="10.9285714285714" style="3"/>
+    <col min="38" max="39" width="10.1428571428571" style="3"/>
     <col min="41" max="41" width="12.9464285714286" customWidth="1"/>
-    <col min="45" max="46" width="10.1428571428571" style="3"/>
+    <col min="45" max="46" width="10.1428571428571" style="4"/>
     <col min="55" max="55" width="20.8303571428571" customWidth="1"/>
     <col min="56" max="56" width="26.1875" customWidth="1"/>
     <col min="59" max="59" width="21.4285714285714" customWidth="1"/>
@@ -3026,3607 +3026,3665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="57" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="67" t="s">
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="46" t="s">
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="93" t="s">
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="94"/>
+      <c r="BL1" s="95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="59" customHeight="1" spans="1:64">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="47" t="s">
+      <c r="AB2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="69" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="70" t="s">
+      <c r="AU2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="71" t="s">
+      <c r="AV2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="4" t="s">
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="94" t="s">
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="93"/>
+      <c r="BL2" s="95"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:64">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="48" t="s">
+      <c r="Z3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="52" t="s">
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="52" t="s">
+      <c r="AD3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="52" t="s">
+      <c r="AE3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="52" t="s">
+      <c r="AG3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AH3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="52" t="s">
+      <c r="AI3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="25" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="25" t="s">
+      <c r="AL3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="25" t="s">
+      <c r="AM3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="25" t="s">
+      <c r="AN3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="57" t="s">
+      <c r="AO3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="24" t="s">
+      <c r="AP3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AQ3" s="58" t="s">
+      <c r="AQ3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="58" t="s">
+      <c r="AR3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="72" t="s">
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="72" t="s">
+      <c r="AW3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="46" t="s">
+      <c r="AX3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="80" t="s">
+      <c r="AY3" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="80" t="s">
+      <c r="AZ3" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="81" t="s">
+      <c r="BB3" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="81" t="s">
+      <c r="BC3" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="BD3" s="82" t="s">
+      <c r="BD3" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="BE3" s="81" t="s">
+      <c r="BE3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="22" t="s">
+      <c r="BI3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="72" t="s">
+      <c r="BJ3" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="93"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="95"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:64">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27">
+      <c r="D4" s="8"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29">
         <v>0.16</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="28">
         <v>-0.2369</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="28">
         <v>0.1985</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="28">
         <v>0.1552</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="28">
         <v>0.0621</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="28">
         <v>0.8816</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="28">
         <v>0.3131</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="28">
         <v>0.3269</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="28">
         <v>0.3212</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="28">
         <v>0.1608</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="28">
         <v>0.0429</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="28">
         <v>-2.2731</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="28">
         <v>-2.7544</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="28">
         <v>-0.2012</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="28">
         <v>-0.1932</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="28">
         <v>1.4776</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="28">
         <v>1.2819</v>
       </c>
-      <c r="W4" s="40">
+      <c r="W4" s="43">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="40">
+      <c r="X4" s="43">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Y4" s="43">
         <v>0.2626</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="43">
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="46">
         <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
         <v>-0.150458333333333</v>
       </c>
-      <c r="AB4" s="43">
-        <f>(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
+      <c r="AB4" s="46">
+        <f t="shared" ref="AB4:AB10" si="0">(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
         <v>-0.00552631578947369</v>
       </c>
-      <c r="AC4" s="36">
-        <f>(R4+S4)/2</f>
+      <c r="AC4" s="38">
+        <f t="shared" ref="AC4:AI4" si="1">(R4+S4)/2</f>
         <v>-1.4778</v>
       </c>
-      <c r="AD4" s="43">
-        <f>(S4+T4)/2</f>
+      <c r="AD4" s="46">
+        <f t="shared" si="1"/>
         <v>-0.1972</v>
       </c>
-      <c r="AE4" s="43">
-        <f>(T4+U4)/2</f>
+      <c r="AE4" s="46">
+        <f t="shared" si="1"/>
         <v>0.6422</v>
       </c>
-      <c r="AF4" s="43">
-        <f>(U4+V4)/2</f>
+      <c r="AF4" s="46">
+        <f t="shared" si="1"/>
         <v>1.37975</v>
       </c>
-      <c r="AG4" s="36">
-        <f>(V4+W4)/2</f>
+      <c r="AG4" s="38">
+        <f t="shared" si="1"/>
         <v>0.66585</v>
       </c>
-      <c r="AH4" s="36">
-        <f>(W4+X4)/2</f>
+      <c r="AH4" s="38">
+        <f t="shared" si="1"/>
         <v>0.0347</v>
       </c>
-      <c r="AI4" s="36">
-        <f>(X4+Y4)/2</f>
+      <c r="AI4" s="38">
+        <f t="shared" si="1"/>
         <v>0.1411</v>
       </c>
-      <c r="AJ4" s="53">
-        <f>STDEV(G4:Y4)</f>
+      <c r="AJ4" s="56">
+        <f t="shared" ref="AJ4:AJ10" si="2">STDEV(G4:Y4)</f>
         <v>0.99904872244779</v>
       </c>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="73">
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="75">
         <v>8.357</v>
       </c>
-      <c r="AT4" s="73">
+      <c r="AT4" s="75">
         <v>8.32</v>
       </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="83">
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="85">
         <v>3</v>
       </c>
-      <c r="BC4" s="84" t="s">
+      <c r="BC4" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" s="84" t="s">
+      <c r="BD4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="83">
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="85">
         <v>1.28</v>
       </c>
-      <c r="BJ4" s="95">
-        <f t="shared" ref="BJ4:BJ12" si="0">BI4/AS4</f>
+      <c r="BJ4" s="97">
+        <f t="shared" ref="BJ4:BJ12" si="3">BI4/AS4</f>
         <v>0.153165011367716</v>
       </c>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="96">
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="98">
         <v>44579</v>
       </c>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:64">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27">
+      <c r="D5" s="8"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29">
         <v>1.97</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30">
         <v>0.1473</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="30">
         <v>-0.2308</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="30">
         <v>-0.3684</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="30">
         <v>-0.358</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="30">
         <v>-0.3784</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="30">
         <v>-0.0231</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="30">
         <v>0.1667</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="30">
         <v>0.1154</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="30">
         <v>-0.0761</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="30">
         <v>0.1654</v>
       </c>
-      <c r="W5" s="41">
+      <c r="W5" s="44">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="44">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="41">
+      <c r="Y5" s="44">
         <v>1.3176</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="43">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="46">
         <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
         <v>0.400883333333333</v>
       </c>
-      <c r="AB5" s="43">
-        <f>(G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/19</f>
+      <c r="AB5" s="46">
+        <f t="shared" si="0"/>
         <v>0.260942105263158</v>
       </c>
-      <c r="AC5" s="36">
-        <f>(R5+S5)/2</f>
+      <c r="AC5" s="38">
+        <f t="shared" ref="AC5:AI5" si="4">(R5+S5)/2</f>
         <v>0.0718</v>
       </c>
-      <c r="AD5" s="36">
-        <f>(S5+T5)/2</f>
+      <c r="AD5" s="38">
+        <f t="shared" si="4"/>
         <v>0.14105</v>
       </c>
-      <c r="AE5" s="36">
-        <f>(T5+U5)/2</f>
+      <c r="AE5" s="38">
+        <f t="shared" si="4"/>
         <v>0.01965</v>
       </c>
-      <c r="AF5" s="43">
-        <f>(U5+V5)/2</f>
+      <c r="AF5" s="46">
+        <f t="shared" si="4"/>
         <v>0.04465</v>
       </c>
-      <c r="AG5" s="43">
-        <f>(V5+W5)/2</f>
+      <c r="AG5" s="46">
+        <f t="shared" si="4"/>
         <v>1.547</v>
       </c>
-      <c r="AH5" s="43">
-        <f>(W5+X5)/2</f>
+      <c r="AH5" s="46">
+        <f t="shared" si="4"/>
         <v>2.24015</v>
       </c>
-      <c r="AI5" s="36">
-        <f>(X5+Y5)/2</f>
+      <c r="AI5" s="38">
+        <f t="shared" si="4"/>
         <v>1.43465</v>
       </c>
-      <c r="AJ5" s="53">
-        <f>STDEV(G5:Y5)</f>
+      <c r="AJ5" s="56">
+        <f t="shared" si="2"/>
         <v>0.974103649647413</v>
       </c>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="74">
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="76">
         <v>1.105</v>
       </c>
-      <c r="AT5" s="74">
+      <c r="AT5" s="76">
         <v>1.096</v>
       </c>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="29">
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="31">
         <v>10</v>
       </c>
-      <c r="BC5" s="85" t="s">
+      <c r="BC5" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" s="86" t="s">
+      <c r="BD5" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="29">
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="31">
         <v>2.18</v>
       </c>
-      <c r="BJ5" s="97">
-        <f t="shared" si="0"/>
+      <c r="BJ5" s="99">
+        <f t="shared" si="3"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="BK5" s="86" t="s">
+      <c r="BK5" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" s="98">
+      <c r="BL5" s="100">
         <v>44579</v>
       </c>
     </row>
     <row r="6" ht="55" customHeight="1" spans="1:64">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29">
+      <c r="D6" s="9"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31">
         <v>0.672</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="32">
         <v>-0.1686</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="32">
         <v>-0.2915</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="32">
         <v>0.0513</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="30">
         <v>0.1561</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="30">
         <v>0.4225</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="30">
         <v>0.5635</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="30">
         <v>0.0724</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="30">
         <v>-0.025</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="30">
         <v>-0.1437</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="30">
         <v>0.3149</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="30">
         <v>0.2253</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="30">
         <v>0.1397</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="30">
         <v>-0.5888</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="30">
         <v>-0.3376</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="30">
         <v>-0.0115</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="30">
         <v>0.0822</v>
       </c>
-      <c r="W6" s="41">
+      <c r="W6" s="44">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X6" s="44">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="44">
         <v>1.1052</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="43">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="46">
         <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
         <v>0.801675</v>
       </c>
-      <c r="AB6" s="43">
-        <f>(G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/19</f>
+      <c r="AB6" s="46">
+        <f t="shared" si="0"/>
         <v>0.548726315789474</v>
       </c>
-      <c r="AC6" s="36">
-        <f>(R6+S6)/2</f>
+      <c r="AC6" s="38">
+        <f t="shared" ref="AC6:AI6" si="5">(R6+S6)/2</f>
         <v>-0.22455</v>
       </c>
-      <c r="AD6" s="36">
-        <f>(S6+T6)/2</f>
+      <c r="AD6" s="38">
+        <f t="shared" si="5"/>
         <v>-0.4632</v>
       </c>
-      <c r="AE6" s="43">
-        <f>(T6+U6)/2</f>
+      <c r="AE6" s="46">
+        <f t="shared" si="5"/>
         <v>-0.17455</v>
       </c>
-      <c r="AF6" s="43">
-        <f>(U6+V6)/2</f>
+      <c r="AF6" s="46">
+        <f t="shared" si="5"/>
         <v>0.03535</v>
       </c>
-      <c r="AG6" s="43">
-        <f>(V6+W6)/2</f>
+      <c r="AG6" s="46">
+        <f t="shared" si="5"/>
         <v>3.5088</v>
       </c>
-      <c r="AH6" s="43">
-        <f>(W6+X6)/2</f>
+      <c r="AH6" s="46">
+        <f t="shared" si="5"/>
         <v>4.4297</v>
       </c>
-      <c r="AI6" s="36">
-        <f>(X6+Y6)/2</f>
+      <c r="AI6" s="38">
+        <f t="shared" si="5"/>
         <v>1.5146</v>
       </c>
-      <c r="AJ6" s="53">
-        <f>STDEV(G6:Y6)</f>
+      <c r="AJ6" s="56">
+        <f t="shared" si="2"/>
         <v>1.64320222460161</v>
       </c>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="74">
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="76">
         <v>5.824</v>
       </c>
-      <c r="AT6" s="74">
+      <c r="AT6" s="76">
         <v>4.581</v>
       </c>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="29">
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="31">
         <v>6</v>
       </c>
-      <c r="BC6" s="85" t="s">
+      <c r="BC6" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="84" t="s">
+      <c r="BD6" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="29">
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="31">
         <v>3.91</v>
       </c>
-      <c r="BJ6" s="95">
-        <f t="shared" si="0"/>
+      <c r="BJ6" s="97">
+        <f t="shared" si="3"/>
         <v>0.67135989010989</v>
       </c>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="98">
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="100">
         <v>44580</v>
       </c>
     </row>
     <row r="7" ht="55" customHeight="1" spans="1:64">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="31">
+      <c r="D7" s="8"/>
+      <c r="E7" s="33">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="34">
         <v>0.69</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="30">
         <v>-0.3529</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="30">
         <v>-0.3095</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="30">
         <v>-0.5424</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="30">
         <v>-0.3342</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="30">
         <v>-0.6364</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="30">
         <v>-0.6552</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="30">
         <v>-0.4815</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="30">
         <v>-0.7297</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="30">
         <v>-1.5</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="30">
         <v>-0.7</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="30">
         <v>-0.6429</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="30">
         <v>-0.4</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="30">
         <v>0.5</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="30">
         <v>0.6667</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="30">
         <v>2</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="30">
         <v>5.8333</v>
       </c>
-      <c r="W7" s="41">
+      <c r="W7" s="44">
         <v>21</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="44">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="41">
+      <c r="Y7" s="44">
         <v>3.6</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="43">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="46">
         <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
         <v>3.06895</v>
       </c>
-      <c r="AB7" s="43">
-        <f>(G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/19</f>
+      <c r="AB7" s="46">
+        <f t="shared" si="0"/>
         <v>1.76396315789474</v>
       </c>
-      <c r="AC7" s="36">
-        <f>(R7+S7)/2</f>
+      <c r="AC7" s="38">
+        <f t="shared" ref="AC7:AI7" si="6">(R7+S7)/2</f>
         <v>0.05</v>
       </c>
-      <c r="AD7" s="36">
-        <f>(S7+T7)/2</f>
+      <c r="AD7" s="38">
+        <f t="shared" si="6"/>
         <v>0.58335</v>
       </c>
-      <c r="AE7" s="43">
-        <f>(T7+U7)/2</f>
+      <c r="AE7" s="46">
+        <f t="shared" si="6"/>
         <v>1.33335</v>
       </c>
-      <c r="AF7" s="43">
-        <f>(U7+V7)/2</f>
+      <c r="AF7" s="46">
+        <f t="shared" si="6"/>
         <v>3.91665</v>
       </c>
-      <c r="AG7" s="43">
-        <f>(V7+W7)/2</f>
+      <c r="AG7" s="46">
+        <f t="shared" si="6"/>
         <v>13.41665</v>
       </c>
-      <c r="AH7" s="43">
-        <f>(W7+X7)/2</f>
+      <c r="AH7" s="46">
+        <f t="shared" si="6"/>
         <v>14.1</v>
       </c>
-      <c r="AI7" s="36">
-        <f>(X7+Y7)/2</f>
+      <c r="AI7" s="38">
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="53">
-        <f>STDEV(G7:Y7)</f>
+      <c r="AJ7" s="56">
+        <f t="shared" si="2"/>
         <v>5.22249544526268</v>
       </c>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="74">
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="76">
         <v>1.847</v>
       </c>
-      <c r="AT7" s="74">
+      <c r="AT7" s="76">
         <v>1.137</v>
       </c>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="29">
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="31">
         <v>4</v>
       </c>
-      <c r="BC7" s="85" t="s">
+      <c r="BC7" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="84" t="s">
+      <c r="BD7" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="29">
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="31">
         <v>1.26</v>
       </c>
-      <c r="BJ7" s="95">
-        <f t="shared" si="0"/>
+      <c r="BJ7" s="97">
+        <f t="shared" si="3"/>
         <v>0.682187330806714</v>
       </c>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="98">
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="100">
         <v>44580</v>
       </c>
     </row>
     <row r="8" ht="55" customHeight="1" spans="1:64">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="33">
+      <c r="D8" s="9"/>
+      <c r="E8" s="35">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="31">
         <v>0.101</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="30">
         <v>0.9091</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="30">
         <v>-0.1724</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="30">
         <v>0.0417</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="30">
         <v>-0.3478</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="30">
         <v>-0.1905</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="30">
         <v>0.125</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="30">
         <v>-0.26</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="30">
         <v>0.2444</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="30">
         <v>0.0588</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="30">
         <v>0.037</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="30">
         <v>-0.4324</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="30">
         <v>-0.4464</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="30">
         <v>-0.4444</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="30">
         <v>0</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="30">
         <v>0</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="30">
         <v>0</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="35">
         <v>1.3</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="35">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="35">
         <v>-0.4762</v>
       </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="49">
-        <f t="shared" ref="AA8:AA20" si="1">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="52">
+        <f t="shared" ref="AA8:AA22" si="7">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
         <v>0.00756666666666668</v>
       </c>
-      <c r="AB8" s="49">
-        <f>(G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/19</f>
+      <c r="AB8" s="52">
+        <f t="shared" si="0"/>
         <v>0.0103105263157895</v>
       </c>
-      <c r="AC8" s="36">
-        <f>(R8+S8)/2</f>
+      <c r="AC8" s="38">
+        <f t="shared" ref="AC8:AI8" si="8">(R8+S8)/2</f>
         <v>-0.4454</v>
       </c>
-      <c r="AD8" s="36">
-        <f>(S8+T8)/2</f>
+      <c r="AD8" s="38">
+        <f t="shared" si="8"/>
         <v>-0.2222</v>
       </c>
-      <c r="AE8" s="43">
-        <f>(T8+U8)/2</f>
+      <c r="AE8" s="46">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="43">
-        <f>(U8+V8)/2</f>
+      <c r="AF8" s="46">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="43">
-        <f>(V8+W8)/2</f>
+      <c r="AG8" s="46">
+        <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
-      <c r="AH8" s="43">
-        <f>(W8+X8)/2</f>
+      <c r="AH8" s="46">
+        <f t="shared" si="8"/>
         <v>0.775</v>
       </c>
-      <c r="AI8" s="36">
-        <f>(X8+Y8)/2</f>
+      <c r="AI8" s="38">
+        <f t="shared" si="8"/>
         <v>-0.1131</v>
       </c>
-      <c r="AJ8" s="53">
-        <f>STDEV(G8:Y8)</f>
+      <c r="AJ8" s="56">
+        <f t="shared" si="2"/>
         <v>0.454846862990095</v>
       </c>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="74">
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="76">
         <v>4.562</v>
       </c>
-      <c r="AT8" s="74">
+      <c r="AT8" s="76">
         <v>4.48</v>
       </c>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="29">
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="31">
         <v>9</v>
       </c>
-      <c r="BC8" s="85" t="s">
+      <c r="BC8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="BD8" s="84" t="s">
+      <c r="BD8" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="29">
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="31">
         <v>0.462891</v>
       </c>
-      <c r="BJ8" s="95">
-        <f t="shared" si="0"/>
+      <c r="BJ8" s="97">
+        <f t="shared" si="3"/>
         <v>0.10146668128014</v>
       </c>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="98">
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="100">
         <v>44580</v>
       </c>
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:64">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="33">
+      <c r="D9" s="9"/>
+      <c r="E9" s="35">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="31">
         <v>0.549</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="30">
         <v>1.2703</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="30">
         <v>0.7241</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="30">
         <v>0.681</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="30">
         <v>0.2231</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="30">
         <v>3.7</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="30">
         <v>1.29</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="30">
         <v>0.8718</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="30">
         <v>0.6824</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="30">
         <v>0.766</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="30">
         <v>0.3537</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="30">
         <v>0.2986</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="30">
         <v>0.241</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="30">
         <v>0.2771</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="30">
         <v>-0.0742</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="30">
         <v>-0.1055</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="30">
         <v>0.2136</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="43">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="43">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="43">
         <v>0.3019</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="46">
+        <f t="shared" si="7"/>
         <v>0.301766666666667</v>
       </c>
-      <c r="AB9" s="49">
-        <f>(G9+H9+I9+J9+K9+L9+M9+N9+O9+P9+Q9+R9+S9+T9+U9+V9+W9+X9+Y9)/19</f>
+      <c r="AB9" s="52">
+        <f t="shared" si="0"/>
         <v>0.651657894736842</v>
       </c>
-      <c r="AC9" s="36">
-        <f>(R9+S9)/2</f>
+      <c r="AC9" s="38">
+        <f t="shared" ref="AC9:AI9" si="9">(R9+S9)/2</f>
         <v>0.25905</v>
       </c>
-      <c r="AD9" s="36">
-        <f>(S9+T9)/2</f>
+      <c r="AD9" s="38">
+        <f t="shared" si="9"/>
         <v>0.10145</v>
       </c>
-      <c r="AE9" s="36">
-        <f>(T9+U9)/2</f>
+      <c r="AE9" s="38">
+        <f t="shared" si="9"/>
         <v>-0.08985</v>
       </c>
-      <c r="AF9" s="43">
-        <f>(U9+V9)/2</f>
+      <c r="AF9" s="46">
+        <f t="shared" si="9"/>
         <v>0.05405</v>
       </c>
-      <c r="AG9" s="43">
-        <f>(V9+W9)/2</f>
+      <c r="AG9" s="46">
+        <f t="shared" si="9"/>
         <v>0.2955</v>
       </c>
-      <c r="AH9" s="43">
-        <f>(W9+X9)/2</f>
+      <c r="AH9" s="46">
+        <f t="shared" si="9"/>
         <v>0.3333</v>
       </c>
-      <c r="AI9" s="36">
-        <f>(X9+Y9)/2</f>
+      <c r="AI9" s="38">
+        <f t="shared" si="9"/>
         <v>0.29555</v>
       </c>
-      <c r="AJ9" s="53">
-        <f>STDEV(G9:Y9)</f>
+      <c r="AJ9" s="56">
+        <f t="shared" si="2"/>
         <v>0.832605655835135</v>
       </c>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="74">
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="76">
         <v>10.64</v>
       </c>
-      <c r="AT9" s="74">
+      <c r="AT9" s="76">
         <v>10.22</v>
       </c>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="29">
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="31">
         <v>37</v>
       </c>
-      <c r="BC9" s="86" t="s">
+      <c r="BC9" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="84" t="s">
+      <c r="BD9" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="29">
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="31">
         <v>5.84</v>
       </c>
-      <c r="BJ9" s="95">
-        <f t="shared" si="0"/>
+      <c r="BJ9" s="97">
+        <f t="shared" si="3"/>
         <v>0.548872180451128</v>
       </c>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="98">
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="100">
         <v>44585</v>
       </c>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:64">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="33">
+      <c r="D10" s="9"/>
+      <c r="E10" s="35">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="31">
         <v>0.407</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="30">
         <v>0.0544</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="30">
         <v>0.0366</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="30">
         <v>0.009</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="30">
         <v>0.0227</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="30">
         <v>0.0113</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="30">
         <v>0.018</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="30">
         <v>0.0132</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="30">
         <v>0.0044</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="30">
         <v>0.0199</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="30">
         <v>-0.0241</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="30">
         <v>-0.0372</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="30">
         <v>-0.0568</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="30">
         <v>-0.1353</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="30">
         <v>-0.01</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="30">
         <v>0.0149</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="30">
         <v>0.0142</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="35">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="35">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="33">
+      <c r="Y10" s="35">
         <v>0.1046</v>
       </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="46">
+        <f t="shared" si="7"/>
         <v>0.0377083333333333</v>
       </c>
-      <c r="AB10" s="43">
-        <f>(G10+H10+I10+J10+K10+L10+M10+N10+O10+P10+Q10+R10+S10+T10+U10+V10+W10+X10+Y10)/19</f>
+      <c r="AB10" s="46">
+        <f t="shared" si="0"/>
         <v>0.0325105263157895</v>
       </c>
-      <c r="AC10" s="36">
-        <f>(R10+S10)/2</f>
+      <c r="AC10" s="38">
+        <f t="shared" ref="AC10:AI10" si="10">(R10+S10)/2</f>
         <v>-0.09605</v>
       </c>
-      <c r="AD10" s="43">
-        <f>(S10+T10)/2</f>
+      <c r="AD10" s="46">
+        <f t="shared" si="10"/>
         <v>-0.07265</v>
       </c>
-      <c r="AE10" s="43">
-        <f>(T10+U10)/2</f>
+      <c r="AE10" s="46">
+        <f t="shared" si="10"/>
         <v>0.00245</v>
       </c>
-      <c r="AF10" s="43">
-        <f>(U10+V10)/2</f>
+      <c r="AF10" s="46">
+        <f t="shared" si="10"/>
         <v>0.01455</v>
       </c>
-      <c r="AG10" s="43">
-        <f>(V10+W10)/2</f>
+      <c r="AG10" s="46">
+        <f t="shared" si="10"/>
         <v>0.21325</v>
       </c>
-      <c r="AH10" s="43">
-        <f>(W10+X10)/2</f>
+      <c r="AH10" s="46">
+        <f t="shared" si="10"/>
         <v>0.27895</v>
       </c>
-      <c r="AI10" s="36">
-        <f>(X10+Y10)/2</f>
+      <c r="AI10" s="38">
+        <f t="shared" si="10"/>
         <v>0.1251</v>
       </c>
-      <c r="AJ10" s="53">
-        <f>STDEV(G10:Y10)</f>
+      <c r="AJ10" s="56">
+        <f t="shared" si="2"/>
         <v>0.108527312971522</v>
       </c>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="74">
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="76">
         <v>153</v>
       </c>
-      <c r="AT10" s="74">
+      <c r="AT10" s="76">
         <v>111.4</v>
       </c>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="29">
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="31">
         <v>87</v>
       </c>
-      <c r="BC10" s="84" t="s">
+      <c r="BC10" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="BD10" s="84" t="s">
+      <c r="BD10" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="29">
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="31">
         <v>64.56</v>
       </c>
-      <c r="BJ10" s="95">
-        <f t="shared" si="0"/>
+      <c r="BJ10" s="97">
+        <f t="shared" si="3"/>
         <v>0.421960784313726</v>
       </c>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="98">
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="100">
         <v>44585</v>
       </c>
     </row>
     <row r="11" ht="89" customHeight="1" spans="1:64">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="33">
+      <c r="D11" s="9"/>
+      <c r="E11" s="35">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="31">
         <v>0.11</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="30">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="30">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="30">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="30">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="30">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="30">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="30">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="30">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="30">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="30">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="30">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="30">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="30">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="30">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="30">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="30">
         <v>-4</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="45">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="45">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="45">
         <v>3.568</v>
       </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="46">
+        <f t="shared" si="7"/>
         <v>-0.585816666666667</v>
       </c>
-      <c r="AB11" s="43">
-        <f t="shared" ref="AB11:AB20" si="2">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
+      <c r="AB11" s="46">
+        <f t="shared" ref="AB11:AB22" si="11">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
-      <c r="AC11" s="36">
-        <f t="shared" ref="AC11:AI11" si="3">(R11+S11)/2</f>
+      <c r="AC11" s="38">
+        <f t="shared" ref="AC11:AI11" si="12">(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
-      <c r="AD11" s="36">
+      <c r="AD11" s="38">
+        <f t="shared" si="12"/>
+        <v>-3.28665</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" si="12"/>
+        <v>-1.65565</v>
+      </c>
+      <c r="AF11" s="38">
+        <f t="shared" si="12"/>
+        <v>-2.739</v>
+      </c>
+      <c r="AG11" s="57">
+        <f t="shared" si="12"/>
+        <v>-1.5976</v>
+      </c>
+      <c r="AH11" s="57">
+        <f t="shared" si="12"/>
+        <v>1.2024</v>
+      </c>
+      <c r="AI11" s="57">
+        <f t="shared" si="12"/>
+        <v>2.584</v>
+      </c>
+      <c r="AJ11" s="56">
+        <f t="shared" ref="AJ11:AJ22" si="13">STDEV(G11:Y11)</f>
+        <v>1.78447570105642</v>
+      </c>
+      <c r="AK11" s="44">
+        <v>0.2014</v>
+      </c>
+      <c r="AL11" s="44">
+        <v>0.0771</v>
+      </c>
+      <c r="AM11" s="44">
+        <v>0.26</v>
+      </c>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="62">
+        <v>42347</v>
+      </c>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="76">
+        <v>1.32</v>
+      </c>
+      <c r="AT11" s="76">
+        <v>1.184</v>
+      </c>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="31">
+        <v>2</v>
+      </c>
+      <c r="BC11" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD11" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="31">
+        <v>0.139699</v>
+      </c>
+      <c r="BJ11" s="97">
         <f t="shared" si="3"/>
-        <v>-3.28665</v>
-      </c>
-      <c r="AE11" s="36">
-        <f t="shared" si="3"/>
-        <v>-1.65565</v>
-      </c>
-      <c r="AF11" s="36">
-        <f t="shared" si="3"/>
-        <v>-2.739</v>
-      </c>
-      <c r="AG11" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.5976</v>
-      </c>
-      <c r="AH11" s="43">
-        <f t="shared" si="3"/>
-        <v>1.2024</v>
-      </c>
-      <c r="AI11" s="43">
-        <f t="shared" si="3"/>
-        <v>2.584</v>
-      </c>
-      <c r="AJ11" s="53">
-        <f t="shared" ref="AJ11:AJ20" si="4">STDEV(G11:Y11)</f>
-        <v>1.78447570105642</v>
-      </c>
-      <c r="AK11" s="41">
-        <v>0.2014</v>
-      </c>
-      <c r="AL11" s="41">
-        <v>0.0771</v>
-      </c>
-      <c r="AM11" s="41">
-        <v>0.26</v>
-      </c>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="60">
-        <v>42347</v>
-      </c>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="74">
-        <v>1.32</v>
-      </c>
-      <c r="AT11" s="74">
-        <v>1.184</v>
-      </c>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="29">
-        <v>2</v>
-      </c>
-      <c r="BC11" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD11" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="29">
-        <v>0.139699</v>
-      </c>
-      <c r="BJ11" s="95">
-        <f t="shared" si="0"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="BK11" s="99" t="s">
+      <c r="BK11" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="BL11" s="98">
+      <c r="BL11" s="100">
         <v>44586</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="1:64">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="34">
+      <c r="D12" s="13"/>
+      <c r="E12" s="36">
         <v>0.3655</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>0.17</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="36">
         <v>0</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="36">
         <v>-0.0338</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="36">
         <v>-0.125</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="36">
         <v>-0.1333</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="36">
         <v>0</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="36">
         <v>-0.125</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="36">
         <v>-0.1429</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="36">
         <v>-0.2692</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="36">
         <v>0.2</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="36">
         <v>-0.0714</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="36">
         <v>-0.0556</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="36">
         <v>0</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="36">
         <v>-0.6667</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="36">
         <v>-0.3077</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="36">
         <v>-0.1176</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="36">
         <v>-0.1053</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="36">
         <v>1.5</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12" s="36">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12" s="36">
         <v>0.1333</v>
       </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="46">
+        <f t="shared" si="7"/>
         <v>0.0385</v>
       </c>
-      <c r="AB12" s="43">
-        <f t="shared" si="2"/>
+      <c r="AB12" s="46">
+        <f t="shared" si="11"/>
         <v>-0.00515789473684209</v>
       </c>
-      <c r="AC12" s="36">
-        <f t="shared" ref="AC12:AI12" si="5">(R12+S12)/2</f>
+      <c r="AC12" s="38">
+        <f t="shared" ref="AC12:AI12" si="14">(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
-      <c r="AD12" s="36">
-        <f t="shared" si="5"/>
+      <c r="AD12" s="38">
+        <f t="shared" si="14"/>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="43">
-        <f t="shared" si="5"/>
+      <c r="AE12" s="46">
+        <f t="shared" si="14"/>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="43">
-        <f t="shared" si="5"/>
+      <c r="AF12" s="46">
+        <f t="shared" si="14"/>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="43">
-        <f t="shared" si="5"/>
+      <c r="AG12" s="46">
+        <f t="shared" si="14"/>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="43">
-        <f t="shared" si="5"/>
+      <c r="AH12" s="46">
+        <f t="shared" si="14"/>
         <v>0.8611</v>
       </c>
-      <c r="AI12" s="36">
-        <f t="shared" si="5"/>
+      <c r="AI12" s="38">
+        <f t="shared" si="14"/>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="53">
-        <f t="shared" si="4"/>
+      <c r="AJ12" s="56">
+        <f t="shared" si="13"/>
         <v>0.413115667574254</v>
       </c>
-      <c r="AK12" s="34">
+      <c r="AK12" s="36">
         <v>-0.4742</v>
       </c>
-      <c r="AL12" s="34">
+      <c r="AL12" s="36">
         <v>-0.4142</v>
       </c>
-      <c r="AM12" s="34">
+      <c r="AM12" s="36">
         <v>-0.3214</v>
       </c>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="61">
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="63">
         <v>35599</v>
       </c>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="75">
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="77">
         <v>13.29</v>
       </c>
-      <c r="AT12" s="75">
+      <c r="AT12" s="77">
         <v>13.29</v>
       </c>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11">
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13">
         <v>4</v>
       </c>
-      <c r="BC12" s="87" t="s">
+      <c r="BC12" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="88" t="s">
+      <c r="BD12" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11">
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13">
         <v>2.29</v>
       </c>
-      <c r="BJ12" s="100">
-        <f t="shared" si="0"/>
+      <c r="BJ12" s="102">
+        <f t="shared" si="3"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="BK12" s="85" t="s">
+      <c r="BK12" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="BL12" s="61">
+      <c r="BL12" s="63">
         <v>44605</v>
       </c>
     </row>
     <row r="13" ht="90" customHeight="1" spans="1:64">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="33">
+      <c r="D13" s="8"/>
+      <c r="E13" s="35">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="37">
         <v>0.69</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="38">
         <v>1.7</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="38">
         <v>-0.0417</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="38">
         <v>-0.3099</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="38">
         <v>0.3223</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="38">
         <v>1.7037</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="38">
         <v>0.913</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="38">
         <v>1.0816</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="38">
         <v>0.1812</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="38">
         <v>-0.5616</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="38">
         <v>-0.3182</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="38">
         <v>-0.4118</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="38">
         <v>0.0529</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="38">
         <v>-0.9063</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="38">
         <v>-0.9167</v>
       </c>
-      <c r="U13" s="36">
+      <c r="U13" s="38">
         <v>-0.6833</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="38">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="44">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="44">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="44">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="46">
+        <f t="shared" si="7"/>
         <v>0.655683333333334</v>
       </c>
-      <c r="AB13" s="43">
-        <f t="shared" si="2"/>
+      <c r="AB13" s="46">
+        <f t="shared" si="11"/>
         <v>0.696694736842105</v>
       </c>
-      <c r="AC13" s="36">
-        <f t="shared" ref="AC13:AI13" si="6">(R13+S13)/2</f>
+      <c r="AC13" s="38">
+        <f t="shared" ref="AC13:AI13" si="15">(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
-      <c r="AD13" s="36">
-        <f t="shared" si="6"/>
+      <c r="AD13" s="38">
+        <f t="shared" si="15"/>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="43">
-        <f t="shared" si="6"/>
+      <c r="AE13" s="46">
+        <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="43">
-        <f t="shared" si="6"/>
+      <c r="AF13" s="46">
+        <f t="shared" si="15"/>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="43">
-        <f t="shared" si="6"/>
+      <c r="AG13" s="57">
+        <f t="shared" si="15"/>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="43">
-        <f t="shared" si="6"/>
+      <c r="AH13" s="57">
+        <f t="shared" si="15"/>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="43">
-        <f t="shared" si="6"/>
+      <c r="AI13" s="57">
+        <f t="shared" si="15"/>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="53">
-        <f t="shared" si="4"/>
+      <c r="AJ13" s="56">
+        <f t="shared" si="13"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="33">
+      <c r="AK13" s="35">
         <v>0.7335</v>
       </c>
-      <c r="AL13" s="33">
+      <c r="AL13" s="35">
         <v>0.4001</v>
       </c>
-      <c r="AM13" s="33">
+      <c r="AM13" s="35">
         <v>0.1638</v>
       </c>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="62">
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="64">
         <v>42368</v>
       </c>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="74">
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="76">
         <v>79.23</v>
       </c>
-      <c r="AT13" s="74">
+      <c r="AT13" s="76">
         <v>79.22</v>
       </c>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="29">
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="31">
         <v>123</v>
       </c>
-      <c r="BC13" s="85" t="s">
+      <c r="BC13" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="BD13" s="85" t="s">
+      <c r="BD13" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="29">
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="31">
         <v>63.51</v>
       </c>
-      <c r="BJ13" s="95">
-        <f t="shared" ref="BJ13:BJ20" si="7">BI13/AS13</f>
+      <c r="BJ13" s="97">
+        <f t="shared" ref="BJ13:BJ20" si="16">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="BK13" s="86" t="s">
+      <c r="BK13" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="BL13" s="98">
+      <c r="BL13" s="100">
         <v>44601</v>
       </c>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:64">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="33">
+      <c r="D14" s="9"/>
+      <c r="E14" s="35">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="31">
         <v>0.577</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="38">
         <v>0.8333</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="38">
         <v>0.4375</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="38">
         <v>0.5455</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="38">
         <v>0.0937</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="38">
         <v>-0.4545</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="38">
         <v>-0.0435</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="38">
         <v>0.0294</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="38">
         <v>0.3143</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="38">
         <v>0.6667</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="38">
         <v>0.3182</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="38">
         <v>0.1143</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="38">
         <v>0.2174</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="38">
         <v>2.1</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="38">
         <v>0.7241</v>
       </c>
-      <c r="U14" s="36">
+      <c r="U14" s="38">
         <v>0.6923</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="38">
         <v>0.3393</v>
       </c>
-      <c r="W14" s="33">
+      <c r="W14" s="35">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="33">
+      <c r="X14" s="35">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="33">
+      <c r="Y14" s="35">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="49">
-        <f t="shared" si="1"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="52">
+        <f t="shared" si="7"/>
         <v>0.477816666666667</v>
       </c>
-      <c r="AB14" s="49">
-        <f t="shared" si="2"/>
+      <c r="AB14" s="52">
+        <f t="shared" si="11"/>
         <v>0.377642105263158</v>
       </c>
-      <c r="AC14" s="36">
-        <f t="shared" ref="AC14:AC20" si="8">(R14+S14)/2</f>
+      <c r="AC14" s="38">
+        <f t="shared" ref="AC14:AC22" si="17">(R14+S14)/2</f>
         <v>1.1587</v>
       </c>
-      <c r="AD14" s="36">
-        <f t="shared" ref="AD14:AD20" si="9">(S14+T14)/2</f>
+      <c r="AD14" s="38">
+        <f t="shared" ref="AD14:AD22" si="18">(S14+T14)/2</f>
         <v>1.41205</v>
       </c>
-      <c r="AE14" s="36">
-        <f t="shared" ref="AE14:AE20" si="10">(T14+U14)/2</f>
+      <c r="AE14" s="38">
+        <f t="shared" ref="AE14:AE22" si="19">(T14+U14)/2</f>
         <v>0.7082</v>
       </c>
-      <c r="AF14" s="36">
-        <f t="shared" ref="AF14:AF20" si="11">(U14+V14)/2</f>
+      <c r="AF14" s="38">
+        <f t="shared" ref="AF14:AF22" si="20">(U14+V14)/2</f>
         <v>0.5158</v>
       </c>
-      <c r="AG14" s="36">
-        <f t="shared" ref="AG14:AG20" si="12">(V14+W14)/2</f>
+      <c r="AG14" s="38">
+        <f t="shared" ref="AG14:AG22" si="21">(V14+W14)/2</f>
         <v>0.2987</v>
       </c>
-      <c r="AH14" s="36">
-        <f t="shared" ref="AH14:AH20" si="13">(W14+X14)/2</f>
+      <c r="AH14" s="38">
+        <f t="shared" ref="AH14:AH22" si="22">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
-      <c r="AI14" s="36">
-        <f t="shared" ref="AI14:AI20" si="14">(X14+Y14)/2</f>
+      <c r="AI14" s="38">
+        <f t="shared" ref="AI14:AI22" si="23">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="53">
-        <f t="shared" si="4"/>
+      <c r="AJ14" s="56">
+        <f t="shared" si="13"/>
         <v>0.527397656544523</v>
       </c>
-      <c r="AK14" s="41">
+      <c r="AK14" s="44">
         <v>0.2685</v>
       </c>
-      <c r="AL14" s="41">
+      <c r="AL14" s="44">
         <v>0.4227</v>
       </c>
-      <c r="AM14" s="41">
+      <c r="AM14" s="44">
         <v>0.3457</v>
       </c>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="62">
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="64">
         <v>37757</v>
       </c>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="74">
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="76">
         <v>5.912</v>
       </c>
-      <c r="AT14" s="74">
+      <c r="AT14" s="76">
         <v>5.69</v>
       </c>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="29">
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="31">
         <v>11</v>
       </c>
-      <c r="BC14" s="85" t="s">
+      <c r="BC14" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" s="85" t="s">
+      <c r="BD14" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="29">
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="31">
         <v>3.41</v>
       </c>
-      <c r="BJ14" s="95">
-        <f t="shared" si="7"/>
+      <c r="BJ14" s="97">
+        <f t="shared" si="16"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="BK14" s="101" t="s">
+      <c r="BK14" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" s="98">
+      <c r="BL14" s="100">
         <v>44601</v>
       </c>
     </row>
     <row r="15" ht="94" customHeight="1" spans="1:64">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="28">
+      <c r="D15" s="9"/>
+      <c r="E15" s="30">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="39">
         <v>0.82</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="38">
         <v>0.3043</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="38">
         <v>0.1454</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="38">
         <v>0.2327</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="38">
         <v>0.1847</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="38">
         <v>0.2133</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="38">
         <v>0.3746</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="38">
         <v>0.3028</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="38">
         <v>1.4835</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="38">
         <v>0.1758</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="38">
         <v>0.6306</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="38">
         <v>0.4161</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="38">
         <v>-0.2543</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="38">
         <v>-1.285</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="38">
         <v>-0.9669</v>
       </c>
-      <c r="U15" s="36">
+      <c r="U15" s="38">
         <v>-0.6954</v>
       </c>
-      <c r="V15" s="36">
+      <c r="V15" s="38">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="46">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="43">
+      <c r="X15" s="46">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="43">
+      <c r="Y15" s="46">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="49">
-        <f t="shared" si="1"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="52">
+        <f t="shared" si="7"/>
         <v>2.19015833333333</v>
       </c>
-      <c r="AB15" s="43">
-        <f t="shared" si="2"/>
+      <c r="AB15" s="46">
+        <f t="shared" si="11"/>
         <v>1.47577368421053</v>
       </c>
-      <c r="AC15" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC15" s="38">
+        <f t="shared" si="17"/>
         <v>-0.76965</v>
       </c>
-      <c r="AD15" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD15" s="38">
+        <f t="shared" si="18"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="43">
-        <f t="shared" si="10"/>
+      <c r="AE15" s="46">
+        <f t="shared" si="19"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="43">
-        <f t="shared" si="11"/>
+      <c r="AF15" s="46">
+        <f t="shared" si="20"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="43">
-        <f t="shared" si="12"/>
+      <c r="AG15" s="46">
+        <f t="shared" si="21"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="43">
+      <c r="AH15" s="46">
+        <f t="shared" si="22"/>
+        <v>12.6315</v>
+      </c>
+      <c r="AI15" s="38">
+        <f t="shared" si="23"/>
+        <v>11.12845</v>
+      </c>
+      <c r="AJ15" s="56">
         <f t="shared" si="13"/>
-        <v>12.6315</v>
-      </c>
-      <c r="AI15" s="36">
-        <f t="shared" si="14"/>
-        <v>11.12845</v>
-      </c>
-      <c r="AJ15" s="53">
-        <f t="shared" si="4"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="43">
+      <c r="AK15" s="46">
         <v>2.2501</v>
       </c>
-      <c r="AL15" s="43">
+      <c r="AL15" s="46">
         <v>0.7909</v>
       </c>
-      <c r="AM15" s="43">
+      <c r="AM15" s="46">
         <v>0.5626</v>
       </c>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="63">
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="65">
         <v>37250</v>
       </c>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="76">
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="78">
         <v>21.81</v>
       </c>
-      <c r="AT15" s="76">
+      <c r="AT15" s="78">
         <v>14.33</v>
       </c>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="20">
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="21">
         <v>1</v>
       </c>
-      <c r="BC15" s="85" t="s">
+      <c r="BC15" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="BD15" s="85" t="s">
+      <c r="BD15" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="BE15" s="8"/>
-      <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="8"/>
-      <c r="BI15" s="8">
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9">
         <v>19.28</v>
       </c>
-      <c r="BJ15" s="95">
-        <f t="shared" si="7"/>
+      <c r="BJ15" s="97">
+        <f t="shared" si="16"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="BK15" s="102" t="s">
+      <c r="BK15" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="BL15" s="98">
+      <c r="BL15" s="100">
         <v>44608</v>
       </c>
     </row>
     <row r="16" ht="82" customHeight="1" spans="1:64">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="28">
+      <c r="D16" s="9"/>
+      <c r="E16" s="30">
         <v>0.5564</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>0.725</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="38">
         <v>0.7222</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="38">
         <v>-0.1944</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="38">
         <v>-0.0698</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="38">
         <v>-0.4096</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="38">
         <v>-0.3226</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="38">
         <v>0.2759</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="38">
         <v>0.3</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="38">
         <v>0.5102</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="38">
         <v>0.381</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="38">
         <v>0.4865</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="38">
         <v>0.5</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="38">
         <v>0.2027</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="38">
         <v>0.7241</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="38">
         <v>0.5273</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="38">
         <v>0.3077</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="38">
         <v>0.1798</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="30">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="30">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="30">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="49">
-        <f t="shared" si="1"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="52">
+        <f t="shared" si="7"/>
         <v>0.264241666666667</v>
       </c>
-      <c r="AB16" s="49">
-        <f t="shared" si="2"/>
+      <c r="AB16" s="52">
+        <f t="shared" si="11"/>
         <v>0.182768421052632</v>
       </c>
-      <c r="AC16" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC16" s="38">
+        <f t="shared" si="17"/>
         <v>0.4634</v>
       </c>
-      <c r="AD16" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD16" s="38">
+        <f t="shared" si="18"/>
         <v>0.6257</v>
       </c>
-      <c r="AE16" s="36">
-        <f t="shared" si="10"/>
+      <c r="AE16" s="38">
+        <f t="shared" si="19"/>
         <v>0.4175</v>
       </c>
-      <c r="AF16" s="36">
-        <f t="shared" si="11"/>
+      <c r="AF16" s="38">
+        <f t="shared" si="20"/>
         <v>0.24375</v>
       </c>
-      <c r="AG16" s="36">
-        <f t="shared" si="12"/>
+      <c r="AG16" s="38">
+        <f t="shared" si="21"/>
         <v>0.0199</v>
       </c>
-      <c r="AH16" s="36">
+      <c r="AH16" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.17715</v>
+      </c>
+      <c r="AI16" s="38">
+        <f t="shared" si="23"/>
+        <v>-0.2542</v>
+      </c>
+      <c r="AJ16" s="56">
         <f t="shared" si="13"/>
-        <v>-0.17715</v>
-      </c>
-      <c r="AI16" s="36">
-        <f t="shared" si="14"/>
-        <v>-0.2542</v>
-      </c>
-      <c r="AJ16" s="53">
-        <f t="shared" si="4"/>
         <v>0.363787610583476</v>
       </c>
-      <c r="AK16" s="28">
+      <c r="AK16" s="30">
         <v>-0.1922</v>
       </c>
-      <c r="AL16" s="28">
+      <c r="AL16" s="30">
         <v>-0.1946</v>
       </c>
-      <c r="AM16" s="28">
+      <c r="AM16" s="30">
         <v>-0.0688</v>
       </c>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="63">
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="65">
         <v>42031</v>
       </c>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="76">
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="78">
         <v>3.726</v>
       </c>
-      <c r="AT16" s="76">
+      <c r="AT16" s="78">
         <v>3.253</v>
       </c>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8">
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9">
         <v>2</v>
       </c>
-      <c r="BC16" s="85" t="s">
+      <c r="BC16" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="BD16" s="85" t="s">
+      <c r="BD16" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="95">
-        <f t="shared" si="7"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="97">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BK16" s="103" t="s">
+      <c r="BK16" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="BL16" s="98">
+      <c r="BL16" s="100">
         <v>44608</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="59" spans="1:64">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38">
+      <c r="D17" s="19"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40">
         <v>0.0625</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="40">
         <v>0.0534</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="40">
         <v>0.0052</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="40">
         <v>-0.2069</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17" s="40">
         <v>-0.2</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="40">
         <v>-0.1884</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="40">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="47">
         <v>1.087</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="47">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="47">
         <v>0.6696</v>
       </c>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="46">
+        <f t="shared" si="7"/>
         <v>0.167833333333333</v>
       </c>
-      <c r="AB17" s="44">
-        <f t="shared" si="2"/>
+      <c r="AB17" s="47">
+        <f t="shared" si="11"/>
         <v>0.106</v>
       </c>
-      <c r="AC17" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC17" s="38">
+        <f t="shared" si="17"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD17" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD17" s="38">
+        <f t="shared" si="18"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="43">
-        <f t="shared" si="10"/>
+      <c r="AE17" s="46">
+        <f t="shared" si="19"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="43">
-        <f t="shared" si="11"/>
+      <c r="AF17" s="46">
+        <f t="shared" si="20"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="43">
-        <f t="shared" si="12"/>
+      <c r="AG17" s="46">
+        <f t="shared" si="21"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="43">
+      <c r="AH17" s="46">
+        <f t="shared" si="22"/>
+        <v>0.94055</v>
+      </c>
+      <c r="AI17" s="38">
+        <f t="shared" si="23"/>
+        <v>0.73185</v>
+      </c>
+      <c r="AJ17" s="58">
         <f t="shared" si="13"/>
-        <v>0.94055</v>
-      </c>
-      <c r="AI17" s="36">
-        <f t="shared" si="14"/>
-        <v>0.73185</v>
-      </c>
-      <c r="AJ17" s="54">
-        <f t="shared" si="4"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="44">
+      <c r="AK17" s="47">
         <v>1.0194</v>
       </c>
-      <c r="AL17" s="44">
+      <c r="AL17" s="47">
         <v>0.7661</v>
       </c>
-      <c r="AM17" s="44">
+      <c r="AM17" s="47">
         <v>0.6219</v>
       </c>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="64">
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="66">
         <v>43823</v>
       </c>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="77">
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="79">
         <v>2.331</v>
       </c>
-      <c r="AT17" s="78">
+      <c r="AT17" s="80">
         <v>1.118</v>
       </c>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="89">
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="91">
         <v>21</v>
       </c>
-      <c r="BC17" s="90" t="s">
+      <c r="BC17" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="BD17" s="90" t="s">
+      <c r="BD17" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="104">
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="106">
         <v>5.25</v>
       </c>
-      <c r="BJ17" s="95">
-        <f t="shared" si="7"/>
+      <c r="BJ17" s="97">
+        <f t="shared" si="16"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="BK17" s="90" t="s">
+      <c r="BK17" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="BL17" s="105">
+      <c r="BL17" s="107">
         <v>44578</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:64">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="38">
+      <c r="D18" s="19"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="40">
         <v>0.4231</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="40">
         <v>0.4</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="40">
         <v>0.3529</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="40">
         <v>0.2235</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="40">
         <v>-0.1351</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="40">
         <v>-0.4444</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="40">
         <v>-0.337</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="40">
         <v>-0.4712</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="40">
         <v>-0.6875</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="40">
         <v>0.0857</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="40">
         <v>0.082</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="40">
         <v>0.5818</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="40">
         <v>1.1</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="40">
         <v>0.5263</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="40">
         <v>0.4697</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="40">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="47">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="47">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="44">
+      <c r="Y18" s="47">
         <v>0.4021</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="46">
+        <f t="shared" si="7"/>
         <v>0.370166666666667</v>
       </c>
-      <c r="AB18" s="44">
-        <f t="shared" si="2"/>
+      <c r="AB18" s="47">
+        <f t="shared" si="11"/>
         <v>0.259210526315789</v>
       </c>
-      <c r="AC18" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC18" s="38">
+        <f t="shared" si="17"/>
         <v>0.8409</v>
       </c>
-      <c r="AD18" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD18" s="38">
+        <f t="shared" si="18"/>
         <v>0.81315</v>
       </c>
-      <c r="AE18" s="36">
-        <f t="shared" si="10"/>
+      <c r="AE18" s="38">
+        <f t="shared" si="19"/>
         <v>0.498</v>
       </c>
-      <c r="AF18" s="36">
-        <f t="shared" si="11"/>
+      <c r="AF18" s="38">
+        <f t="shared" si="20"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="43">
-        <f t="shared" si="12"/>
+      <c r="AG18" s="46">
+        <f t="shared" si="21"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="43">
+      <c r="AH18" s="46">
+        <f t="shared" si="22"/>
+        <v>0.9639</v>
+      </c>
+      <c r="AI18" s="38">
+        <f t="shared" si="23"/>
+        <v>0.5459</v>
+      </c>
+      <c r="AJ18" s="58">
         <f t="shared" si="13"/>
-        <v>0.9639</v>
-      </c>
-      <c r="AI18" s="36">
-        <f t="shared" si="14"/>
-        <v>0.5459</v>
-      </c>
-      <c r="AJ18" s="54">
-        <f t="shared" si="4"/>
         <v>0.509476975703446</v>
       </c>
-      <c r="AK18" s="38">
+      <c r="AK18" s="40">
         <v>0.3237</v>
       </c>
-      <c r="AL18" s="38">
+      <c r="AL18" s="40">
         <v>0.2459</v>
       </c>
-      <c r="AM18" s="38">
+      <c r="AM18" s="40">
         <v>0.205</v>
       </c>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="95" t="e">
-        <f t="shared" si="7"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="81"/>
+      <c r="AT18" s="81"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="19"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19"/>
+      <c r="BJ18" s="97" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK18" s="18"/>
-      <c r="BL18" s="98">
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="100">
         <v>44608</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="53" spans="1:64">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="38">
+      <c r="D19" s="19"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="40">
         <v>0.2019</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="40">
         <v>-0.1083</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="40">
         <v>-0.1304</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="40">
         <v>-0.0952</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="40">
         <v>0.926</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="40">
         <v>0.8056</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="40">
         <v>0.8</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="40">
         <v>0.1316</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="40">
         <v>0.0748</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="40">
         <v>1.2774</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="40">
         <v>0.5556</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="40">
         <v>0.9535</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="40">
         <v>1.4155</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="40">
         <v>0.0455</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="40">
         <v>0.5536</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="40">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="44">
+      <c r="W19" s="47">
         <v>0.6</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="47">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="44">
+      <c r="Y19" s="47">
         <v>0.4943</v>
       </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="49">
-        <f t="shared" si="1"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="52">
+        <f t="shared" si="7"/>
         <v>0.595266666666667</v>
       </c>
-      <c r="AB19" s="50">
-        <f t="shared" si="2"/>
+      <c r="AB19" s="53">
+        <f t="shared" si="11"/>
         <v>0.502252631578947</v>
       </c>
-      <c r="AC19" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC19" s="38">
+        <f t="shared" si="17"/>
         <v>1.1845</v>
       </c>
-      <c r="AD19" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD19" s="38">
+        <f t="shared" si="18"/>
         <v>0.7305</v>
       </c>
-      <c r="AE19" s="36">
-        <f t="shared" si="10"/>
+      <c r="AE19" s="38">
+        <f t="shared" si="19"/>
         <v>0.29955</v>
       </c>
-      <c r="AF19" s="36">
-        <f t="shared" si="11"/>
+      <c r="AF19" s="38">
+        <f t="shared" si="20"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="43">
-        <f t="shared" si="12"/>
+      <c r="AG19" s="46">
+        <f t="shared" si="21"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="43">
+      <c r="AH19" s="46">
+        <f t="shared" si="22"/>
+        <v>0.8326</v>
+      </c>
+      <c r="AI19" s="38">
+        <f t="shared" si="23"/>
+        <v>0.77975</v>
+      </c>
+      <c r="AJ19" s="58">
         <f t="shared" si="13"/>
-        <v>0.8326</v>
-      </c>
-      <c r="AI19" s="36">
-        <f t="shared" si="14"/>
-        <v>0.77975</v>
-      </c>
-      <c r="AJ19" s="54">
-        <f t="shared" si="4"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="45">
+      <c r="AK19" s="48">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="45">
+      <c r="AL19" s="48">
         <v>0.5323</v>
       </c>
-      <c r="AM19" s="45">
+      <c r="AM19" s="48">
         <v>0.6121</v>
       </c>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="79">
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="81">
         <v>4.704</v>
       </c>
-      <c r="AT19" s="79">
+      <c r="AT19" s="81">
         <v>3.956</v>
       </c>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18">
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19">
         <v>4</v>
       </c>
-      <c r="BC19" s="85" t="s">
+      <c r="BC19" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="BD19" s="85" t="s">
+      <c r="BD19" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18">
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19">
         <v>6.04</v>
       </c>
-      <c r="BJ19" s="95">
-        <f t="shared" si="7"/>
+      <c r="BJ19" s="97">
+        <f t="shared" si="16"/>
         <v>1.28401360544218</v>
       </c>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="98">
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="100">
         <v>44608</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="88" spans="1:64">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="38">
+      <c r="D20" s="19"/>
+      <c r="E20" s="40">
         <v>0.2676</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>1.2</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="40">
         <v>0.125</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="40">
         <v>0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="40">
         <v>-0.1017</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="40">
         <v>-0.0235</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="40">
         <v>0.1389</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="40">
         <v>0.1707</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="40">
         <v>0.1698</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="40">
         <v>0.1687</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="40">
         <v>0.0732</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="40">
         <v>0.1667</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="40">
         <v>0.2097</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="40">
         <v>0.1959</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="40">
         <v>-0.3409</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="40">
         <v>-0.25</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="40">
         <v>-0.12</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="40">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="48">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="48">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="45">
+      <c r="Y20" s="48">
         <v>0.8182</v>
       </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="43">
-        <f t="shared" si="1"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="46">
+        <f t="shared" si="7"/>
         <v>0.191291666666667</v>
       </c>
-      <c r="AB20" s="44">
-        <f t="shared" si="2"/>
+      <c r="AB20" s="47">
+        <f t="shared" si="11"/>
         <v>0.146036842105263</v>
       </c>
-      <c r="AC20" s="36">
-        <f t="shared" si="8"/>
+      <c r="AC20" s="38">
+        <f t="shared" si="17"/>
         <v>-0.0725</v>
       </c>
-      <c r="AD20" s="36">
-        <f t="shared" si="9"/>
+      <c r="AD20" s="38">
+        <f t="shared" si="18"/>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="43">
-        <f t="shared" si="10"/>
+      <c r="AE20" s="46">
+        <f t="shared" si="19"/>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="43">
-        <f t="shared" si="11"/>
+      <c r="AF20" s="46">
+        <f t="shared" si="20"/>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="43">
-        <f t="shared" si="12"/>
+      <c r="AG20" s="57">
+        <f t="shared" si="21"/>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="43">
+      <c r="AH20" s="57">
+        <f t="shared" si="22"/>
+        <v>0.67405</v>
+      </c>
+      <c r="AI20" s="57">
+        <f t="shared" si="23"/>
+        <v>0.79005</v>
+      </c>
+      <c r="AJ20" s="58">
         <f t="shared" si="13"/>
-        <v>0.67405</v>
-      </c>
-      <c r="AI20" s="43">
-        <f t="shared" si="14"/>
-        <v>0.79005</v>
-      </c>
-      <c r="AJ20" s="54">
-        <f t="shared" si="4"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="44">
+      <c r="AK20" s="47">
         <v>1.3196</v>
       </c>
-      <c r="AL20" s="44">
+      <c r="AL20" s="47">
         <v>0.8147</v>
       </c>
-      <c r="AM20" s="44">
+      <c r="AM20" s="47">
         <v>0.5566</v>
       </c>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="79">
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="81">
         <v>8</v>
       </c>
-      <c r="AT20" s="79">
+      <c r="AT20" s="81">
         <v>8</v>
       </c>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18">
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19">
         <v>60</v>
       </c>
-      <c r="BC20" s="85" t="s">
+      <c r="BC20" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="BD20" s="85" t="s">
+      <c r="BD20" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18">
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19">
         <v>9.62</v>
       </c>
-      <c r="BJ20" s="95">
-        <f t="shared" si="7"/>
+      <c r="BJ20" s="97">
+        <f t="shared" si="16"/>
         <v>1.2025</v>
       </c>
-      <c r="BK20" s="102" t="s">
+      <c r="BK20" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="BL20" s="98">
+      <c r="BL20" s="100">
         <v>44608</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:64">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="36">
+      <c r="D21" s="21"/>
+      <c r="E21" s="38">
         <v>0.3207</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="21">
         <v>0.585</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="38">
         <v>0.0742</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="38">
         <v>0.0717</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="38">
         <v>0.1941</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="38">
         <v>0.3455</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="38">
         <v>0.2853</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="38">
         <v>0.2853</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="38">
         <v>0.1566</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="38">
         <v>0.1897</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="38">
         <v>-0.0897</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="38">
         <v>-0.1581</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="38">
         <v>-0.1517</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="38">
         <v>-0.0882</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="38">
         <v>-0.559</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="38">
         <v>-0.1974</v>
       </c>
-      <c r="U21" s="36">
+      <c r="U21" s="38">
         <v>0.0085</v>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="38">
         <v>0.0706</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="38">
         <v>1.5611</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="38">
         <v>0.704</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="38">
         <v>0.3564</v>
       </c>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="43">
-        <f>(N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/12</f>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="46">
+        <f t="shared" si="7"/>
         <v>0.137183333333333</v>
       </c>
-      <c r="AB21" s="44">
-        <f>(G21+H21+I21+J21+K21+L21+M21+N21+O21+P21+Q21+R21+S21+T21+U21+V21+W21+X21+Y21)/19</f>
+      <c r="AB21" s="47">
+        <f t="shared" si="11"/>
         <v>0.160994736842105</v>
       </c>
-      <c r="AC21" s="36">
-        <f>(R21+S21)/2</f>
+      <c r="AC21" s="38">
+        <f t="shared" si="17"/>
         <v>-0.3236</v>
       </c>
-      <c r="AD21" s="36">
-        <f>(S21+T21)/2</f>
+      <c r="AD21" s="38">
+        <f t="shared" si="18"/>
         <v>-0.3782</v>
       </c>
-      <c r="AE21" s="43">
-        <f>(T21+U21)/2</f>
+      <c r="AE21" s="46">
+        <f t="shared" si="19"/>
         <v>-0.09445</v>
       </c>
-      <c r="AF21" s="43">
-        <f>(U21+V21)/2</f>
+      <c r="AF21" s="46">
+        <f t="shared" si="20"/>
         <v>0.03955</v>
       </c>
-      <c r="AG21" s="43">
-        <f>(V21+W21)/2</f>
+      <c r="AG21" s="46">
+        <f t="shared" si="21"/>
         <v>0.81585</v>
       </c>
-      <c r="AH21" s="43">
-        <f>(W21+X21)/2</f>
+      <c r="AH21" s="46">
+        <f t="shared" si="22"/>
         <v>1.13255</v>
       </c>
-      <c r="AI21" s="36">
-        <f>(X21+Y21)/2</f>
+      <c r="AI21" s="38">
+        <f t="shared" si="23"/>
         <v>0.5302</v>
       </c>
-      <c r="AJ21" s="54">
-        <f>STDEV(G21:Y21)</f>
+      <c r="AJ21" s="58">
+        <f t="shared" si="13"/>
         <v>0.433239412223881</v>
       </c>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
-      <c r="BK21" s="20"/>
-      <c r="BL21" s="66"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="68"/>
     </row>
     <row r="22" ht="18" spans="1:64">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="36">
+      <c r="D22" s="21"/>
+      <c r="E22" s="38">
         <v>0.9142</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="41">
         <v>0.8</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="38">
         <v>-0.4892</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="38">
         <v>-0.625</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="38">
         <v>-0.4963</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="38">
         <v>-0.3889</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="38">
         <v>0.0648</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="38">
         <v>1.37</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="38">
         <v>1.0951</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="38">
         <v>6.7273</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="38">
         <v>3.7619</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="38">
         <v>5.4698</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="38">
         <v>6.3341</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="38">
         <v>0</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="38">
         <v>-0.1111</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T22" s="38">
         <v>0.0028</v>
       </c>
-      <c r="U22" s="36">
+      <c r="U22" s="38">
         <v>0.0635</v>
       </c>
-      <c r="V22" s="36">
+      <c r="V22" s="38">
         <v>0.1176</v>
       </c>
-      <c r="W22" s="36">
+      <c r="W22" s="38">
         <v>0.4375</v>
       </c>
-      <c r="X22" s="36">
+      <c r="X22" s="38">
         <v>0.1166</v>
       </c>
-      <c r="Y22" s="36">
+      <c r="Y22" s="38">
         <v>0.194</v>
       </c>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="49">
-        <f>(N22+O22+P22+Q22+R22+S22+T22+U22+V22+W22+X22+Y22)/12</f>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="52">
+        <f t="shared" si="7"/>
         <v>1.92616666666667</v>
       </c>
-      <c r="AB22" s="50">
-        <f>(G22+H22+I22+J22+K22+L22+M22+N22+O22+P22+Q22+R22+S22+T22+U22+V22+W22+X22+Y22)/19</f>
+      <c r="AB22" s="53">
+        <f t="shared" si="11"/>
         <v>1.24444736842105</v>
       </c>
-      <c r="AC22" s="36">
-        <f>(R22+S22)/2</f>
+      <c r="AC22" s="38">
+        <f t="shared" si="17"/>
         <v>-0.05555</v>
       </c>
-      <c r="AD22" s="43">
-        <f>(S22+T22)/2</f>
+      <c r="AD22" s="46">
+        <f t="shared" si="18"/>
         <v>-0.05415</v>
       </c>
-      <c r="AE22" s="43">
-        <f>(T22+U22)/2</f>
+      <c r="AE22" s="46">
+        <f t="shared" si="19"/>
         <v>0.03315</v>
       </c>
-      <c r="AF22" s="43">
-        <f>(U22+V22)/2</f>
+      <c r="AF22" s="46">
+        <f t="shared" si="20"/>
         <v>0.09055</v>
       </c>
-      <c r="AG22" s="43">
-        <f>(V22+W22)/2</f>
+      <c r="AG22" s="46">
+        <f t="shared" si="21"/>
         <v>0.27755</v>
       </c>
-      <c r="AH22" s="36">
-        <f>(W22+X22)/2</f>
+      <c r="AH22" s="38">
+        <f t="shared" si="22"/>
         <v>0.27705</v>
       </c>
-      <c r="AI22" s="36">
-        <f>(X22+Y22)/2</f>
+      <c r="AI22" s="38">
+        <f t="shared" si="23"/>
         <v>0.1553</v>
       </c>
-      <c r="AJ22" s="54">
-        <f>STDEV(G22:Y22)</f>
+      <c r="AJ22" s="58">
+        <f t="shared" si="13"/>
         <v>2.4083690701774</v>
       </c>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="20"/>
-      <c r="BL22" s="66"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
+      <c r="AW22" s="21"/>
+      <c r="AX22" s="21"/>
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="21"/>
+      <c r="BA22" s="21"/>
+      <c r="BB22" s="21"/>
+      <c r="BC22" s="21"/>
+      <c r="BD22" s="21"/>
+      <c r="BE22" s="21"/>
+      <c r="BF22" s="21"/>
+      <c r="BG22" s="21"/>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
+      <c r="BL22" s="68"/>
     </row>
     <row r="23" ht="18" spans="1:64">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
-      <c r="BA23" s="20"/>
-      <c r="BB23" s="20"/>
-      <c r="BC23" s="20"/>
-      <c r="BD23" s="20"/>
-      <c r="BE23" s="20"/>
-      <c r="BF23" s="20"/>
-      <c r="BG23" s="20"/>
-      <c r="BH23" s="20"/>
-      <c r="BI23" s="20"/>
-      <c r="BJ23" s="20"/>
-      <c r="BK23" s="20"/>
-      <c r="BL23" s="66"/>
+      <c r="B23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="38">
+        <v>0.5204</v>
+      </c>
+      <c r="F23" s="42">
+        <v>1.87</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38">
+        <v>0.0625</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>0.0534</v>
+      </c>
+      <c r="R23" s="38">
+        <v>0.0052</v>
+      </c>
+      <c r="S23" s="38">
+        <v>-0.2069</v>
+      </c>
+      <c r="T23" s="38">
+        <v>-0.2</v>
+      </c>
+      <c r="U23" s="38">
+        <v>-0.1884</v>
+      </c>
+      <c r="V23" s="38">
+        <v>-0.0625</v>
+      </c>
+      <c r="W23" s="46">
+        <v>1.087</v>
+      </c>
+      <c r="X23" s="46">
+        <v>0.7941</v>
+      </c>
+      <c r="Y23" s="46">
+        <v>0.6696</v>
+      </c>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="46">
+        <f>(P23+Q23+R23+S23+T23+U23+V23+W23+X23+Y23)/10</f>
+        <v>0.2014</v>
+      </c>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="38">
+        <f>(R23+S23)/2</f>
+        <v>-0.10085</v>
+      </c>
+      <c r="AD23" s="38">
+        <f>(S23+T23)/2</f>
+        <v>-0.20345</v>
+      </c>
+      <c r="AE23" s="46">
+        <f>(T23+U23)/2</f>
+        <v>-0.1942</v>
+      </c>
+      <c r="AF23" s="46">
+        <f>(U23+V23)/2</f>
+        <v>-0.12545</v>
+      </c>
+      <c r="AG23" s="46">
+        <f>(V23+W23)/2</f>
+        <v>0.51225</v>
+      </c>
+      <c r="AH23" s="46">
+        <f>(W23+X23)/2</f>
+        <v>0.94055</v>
+      </c>
+      <c r="AI23" s="38">
+        <f>(X23+Y23)/2</f>
+        <v>0.73185</v>
+      </c>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="46">
+        <v>1.0194</v>
+      </c>
+      <c r="AL23" s="46">
+        <v>0.7661</v>
+      </c>
+      <c r="AM23" s="46">
+        <v>0.6219</v>
+      </c>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="68"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="68"/>
     </row>
     <row r="24" ht="18" spans="1:64">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="66"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="68"/>
     </row>
     <row r="25" ht="18" spans="1:64">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="20"/>
-      <c r="BC25" s="20"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="20"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="66"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -1545,6 +1545,12 @@
       </rPr>
       <t>M_000021</t>
     </r>
+  </si>
+  <si>
+    <t>002142.SZ</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
   </si>
   <si>
     <r>
@@ -1570,21 +1576,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="182" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1632,6 +1638,12 @@
       <sz val="9"/>
       <color rgb="FF152122"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF152122"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1689,24 +1701,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1718,11 +1730,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1743,34 +1754,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1783,21 +1770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,8 +1784,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1825,8 +1829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,67 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,7 +1919,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,19 +1985,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,55 +2063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,17 +2098,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,39 +2127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2178,8 +2160,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2188,152 +2200,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2346,7 +2358,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2373,277 +2385,286 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2652,10 +2673,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2983,11 +3004,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3038,78 +3059,78 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="59" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="69" t="s">
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="49" t="s">
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="94"/>
-      <c r="BL1" s="95" t="s">
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="97"/>
+      <c r="BL1" s="98" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3118,75 +3139,75 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="54" t="s">
+      <c r="AC2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AK2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="71" t="s">
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="71" t="s">
+      <c r="AT2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="72" t="s">
+      <c r="AU2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="73" t="s">
+      <c r="AV2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
       <c r="BB2" s="5" t="s">
         <v>21</v>
       </c>
@@ -3196,159 +3217,159 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
       <c r="BH2" s="5"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="96" t="s">
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="95"/>
+      <c r="BL2" s="98"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:64">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="55" t="s">
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="55" t="s">
+      <c r="AE3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="55" t="s">
+      <c r="AF3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="55" t="s">
+      <c r="AG3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="55" t="s">
+      <c r="AH3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="55" t="s">
+      <c r="AI3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="27" t="s">
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="27" t="s">
+      <c r="AL3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="27" t="s">
+      <c r="AM3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="27" t="s">
+      <c r="AN3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="59" t="s">
+      <c r="AO3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="26" t="s">
+      <c r="AP3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="60" t="s">
+      <c r="AR3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="74" t="s">
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="74" t="s">
+      <c r="AW3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="49" t="s">
+      <c r="AX3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="82" t="s">
+      <c r="AY3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="82" t="s">
+      <c r="AZ3" s="85" t="s">
         <v>42</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="83" t="s">
+      <c r="BB3" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="83" t="s">
+      <c r="BC3" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="BD3" s="84" t="s">
+      <c r="BD3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="BE3" s="83" t="s">
+      <c r="BE3" s="86" t="s">
         <v>47</v>
       </c>
       <c r="BF3" s="5" t="s">
@@ -3360,14 +3381,14 @@
       <c r="BH3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="24" t="s">
+      <c r="BI3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="74" t="s">
+      <c r="BJ3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="95"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="98"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:64">
       <c r="A4" s="6" t="s">
@@ -3380,120 +3401,120 @@
         <v>54</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32">
         <v>0.16</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="31">
         <v>-0.2369</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="31">
         <v>0.1985</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="31">
         <v>0.1552</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="31">
         <v>0.0621</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="31">
         <v>0.8816</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="31">
         <v>0.3131</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="31">
         <v>0.3269</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="31">
         <v>0.3212</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="31">
         <v>0.1608</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="31">
         <v>0.0429</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="31">
         <v>-2.2731</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="31">
         <v>-2.7544</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="31">
         <v>-0.2012</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="31">
         <v>-0.1932</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="31">
         <v>1.4776</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="31">
         <v>1.2819</v>
       </c>
-      <c r="W4" s="43">
+      <c r="W4" s="46">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="46">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="46">
         <v>0.2626</v>
       </c>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="46">
+      <c r="AA4" s="49">
         <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
         <v>-0.150458333333333</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="49">
         <f t="shared" ref="AB4:AB10" si="0">(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
         <v>-0.00552631578947369</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="41">
         <f t="shared" ref="AC4:AI4" si="1">(R4+S4)/2</f>
         <v>-1.4778</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="49">
         <f t="shared" si="1"/>
         <v>-0.1972</v>
       </c>
-      <c r="AE4" s="46">
+      <c r="AE4" s="49">
         <f t="shared" si="1"/>
         <v>0.6422</v>
       </c>
-      <c r="AF4" s="46">
+      <c r="AF4" s="49">
         <f t="shared" si="1"/>
         <v>1.37975</v>
       </c>
-      <c r="AG4" s="38">
+      <c r="AG4" s="41">
         <f t="shared" si="1"/>
         <v>0.66585</v>
       </c>
-      <c r="AH4" s="38">
+      <c r="AH4" s="41">
         <f t="shared" si="1"/>
         <v>0.0347</v>
       </c>
-      <c r="AI4" s="38">
+      <c r="AI4" s="41">
         <f t="shared" si="1"/>
         <v>0.1411</v>
       </c>
-      <c r="AJ4" s="56">
+      <c r="AJ4" s="59">
         <f t="shared" ref="AJ4:AJ10" si="2">STDEV(G4:Y4)</f>
         <v>0.99904872244779</v>
       </c>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="61"/>
+      <c r="AO4" s="64"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
-      <c r="AS4" s="75">
+      <c r="AS4" s="78">
         <v>8.357</v>
       </c>
-      <c r="AT4" s="75">
+      <c r="AT4" s="78">
         <v>8.32</v>
       </c>
       <c r="AU4" s="8"/>
@@ -3503,28 +3524,28 @@
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
-      <c r="BB4" s="85">
+      <c r="BB4" s="88">
         <v>3</v>
       </c>
-      <c r="BC4" s="86" t="s">
+      <c r="BC4" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" s="86" t="s">
+      <c r="BD4" s="89" t="s">
         <v>56</v>
       </c>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="85">
+      <c r="BI4" s="88">
         <v>1.28</v>
       </c>
-      <c r="BJ4" s="97">
+      <c r="BJ4" s="100">
         <f t="shared" ref="BJ4:BJ12" si="3">BI4/AS4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="BK4" s="8"/>
-      <c r="BL4" s="98">
+      <c r="BL4" s="101">
         <v>44579</v>
       </c>
     </row>
@@ -3539,108 +3560,108 @@
         <v>59</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>1.97</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33">
         <v>0.1473</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="33">
         <v>-0.2308</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="33">
         <v>-0.3684</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="33">
         <v>-0.358</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="33">
         <v>-0.3784</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="33">
         <v>-0.0231</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="33">
         <v>0.1667</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="33">
         <v>0.1154</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="33">
         <v>-0.0761</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="33">
         <v>0.1654</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="47">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="44">
+      <c r="X5" s="47">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="Y5" s="47">
         <v>1.3176</v>
       </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="46">
+      <c r="AA5" s="49">
         <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
         <v>0.400883333333333</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="49">
         <f t="shared" si="0"/>
         <v>0.260942105263158</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="41">
         <f t="shared" ref="AC5:AI5" si="4">(R5+S5)/2</f>
         <v>0.0718</v>
       </c>
-      <c r="AD5" s="38">
+      <c r="AD5" s="41">
         <f t="shared" si="4"/>
         <v>0.14105</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="41">
         <f t="shared" si="4"/>
         <v>0.01965</v>
       </c>
-      <c r="AF5" s="46">
+      <c r="AF5" s="49">
         <f t="shared" si="4"/>
         <v>0.04465</v>
       </c>
-      <c r="AG5" s="46">
+      <c r="AG5" s="49">
         <f t="shared" si="4"/>
         <v>1.547</v>
       </c>
-      <c r="AH5" s="46">
+      <c r="AH5" s="49">
         <f t="shared" si="4"/>
         <v>2.24015</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AI5" s="41">
         <f t="shared" si="4"/>
         <v>1.43465</v>
       </c>
-      <c r="AJ5" s="56">
+      <c r="AJ5" s="59">
         <f t="shared" si="2"/>
         <v>0.974103649647413</v>
       </c>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="62"/>
+      <c r="AO5" s="65"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
-      <c r="AS5" s="76">
+      <c r="AS5" s="79">
         <v>1.105</v>
       </c>
-      <c r="AT5" s="76">
+      <c r="AT5" s="79">
         <v>1.096</v>
       </c>
       <c r="AU5" s="9"/>
@@ -3650,30 +3671,30 @@
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
-      <c r="BB5" s="31">
+      <c r="BB5" s="34">
         <v>10</v>
       </c>
-      <c r="BC5" s="87" t="s">
+      <c r="BC5" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" s="88" t="s">
+      <c r="BD5" s="91" t="s">
         <v>61</v>
       </c>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9"/>
-      <c r="BI5" s="31">
+      <c r="BI5" s="34">
         <v>2.18</v>
       </c>
-      <c r="BJ5" s="99">
+      <c r="BJ5" s="102">
         <f t="shared" si="3"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="BK5" s="88" t="s">
+      <c r="BK5" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" s="100">
+      <c r="BL5" s="103">
         <v>44579</v>
       </c>
     </row>
@@ -3688,120 +3709,120 @@
         <v>65</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31">
+      <c r="E6" s="33"/>
+      <c r="F6" s="34">
         <v>0.672</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="35">
         <v>-0.1686</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="35">
         <v>-0.2915</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="35">
         <v>0.0513</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="33">
         <v>0.1561</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="33">
         <v>0.4225</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="33">
         <v>0.5635</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="33">
         <v>0.0724</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="33">
         <v>-0.025</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="33">
         <v>-0.1437</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="33">
         <v>0.3149</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="33">
         <v>0.2253</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="33">
         <v>0.1397</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="33">
         <v>-0.5888</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="33">
         <v>-0.3376</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="33">
         <v>-0.0115</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="33">
         <v>0.0822</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="47">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="44">
+      <c r="X6" s="47">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="47">
         <v>1.1052</v>
       </c>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="46">
+      <c r="AA6" s="49">
         <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
         <v>0.801675</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6" s="49">
         <f t="shared" si="0"/>
         <v>0.548726315789474</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="41">
         <f t="shared" ref="AC6:AI6" si="5">(R6+S6)/2</f>
         <v>-0.22455</v>
       </c>
-      <c r="AD6" s="38">
+      <c r="AD6" s="41">
         <f t="shared" si="5"/>
         <v>-0.4632</v>
       </c>
-      <c r="AE6" s="46">
+      <c r="AE6" s="49">
         <f t="shared" si="5"/>
         <v>-0.17455</v>
       </c>
-      <c r="AF6" s="46">
+      <c r="AF6" s="49">
         <f t="shared" si="5"/>
         <v>0.03535</v>
       </c>
-      <c r="AG6" s="46">
+      <c r="AG6" s="49">
         <f t="shared" si="5"/>
         <v>3.5088</v>
       </c>
-      <c r="AH6" s="46">
+      <c r="AH6" s="49">
         <f t="shared" si="5"/>
         <v>4.4297</v>
       </c>
-      <c r="AI6" s="38">
+      <c r="AI6" s="41">
         <f t="shared" si="5"/>
         <v>1.5146</v>
       </c>
-      <c r="AJ6" s="56">
+      <c r="AJ6" s="59">
         <f t="shared" si="2"/>
         <v>1.64320222460161</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="62"/>
+      <c r="AO6" s="65"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
-      <c r="AS6" s="76">
+      <c r="AS6" s="79">
         <v>5.824</v>
       </c>
-      <c r="AT6" s="76">
+      <c r="AT6" s="79">
         <v>4.581</v>
       </c>
       <c r="AU6" s="9"/>
@@ -3811,28 +3832,28 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
-      <c r="BB6" s="31">
+      <c r="BB6" s="34">
         <v>6</v>
       </c>
-      <c r="BC6" s="87" t="s">
+      <c r="BC6" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="86" t="s">
+      <c r="BD6" s="89" t="s">
         <v>67</v>
       </c>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
-      <c r="BI6" s="31">
+      <c r="BI6" s="34">
         <v>3.91</v>
       </c>
-      <c r="BJ6" s="97">
+      <c r="BJ6" s="100">
         <f t="shared" si="3"/>
         <v>0.67135989010989</v>
       </c>
       <c r="BK6" s="9"/>
-      <c r="BL6" s="100">
+      <c r="BL6" s="103">
         <v>44580</v>
       </c>
     </row>
@@ -3847,122 +3868,122 @@
         <v>70</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="33">
+      <c r="E7" s="36">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="37">
         <v>0.69</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="33">
         <v>-0.3529</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="33">
         <v>-0.3095</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="33">
         <v>-0.5424</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="33">
         <v>-0.3342</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="33">
         <v>-0.6364</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="33">
         <v>-0.6552</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="33">
         <v>-0.4815</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="33">
         <v>-0.7297</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="33">
         <v>-1.5</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="33">
         <v>-0.7</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="33">
         <v>-0.6429</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="33">
         <v>-0.4</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="33">
         <v>0.5</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="33">
         <v>0.6667</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="33">
         <v>2</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="33">
         <v>5.8333</v>
       </c>
-      <c r="W7" s="44">
+      <c r="W7" s="47">
         <v>21</v>
       </c>
-      <c r="X7" s="44">
+      <c r="X7" s="47">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="47">
         <v>3.6</v>
       </c>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="46">
+      <c r="AA7" s="49">
         <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
         <v>3.06895</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7" s="49">
         <f t="shared" si="0"/>
         <v>1.76396315789474</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="41">
         <f t="shared" ref="AC7:AI7" si="6">(R7+S7)/2</f>
         <v>0.05</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="AD7" s="41">
         <f t="shared" si="6"/>
         <v>0.58335</v>
       </c>
-      <c r="AE7" s="46">
+      <c r="AE7" s="49">
         <f t="shared" si="6"/>
         <v>1.33335</v>
       </c>
-      <c r="AF7" s="46">
+      <c r="AF7" s="49">
         <f t="shared" si="6"/>
         <v>3.91665</v>
       </c>
-      <c r="AG7" s="46">
+      <c r="AG7" s="49">
         <f t="shared" si="6"/>
         <v>13.41665</v>
       </c>
-      <c r="AH7" s="46">
+      <c r="AH7" s="49">
         <f t="shared" si="6"/>
         <v>14.1</v>
       </c>
-      <c r="AI7" s="38">
+      <c r="AI7" s="41">
         <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="56">
+      <c r="AJ7" s="59">
         <f t="shared" si="2"/>
         <v>5.22249544526268</v>
       </c>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
       <c r="AN7" s="9"/>
-      <c r="AO7" s="62"/>
+      <c r="AO7" s="65"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
-      <c r="AS7" s="76">
+      <c r="AS7" s="79">
         <v>1.847</v>
       </c>
-      <c r="AT7" s="76">
+      <c r="AT7" s="79">
         <v>1.137</v>
       </c>
       <c r="AU7" s="9"/>
@@ -3972,28 +3993,28 @@
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
-      <c r="BB7" s="31">
+      <c r="BB7" s="34">
         <v>4</v>
       </c>
-      <c r="BC7" s="87" t="s">
+      <c r="BC7" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="86" t="s">
+      <c r="BD7" s="89" t="s">
         <v>72</v>
       </c>
       <c r="BE7" s="9"/>
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9"/>
-      <c r="BI7" s="31">
+      <c r="BI7" s="34">
         <v>1.26</v>
       </c>
-      <c r="BJ7" s="97">
+      <c r="BJ7" s="100">
         <f t="shared" si="3"/>
         <v>0.682187330806714</v>
       </c>
       <c r="BK7" s="9"/>
-      <c r="BL7" s="100">
+      <c r="BL7" s="103">
         <v>44580</v>
       </c>
     </row>
@@ -4008,122 +4029,122 @@
         <v>75</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="35">
+      <c r="E8" s="38">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="34">
         <v>0.101</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="33">
         <v>0.9091</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="33">
         <v>-0.1724</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="33">
         <v>0.0417</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="33">
         <v>-0.3478</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="33">
         <v>-0.1905</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="33">
         <v>0.125</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="33">
         <v>-0.26</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="33">
         <v>0.2444</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="33">
         <v>0.0588</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="33">
         <v>0.037</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="33">
         <v>-0.4324</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="33">
         <v>-0.4464</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="33">
         <v>-0.4444</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="33">
         <v>0</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="33">
         <v>0</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="33">
         <v>0</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="38">
         <v>1.3</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="38">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="38">
         <v>-0.4762</v>
       </c>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="52">
+      <c r="AA8" s="55">
         <f t="shared" ref="AA8:AA22" si="7">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
         <v>0.00756666666666668</v>
       </c>
-      <c r="AB8" s="52">
+      <c r="AB8" s="55">
         <f t="shared" si="0"/>
         <v>0.0103105263157895</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="41">
         <f t="shared" ref="AC8:AI8" si="8">(R8+S8)/2</f>
         <v>-0.4454</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="41">
         <f t="shared" si="8"/>
         <v>-0.2222</v>
       </c>
-      <c r="AE8" s="46">
+      <c r="AE8" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="46">
+      <c r="AF8" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="49">
         <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
-      <c r="AH8" s="46">
+      <c r="AH8" s="49">
         <f t="shared" si="8"/>
         <v>0.775</v>
       </c>
-      <c r="AI8" s="38">
+      <c r="AI8" s="41">
         <f t="shared" si="8"/>
         <v>-0.1131</v>
       </c>
-      <c r="AJ8" s="56">
+      <c r="AJ8" s="59">
         <f t="shared" si="2"/>
         <v>0.454846862990095</v>
       </c>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="62"/>
+      <c r="AO8" s="65"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
-      <c r="AS8" s="76">
+      <c r="AS8" s="79">
         <v>4.562</v>
       </c>
-      <c r="AT8" s="76">
+      <c r="AT8" s="79">
         <v>4.48</v>
       </c>
       <c r="AU8" s="9"/>
@@ -4133,28 +4154,28 @@
       <c r="AY8" s="9"/>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="9"/>
-      <c r="BB8" s="31">
+      <c r="BB8" s="34">
         <v>9</v>
       </c>
-      <c r="BC8" s="87" t="s">
+      <c r="BC8" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="BD8" s="86" t="s">
+      <c r="BD8" s="89" t="s">
         <v>77</v>
       </c>
       <c r="BE8" s="9"/>
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9"/>
-      <c r="BI8" s="31">
+      <c r="BI8" s="34">
         <v>0.462891</v>
       </c>
-      <c r="BJ8" s="97">
+      <c r="BJ8" s="100">
         <f t="shared" si="3"/>
         <v>0.10146668128014</v>
       </c>
       <c r="BK8" s="9"/>
-      <c r="BL8" s="100">
+      <c r="BL8" s="103">
         <v>44580</v>
       </c>
     </row>
@@ -4165,126 +4186,126 @@
       <c r="B9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="35">
+      <c r="E9" s="38">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="34">
         <v>0.549</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="33">
         <v>1.2703</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="33">
         <v>0.7241</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="33">
         <v>0.681</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="33">
         <v>0.2231</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="33">
         <v>3.7</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="33">
         <v>1.29</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="33">
         <v>0.8718</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="33">
         <v>0.6824</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="33">
         <v>0.766</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="33">
         <v>0.3537</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="33">
         <v>0.2986</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="33">
         <v>0.241</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="33">
         <v>0.2771</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="33">
         <v>-0.0742</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="33">
         <v>-0.1055</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="33">
         <v>0.2136</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="46">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="46">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="46">
         <v>0.3019</v>
       </c>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="46">
+      <c r="AA9" s="49">
         <f t="shared" si="7"/>
         <v>0.301766666666667</v>
       </c>
-      <c r="AB9" s="52">
+      <c r="AB9" s="55">
         <f t="shared" si="0"/>
         <v>0.651657894736842</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AC9" s="41">
         <f t="shared" ref="AC9:AI9" si="9">(R9+S9)/2</f>
         <v>0.25905</v>
       </c>
-      <c r="AD9" s="38">
+      <c r="AD9" s="41">
         <f t="shared" si="9"/>
         <v>0.10145</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AE9" s="41">
         <f t="shared" si="9"/>
         <v>-0.08985</v>
       </c>
-      <c r="AF9" s="46">
+      <c r="AF9" s="49">
         <f t="shared" si="9"/>
         <v>0.05405</v>
       </c>
-      <c r="AG9" s="46">
+      <c r="AG9" s="49">
         <f t="shared" si="9"/>
         <v>0.2955</v>
       </c>
-      <c r="AH9" s="46">
+      <c r="AH9" s="49">
         <f t="shared" si="9"/>
         <v>0.3333</v>
       </c>
-      <c r="AI9" s="38">
+      <c r="AI9" s="41">
         <f t="shared" si="9"/>
         <v>0.29555</v>
       </c>
-      <c r="AJ9" s="56">
+      <c r="AJ9" s="59">
         <f t="shared" si="2"/>
         <v>0.832605655835135</v>
       </c>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
       <c r="AN9" s="9"/>
-      <c r="AO9" s="62"/>
+      <c r="AO9" s="65"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
-      <c r="AS9" s="76">
+      <c r="AS9" s="79">
         <v>10.64</v>
       </c>
-      <c r="AT9" s="76">
+      <c r="AT9" s="79">
         <v>10.22</v>
       </c>
       <c r="AU9" s="9"/>
@@ -4294,28 +4315,28 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
-      <c r="BB9" s="31">
+      <c r="BB9" s="34">
         <v>37</v>
       </c>
-      <c r="BC9" s="88" t="s">
+      <c r="BC9" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="86" t="s">
+      <c r="BD9" s="89" t="s">
         <v>82</v>
       </c>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9"/>
-      <c r="BI9" s="31">
+      <c r="BI9" s="34">
         <v>5.84</v>
       </c>
-      <c r="BJ9" s="97">
+      <c r="BJ9" s="100">
         <f t="shared" si="3"/>
         <v>0.548872180451128</v>
       </c>
       <c r="BK9" s="9"/>
-      <c r="BL9" s="100">
+      <c r="BL9" s="103">
         <v>44585</v>
       </c>
     </row>
@@ -4323,129 +4344,129 @@
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="35">
+      <c r="E10" s="38">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="34">
         <v>0.407</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="33">
         <v>0.0544</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="33">
         <v>0.0366</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="33">
         <v>0.009</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="33">
         <v>0.0227</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="33">
         <v>0.0113</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="33">
         <v>0.018</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="33">
         <v>0.0132</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="33">
         <v>0.0044</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="33">
         <v>0.0199</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="33">
         <v>-0.0241</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="33">
         <v>-0.0372</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="33">
         <v>-0.0568</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="33">
         <v>-0.1353</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="33">
         <v>-0.01</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="33">
         <v>0.0149</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="33">
         <v>0.0142</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="38">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="38">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="38">
         <v>0.1046</v>
       </c>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="46">
+      <c r="AA10" s="49">
         <f t="shared" si="7"/>
         <v>0.0377083333333333</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10" s="49">
         <f t="shared" si="0"/>
         <v>0.0325105263157895</v>
       </c>
-      <c r="AC10" s="38">
+      <c r="AC10" s="41">
         <f t="shared" ref="AC10:AI10" si="10">(R10+S10)/2</f>
         <v>-0.09605</v>
       </c>
-      <c r="AD10" s="46">
+      <c r="AD10" s="49">
         <f t="shared" si="10"/>
         <v>-0.07265</v>
       </c>
-      <c r="AE10" s="46">
+      <c r="AE10" s="49">
         <f t="shared" si="10"/>
         <v>0.00245</v>
       </c>
-      <c r="AF10" s="46">
+      <c r="AF10" s="49">
         <f t="shared" si="10"/>
         <v>0.01455</v>
       </c>
-      <c r="AG10" s="46">
+      <c r="AG10" s="49">
         <f t="shared" si="10"/>
         <v>0.21325</v>
       </c>
-      <c r="AH10" s="46">
+      <c r="AH10" s="49">
         <f t="shared" si="10"/>
         <v>0.27895</v>
       </c>
-      <c r="AI10" s="38">
+      <c r="AI10" s="41">
         <f t="shared" si="10"/>
         <v>0.1251</v>
       </c>
-      <c r="AJ10" s="56">
+      <c r="AJ10" s="59">
         <f t="shared" si="2"/>
         <v>0.108527312971522</v>
       </c>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
       <c r="AN10" s="9"/>
-      <c r="AO10" s="62"/>
+      <c r="AO10" s="65"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="76">
+      <c r="AS10" s="79">
         <v>153</v>
       </c>
-      <c r="AT10" s="76">
+      <c r="AT10" s="79">
         <v>111.4</v>
       </c>
       <c r="AU10" s="9"/>
@@ -4455,28 +4476,28 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="31">
+      <c r="BB10" s="34">
         <v>87</v>
       </c>
-      <c r="BC10" s="86" t="s">
+      <c r="BC10" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="BD10" s="86" t="s">
+      <c r="BD10" s="89" t="s">
         <v>87</v>
       </c>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9"/>
-      <c r="BI10" s="31">
+      <c r="BI10" s="34">
         <v>64.56</v>
       </c>
-      <c r="BJ10" s="97">
+      <c r="BJ10" s="100">
         <f t="shared" si="3"/>
         <v>0.421960784313726</v>
       </c>
       <c r="BK10" s="9"/>
-      <c r="BL10" s="100">
+      <c r="BL10" s="103">
         <v>44585</v>
       </c>
     </row>
@@ -4484,137 +4505,137 @@
       <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="35">
+      <c r="E11" s="38">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="34">
         <v>0.11</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="33">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="33">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="33">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="33">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="33">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="33">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="33">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="33">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="33">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="33">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="33">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="33">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="33">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T11" s="33">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="33">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="33">
         <v>-4</v>
       </c>
-      <c r="W11" s="45">
+      <c r="W11" s="48">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="45">
+      <c r="X11" s="48">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="48">
         <v>3.568</v>
       </c>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="46">
+      <c r="AA11" s="49">
         <f t="shared" si="7"/>
         <v>-0.585816666666667</v>
       </c>
-      <c r="AB11" s="46">
+      <c r="AB11" s="49">
         <f t="shared" ref="AB11:AB22" si="11">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AC11" s="41">
         <f t="shared" ref="AC11:AI11" si="12">(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
-      <c r="AD11" s="38">
+      <c r="AD11" s="41">
         <f t="shared" si="12"/>
         <v>-3.28665</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AE11" s="41">
         <f t="shared" si="12"/>
         <v>-1.65565</v>
       </c>
-      <c r="AF11" s="38">
+      <c r="AF11" s="41">
         <f t="shared" si="12"/>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="57">
+      <c r="AG11" s="60">
         <f t="shared" si="12"/>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="57">
+      <c r="AH11" s="60">
         <f t="shared" si="12"/>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="57">
+      <c r="AI11" s="60">
         <f t="shared" si="12"/>
         <v>2.584</v>
       </c>
-      <c r="AJ11" s="56">
+      <c r="AJ11" s="59">
         <f t="shared" ref="AJ11:AJ22" si="13">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="44">
+      <c r="AK11" s="47">
         <v>0.2014</v>
       </c>
-      <c r="AL11" s="44">
+      <c r="AL11" s="47">
         <v>0.0771</v>
       </c>
-      <c r="AM11" s="44">
+      <c r="AM11" s="47">
         <v>0.26</v>
       </c>
       <c r="AN11" s="9"/>
-      <c r="AO11" s="62">
+      <c r="AO11" s="65">
         <v>42347</v>
       </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
-      <c r="AS11" s="76">
+      <c r="AS11" s="79">
         <v>1.32</v>
       </c>
-      <c r="AT11" s="76">
+      <c r="AT11" s="79">
         <v>1.184</v>
       </c>
       <c r="AU11" s="9"/>
@@ -4624,30 +4645,30 @@
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
-      <c r="BB11" s="31">
+      <c r="BB11" s="34">
         <v>2</v>
       </c>
-      <c r="BC11" s="87" t="s">
+      <c r="BC11" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="BD11" s="88" t="s">
+      <c r="BD11" s="91" t="s">
         <v>92</v>
       </c>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9"/>
-      <c r="BI11" s="31">
+      <c r="BI11" s="34">
         <v>0.139699</v>
       </c>
-      <c r="BJ11" s="97">
+      <c r="BJ11" s="100">
         <f t="shared" si="3"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="BK11" s="101" t="s">
+      <c r="BK11" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="BL11" s="100">
+      <c r="BL11" s="103">
         <v>44586</v>
       </c>
     </row>
@@ -4655,170 +4676,170 @@
       <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="36">
+      <c r="D12" s="14"/>
+      <c r="E12" s="39">
         <v>0.3655</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="14">
         <v>0.17</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="39">
         <v>0</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="39">
         <v>-0.0338</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="39">
         <v>-0.125</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="39">
         <v>-0.1333</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="39">
         <v>0</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="39">
         <v>-0.125</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="39">
         <v>-0.1429</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="39">
         <v>-0.2692</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="39">
         <v>0.2</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="39">
         <v>-0.0714</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="39">
         <v>-0.0556</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="39">
         <v>0</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="39">
         <v>-0.6667</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="39">
         <v>-0.3077</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="39">
         <v>-0.1176</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="39">
         <v>-0.1053</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="39">
         <v>1.5</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="39">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="Y12" s="39">
         <v>0.1333</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="46">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="49">
         <f t="shared" si="7"/>
         <v>0.0385</v>
       </c>
-      <c r="AB12" s="46">
+      <c r="AB12" s="49">
         <f t="shared" si="11"/>
         <v>-0.00515789473684209</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="41">
         <f t="shared" ref="AC12:AI12" si="14">(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="41">
         <f t="shared" si="14"/>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="46">
+      <c r="AE12" s="49">
         <f t="shared" si="14"/>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="46">
+      <c r="AF12" s="49">
         <f t="shared" si="14"/>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="46">
+      <c r="AG12" s="49">
         <f t="shared" si="14"/>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="46">
+      <c r="AH12" s="49">
         <f t="shared" si="14"/>
         <v>0.8611</v>
       </c>
-      <c r="AI12" s="38">
+      <c r="AI12" s="41">
         <f t="shared" si="14"/>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="56">
+      <c r="AJ12" s="59">
         <f t="shared" si="13"/>
         <v>0.413115667574254</v>
       </c>
-      <c r="AK12" s="36">
+      <c r="AK12" s="39">
         <v>-0.4742</v>
       </c>
-      <c r="AL12" s="36">
+      <c r="AL12" s="39">
         <v>-0.4142</v>
       </c>
-      <c r="AM12" s="36">
+      <c r="AM12" s="39">
         <v>-0.3214</v>
       </c>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="63">
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="66">
         <v>35599</v>
       </c>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="77">
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="80">
         <v>13.29</v>
       </c>
-      <c r="AT12" s="77">
+      <c r="AT12" s="80">
         <v>13.29</v>
       </c>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="13">
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14">
         <v>4</v>
       </c>
-      <c r="BC12" s="89" t="s">
+      <c r="BC12" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="90" t="s">
+      <c r="BD12" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13">
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14">
         <v>2.29</v>
       </c>
-      <c r="BJ12" s="102">
+      <c r="BJ12" s="105">
         <f t="shared" si="3"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="BK12" s="87" t="s">
+      <c r="BK12" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="BL12" s="63">
+      <c r="BL12" s="66">
         <v>44605</v>
       </c>
     </row>
@@ -4829,134 +4850,134 @@
       <c r="B13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="35">
+      <c r="E13" s="38">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="40">
         <v>0.69</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="41">
         <v>1.7</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="41">
         <v>-0.0417</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="41">
         <v>-0.3099</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="41">
         <v>0.3223</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="41">
         <v>1.7037</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="41">
         <v>0.913</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="41">
         <v>1.0816</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="41">
         <v>0.1812</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="41">
         <v>-0.5616</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="41">
         <v>-0.3182</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="41">
         <v>-0.4118</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="41">
         <v>0.0529</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="41">
         <v>-0.9063</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="41">
         <v>-0.9167</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="41">
         <v>-0.6833</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13" s="41">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="44">
+      <c r="W13" s="47">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="44">
+      <c r="X13" s="47">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="44">
+      <c r="Y13" s="47">
         <v>2.6316</v>
       </c>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="46">
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="49">
         <f t="shared" si="7"/>
         <v>0.655683333333334</v>
       </c>
-      <c r="AB13" s="46">
+      <c r="AB13" s="49">
         <f t="shared" si="11"/>
         <v>0.696694736842105</v>
       </c>
-      <c r="AC13" s="38">
+      <c r="AC13" s="41">
         <f t="shared" ref="AC13:AI13" si="15">(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
-      <c r="AD13" s="38">
+      <c r="AD13" s="41">
         <f t="shared" si="15"/>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="46">
+      <c r="AE13" s="49">
         <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="46">
+      <c r="AF13" s="49">
         <f t="shared" si="15"/>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="57">
+      <c r="AG13" s="60">
         <f t="shared" si="15"/>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="57">
+      <c r="AH13" s="60">
         <f t="shared" si="15"/>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="57">
+      <c r="AI13" s="60">
         <f t="shared" si="15"/>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="56">
+      <c r="AJ13" s="59">
         <f t="shared" si="13"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="35">
+      <c r="AK13" s="38">
         <v>0.7335</v>
       </c>
-      <c r="AL13" s="35">
+      <c r="AL13" s="38">
         <v>0.4001</v>
       </c>
-      <c r="AM13" s="35">
+      <c r="AM13" s="38">
         <v>0.1638</v>
       </c>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="64">
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="67">
         <v>42368</v>
       </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
-      <c r="AS13" s="76">
+      <c r="AS13" s="79">
         <v>79.23</v>
       </c>
-      <c r="AT13" s="76">
+      <c r="AT13" s="79">
         <v>79.22</v>
       </c>
       <c r="AU13" s="9"/>
@@ -4966,30 +4987,30 @@
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
-      <c r="BB13" s="31">
+      <c r="BB13" s="34">
         <v>123</v>
       </c>
-      <c r="BC13" s="87" t="s">
+      <c r="BC13" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="BD13" s="87" t="s">
+      <c r="BD13" s="90" t="s">
         <v>104</v>
       </c>
       <c r="BE13" s="9"/>
       <c r="BF13" s="9"/>
       <c r="BG13" s="9"/>
       <c r="BH13" s="9"/>
-      <c r="BI13" s="31">
+      <c r="BI13" s="34">
         <v>63.51</v>
       </c>
-      <c r="BJ13" s="97">
+      <c r="BJ13" s="100">
         <f t="shared" ref="BJ13:BJ20" si="16">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="BK13" s="88" t="s">
+      <c r="BK13" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="BL13" s="100">
+      <c r="BL13" s="103">
         <v>44601</v>
       </c>
     </row>
@@ -5000,134 +5021,134 @@
       <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="35">
+      <c r="E14" s="38">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="34">
         <v>0.577</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="41">
         <v>0.8333</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="41">
         <v>0.4375</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="41">
         <v>0.5455</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="41">
         <v>0.0937</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="41">
         <v>-0.4545</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="41">
         <v>-0.0435</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="41">
         <v>0.0294</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="41">
         <v>0.3143</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="41">
         <v>0.6667</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="41">
         <v>0.3182</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="41">
         <v>0.1143</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="41">
         <v>0.2174</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="41">
         <v>2.1</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="41">
         <v>0.7241</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="41">
         <v>0.6923</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="41">
         <v>0.3393</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="38">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14" s="38">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Y14" s="38">
         <v>-0.0909</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="52">
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="55">
         <f t="shared" si="7"/>
         <v>0.477816666666667</v>
       </c>
-      <c r="AB14" s="52">
+      <c r="AB14" s="55">
         <f t="shared" si="11"/>
         <v>0.377642105263158</v>
       </c>
-      <c r="AC14" s="38">
-        <f t="shared" ref="AC14:AC22" si="17">(R14+S14)/2</f>
+      <c r="AC14" s="41">
+        <f t="shared" ref="AC14:AC23" si="17">(R14+S14)/2</f>
         <v>1.1587</v>
       </c>
-      <c r="AD14" s="38">
-        <f t="shared" ref="AD14:AD22" si="18">(S14+T14)/2</f>
+      <c r="AD14" s="41">
+        <f t="shared" ref="AD14:AD23" si="18">(S14+T14)/2</f>
         <v>1.41205</v>
       </c>
-      <c r="AE14" s="38">
-        <f t="shared" ref="AE14:AE22" si="19">(T14+U14)/2</f>
+      <c r="AE14" s="41">
+        <f t="shared" ref="AE14:AE23" si="19">(T14+U14)/2</f>
         <v>0.7082</v>
       </c>
-      <c r="AF14" s="38">
-        <f t="shared" ref="AF14:AF22" si="20">(U14+V14)/2</f>
+      <c r="AF14" s="41">
+        <f t="shared" ref="AF14:AF23" si="20">(U14+V14)/2</f>
         <v>0.5158</v>
       </c>
-      <c r="AG14" s="38">
-        <f t="shared" ref="AG14:AG22" si="21">(V14+W14)/2</f>
+      <c r="AG14" s="41">
+        <f t="shared" ref="AG14:AG23" si="21">(V14+W14)/2</f>
         <v>0.2987</v>
       </c>
-      <c r="AH14" s="38">
-        <f t="shared" ref="AH14:AH22" si="22">(W14+X14)/2</f>
+      <c r="AH14" s="41">
+        <f t="shared" ref="AH14:AH23" si="22">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
-      <c r="AI14" s="38">
-        <f t="shared" ref="AI14:AI22" si="23">(X14+Y14)/2</f>
+      <c r="AI14" s="41">
+        <f t="shared" ref="AI14:AI23" si="23">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="56">
+      <c r="AJ14" s="59">
         <f t="shared" si="13"/>
         <v>0.527397656544523</v>
       </c>
-      <c r="AK14" s="44">
+      <c r="AK14" s="47">
         <v>0.2685</v>
       </c>
-      <c r="AL14" s="44">
+      <c r="AL14" s="47">
         <v>0.4227</v>
       </c>
-      <c r="AM14" s="44">
+      <c r="AM14" s="47">
         <v>0.3457</v>
       </c>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="64">
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="67">
         <v>37757</v>
       </c>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
-      <c r="AS14" s="76">
+      <c r="AS14" s="79">
         <v>5.912</v>
       </c>
-      <c r="AT14" s="76">
+      <c r="AT14" s="79">
         <v>5.69</v>
       </c>
       <c r="AU14" s="9"/>
@@ -5137,30 +5158,30 @@
       <c r="AY14" s="9"/>
       <c r="AZ14" s="9"/>
       <c r="BA14" s="9"/>
-      <c r="BB14" s="31">
+      <c r="BB14" s="34">
         <v>11</v>
       </c>
-      <c r="BC14" s="87" t="s">
+      <c r="BC14" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" s="87" t="s">
+      <c r="BD14" s="90" t="s">
         <v>110</v>
       </c>
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
       <c r="BG14" s="9"/>
       <c r="BH14" s="9"/>
-      <c r="BI14" s="31">
+      <c r="BI14" s="34">
         <v>3.41</v>
       </c>
-      <c r="BJ14" s="97">
+      <c r="BJ14" s="100">
         <f t="shared" si="16"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="BK14" s="103" t="s">
+      <c r="BK14" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" s="100">
+      <c r="BL14" s="103">
         <v>44601</v>
       </c>
     </row>
@@ -5168,137 +5189,137 @@
       <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="30">
+      <c r="E15" s="33">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="42">
         <v>0.82</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="41">
         <v>0.3043</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="41">
         <v>0.1454</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="41">
         <v>0.2327</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="41">
         <v>0.1847</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="41">
         <v>0.2133</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="41">
         <v>0.3746</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="41">
         <v>0.3028</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="41">
         <v>1.4835</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="41">
         <v>0.1758</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="41">
         <v>0.6306</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="41">
         <v>0.4161</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="41">
         <v>-0.2543</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="41">
         <v>-1.285</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="41">
         <v>-0.9669</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="41">
         <v>-0.6954</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="41">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15" s="49">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15" s="49">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="49">
         <v>1.7152</v>
       </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="52">
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="55">
         <f t="shared" si="7"/>
         <v>2.19015833333333</v>
       </c>
-      <c r="AB15" s="46">
+      <c r="AB15" s="49">
         <f t="shared" si="11"/>
         <v>1.47577368421053</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="41">
         <f t="shared" si="17"/>
         <v>-0.76965</v>
       </c>
-      <c r="AD15" s="38">
+      <c r="AD15" s="41">
         <f t="shared" si="18"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="46">
+      <c r="AE15" s="49">
         <f t="shared" si="19"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="46">
+      <c r="AF15" s="49">
         <f t="shared" si="20"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="46">
+      <c r="AG15" s="49">
         <f t="shared" si="21"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="46">
+      <c r="AH15" s="49">
         <f t="shared" si="22"/>
         <v>12.6315</v>
       </c>
-      <c r="AI15" s="38">
+      <c r="AI15" s="41">
         <f t="shared" si="23"/>
         <v>11.12845</v>
       </c>
-      <c r="AJ15" s="56">
+      <c r="AJ15" s="59">
         <f t="shared" si="13"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="46">
+      <c r="AK15" s="49">
         <v>2.2501</v>
       </c>
-      <c r="AL15" s="46">
+      <c r="AL15" s="49">
         <v>0.7909</v>
       </c>
-      <c r="AM15" s="46">
+      <c r="AM15" s="49">
         <v>0.5626</v>
       </c>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="65">
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="68">
         <v>37250</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
-      <c r="AS15" s="78">
+      <c r="AS15" s="81">
         <v>21.81</v>
       </c>
-      <c r="AT15" s="78">
+      <c r="AT15" s="81">
         <v>14.33</v>
       </c>
       <c r="AU15" s="9"/>
@@ -5308,13 +5329,13 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9"/>
-      <c r="BB15" s="21">
+      <c r="BB15" s="22">
         <v>1</v>
       </c>
-      <c r="BC15" s="87" t="s">
+      <c r="BC15" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="BD15" s="87" t="s">
+      <c r="BD15" s="90" t="s">
         <v>116</v>
       </c>
       <c r="BE15" s="9"/>
@@ -5324,14 +5345,14 @@
       <c r="BI15" s="9">
         <v>19.28</v>
       </c>
-      <c r="BJ15" s="97">
+      <c r="BJ15" s="100">
         <f t="shared" si="16"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="BK15" s="104" t="s">
+      <c r="BK15" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="BL15" s="100">
+      <c r="BL15" s="103">
         <v>44608</v>
       </c>
     </row>
@@ -5339,137 +5360,137 @@
       <c r="A16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="30">
+      <c r="E16" s="33">
         <v>0.5564</v>
       </c>
       <c r="F16" s="9">
         <v>0.725</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="41">
         <v>0.7222</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="41">
         <v>-0.1944</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="41">
         <v>-0.0698</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="41">
         <v>-0.4096</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="41">
         <v>-0.3226</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="41">
         <v>0.2759</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="41">
         <v>0.3</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="41">
         <v>0.5102</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="41">
         <v>0.381</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="41">
         <v>0.4865</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="41">
         <v>0.5</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="41">
         <v>0.2027</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="41">
         <v>0.7241</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="41">
         <v>0.5273</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="41">
         <v>0.3077</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="41">
         <v>0.1798</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="33">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="33">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="33">
         <v>-0.2941</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="52">
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="55">
         <f t="shared" si="7"/>
         <v>0.264241666666667</v>
       </c>
-      <c r="AB16" s="52">
+      <c r="AB16" s="55">
         <f t="shared" si="11"/>
         <v>0.182768421052632</v>
       </c>
-      <c r="AC16" s="38">
+      <c r="AC16" s="41">
         <f t="shared" si="17"/>
         <v>0.4634</v>
       </c>
-      <c r="AD16" s="38">
+      <c r="AD16" s="41">
         <f t="shared" si="18"/>
         <v>0.6257</v>
       </c>
-      <c r="AE16" s="38">
+      <c r="AE16" s="41">
         <f t="shared" si="19"/>
         <v>0.4175</v>
       </c>
-      <c r="AF16" s="38">
+      <c r="AF16" s="41">
         <f t="shared" si="20"/>
         <v>0.24375</v>
       </c>
-      <c r="AG16" s="38">
+      <c r="AG16" s="41">
         <f t="shared" si="21"/>
         <v>0.0199</v>
       </c>
-      <c r="AH16" s="38">
+      <c r="AH16" s="41">
         <f t="shared" si="22"/>
         <v>-0.17715</v>
       </c>
-      <c r="AI16" s="38">
+      <c r="AI16" s="41">
         <f t="shared" si="23"/>
         <v>-0.2542</v>
       </c>
-      <c r="AJ16" s="56">
+      <c r="AJ16" s="59">
         <f t="shared" si="13"/>
         <v>0.363787610583476</v>
       </c>
-      <c r="AK16" s="30">
+      <c r="AK16" s="33">
         <v>-0.1922</v>
       </c>
-      <c r="AL16" s="30">
+      <c r="AL16" s="33">
         <v>-0.1946</v>
       </c>
-      <c r="AM16" s="30">
+      <c r="AM16" s="33">
         <v>-0.0688</v>
       </c>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="65">
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="68">
         <v>42031</v>
       </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
-      <c r="AS16" s="78">
+      <c r="AS16" s="81">
         <v>3.726</v>
       </c>
-      <c r="AT16" s="78">
+      <c r="AT16" s="81">
         <v>3.253</v>
       </c>
       <c r="AU16" s="9"/>
@@ -5482,10 +5503,10 @@
       <c r="BB16" s="9">
         <v>2</v>
       </c>
-      <c r="BC16" s="87" t="s">
+      <c r="BC16" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="BD16" s="87" t="s">
+      <c r="BD16" s="90" t="s">
         <v>122</v>
       </c>
       <c r="BE16" s="9"/>
@@ -5493,646 +5514,646 @@
       <c r="BG16" s="9"/>
       <c r="BH16" s="9"/>
       <c r="BI16" s="9"/>
-      <c r="BJ16" s="97">
+      <c r="BJ16" s="100">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BK16" s="105" t="s">
+      <c r="BK16" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="BL16" s="100">
+      <c r="BL16" s="103">
         <v>44608</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="59" spans="1:64">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40">
+      <c r="D17" s="20"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43">
         <v>0.0625</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="43">
         <v>0.0534</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="43">
         <v>0.0052</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="43">
         <v>-0.2069</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17" s="43">
         <v>-0.2</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="43">
         <v>-0.1884</v>
       </c>
-      <c r="V17" s="40">
+      <c r="V17" s="43">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="47">
+      <c r="W17" s="50">
         <v>1.087</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="50">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="47">
+      <c r="Y17" s="50">
         <v>0.6696</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="46">
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="49">
         <f t="shared" si="7"/>
         <v>0.167833333333333</v>
       </c>
-      <c r="AB17" s="47">
+      <c r="AB17" s="50">
         <f t="shared" si="11"/>
         <v>0.106</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="41">
         <f t="shared" si="17"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17" s="41">
         <f t="shared" si="18"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="46">
+      <c r="AE17" s="49">
         <f t="shared" si="19"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="46">
+      <c r="AF17" s="49">
         <f t="shared" si="20"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="46">
+      <c r="AG17" s="49">
         <f t="shared" si="21"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="46">
+      <c r="AH17" s="49">
         <f t="shared" si="22"/>
         <v>0.94055</v>
       </c>
-      <c r="AI17" s="38">
+      <c r="AI17" s="41">
         <f t="shared" si="23"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ17" s="58">
+      <c r="AJ17" s="61">
         <f t="shared" si="13"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="47">
+      <c r="AK17" s="50">
         <v>1.0194</v>
       </c>
-      <c r="AL17" s="47">
+      <c r="AL17" s="50">
         <v>0.7661</v>
       </c>
-      <c r="AM17" s="47">
+      <c r="AM17" s="50">
         <v>0.6219</v>
       </c>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="66">
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="69">
         <v>43823</v>
       </c>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="79">
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="82">
         <v>2.331</v>
       </c>
-      <c r="AT17" s="80">
+      <c r="AT17" s="83">
         <v>1.118</v>
       </c>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="91">
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="94">
         <v>21</v>
       </c>
-      <c r="BC17" s="92" t="s">
+      <c r="BC17" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="BD17" s="92" t="s">
+      <c r="BD17" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="91"/>
-      <c r="BG17" s="91"/>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="106">
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="109">
         <v>5.25</v>
       </c>
-      <c r="BJ17" s="97">
+      <c r="BJ17" s="100">
         <f t="shared" si="16"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="BK17" s="92" t="s">
+      <c r="BK17" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="BL17" s="107">
+      <c r="BL17" s="110">
         <v>44578</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:64">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="40">
+      <c r="D18" s="20"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="43">
         <v>0.4231</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="43">
         <v>0.4</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="43">
         <v>0.3529</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="43">
         <v>0.2235</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="43">
         <v>-0.1351</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="43">
         <v>-0.4444</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="43">
         <v>-0.337</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="43">
         <v>-0.4712</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="43">
         <v>-0.6875</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="43">
         <v>0.0857</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="43">
         <v>0.082</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="43">
         <v>0.5818</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="43">
         <v>1.1</v>
       </c>
-      <c r="T18" s="40">
+      <c r="T18" s="43">
         <v>0.5263</v>
       </c>
-      <c r="U18" s="40">
+      <c r="U18" s="43">
         <v>0.4697</v>
       </c>
-      <c r="V18" s="40">
+      <c r="V18" s="43">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="47">
+      <c r="W18" s="50">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="50">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="47">
+      <c r="Y18" s="50">
         <v>0.4021</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="46">
-        <f t="shared" si="7"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="49">
+        <f>(N18+O18+P18+Q18+R18+S18+T18+U18+V18+W18+X18+Y18)/12</f>
         <v>0.370166666666667</v>
       </c>
-      <c r="AB18" s="47">
+      <c r="AB18" s="50">
         <f t="shared" si="11"/>
         <v>0.259210526315789</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="41">
         <f t="shared" si="17"/>
         <v>0.8409</v>
       </c>
-      <c r="AD18" s="38">
+      <c r="AD18" s="41">
         <f t="shared" si="18"/>
         <v>0.81315</v>
       </c>
-      <c r="AE18" s="38">
+      <c r="AE18" s="41">
         <f t="shared" si="19"/>
         <v>0.498</v>
       </c>
-      <c r="AF18" s="38">
+      <c r="AF18" s="41">
         <f t="shared" si="20"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="46">
+      <c r="AG18" s="49">
         <f t="shared" si="21"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="46">
+      <c r="AH18" s="49">
         <f t="shared" si="22"/>
         <v>0.9639</v>
       </c>
-      <c r="AI18" s="38">
+      <c r="AI18" s="41">
         <f t="shared" si="23"/>
         <v>0.5459</v>
       </c>
-      <c r="AJ18" s="58">
+      <c r="AJ18" s="61">
         <f t="shared" si="13"/>
         <v>0.509476975703446</v>
       </c>
-      <c r="AK18" s="40">
+      <c r="AK18" s="43">
         <v>0.3237</v>
       </c>
-      <c r="AL18" s="40">
+      <c r="AL18" s="43">
         <v>0.2459</v>
       </c>
-      <c r="AM18" s="40">
+      <c r="AM18" s="43">
         <v>0.205</v>
       </c>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="81"/>
-      <c r="AT18" s="81"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-      <c r="BJ18" s="97" t="e">
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="96"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="100" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="100">
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="103">
         <v>44608</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="53" spans="1:64">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="40">
+      <c r="D19" s="20"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="43">
         <v>0.2019</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="43">
         <v>-0.1083</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="43">
         <v>-0.1304</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="43">
         <v>-0.0952</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="43">
         <v>0.926</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="43">
         <v>0.8056</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="43">
         <v>0.8</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="43">
         <v>0.1316</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="43">
         <v>0.0748</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="43">
         <v>1.2774</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="43">
         <v>0.5556</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="43">
         <v>0.9535</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="43">
         <v>1.4155</v>
       </c>
-      <c r="T19" s="40">
+      <c r="T19" s="43">
         <v>0.0455</v>
       </c>
-      <c r="U19" s="40">
+      <c r="U19" s="43">
         <v>0.5536</v>
       </c>
-      <c r="V19" s="40">
+      <c r="V19" s="43">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="47">
+      <c r="W19" s="50">
         <v>0.6</v>
       </c>
-      <c r="X19" s="47">
+      <c r="X19" s="50">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="47">
+      <c r="Y19" s="50">
         <v>0.4943</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="52">
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="55">
         <f t="shared" si="7"/>
         <v>0.595266666666667</v>
       </c>
-      <c r="AB19" s="53">
+      <c r="AB19" s="56">
         <f t="shared" si="11"/>
         <v>0.502252631578947</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="41">
         <f t="shared" si="17"/>
         <v>1.1845</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="41">
         <f t="shared" si="18"/>
         <v>0.7305</v>
       </c>
-      <c r="AE19" s="38">
+      <c r="AE19" s="41">
         <f t="shared" si="19"/>
         <v>0.29955</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AF19" s="41">
         <f t="shared" si="20"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="46">
+      <c r="AG19" s="49">
         <f t="shared" si="21"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="46">
+      <c r="AH19" s="49">
         <f t="shared" si="22"/>
         <v>0.8326</v>
       </c>
-      <c r="AI19" s="38">
+      <c r="AI19" s="41">
         <f t="shared" si="23"/>
         <v>0.77975</v>
       </c>
-      <c r="AJ19" s="58">
+      <c r="AJ19" s="61">
         <f t="shared" si="13"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="48">
+      <c r="AK19" s="51">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="48">
+      <c r="AL19" s="51">
         <v>0.5323</v>
       </c>
-      <c r="AM19" s="48">
+      <c r="AM19" s="51">
         <v>0.6121</v>
       </c>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="81">
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="84">
         <v>4.704</v>
       </c>
-      <c r="AT19" s="81">
+      <c r="AT19" s="84">
         <v>3.956</v>
       </c>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19">
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20">
         <v>4</v>
       </c>
-      <c r="BC19" s="87" t="s">
+      <c r="BC19" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="BD19" s="87" t="s">
+      <c r="BD19" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="BE19" s="19"/>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19">
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20">
         <v>6.04</v>
       </c>
-      <c r="BJ19" s="97">
+      <c r="BJ19" s="100">
         <f t="shared" si="16"/>
         <v>1.28401360544218</v>
       </c>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="100">
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="103">
         <v>44608</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="88" spans="1:64">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="40">
+      <c r="D20" s="20"/>
+      <c r="E20" s="43">
         <v>0.2676</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="20">
         <v>1.2</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="43">
         <v>0.125</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="43">
         <v>0</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="43">
         <v>-0.1017</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="43">
         <v>-0.0235</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="43">
         <v>0.1389</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="43">
         <v>0.1707</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="43">
         <v>0.1698</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="43">
         <v>0.1687</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="43">
         <v>0.0732</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="43">
         <v>0.1667</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="43">
         <v>0.2097</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="43">
         <v>0.1959</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="43">
         <v>-0.3409</v>
       </c>
-      <c r="T20" s="40">
+      <c r="T20" s="43">
         <v>-0.25</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="43">
         <v>-0.12</v>
       </c>
-      <c r="V20" s="40">
+      <c r="V20" s="43">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="51">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="48">
+      <c r="X20" s="51">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="51">
         <v>0.8182</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="46">
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="49">
         <f t="shared" si="7"/>
         <v>0.191291666666667</v>
       </c>
-      <c r="AB20" s="47">
+      <c r="AB20" s="50">
         <f t="shared" si="11"/>
         <v>0.146036842105263</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="41">
         <f t="shared" si="17"/>
         <v>-0.0725</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="41">
         <f t="shared" si="18"/>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="46">
+      <c r="AE20" s="49">
         <f t="shared" si="19"/>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="46">
+      <c r="AF20" s="49">
         <f t="shared" si="20"/>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="57">
+      <c r="AG20" s="60">
         <f t="shared" si="21"/>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="57">
+      <c r="AH20" s="60">
         <f t="shared" si="22"/>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="57">
+      <c r="AI20" s="60">
         <f t="shared" si="23"/>
         <v>0.79005</v>
       </c>
-      <c r="AJ20" s="58">
+      <c r="AJ20" s="61">
         <f t="shared" si="13"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="47">
+      <c r="AK20" s="50">
         <v>1.3196</v>
       </c>
-      <c r="AL20" s="47">
+      <c r="AL20" s="50">
         <v>0.8147</v>
       </c>
-      <c r="AM20" s="47">
+      <c r="AM20" s="50">
         <v>0.5566</v>
       </c>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="81">
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="84">
         <v>8</v>
       </c>
-      <c r="AT20" s="81">
+      <c r="AT20" s="84">
         <v>8</v>
       </c>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19">
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20">
         <v>60</v>
       </c>
-      <c r="BC20" s="87" t="s">
+      <c r="BC20" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="BD20" s="87" t="s">
+      <c r="BD20" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19">
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20">
         <v>9.62</v>
       </c>
-      <c r="BJ20" s="97">
+      <c r="BJ20" s="100">
         <f t="shared" si="16"/>
         <v>1.2025</v>
       </c>
-      <c r="BK20" s="104" t="s">
+      <c r="BK20" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="BL20" s="100">
+      <c r="BL20" s="103">
         <v>44608</v>
       </c>
     </row>
@@ -6140,551 +6161,555 @@
       <c r="A21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="38">
+      <c r="D21" s="22"/>
+      <c r="E21" s="41">
         <v>0.3207</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="22">
         <v>0.585</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="41">
         <v>0.0742</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="41">
         <v>0.0717</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="41">
         <v>0.1941</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="41">
         <v>0.3455</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="41">
         <v>0.2853</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="41">
         <v>0.2853</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="41">
         <v>0.1566</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="41">
         <v>0.1897</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="41">
         <v>-0.0897</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="41">
         <v>-0.1581</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="41">
         <v>-0.1517</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="41">
         <v>-0.0882</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21" s="41">
         <v>-0.559</v>
       </c>
-      <c r="T21" s="38">
+      <c r="T21" s="41">
         <v>-0.1974</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="41">
         <v>0.0085</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21" s="41">
         <v>0.0706</v>
       </c>
-      <c r="W21" s="38">
+      <c r="W21" s="41">
         <v>1.5611</v>
       </c>
-      <c r="X21" s="38">
+      <c r="X21" s="41">
         <v>0.704</v>
       </c>
-      <c r="Y21" s="38">
+      <c r="Y21" s="41">
         <v>0.3564</v>
       </c>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="46">
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="49">
         <f t="shared" si="7"/>
         <v>0.137183333333333</v>
       </c>
-      <c r="AB21" s="47">
+      <c r="AB21" s="50">
         <f t="shared" si="11"/>
         <v>0.160994736842105</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="41">
         <f t="shared" si="17"/>
         <v>-0.3236</v>
       </c>
-      <c r="AD21" s="38">
+      <c r="AD21" s="41">
         <f t="shared" si="18"/>
         <v>-0.3782</v>
       </c>
-      <c r="AE21" s="46">
+      <c r="AE21" s="49">
         <f t="shared" si="19"/>
         <v>-0.09445</v>
       </c>
-      <c r="AF21" s="46">
+      <c r="AF21" s="49">
         <f t="shared" si="20"/>
         <v>0.03955</v>
       </c>
-      <c r="AG21" s="46">
+      <c r="AG21" s="49">
         <f t="shared" si="21"/>
         <v>0.81585</v>
       </c>
-      <c r="AH21" s="46">
+      <c r="AH21" s="49">
         <f t="shared" si="22"/>
         <v>1.13255</v>
       </c>
-      <c r="AI21" s="38">
+      <c r="AI21" s="41">
         <f t="shared" si="23"/>
         <v>0.5302</v>
       </c>
-      <c r="AJ21" s="58">
+      <c r="AJ21" s="61">
         <f t="shared" si="13"/>
         <v>0.433239412223881</v>
       </c>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="68"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="71"/>
     </row>
     <row r="22" ht="18" spans="1:64">
       <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="38">
+      <c r="D22" s="22"/>
+      <c r="E22" s="41">
         <v>0.9142</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="44">
         <v>0.8</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="41">
         <v>-0.4892</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="41">
         <v>-0.625</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="41">
         <v>-0.4963</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="41">
         <v>-0.3889</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="41">
         <v>0.0648</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="41">
         <v>1.37</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="41">
         <v>1.0951</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="41">
         <v>6.7273</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="41">
         <v>3.7619</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="41">
         <v>5.4698</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="41">
         <v>6.3341</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="41">
         <v>0</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22" s="41">
         <v>-0.1111</v>
       </c>
-      <c r="T22" s="38">
+      <c r="T22" s="41">
         <v>0.0028</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="41">
         <v>0.0635</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="41">
         <v>0.1176</v>
       </c>
-      <c r="W22" s="38">
+      <c r="W22" s="41">
         <v>0.4375</v>
       </c>
-      <c r="X22" s="38">
+      <c r="X22" s="41">
         <v>0.1166</v>
       </c>
-      <c r="Y22" s="38">
+      <c r="Y22" s="41">
         <v>0.194</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="52">
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="55">
         <f t="shared" si="7"/>
         <v>1.92616666666667</v>
       </c>
-      <c r="AB22" s="53">
+      <c r="AB22" s="56">
         <f t="shared" si="11"/>
         <v>1.24444736842105</v>
       </c>
-      <c r="AC22" s="38">
+      <c r="AC22" s="41">
         <f t="shared" si="17"/>
         <v>-0.05555</v>
       </c>
-      <c r="AD22" s="46">
+      <c r="AD22" s="49">
         <f t="shared" si="18"/>
         <v>-0.05415</v>
       </c>
-      <c r="AE22" s="46">
+      <c r="AE22" s="49">
         <f t="shared" si="19"/>
         <v>0.03315</v>
       </c>
-      <c r="AF22" s="46">
+      <c r="AF22" s="49">
         <f t="shared" si="20"/>
         <v>0.09055</v>
       </c>
-      <c r="AG22" s="46">
+      <c r="AG22" s="49">
         <f t="shared" si="21"/>
         <v>0.27755</v>
       </c>
-      <c r="AH22" s="38">
+      <c r="AH22" s="41">
         <f t="shared" si="22"/>
         <v>0.27705</v>
       </c>
-      <c r="AI22" s="38">
+      <c r="AI22" s="41">
         <f t="shared" si="23"/>
         <v>0.1553</v>
       </c>
-      <c r="AJ22" s="58">
+      <c r="AJ22" s="61">
         <f t="shared" si="13"/>
         <v>2.4083690701774</v>
       </c>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="21"/>
-      <c r="BJ22" s="21"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="68"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
+      <c r="BL22" s="71"/>
     </row>
     <row r="23" ht="18" spans="1:64">
       <c r="A23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="38">
+      <c r="D23" s="22"/>
+      <c r="E23" s="41">
         <v>0.5204</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="45">
         <v>1.87</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41">
         <v>0.0625</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="41">
         <v>0.0534</v>
       </c>
-      <c r="R23" s="38">
+      <c r="R23" s="41">
         <v>0.0052</v>
       </c>
-      <c r="S23" s="38">
+      <c r="S23" s="41">
         <v>-0.2069</v>
       </c>
-      <c r="T23" s="38">
+      <c r="T23" s="41">
         <v>-0.2</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="41">
         <v>-0.1884</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="41">
         <v>-0.0625</v>
       </c>
-      <c r="W23" s="46">
+      <c r="W23" s="49">
         <v>1.087</v>
       </c>
-      <c r="X23" s="46">
+      <c r="X23" s="49">
         <v>0.7941</v>
       </c>
-      <c r="Y23" s="46">
+      <c r="Y23" s="49">
         <v>0.6696</v>
       </c>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="46">
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="49">
         <f>(P23+Q23+R23+S23+T23+U23+V23+W23+X23+Y23)/10</f>
         <v>0.2014</v>
       </c>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="38">
-        <f>(R23+S23)/2</f>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="41">
+        <f t="shared" si="17"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD23" s="38">
-        <f>(S23+T23)/2</f>
+      <c r="AD23" s="41">
+        <f t="shared" si="18"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE23" s="46">
-        <f>(T23+U23)/2</f>
+      <c r="AE23" s="49">
+        <f t="shared" si="19"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF23" s="46">
-        <f>(U23+V23)/2</f>
+      <c r="AF23" s="49">
+        <f t="shared" si="20"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG23" s="46">
-        <f>(V23+W23)/2</f>
+      <c r="AG23" s="49">
+        <f t="shared" si="21"/>
         <v>0.51225</v>
       </c>
-      <c r="AH23" s="46">
-        <f>(W23+X23)/2</f>
+      <c r="AH23" s="49">
+        <f t="shared" si="22"/>
         <v>0.94055</v>
       </c>
-      <c r="AI23" s="38">
-        <f>(X23+Y23)/2</f>
+      <c r="AI23" s="41">
+        <f t="shared" si="23"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="46">
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="49">
         <v>1.0194</v>
       </c>
-      <c r="AL23" s="46">
+      <c r="AL23" s="49">
         <v>0.7661</v>
       </c>
-      <c r="AM23" s="46">
+      <c r="AM23" s="49">
         <v>0.6219</v>
       </c>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="68"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="68"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="22"/>
+      <c r="BL23" s="71"/>
     </row>
     <row r="24" ht="18" spans="1:64">
       <c r="A24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="68"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="68"/>
+      <c r="B24" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="22"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="22"/>
+      <c r="BL24" s="71"/>
     </row>
     <row r="25" ht="18" spans="1:64">
       <c r="A25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="68"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="68"/>
+        <v>154</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-01/基本面分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>分析结果编码</t>
   </si>
@@ -1545,12 +1545,6 @@
       </rPr>
       <t>M_000021</t>
     </r>
-  </si>
-  <si>
-    <t>002142.SZ</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
   </si>
   <si>
     <r>
@@ -1576,18 +1570,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="184" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -1714,8 +1708,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1730,24 +1731,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,7 +1765,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,55 +1809,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1839,6 +1826,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1895,7 +1889,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,133 +2045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2051,25 +2063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,22 +2105,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2157,26 +2160,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2200,142 +2194,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2345,7 +2339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2358,7 +2352,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,190 +2412,184 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,7 +2628,7 @@
     <xf numFmtId="10" fontId="17" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2649,13 +2637,13 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,10 +2661,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3004,11 +2992,11 @@
   <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3059,78 +3047,78 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="62" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="72" t="s">
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="52" t="s">
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="97"/>
-      <c r="BL1" s="98" t="s">
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="95"/>
+      <c r="BL1" s="96" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3139,75 +3127,75 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="74" t="s">
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="74" t="s">
+      <c r="AT2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AU2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="76" t="s">
+      <c r="AV2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
       <c r="BB2" s="5" t="s">
         <v>21</v>
       </c>
@@ -3217,159 +3205,159 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
       <c r="BH2" s="5"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="99" t="s">
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="BL2" s="98"/>
+      <c r="BL2" s="96"/>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:64">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Y3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="58" t="s">
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="58" t="s">
+      <c r="AD3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="58" t="s">
+      <c r="AE3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="58" t="s">
+      <c r="AG3" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="58" t="s">
+      <c r="AH3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="58" t="s">
+      <c r="AI3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="30" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="30" t="s">
+      <c r="AL3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="30" t="s">
+      <c r="AM3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AN3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="62" t="s">
+      <c r="AO3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="29" t="s">
+      <c r="AP3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AQ3" s="63" t="s">
+      <c r="AQ3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="63" t="s">
+      <c r="AR3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="77" t="s">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="77" t="s">
+      <c r="AW3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="AX3" s="52" t="s">
+      <c r="AX3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="85" t="s">
+      <c r="AY3" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AZ3" s="85" t="s">
+      <c r="AZ3" s="83" t="s">
         <v>42</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="86" t="s">
+      <c r="BB3" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="86" t="s">
+      <c r="BC3" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="BD3" s="87" t="s">
+      <c r="BD3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="BE3" s="86" t="s">
+      <c r="BE3" s="84" t="s">
         <v>47</v>
       </c>
       <c r="BF3" s="5" t="s">
@@ -3381,14 +3369,14 @@
       <c r="BH3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="27" t="s">
+      <c r="BI3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="77" t="s">
+      <c r="BJ3" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="98"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="96"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:64">
       <c r="A4" s="6" t="s">
@@ -3401,120 +3389,120 @@
         <v>54</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32">
+      <c r="E4" s="29"/>
+      <c r="F4" s="30">
         <v>0.16</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>-0.2369</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="29">
         <v>0.1985</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="29">
         <v>0.1552</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="29">
         <v>0.0621</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="29">
         <v>0.8816</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="29">
         <v>0.3131</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="29">
         <v>0.3269</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="29">
         <v>0.3212</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="29">
         <v>0.1608</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="29">
         <v>0.0429</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="29">
         <v>-2.2731</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="29">
         <v>-2.7544</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="29">
         <v>-0.2012</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="29">
         <v>-0.1932</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="29">
         <v>1.4776</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="29">
         <v>1.2819</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4" s="44">
         <v>0.0498</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="44">
         <v>0.0196</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="44">
         <v>0.2626</v>
       </c>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="49">
+      <c r="AA4" s="47">
         <f>(N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/12</f>
         <v>-0.150458333333333</v>
       </c>
-      <c r="AB4" s="49">
+      <c r="AB4" s="47">
         <f t="shared" ref="AB4:AB10" si="0">(G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4)/19</f>
         <v>-0.00552631578947369</v>
       </c>
-      <c r="AC4" s="41">
+      <c r="AC4" s="39">
         <f t="shared" ref="AC4:AI4" si="1">(R4+S4)/2</f>
         <v>-1.4778</v>
       </c>
-      <c r="AD4" s="49">
+      <c r="AD4" s="47">
         <f t="shared" si="1"/>
         <v>-0.1972</v>
       </c>
-      <c r="AE4" s="49">
+      <c r="AE4" s="47">
         <f t="shared" si="1"/>
         <v>0.6422</v>
       </c>
-      <c r="AF4" s="49">
+      <c r="AF4" s="47">
         <f t="shared" si="1"/>
         <v>1.37975</v>
       </c>
-      <c r="AG4" s="41">
+      <c r="AG4" s="39">
         <f t="shared" si="1"/>
         <v>0.66585</v>
       </c>
-      <c r="AH4" s="41">
+      <c r="AH4" s="39">
         <f t="shared" si="1"/>
         <v>0.0347</v>
       </c>
-      <c r="AI4" s="41">
+      <c r="AI4" s="39">
         <f t="shared" si="1"/>
         <v>0.1411</v>
       </c>
-      <c r="AJ4" s="59">
+      <c r="AJ4" s="57">
         <f t="shared" ref="AJ4:AJ10" si="2">STDEV(G4:Y4)</f>
         <v>0.99904872244779</v>
       </c>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="64"/>
+      <c r="AO4" s="62"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
-      <c r="AS4" s="78">
+      <c r="AS4" s="76">
         <v>8.357</v>
       </c>
-      <c r="AT4" s="78">
+      <c r="AT4" s="76">
         <v>8.32</v>
       </c>
       <c r="AU4" s="8"/>
@@ -3524,28 +3512,28 @@
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
-      <c r="BB4" s="88">
+      <c r="BB4" s="86">
         <v>3</v>
       </c>
-      <c r="BC4" s="89" t="s">
+      <c r="BC4" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="BD4" s="89" t="s">
+      <c r="BD4" s="87" t="s">
         <v>56</v>
       </c>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="88">
+      <c r="BI4" s="86">
         <v>1.28</v>
       </c>
-      <c r="BJ4" s="100">
+      <c r="BJ4" s="98">
         <f t="shared" ref="BJ4:BJ12" si="3">BI4/AS4</f>
         <v>0.153165011367716</v>
       </c>
       <c r="BK4" s="8"/>
-      <c r="BL4" s="101">
+      <c r="BL4" s="99">
         <v>44579</v>
       </c>
     </row>
@@ -3560,108 +3548,108 @@
         <v>59</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30">
         <v>1.97</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31">
         <v>0.1473</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>-0.2308</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <v>-0.3684</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="31">
         <v>-0.358</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="31">
         <v>-0.3784</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="31">
         <v>-0.0231</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="31">
         <v>0.1667</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="31">
         <v>0.1154</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="31">
         <v>-0.0761</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="31">
         <v>0.1654</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="45">
         <v>2.9286</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="45">
         <v>1.5517</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Y5" s="45">
         <v>1.3176</v>
       </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="49">
+      <c r="AA5" s="47">
         <f>(N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5)/12</f>
         <v>0.400883333333333</v>
       </c>
-      <c r="AB5" s="49">
+      <c r="AB5" s="47">
         <f t="shared" si="0"/>
         <v>0.260942105263158</v>
       </c>
-      <c r="AC5" s="41">
+      <c r="AC5" s="39">
         <f t="shared" ref="AC5:AI5" si="4">(R5+S5)/2</f>
         <v>0.0718</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AD5" s="39">
         <f t="shared" si="4"/>
         <v>0.14105</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AE5" s="39">
         <f t="shared" si="4"/>
         <v>0.01965</v>
       </c>
-      <c r="AF5" s="49">
+      <c r="AF5" s="47">
         <f t="shared" si="4"/>
         <v>0.04465</v>
       </c>
-      <c r="AG5" s="49">
+      <c r="AG5" s="47">
         <f t="shared" si="4"/>
         <v>1.547</v>
       </c>
-      <c r="AH5" s="49">
+      <c r="AH5" s="47">
         <f t="shared" si="4"/>
         <v>2.24015</v>
       </c>
-      <c r="AI5" s="41">
+      <c r="AI5" s="39">
         <f t="shared" si="4"/>
         <v>1.43465</v>
       </c>
-      <c r="AJ5" s="59">
+      <c r="AJ5" s="57">
         <f t="shared" si="2"/>
         <v>0.974103649647413</v>
       </c>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="65"/>
+      <c r="AO5" s="63"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
-      <c r="AS5" s="79">
+      <c r="AS5" s="77">
         <v>1.105</v>
       </c>
-      <c r="AT5" s="79">
+      <c r="AT5" s="77">
         <v>1.096</v>
       </c>
       <c r="AU5" s="9"/>
@@ -3671,30 +3659,30 @@
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
-      <c r="BB5" s="34">
+      <c r="BB5" s="32">
         <v>10</v>
       </c>
-      <c r="BC5" s="90" t="s">
+      <c r="BC5" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="BD5" s="91" t="s">
+      <c r="BD5" s="89" t="s">
         <v>61</v>
       </c>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9"/>
-      <c r="BI5" s="34">
+      <c r="BI5" s="32">
         <v>2.18</v>
       </c>
-      <c r="BJ5" s="102">
+      <c r="BJ5" s="100">
         <f t="shared" si="3"/>
         <v>1.97285067873303</v>
       </c>
-      <c r="BK5" s="91" t="s">
+      <c r="BK5" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="BL5" s="103">
+      <c r="BL5" s="101">
         <v>44579</v>
       </c>
     </row>
@@ -3709,120 +3697,120 @@
         <v>65</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32">
         <v>0.672</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>-0.1686</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>-0.2915</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>0.0513</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="31">
         <v>0.1561</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <v>0.4225</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="31">
         <v>0.5635</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="31">
         <v>0.0724</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>-0.025</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <v>-0.1437</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <v>0.3149</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="31">
         <v>0.2253</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="31">
         <v>0.1397</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="31">
         <v>-0.5888</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="31">
         <v>-0.3376</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="31">
         <v>-0.0115</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="31">
         <v>0.0822</v>
       </c>
-      <c r="W6" s="47">
+      <c r="W6" s="45">
         <v>6.9354</v>
       </c>
-      <c r="X6" s="47">
+      <c r="X6" s="45">
         <v>1.924</v>
       </c>
-      <c r="Y6" s="47">
+      <c r="Y6" s="45">
         <v>1.1052</v>
       </c>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="49">
+      <c r="AA6" s="47">
         <f>(N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6)/12</f>
         <v>0.801675</v>
       </c>
-      <c r="AB6" s="49">
+      <c r="AB6" s="47">
         <f t="shared" si="0"/>
         <v>0.548726315789474</v>
       </c>
-      <c r="AC6" s="41">
+      <c r="AC6" s="39">
         <f t="shared" ref="AC6:AI6" si="5">(R6+S6)/2</f>
         <v>-0.22455</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="39">
         <f t="shared" si="5"/>
         <v>-0.4632</v>
       </c>
-      <c r="AE6" s="49">
+      <c r="AE6" s="47">
         <f t="shared" si="5"/>
         <v>-0.17455</v>
       </c>
-      <c r="AF6" s="49">
+      <c r="AF6" s="47">
         <f t="shared" si="5"/>
         <v>0.03535</v>
       </c>
-      <c r="AG6" s="49">
+      <c r="AG6" s="47">
         <f t="shared" si="5"/>
         <v>3.5088</v>
       </c>
-      <c r="AH6" s="49">
+      <c r="AH6" s="47">
         <f t="shared" si="5"/>
         <v>4.4297</v>
       </c>
-      <c r="AI6" s="41">
+      <c r="AI6" s="39">
         <f t="shared" si="5"/>
         <v>1.5146</v>
       </c>
-      <c r="AJ6" s="59">
+      <c r="AJ6" s="57">
         <f t="shared" si="2"/>
         <v>1.64320222460161</v>
       </c>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="65"/>
+      <c r="AO6" s="63"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
-      <c r="AS6" s="79">
+      <c r="AS6" s="77">
         <v>5.824</v>
       </c>
-      <c r="AT6" s="79">
+      <c r="AT6" s="77">
         <v>4.581</v>
       </c>
       <c r="AU6" s="9"/>
@@ -3832,28 +3820,28 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
-      <c r="BB6" s="34">
+      <c r="BB6" s="32">
         <v>6</v>
       </c>
-      <c r="BC6" s="90" t="s">
+      <c r="BC6" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="89" t="s">
+      <c r="BD6" s="87" t="s">
         <v>67</v>
       </c>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
-      <c r="BI6" s="34">
+      <c r="BI6" s="32">
         <v>3.91</v>
       </c>
-      <c r="BJ6" s="100">
+      <c r="BJ6" s="98">
         <f t="shared" si="3"/>
         <v>0.67135989010989</v>
       </c>
       <c r="BK6" s="9"/>
-      <c r="BL6" s="103">
+      <c r="BL6" s="101">
         <v>44580</v>
       </c>
     </row>
@@ -3868,122 +3856,122 @@
         <v>70</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <v>0.4234</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <v>0.69</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>-0.3529</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>-0.3095</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>-0.5424</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="31">
         <v>-0.3342</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>-0.6364</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>-0.6552</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="31">
         <v>-0.4815</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="31">
         <v>-0.7297</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="31">
         <v>-1.5</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="31">
         <v>-0.7</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="31">
         <v>-0.6429</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="31">
         <v>-0.4</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="31">
         <v>0.5</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="31">
         <v>0.6667</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="31">
         <v>2</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="31">
         <v>5.8333</v>
       </c>
-      <c r="W7" s="47">
+      <c r="W7" s="45">
         <v>21</v>
       </c>
-      <c r="X7" s="47">
+      <c r="X7" s="45">
         <v>7.2</v>
       </c>
-      <c r="Y7" s="47">
+      <c r="Y7" s="45">
         <v>3.6</v>
       </c>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="49">
+      <c r="AA7" s="47">
         <f>(N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7+X7+Y7)/12</f>
         <v>3.06895</v>
       </c>
-      <c r="AB7" s="49">
+      <c r="AB7" s="47">
         <f t="shared" si="0"/>
         <v>1.76396315789474</v>
       </c>
-      <c r="AC7" s="41">
+      <c r="AC7" s="39">
         <f t="shared" ref="AC7:AI7" si="6">(R7+S7)/2</f>
         <v>0.05</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="39">
         <f t="shared" si="6"/>
         <v>0.58335</v>
       </c>
-      <c r="AE7" s="49">
+      <c r="AE7" s="47">
         <f t="shared" si="6"/>
         <v>1.33335</v>
       </c>
-      <c r="AF7" s="49">
+      <c r="AF7" s="47">
         <f t="shared" si="6"/>
         <v>3.91665</v>
       </c>
-      <c r="AG7" s="49">
+      <c r="AG7" s="47">
         <f t="shared" si="6"/>
         <v>13.41665</v>
       </c>
-      <c r="AH7" s="49">
+      <c r="AH7" s="47">
         <f t="shared" si="6"/>
         <v>14.1</v>
       </c>
-      <c r="AI7" s="41">
+      <c r="AI7" s="39">
         <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
-      <c r="AJ7" s="59">
+      <c r="AJ7" s="57">
         <f t="shared" si="2"/>
         <v>5.22249544526268</v>
       </c>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
       <c r="AN7" s="9"/>
-      <c r="AO7" s="65"/>
+      <c r="AO7" s="63"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
-      <c r="AS7" s="79">
+      <c r="AS7" s="77">
         <v>1.847</v>
       </c>
-      <c r="AT7" s="79">
+      <c r="AT7" s="77">
         <v>1.137</v>
       </c>
       <c r="AU7" s="9"/>
@@ -3993,28 +3981,28 @@
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
-      <c r="BB7" s="34">
+      <c r="BB7" s="32">
         <v>4</v>
       </c>
-      <c r="BC7" s="90" t="s">
+      <c r="BC7" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="89" t="s">
+      <c r="BD7" s="87" t="s">
         <v>72</v>
       </c>
       <c r="BE7" s="9"/>
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9"/>
-      <c r="BI7" s="34">
+      <c r="BI7" s="32">
         <v>1.26</v>
       </c>
-      <c r="BJ7" s="100">
+      <c r="BJ7" s="98">
         <f t="shared" si="3"/>
         <v>0.682187330806714</v>
       </c>
       <c r="BK7" s="9"/>
-      <c r="BL7" s="103">
+      <c r="BL7" s="101">
         <v>44580</v>
       </c>
     </row>
@@ -4029,122 +4017,122 @@
         <v>75</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>0.6351</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <v>0.101</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <v>0.9091</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <v>-0.1724</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>0.0417</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="31">
         <v>-0.3478</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <v>-0.1905</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="31">
         <v>0.125</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="31">
         <v>-0.26</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="31">
         <v>0.2444</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="31">
         <v>0.0588</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="31">
         <v>0.037</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="31">
         <v>-0.4324</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="31">
         <v>-0.4464</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="31">
         <v>-0.4444</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="31">
         <v>0</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="31">
         <v>0</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="31">
         <v>0</v>
       </c>
-      <c r="W8" s="38">
+      <c r="W8" s="36">
         <v>1.3</v>
       </c>
-      <c r="X8" s="38">
+      <c r="X8" s="36">
         <v>0.25</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="36">
         <v>-0.4762</v>
       </c>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="55">
+      <c r="AA8" s="53">
         <f t="shared" ref="AA8:AA22" si="7">(N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8)/12</f>
         <v>0.00756666666666668</v>
       </c>
-      <c r="AB8" s="55">
+      <c r="AB8" s="53">
         <f t="shared" si="0"/>
         <v>0.0103105263157895</v>
       </c>
-      <c r="AC8" s="41">
+      <c r="AC8" s="39">
         <f t="shared" ref="AC8:AI8" si="8">(R8+S8)/2</f>
         <v>-0.4454</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="39">
         <f t="shared" si="8"/>
         <v>-0.2222</v>
       </c>
-      <c r="AE8" s="49">
+      <c r="AE8" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="49">
+      <c r="AF8" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="49">
+      <c r="AG8" s="47">
         <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
-      <c r="AH8" s="49">
+      <c r="AH8" s="47">
         <f t="shared" si="8"/>
         <v>0.775</v>
       </c>
-      <c r="AI8" s="41">
+      <c r="AI8" s="39">
         <f t="shared" si="8"/>
         <v>-0.1131</v>
       </c>
-      <c r="AJ8" s="59">
+      <c r="AJ8" s="57">
         <f t="shared" si="2"/>
         <v>0.454846862990095</v>
       </c>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="65"/>
+      <c r="AO8" s="63"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
-      <c r="AS8" s="79">
+      <c r="AS8" s="77">
         <v>4.562</v>
       </c>
-      <c r="AT8" s="79">
+      <c r="AT8" s="77">
         <v>4.48</v>
       </c>
       <c r="AU8" s="9"/>
@@ -4154,28 +4142,28 @@
       <c r="AY8" s="9"/>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="9"/>
-      <c r="BB8" s="34">
+      <c r="BB8" s="32">
         <v>9</v>
       </c>
-      <c r="BC8" s="90" t="s">
+      <c r="BC8" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="BD8" s="89" t="s">
+      <c r="BD8" s="87" t="s">
         <v>77</v>
       </c>
       <c r="BE8" s="9"/>
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9"/>
-      <c r="BI8" s="34">
+      <c r="BI8" s="32">
         <v>0.462891</v>
       </c>
-      <c r="BJ8" s="100">
+      <c r="BJ8" s="98">
         <f t="shared" si="3"/>
         <v>0.10146668128014</v>
       </c>
       <c r="BK8" s="9"/>
-      <c r="BL8" s="103">
+      <c r="BL8" s="101">
         <v>44580</v>
       </c>
     </row>
@@ -4190,122 +4178,122 @@
         <v>80</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>0.6517</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <v>0.549</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>1.2703</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>0.7241</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>0.681</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <v>0.2231</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>3.7</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="31">
         <v>1.29</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="31">
         <v>0.8718</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="31">
         <v>0.6824</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="31">
         <v>0.766</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="31">
         <v>0.3537</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="31">
         <v>0.2986</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="31">
         <v>0.241</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="31">
         <v>0.2771</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="31">
         <v>-0.0742</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="31">
         <v>-0.1055</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="31">
         <v>0.2136</v>
       </c>
-      <c r="W9" s="46">
+      <c r="W9" s="44">
         <v>0.3774</v>
       </c>
-      <c r="X9" s="46">
+      <c r="X9" s="44">
         <v>0.2892</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="44">
         <v>0.3019</v>
       </c>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="49">
+      <c r="AA9" s="47">
         <f t="shared" si="7"/>
         <v>0.301766666666667</v>
       </c>
-      <c r="AB9" s="55">
+      <c r="AB9" s="53">
         <f t="shared" si="0"/>
         <v>0.651657894736842</v>
       </c>
-      <c r="AC9" s="41">
+      <c r="AC9" s="39">
         <f t="shared" ref="AC9:AI9" si="9">(R9+S9)/2</f>
         <v>0.25905</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="39">
         <f t="shared" si="9"/>
         <v>0.10145</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AE9" s="39">
         <f t="shared" si="9"/>
         <v>-0.08985</v>
       </c>
-      <c r="AF9" s="49">
+      <c r="AF9" s="47">
         <f t="shared" si="9"/>
         <v>0.05405</v>
       </c>
-      <c r="AG9" s="49">
+      <c r="AG9" s="47">
         <f t="shared" si="9"/>
         <v>0.2955</v>
       </c>
-      <c r="AH9" s="49">
+      <c r="AH9" s="47">
         <f t="shared" si="9"/>
         <v>0.3333</v>
       </c>
-      <c r="AI9" s="41">
+      <c r="AI9" s="39">
         <f t="shared" si="9"/>
         <v>0.29555</v>
       </c>
-      <c r="AJ9" s="59">
+      <c r="AJ9" s="57">
         <f t="shared" si="2"/>
         <v>0.832605655835135</v>
       </c>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
       <c r="AN9" s="9"/>
-      <c r="AO9" s="65"/>
+      <c r="AO9" s="63"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
-      <c r="AS9" s="79">
+      <c r="AS9" s="77">
         <v>10.64</v>
       </c>
-      <c r="AT9" s="79">
+      <c r="AT9" s="77">
         <v>10.22</v>
       </c>
       <c r="AU9" s="9"/>
@@ -4315,28 +4303,28 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
-      <c r="BB9" s="34">
+      <c r="BB9" s="32">
         <v>37</v>
       </c>
-      <c r="BC9" s="91" t="s">
+      <c r="BC9" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="89" t="s">
+      <c r="BD9" s="87" t="s">
         <v>82</v>
       </c>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9"/>
-      <c r="BI9" s="34">
+      <c r="BI9" s="32">
         <v>5.84</v>
       </c>
-      <c r="BJ9" s="100">
+      <c r="BJ9" s="98">
         <f t="shared" si="3"/>
         <v>0.548872180451128</v>
       </c>
       <c r="BK9" s="9"/>
-      <c r="BL9" s="103">
+      <c r="BL9" s="101">
         <v>44585</v>
       </c>
     </row>
@@ -4351,122 +4339,122 @@
         <v>85</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>0.7647</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <v>0.407</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>0.0544</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <v>0.0366</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>0.009</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="31">
         <v>0.0227</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <v>0.0113</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="31">
         <v>0.018</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="31">
         <v>0.0132</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="31">
         <v>0.0044</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="31">
         <v>0.0199</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="31">
         <v>-0.0241</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="31">
         <v>-0.0372</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="31">
         <v>-0.0568</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="31">
         <v>-0.1353</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="31">
         <v>-0.01</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="31">
         <v>0.0149</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="31">
         <v>0.0142</v>
       </c>
-      <c r="W10" s="38">
+      <c r="W10" s="36">
         <v>0.4123</v>
       </c>
-      <c r="X10" s="38">
+      <c r="X10" s="36">
         <v>0.1456</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="36">
         <v>0.1046</v>
       </c>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="49">
+      <c r="AA10" s="47">
         <f t="shared" si="7"/>
         <v>0.0377083333333333</v>
       </c>
-      <c r="AB10" s="49">
+      <c r="AB10" s="47">
         <f t="shared" si="0"/>
         <v>0.0325105263157895</v>
       </c>
-      <c r="AC10" s="41">
+      <c r="AC10" s="39">
         <f t="shared" ref="AC10:AI10" si="10">(R10+S10)/2</f>
         <v>-0.09605</v>
       </c>
-      <c r="AD10" s="49">
+      <c r="AD10" s="47">
         <f t="shared" si="10"/>
         <v>-0.07265</v>
       </c>
-      <c r="AE10" s="49">
+      <c r="AE10" s="47">
         <f t="shared" si="10"/>
         <v>0.00245</v>
       </c>
-      <c r="AF10" s="49">
+      <c r="AF10" s="47">
         <f t="shared" si="10"/>
         <v>0.01455</v>
       </c>
-      <c r="AG10" s="49">
+      <c r="AG10" s="47">
         <f t="shared" si="10"/>
         <v>0.21325</v>
       </c>
-      <c r="AH10" s="49">
+      <c r="AH10" s="47">
         <f t="shared" si="10"/>
         <v>0.27895</v>
       </c>
-      <c r="AI10" s="41">
+      <c r="AI10" s="39">
         <f t="shared" si="10"/>
         <v>0.1251</v>
       </c>
-      <c r="AJ10" s="59">
+      <c r="AJ10" s="57">
         <f t="shared" si="2"/>
         <v>0.108527312971522</v>
       </c>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
       <c r="AN10" s="9"/>
-      <c r="AO10" s="65"/>
+      <c r="AO10" s="63"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="79">
+      <c r="AS10" s="77">
         <v>153</v>
       </c>
-      <c r="AT10" s="79">
+      <c r="AT10" s="77">
         <v>111.4</v>
       </c>
       <c r="AU10" s="9"/>
@@ -4476,28 +4464,28 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="34">
+      <c r="BB10" s="32">
         <v>87</v>
       </c>
-      <c r="BC10" s="89" t="s">
+      <c r="BC10" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="BD10" s="89" t="s">
+      <c r="BD10" s="87" t="s">
         <v>87</v>
       </c>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9"/>
-      <c r="BI10" s="34">
+      <c r="BI10" s="32">
         <v>64.56</v>
       </c>
-      <c r="BJ10" s="100">
+      <c r="BJ10" s="98">
         <f t="shared" si="3"/>
         <v>0.421960784313726</v>
       </c>
       <c r="BK10" s="9"/>
-      <c r="BL10" s="103">
+      <c r="BL10" s="101">
         <v>44585</v>
       </c>
     </row>
@@ -4512,130 +4500,130 @@
         <v>90</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>0.2823</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="32">
         <v>0.11</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <v>-0.1429</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <v>-0.4583</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>-0.1314</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="31">
         <v>-0.3333</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <v>-0.5</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="31">
         <v>-0.6923</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="31">
         <v>-0.6355</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="31">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="31">
         <v>-0.6667</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="31">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="31">
         <v>0.0487</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="31">
         <v>-0.3333</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="31">
         <v>-4.74</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="31">
         <v>-1.8333</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="31">
         <v>-1.478</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="31">
         <v>-4</v>
       </c>
-      <c r="W11" s="48">
+      <c r="W11" s="46">
         <v>0.8048</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="46">
         <v>1.6</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="46">
         <v>3.568</v>
       </c>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="49">
+      <c r="AA11" s="47">
         <f t="shared" si="7"/>
         <v>-0.585816666666667</v>
       </c>
-      <c r="AB11" s="49">
+      <c r="AB11" s="47">
         <f t="shared" ref="AB11:AB22" si="11">(G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+R11+S11+T11+U11+V11+W11+X11+Y11)/19</f>
         <v>-0.52228947368421</v>
       </c>
-      <c r="AC11" s="41">
+      <c r="AC11" s="39">
         <f t="shared" ref="AC11:AI11" si="12">(R11+S11)/2</f>
         <v>-2.53665</v>
       </c>
-      <c r="AD11" s="41">
+      <c r="AD11" s="39">
         <f t="shared" si="12"/>
         <v>-3.28665</v>
       </c>
-      <c r="AE11" s="41">
+      <c r="AE11" s="39">
         <f t="shared" si="12"/>
         <v>-1.65565</v>
       </c>
-      <c r="AF11" s="41">
+      <c r="AF11" s="39">
         <f t="shared" si="12"/>
         <v>-2.739</v>
       </c>
-      <c r="AG11" s="60">
+      <c r="AG11" s="58">
         <f t="shared" si="12"/>
         <v>-1.5976</v>
       </c>
-      <c r="AH11" s="60">
+      <c r="AH11" s="58">
         <f t="shared" si="12"/>
         <v>1.2024</v>
       </c>
-      <c r="AI11" s="60">
+      <c r="AI11" s="58">
         <f t="shared" si="12"/>
         <v>2.584</v>
       </c>
-      <c r="AJ11" s="59">
+      <c r="AJ11" s="57">
         <f t="shared" ref="AJ11:AJ22" si="13">STDEV(G11:Y11)</f>
         <v>1.78447570105642</v>
       </c>
-      <c r="AK11" s="47">
+      <c r="AK11" s="45">
         <v>0.2014</v>
       </c>
-      <c r="AL11" s="47">
+      <c r="AL11" s="45">
         <v>0.0771</v>
       </c>
-      <c r="AM11" s="47">
+      <c r="AM11" s="45">
         <v>0.26</v>
       </c>
       <c r="AN11" s="9"/>
-      <c r="AO11" s="65">
+      <c r="AO11" s="63">
         <v>42347</v>
       </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
-      <c r="AS11" s="79">
+      <c r="AS11" s="77">
         <v>1.32</v>
       </c>
-      <c r="AT11" s="79">
+      <c r="AT11" s="77">
         <v>1.184</v>
       </c>
       <c r="AU11" s="9"/>
@@ -4645,30 +4633,30 @@
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
-      <c r="BB11" s="34">
+      <c r="BB11" s="32">
         <v>2</v>
       </c>
-      <c r="BC11" s="90" t="s">
+      <c r="BC11" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="BD11" s="91" t="s">
+      <c r="BD11" s="89" t="s">
         <v>92</v>
       </c>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9"/>
-      <c r="BI11" s="34">
+      <c r="BI11" s="32">
         <v>0.139699</v>
       </c>
-      <c r="BJ11" s="100">
+      <c r="BJ11" s="98">
         <f t="shared" si="3"/>
         <v>0.105832575757576</v>
       </c>
-      <c r="BK11" s="104" t="s">
+      <c r="BK11" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="BL11" s="103">
+      <c r="BL11" s="101">
         <v>44586</v>
       </c>
     </row>
@@ -4683,130 +4671,130 @@
         <v>96</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <v>0.3655</v>
       </c>
       <c r="F12" s="14">
         <v>0.17</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>0</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>-0.0338</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="37">
         <v>-0.125</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="37">
         <v>-0.1333</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>0</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="37">
         <v>-0.125</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="37">
         <v>-0.1429</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="37">
         <v>-0.2692</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="37">
         <v>0.2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="37">
         <v>-0.0714</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="37">
         <v>-0.0556</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="37">
         <v>0</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="37">
         <v>-0.6667</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="37">
         <v>-0.3077</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="37">
         <v>-0.1176</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="37">
         <v>-0.1053</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="37">
         <v>1.5</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="37">
         <v>0.2222</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="37">
         <v>0.1333</v>
       </c>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="49">
+      <c r="AA12" s="47">
         <f t="shared" si="7"/>
         <v>0.0385</v>
       </c>
-      <c r="AB12" s="49">
+      <c r="AB12" s="47">
         <f t="shared" si="11"/>
         <v>-0.00515789473684209</v>
       </c>
-      <c r="AC12" s="41">
+      <c r="AC12" s="39">
         <f t="shared" ref="AC12:AI12" si="14">(R12+S12)/2</f>
         <v>-0.33335</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="39">
         <f t="shared" si="14"/>
         <v>-0.4872</v>
       </c>
-      <c r="AE12" s="49">
+      <c r="AE12" s="47">
         <f t="shared" si="14"/>
         <v>-0.21265</v>
       </c>
-      <c r="AF12" s="49">
+      <c r="AF12" s="47">
         <f t="shared" si="14"/>
         <v>-0.11145</v>
       </c>
-      <c r="AG12" s="49">
+      <c r="AG12" s="47">
         <f t="shared" si="14"/>
         <v>0.69735</v>
       </c>
-      <c r="AH12" s="49">
+      <c r="AH12" s="47">
         <f t="shared" si="14"/>
         <v>0.8611</v>
       </c>
-      <c r="AI12" s="41">
+      <c r="AI12" s="39">
         <f t="shared" si="14"/>
         <v>0.17775</v>
       </c>
-      <c r="AJ12" s="59">
+      <c r="AJ12" s="57">
         <f t="shared" si="13"/>
         <v>0.413115667574254</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="37">
         <v>-0.4742</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="37">
         <v>-0.4142</v>
       </c>
-      <c r="AM12" s="39">
+      <c r="AM12" s="37">
         <v>-0.3214</v>
       </c>
       <c r="AN12" s="14"/>
-      <c r="AO12" s="66">
+      <c r="AO12" s="64">
         <v>35599</v>
       </c>
       <c r="AP12" s="14"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="14"/>
-      <c r="AS12" s="80">
+      <c r="AS12" s="78">
         <v>13.29</v>
       </c>
-      <c r="AT12" s="80">
+      <c r="AT12" s="78">
         <v>13.29</v>
       </c>
       <c r="AU12" s="14"/>
@@ -4819,10 +4807,10 @@
       <c r="BB12" s="14">
         <v>4</v>
       </c>
-      <c r="BC12" s="92" t="s">
+      <c r="BC12" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="93" t="s">
+      <c r="BD12" s="91" t="s">
         <v>98</v>
       </c>
       <c r="BE12" s="14"/>
@@ -4832,14 +4820,14 @@
       <c r="BI12" s="14">
         <v>2.29</v>
       </c>
-      <c r="BJ12" s="105">
+      <c r="BJ12" s="103">
         <f t="shared" si="3"/>
         <v>0.172310007524454</v>
       </c>
-      <c r="BK12" s="90" t="s">
+      <c r="BK12" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="BL12" s="66">
+      <c r="BL12" s="64">
         <v>44605</v>
       </c>
     </row>
@@ -4854,130 +4842,130 @@
         <v>102</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>0.3405</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>0.69</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <v>1.7</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <v>-0.0417</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>-0.3099</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="39">
         <v>0.3223</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="39">
         <v>1.7037</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <v>0.913</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="39">
         <v>1.0816</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="39">
         <v>0.1812</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="39">
         <v>-0.5616</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="39">
         <v>-0.3182</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <v>-0.4118</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <v>0.0529</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="39">
         <v>-0.9063</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="39">
         <v>-0.9167</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="39">
         <v>-0.6833</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="39">
         <v>-0.2663</v>
       </c>
-      <c r="W13" s="47">
+      <c r="W13" s="45">
         <v>0.6667</v>
       </c>
-      <c r="X13" s="47">
+      <c r="X13" s="45">
         <v>8.4</v>
       </c>
-      <c r="Y13" s="47">
+      <c r="Y13" s="45">
         <v>2.6316</v>
       </c>
       <c r="Z13" s="22"/>
-      <c r="AA13" s="49">
+      <c r="AA13" s="47">
         <f t="shared" si="7"/>
         <v>0.655683333333334</v>
       </c>
-      <c r="AB13" s="49">
+      <c r="AB13" s="47">
         <f t="shared" si="11"/>
         <v>0.696694736842105</v>
       </c>
-      <c r="AC13" s="41">
+      <c r="AC13" s="39">
         <f t="shared" ref="AC13:AI13" si="15">(R13+S13)/2</f>
         <v>-0.4267</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="39">
         <f t="shared" si="15"/>
         <v>-0.9115</v>
       </c>
-      <c r="AE13" s="49">
+      <c r="AE13" s="47">
         <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
-      <c r="AF13" s="49">
+      <c r="AF13" s="47">
         <f t="shared" si="15"/>
         <v>-0.4748</v>
       </c>
-      <c r="AG13" s="60">
+      <c r="AG13" s="58">
         <f t="shared" si="15"/>
         <v>0.2002</v>
       </c>
-      <c r="AH13" s="60">
+      <c r="AH13" s="58">
         <f t="shared" si="15"/>
         <v>4.53335</v>
       </c>
-      <c r="AI13" s="60">
+      <c r="AI13" s="58">
         <f t="shared" si="15"/>
         <v>5.5158</v>
       </c>
-      <c r="AJ13" s="59">
+      <c r="AJ13" s="57">
         <f t="shared" si="13"/>
         <v>2.10193806560456</v>
       </c>
-      <c r="AK13" s="38">
+      <c r="AK13" s="36">
         <v>0.7335</v>
       </c>
-      <c r="AL13" s="38">
+      <c r="AL13" s="36">
         <v>0.4001</v>
       </c>
-      <c r="AM13" s="38">
+      <c r="AM13" s="36">
         <v>0.1638</v>
       </c>
       <c r="AN13" s="22"/>
-      <c r="AO13" s="67">
+      <c r="AO13" s="65">
         <v>42368</v>
       </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
-      <c r="AS13" s="79">
+      <c r="AS13" s="77">
         <v>79.23</v>
       </c>
-      <c r="AT13" s="79">
+      <c r="AT13" s="77">
         <v>79.22</v>
       </c>
       <c r="AU13" s="9"/>
@@ -4987,30 +4975,30 @@
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
-      <c r="BB13" s="34">
+      <c r="BB13" s="32">
         <v>123</v>
       </c>
-      <c r="BC13" s="90" t="s">
+      <c r="BC13" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="BD13" s="90" t="s">
+      <c r="BD13" s="88" t="s">
         <v>104</v>
       </c>
       <c r="BE13" s="9"/>
       <c r="BF13" s="9"/>
       <c r="BG13" s="9"/>
       <c r="BH13" s="9"/>
-      <c r="BI13" s="34">
+      <c r="BI13" s="32">
         <v>63.51</v>
       </c>
-      <c r="BJ13" s="100">
+      <c r="BJ13" s="98">
         <f t="shared" ref="BJ13:BJ20" si="16">BI13/AS13</f>
         <v>0.801590306702007</v>
       </c>
-      <c r="BK13" s="91" t="s">
+      <c r="BK13" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="BL13" s="103">
+      <c r="BL13" s="101">
         <v>44601</v>
       </c>
     </row>
@@ -5025,130 +5013,130 @@
         <v>108</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>0.6596</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <v>0.577</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>0.8333</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <v>0.4375</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <v>0.5455</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <v>0.0937</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <v>-0.4545</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <v>-0.0435</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <v>0.0294</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <v>0.3143</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <v>0.6667</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="39">
         <v>0.3182</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="39">
         <v>0.1143</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="39">
         <v>0.2174</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="39">
         <v>2.1</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="39">
         <v>0.7241</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="39">
         <v>0.6923</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="39">
         <v>0.3393</v>
       </c>
-      <c r="W14" s="38">
+      <c r="W14" s="36">
         <v>0.2581</v>
       </c>
-      <c r="X14" s="38">
+      <c r="X14" s="36">
         <v>0.08</v>
       </c>
-      <c r="Y14" s="38">
+      <c r="Y14" s="36">
         <v>-0.0909</v>
       </c>
       <c r="Z14" s="22"/>
-      <c r="AA14" s="55">
+      <c r="AA14" s="53">
         <f t="shared" si="7"/>
         <v>0.477816666666667</v>
       </c>
-      <c r="AB14" s="55">
+      <c r="AB14" s="53">
         <f t="shared" si="11"/>
         <v>0.377642105263158</v>
       </c>
-      <c r="AC14" s="41">
+      <c r="AC14" s="39">
         <f t="shared" ref="AC14:AC23" si="17">(R14+S14)/2</f>
         <v>1.1587</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AD14" s="39">
         <f t="shared" ref="AD14:AD23" si="18">(S14+T14)/2</f>
         <v>1.41205</v>
       </c>
-      <c r="AE14" s="41">
+      <c r="AE14" s="39">
         <f t="shared" ref="AE14:AE23" si="19">(T14+U14)/2</f>
         <v>0.7082</v>
       </c>
-      <c r="AF14" s="41">
+      <c r="AF14" s="39">
         <f t="shared" ref="AF14:AF23" si="20">(U14+V14)/2</f>
         <v>0.5158</v>
       </c>
-      <c r="AG14" s="41">
+      <c r="AG14" s="39">
         <f t="shared" ref="AG14:AG23" si="21">(V14+W14)/2</f>
         <v>0.2987</v>
       </c>
-      <c r="AH14" s="41">
+      <c r="AH14" s="39">
         <f t="shared" ref="AH14:AH23" si="22">(W14+X14)/2</f>
         <v>0.16905</v>
       </c>
-      <c r="AI14" s="41">
+      <c r="AI14" s="39">
         <f t="shared" ref="AI14:AI23" si="23">(X14+Y14)/2</f>
         <v>-0.00545</v>
       </c>
-      <c r="AJ14" s="59">
+      <c r="AJ14" s="57">
         <f t="shared" si="13"/>
         <v>0.527397656544523</v>
       </c>
-      <c r="AK14" s="47">
+      <c r="AK14" s="45">
         <v>0.2685</v>
       </c>
-      <c r="AL14" s="47">
+      <c r="AL14" s="45">
         <v>0.4227</v>
       </c>
-      <c r="AM14" s="47">
+      <c r="AM14" s="45">
         <v>0.3457</v>
       </c>
       <c r="AN14" s="22"/>
-      <c r="AO14" s="67">
+      <c r="AO14" s="65">
         <v>37757</v>
       </c>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
-      <c r="AS14" s="79">
+      <c r="AS14" s="77">
         <v>5.912</v>
       </c>
-      <c r="AT14" s="79">
+      <c r="AT14" s="77">
         <v>5.69</v>
       </c>
       <c r="AU14" s="9"/>
@@ -5158,30 +5146,30 @@
       <c r="AY14" s="9"/>
       <c r="AZ14" s="9"/>
       <c r="BA14" s="9"/>
-      <c r="BB14" s="34">
+      <c r="BB14" s="32">
         <v>11</v>
       </c>
-      <c r="BC14" s="90" t="s">
+      <c r="BC14" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="BD14" s="90" t="s">
+      <c r="BD14" s="88" t="s">
         <v>110</v>
       </c>
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
       <c r="BG14" s="9"/>
       <c r="BH14" s="9"/>
-      <c r="BI14" s="34">
+      <c r="BI14" s="32">
         <v>3.41</v>
       </c>
-      <c r="BJ14" s="100">
+      <c r="BJ14" s="98">
         <f t="shared" si="16"/>
         <v>0.576792963464141</v>
       </c>
-      <c r="BK14" s="106" t="s">
+      <c r="BK14" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" s="103">
+      <c r="BL14" s="101">
         <v>44601</v>
       </c>
     </row>
@@ -5196,130 +5184,130 @@
         <v>114</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>0.5308</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="40">
         <v>0.82</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <v>0.3043</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <v>0.1454</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="39">
         <v>0.2327</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="39">
         <v>0.1847</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="39">
         <v>0.2133</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="39">
         <v>0.3746</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="39">
         <v>0.3028</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="39">
         <v>1.4835</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="39">
         <v>0.1758</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="39">
         <v>0.6306</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="39">
         <v>0.4161</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="39">
         <v>-0.2543</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="39">
         <v>-1.285</v>
       </c>
-      <c r="T15" s="41">
+      <c r="T15" s="39">
         <v>-0.9669</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="39">
         <v>-0.6954</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="39">
         <v>-0.2007</v>
       </c>
-      <c r="W15" s="49">
+      <c r="W15" s="47">
         <v>4.7213</v>
       </c>
-      <c r="X15" s="49">
+      <c r="X15" s="47">
         <v>20.5417</v>
       </c>
-      <c r="Y15" s="49">
+      <c r="Y15" s="47">
         <v>1.7152</v>
       </c>
       <c r="Z15" s="22"/>
-      <c r="AA15" s="55">
+      <c r="AA15" s="53">
         <f t="shared" si="7"/>
         <v>2.19015833333333</v>
       </c>
-      <c r="AB15" s="49">
+      <c r="AB15" s="47">
         <f t="shared" si="11"/>
         <v>1.47577368421053</v>
       </c>
-      <c r="AC15" s="41">
+      <c r="AC15" s="39">
         <f t="shared" si="17"/>
         <v>-0.76965</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AD15" s="39">
         <f t="shared" si="18"/>
         <v>-1.12595</v>
       </c>
-      <c r="AE15" s="49">
+      <c r="AE15" s="47">
         <f t="shared" si="19"/>
         <v>-0.83115</v>
       </c>
-      <c r="AF15" s="49">
+      <c r="AF15" s="47">
         <f t="shared" si="20"/>
         <v>-0.44805</v>
       </c>
-      <c r="AG15" s="49">
+      <c r="AG15" s="47">
         <f t="shared" si="21"/>
         <v>2.2603</v>
       </c>
-      <c r="AH15" s="49">
+      <c r="AH15" s="47">
         <f t="shared" si="22"/>
         <v>12.6315</v>
       </c>
-      <c r="AI15" s="41">
+      <c r="AI15" s="39">
         <f t="shared" si="23"/>
         <v>11.12845</v>
       </c>
-      <c r="AJ15" s="59">
+      <c r="AJ15" s="57">
         <f t="shared" si="13"/>
         <v>4.78580313344028</v>
       </c>
-      <c r="AK15" s="49">
+      <c r="AK15" s="47">
         <v>2.2501</v>
       </c>
-      <c r="AL15" s="49">
+      <c r="AL15" s="47">
         <v>0.7909</v>
       </c>
-      <c r="AM15" s="49">
+      <c r="AM15" s="47">
         <v>0.5626</v>
       </c>
       <c r="AN15" s="22"/>
-      <c r="AO15" s="68">
+      <c r="AO15" s="66">
         <v>37250</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
-      <c r="AS15" s="81">
+      <c r="AS15" s="79">
         <v>21.81</v>
       </c>
-      <c r="AT15" s="81">
+      <c r="AT15" s="79">
         <v>14.33</v>
       </c>
       <c r="AU15" s="9"/>
@@ -5332,10 +5320,10 @@
       <c r="BB15" s="22">
         <v>1</v>
       </c>
-      <c r="BC15" s="90" t="s">
+      <c r="BC15" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="BD15" s="90" t="s">
+      <c r="BD15" s="88" t="s">
         <v>116</v>
       </c>
       <c r="BE15" s="9"/>
@@ -5345,14 +5333,14 @@
       <c r="BI15" s="9">
         <v>19.28</v>
       </c>
-      <c r="BJ15" s="100">
+      <c r="BJ15" s="98">
         <f t="shared" si="16"/>
         <v>0.883998165978909</v>
       </c>
-      <c r="BK15" s="107" t="s">
+      <c r="BK15" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="BL15" s="103">
+      <c r="BL15" s="101">
         <v>44608</v>
       </c>
     </row>
@@ -5367,130 +5355,130 @@
         <v>120</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>0.5564</v>
       </c>
       <c r="F16" s="9">
         <v>0.725</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <v>0.7222</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <v>-0.1944</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <v>-0.0698</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="39">
         <v>-0.4096</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="39">
         <v>-0.3226</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="39">
         <v>0.2759</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="39">
         <v>0.3</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="39">
         <v>0.5102</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="39">
         <v>0.381</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="39">
         <v>0.4865</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="39">
         <v>0.5</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="39">
         <v>0.2027</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="39">
         <v>0.7241</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="39">
         <v>0.5273</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="39">
         <v>0.3077</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="39">
         <v>0.1798</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="31">
         <v>-0.14</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="31">
         <v>-0.2143</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="31">
         <v>-0.2941</v>
       </c>
       <c r="Z16" s="22"/>
-      <c r="AA16" s="55">
+      <c r="AA16" s="53">
         <f t="shared" si="7"/>
         <v>0.264241666666667</v>
       </c>
-      <c r="AB16" s="55">
+      <c r="AB16" s="53">
         <f t="shared" si="11"/>
         <v>0.182768421052632</v>
       </c>
-      <c r="AC16" s="41">
+      <c r="AC16" s="39">
         <f t="shared" si="17"/>
         <v>0.4634</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AD16" s="39">
         <f t="shared" si="18"/>
         <v>0.6257</v>
       </c>
-      <c r="AE16" s="41">
+      <c r="AE16" s="39">
         <f t="shared" si="19"/>
         <v>0.4175</v>
       </c>
-      <c r="AF16" s="41">
+      <c r="AF16" s="39">
         <f t="shared" si="20"/>
         <v>0.24375</v>
       </c>
-      <c r="AG16" s="41">
+      <c r="AG16" s="39">
         <f t="shared" si="21"/>
         <v>0.0199</v>
       </c>
-      <c r="AH16" s="41">
+      <c r="AH16" s="39">
         <f t="shared" si="22"/>
         <v>-0.17715</v>
       </c>
-      <c r="AI16" s="41">
+      <c r="AI16" s="39">
         <f t="shared" si="23"/>
         <v>-0.2542</v>
       </c>
-      <c r="AJ16" s="59">
+      <c r="AJ16" s="57">
         <f t="shared" si="13"/>
         <v>0.363787610583476</v>
       </c>
-      <c r="AK16" s="33">
+      <c r="AK16" s="31">
         <v>-0.1922</v>
       </c>
-      <c r="AL16" s="33">
+      <c r="AL16" s="31">
         <v>-0.1946</v>
       </c>
-      <c r="AM16" s="33">
+      <c r="AM16" s="31">
         <v>-0.0688</v>
       </c>
       <c r="AN16" s="22"/>
-      <c r="AO16" s="68">
+      <c r="AO16" s="66">
         <v>42031</v>
       </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
-      <c r="AS16" s="81">
+      <c r="AS16" s="79">
         <v>3.726</v>
       </c>
-      <c r="AT16" s="81">
+      <c r="AT16" s="79">
         <v>3.253</v>
       </c>
       <c r="AU16" s="9"/>
@@ -5503,10 +5491,10 @@
       <c r="BB16" s="9">
         <v>2</v>
       </c>
-      <c r="BC16" s="90" t="s">
+      <c r="BC16" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="BD16" s="90" t="s">
+      <c r="BD16" s="88" t="s">
         <v>122</v>
       </c>
       <c r="BE16" s="9"/>
@@ -5514,14 +5502,14 @@
       <c r="BG16" s="9"/>
       <c r="BH16" s="9"/>
       <c r="BI16" s="9"/>
-      <c r="BJ16" s="100">
+      <c r="BJ16" s="98">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BK16" s="108" t="s">
+      <c r="BK16" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="BL16" s="103">
+      <c r="BL16" s="101">
         <v>44608</v>
       </c>
     </row>
@@ -5536,108 +5524,108 @@
         <v>126</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41">
         <v>0.0625</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="41">
         <v>0.0534</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="41">
         <v>0.0052</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="41">
         <v>-0.2069</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="41">
         <v>-0.2</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <v>-0.1884</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="41">
         <v>-0.0625</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="48">
         <v>1.087</v>
       </c>
-      <c r="X17" s="50">
+      <c r="X17" s="48">
         <v>0.7941</v>
       </c>
-      <c r="Y17" s="50">
+      <c r="Y17" s="48">
         <v>0.6696</v>
       </c>
       <c r="Z17" s="20"/>
-      <c r="AA17" s="49">
+      <c r="AA17" s="47">
         <f t="shared" si="7"/>
         <v>0.167833333333333</v>
       </c>
-      <c r="AB17" s="50">
+      <c r="AB17" s="48">
         <f t="shared" si="11"/>
         <v>0.106</v>
       </c>
-      <c r="AC17" s="41">
+      <c r="AC17" s="39">
         <f t="shared" si="17"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AD17" s="39">
         <f t="shared" si="18"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE17" s="49">
+      <c r="AE17" s="47">
         <f t="shared" si="19"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF17" s="49">
+      <c r="AF17" s="47">
         <f t="shared" si="20"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG17" s="49">
+      <c r="AG17" s="47">
         <f t="shared" si="21"/>
         <v>0.51225</v>
       </c>
-      <c r="AH17" s="49">
+      <c r="AH17" s="47">
         <f t="shared" si="22"/>
         <v>0.94055</v>
       </c>
-      <c r="AI17" s="41">
+      <c r="AI17" s="39">
         <f t="shared" si="23"/>
         <v>0.73185</v>
       </c>
-      <c r="AJ17" s="61">
+      <c r="AJ17" s="59">
         <f t="shared" si="13"/>
         <v>0.469503477682067</v>
       </c>
-      <c r="AK17" s="50">
+      <c r="AK17" s="48">
         <v>1.0194</v>
       </c>
-      <c r="AL17" s="50">
+      <c r="AL17" s="48">
         <v>0.7661</v>
       </c>
-      <c r="AM17" s="50">
+      <c r="AM17" s="48">
         <v>0.6219</v>
       </c>
       <c r="AN17" s="20"/>
-      <c r="AO17" s="69">
+      <c r="AO17" s="67">
         <v>43823</v>
       </c>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="20"/>
       <c r="AR17" s="20"/>
-      <c r="AS17" s="82">
+      <c r="AS17" s="80">
         <v>2.331</v>
       </c>
-      <c r="AT17" s="83">
+      <c r="AT17" s="81">
         <v>1.118</v>
       </c>
       <c r="AU17" s="20"/>
@@ -5647,30 +5635,30 @@
       <c r="AY17" s="20"/>
       <c r="AZ17" s="20"/>
       <c r="BA17" s="20"/>
-      <c r="BB17" s="94">
+      <c r="BB17" s="92">
         <v>21</v>
       </c>
-      <c r="BC17" s="95" t="s">
+      <c r="BC17" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="BD17" s="95" t="s">
+      <c r="BD17" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="BE17" s="94"/>
-      <c r="BF17" s="94"/>
-      <c r="BG17" s="94"/>
-      <c r="BH17" s="94"/>
-      <c r="BI17" s="109">
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="92"/>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="107">
         <v>5.25</v>
       </c>
-      <c r="BJ17" s="100">
+      <c r="BJ17" s="98">
         <f t="shared" si="16"/>
         <v>2.25225225225225</v>
       </c>
-      <c r="BK17" s="95" t="s">
+      <c r="BK17" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="BL17" s="110">
+      <c r="BL17" s="108">
         <v>44578</v>
       </c>
     </row>
@@ -5685,122 +5673,122 @@
         <v>132</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="43">
+      <c r="G18" s="41">
         <v>0.4231</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="41">
         <v>0.4</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="41">
         <v>0.3529</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="41">
         <v>0.2235</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="41">
         <v>-0.1351</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="41">
         <v>-0.4444</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="41">
         <v>-0.337</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="41">
         <v>-0.4712</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="41">
         <v>-0.6875</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="41">
         <v>0.0857</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="41">
         <v>0.082</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="41">
         <v>0.5818</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="41">
         <v>1.1</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="41">
         <v>0.5263</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="41">
         <v>0.4697</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="41">
         <v>0.4253</v>
       </c>
-      <c r="W18" s="50">
+      <c r="W18" s="48">
         <v>1.2381</v>
       </c>
-      <c r="X18" s="50">
+      <c r="X18" s="48">
         <v>0.6897</v>
       </c>
-      <c r="Y18" s="50">
+      <c r="Y18" s="48">
         <v>0.4021</v>
       </c>
       <c r="Z18" s="20"/>
-      <c r="AA18" s="49">
-        <f>(N18+O18+P18+Q18+R18+S18+T18+U18+V18+W18+X18+Y18)/12</f>
+      <c r="AA18" s="47">
+        <f t="shared" si="7"/>
         <v>0.370166666666667</v>
       </c>
-      <c r="AB18" s="50">
+      <c r="AB18" s="48">
         <f t="shared" si="11"/>
         <v>0.259210526315789</v>
       </c>
-      <c r="AC18" s="41">
+      <c r="AC18" s="39">
         <f t="shared" si="17"/>
         <v>0.8409</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="39">
         <f t="shared" si="18"/>
         <v>0.81315</v>
       </c>
-      <c r="AE18" s="41">
+      <c r="AE18" s="39">
         <f t="shared" si="19"/>
         <v>0.498</v>
       </c>
-      <c r="AF18" s="41">
+      <c r="AF18" s="39">
         <f t="shared" si="20"/>
         <v>0.4475</v>
       </c>
-      <c r="AG18" s="49">
+      <c r="AG18" s="47">
         <f t="shared" si="21"/>
         <v>0.8317</v>
       </c>
-      <c r="AH18" s="49">
+      <c r="AH18" s="47">
         <f t="shared" si="22"/>
         <v>0.9639</v>
       </c>
-      <c r="AI18" s="41">
+      <c r="AI18" s="39">
         <f t="shared" si="23"/>
         <v>0.5459</v>
       </c>
-      <c r="AJ18" s="61">
+      <c r="AJ18" s="59">
         <f t="shared" si="13"/>
         <v>0.509476975703446</v>
       </c>
-      <c r="AK18" s="43">
+      <c r="AK18" s="41">
         <v>0.3237</v>
       </c>
-      <c r="AL18" s="43">
+      <c r="AL18" s="41">
         <v>0.2459</v>
       </c>
-      <c r="AM18" s="43">
+      <c r="AM18" s="41">
         <v>0.205</v>
       </c>
       <c r="AN18" s="20"/>
-      <c r="AO18" s="70"/>
+      <c r="AO18" s="68"/>
       <c r="AP18" s="20"/>
       <c r="AQ18" s="20"/>
       <c r="AR18" s="20"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
       <c r="AU18" s="20"/>
       <c r="AV18" s="20"/>
       <c r="AW18" s="20"/>
@@ -5809,19 +5797,19 @@
       <c r="AZ18" s="20"/>
       <c r="BA18" s="20"/>
       <c r="BB18" s="20"/>
-      <c r="BC18" s="96"/>
-      <c r="BD18" s="96"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="94"/>
       <c r="BE18" s="20"/>
       <c r="BF18" s="20"/>
       <c r="BG18" s="20"/>
       <c r="BH18" s="20"/>
       <c r="BI18" s="20"/>
-      <c r="BJ18" s="100" t="e">
+      <c r="BJ18" s="98" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK18" s="20"/>
-      <c r="BL18" s="103">
+      <c r="BL18" s="101">
         <v>44608</v>
       </c>
     </row>
@@ -5836,124 +5824,124 @@
         <v>135</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="43">
+      <c r="G19" s="41">
         <v>0.2019</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="41">
         <v>-0.1083</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="41">
         <v>-0.1304</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="41">
         <v>-0.0952</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="41">
         <v>0.926</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="41">
         <v>0.8056</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="41">
         <v>0.8</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="41">
         <v>0.1316</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="41">
         <v>0.0748</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="41">
         <v>1.2774</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="41">
         <v>0.5556</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="41">
         <v>0.9535</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="41">
         <v>1.4155</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="41">
         <v>0.0455</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="41">
         <v>0.5536</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="41">
         <v>-0.0238</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="48">
         <v>0.6</v>
       </c>
-      <c r="X19" s="50">
+      <c r="X19" s="48">
         <v>1.0652</v>
       </c>
-      <c r="Y19" s="50">
+      <c r="Y19" s="48">
         <v>0.4943</v>
       </c>
       <c r="Z19" s="20"/>
-      <c r="AA19" s="55">
+      <c r="AA19" s="53">
         <f t="shared" si="7"/>
         <v>0.595266666666667</v>
       </c>
-      <c r="AB19" s="56">
+      <c r="AB19" s="54">
         <f t="shared" si="11"/>
         <v>0.502252631578947</v>
       </c>
-      <c r="AC19" s="41">
+      <c r="AC19" s="39">
         <f t="shared" si="17"/>
         <v>1.1845</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AD19" s="39">
         <f t="shared" si="18"/>
         <v>0.7305</v>
       </c>
-      <c r="AE19" s="41">
+      <c r="AE19" s="39">
         <f t="shared" si="19"/>
         <v>0.29955</v>
       </c>
-      <c r="AF19" s="41">
+      <c r="AF19" s="39">
         <f t="shared" si="20"/>
         <v>0.2649</v>
       </c>
-      <c r="AG19" s="49">
+      <c r="AG19" s="47">
         <f t="shared" si="21"/>
         <v>0.2881</v>
       </c>
-      <c r="AH19" s="49">
+      <c r="AH19" s="47">
         <f t="shared" si="22"/>
         <v>0.8326</v>
       </c>
-      <c r="AI19" s="41">
+      <c r="AI19" s="39">
         <f t="shared" si="23"/>
         <v>0.77975</v>
       </c>
-      <c r="AJ19" s="61">
+      <c r="AJ19" s="59">
         <f t="shared" si="13"/>
         <v>0.491956527402372</v>
       </c>
-      <c r="AK19" s="51">
+      <c r="AK19" s="49">
         <v>0.178</v>
       </c>
-      <c r="AL19" s="51">
+      <c r="AL19" s="49">
         <v>0.5323</v>
       </c>
-      <c r="AM19" s="51">
+      <c r="AM19" s="49">
         <v>0.6121</v>
       </c>
       <c r="AN19" s="20"/>
-      <c r="AO19" s="70"/>
+      <c r="AO19" s="68"/>
       <c r="AP19" s="20"/>
       <c r="AQ19" s="20"/>
       <c r="AR19" s="20"/>
-      <c r="AS19" s="84">
+      <c r="AS19" s="82">
         <v>4.704</v>
       </c>
-      <c r="AT19" s="84">
+      <c r="AT19" s="82">
         <v>3.956</v>
       </c>
       <c r="AU19" s="20"/>
@@ -5966,10 +5954,10 @@
       <c r="BB19" s="20">
         <v>4</v>
       </c>
-      <c r="BC19" s="90" t="s">
+      <c r="BC19" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="BD19" s="90" t="s">
+      <c r="BD19" s="88" t="s">
         <v>137</v>
       </c>
       <c r="BE19" s="20"/>
@@ -5979,12 +5967,12 @@
       <c r="BI19" s="20">
         <v>6.04</v>
       </c>
-      <c r="BJ19" s="100">
+      <c r="BJ19" s="98">
         <f t="shared" si="16"/>
         <v>1.28401360544218</v>
       </c>
       <c r="BK19" s="20"/>
-      <c r="BL19" s="103">
+      <c r="BL19" s="101">
         <v>44608</v>
       </c>
     </row>
@@ -5999,128 +5987,128 @@
         <v>140</v>
       </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>0.2676</v>
       </c>
       <c r="F20" s="20">
         <v>1.2</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="41">
         <v>0.125</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="41">
         <v>0</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="41">
         <v>-0.1017</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="41">
         <v>-0.0235</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="41">
         <v>0.1389</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="41">
         <v>0.1707</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="41">
         <v>0.1698</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="41">
         <v>0.1687</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="41">
         <v>0.0732</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="41">
         <v>0.1667</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="41">
         <v>0.2097</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="41">
         <v>0.1959</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="41">
         <v>-0.3409</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="41">
         <v>-0.25</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="41">
         <v>-0.12</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="41">
         <v>0.0259</v>
       </c>
-      <c r="W20" s="51">
+      <c r="W20" s="49">
         <v>0.5862</v>
       </c>
-      <c r="X20" s="51">
+      <c r="X20" s="49">
         <v>0.7619</v>
       </c>
-      <c r="Y20" s="51">
+      <c r="Y20" s="49">
         <v>0.8182</v>
       </c>
       <c r="Z20" s="20"/>
-      <c r="AA20" s="49">
+      <c r="AA20" s="47">
         <f t="shared" si="7"/>
         <v>0.191291666666667</v>
       </c>
-      <c r="AB20" s="50">
+      <c r="AB20" s="48">
         <f t="shared" si="11"/>
         <v>0.146036842105263</v>
       </c>
-      <c r="AC20" s="41">
+      <c r="AC20" s="39">
         <f t="shared" si="17"/>
         <v>-0.0725</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AD20" s="39">
         <f t="shared" si="18"/>
         <v>-0.29545</v>
       </c>
-      <c r="AE20" s="49">
+      <c r="AE20" s="47">
         <f t="shared" si="19"/>
         <v>-0.185</v>
       </c>
-      <c r="AF20" s="49">
+      <c r="AF20" s="47">
         <f t="shared" si="20"/>
         <v>-0.04705</v>
       </c>
-      <c r="AG20" s="60">
+      <c r="AG20" s="58">
         <f t="shared" si="21"/>
         <v>0.30605</v>
       </c>
-      <c r="AH20" s="60">
+      <c r="AH20" s="58">
         <f t="shared" si="22"/>
         <v>0.67405</v>
       </c>
-      <c r="AI20" s="60">
+      <c r="AI20" s="58">
         <f t="shared" si="23"/>
         <v>0.79005</v>
       </c>
-      <c r="AJ20" s="61">
+      <c r="AJ20" s="59">
         <f t="shared" si="13"/>
         <v>0.300914355129175</v>
       </c>
-      <c r="AK20" s="50">
+      <c r="AK20" s="48">
         <v>1.3196</v>
       </c>
-      <c r="AL20" s="50">
+      <c r="AL20" s="48">
         <v>0.8147</v>
       </c>
-      <c r="AM20" s="50">
+      <c r="AM20" s="48">
         <v>0.5566</v>
       </c>
       <c r="AN20" s="20"/>
-      <c r="AO20" s="70"/>
+      <c r="AO20" s="68"/>
       <c r="AP20" s="20"/>
       <c r="AQ20" s="20"/>
       <c r="AR20" s="20"/>
-      <c r="AS20" s="84">
+      <c r="AS20" s="82">
         <v>8</v>
       </c>
-      <c r="AT20" s="84">
+      <c r="AT20" s="82">
         <v>8</v>
       </c>
       <c r="AU20" s="20"/>
@@ -6133,10 +6121,10 @@
       <c r="BB20" s="20">
         <v>60</v>
       </c>
-      <c r="BC20" s="90" t="s">
+      <c r="BC20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="BD20" s="90" t="s">
+      <c r="BD20" s="88" t="s">
         <v>142</v>
       </c>
       <c r="BE20" s="20"/>
@@ -6146,14 +6134,14 @@
       <c r="BI20" s="20">
         <v>9.62</v>
       </c>
-      <c r="BJ20" s="100">
+      <c r="BJ20" s="98">
         <f t="shared" si="16"/>
         <v>1.2025</v>
       </c>
-      <c r="BK20" s="107" t="s">
+      <c r="BK20" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="BL20" s="103">
+      <c r="BL20" s="101">
         <v>44608</v>
       </c>
     </row>
@@ -6168,120 +6156,120 @@
         <v>146</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>0.3207</v>
       </c>
       <c r="F21" s="22">
         <v>0.585</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <v>0.0742</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <v>0.0717</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="39">
         <v>0.1941</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="39">
         <v>0.3455</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="39">
         <v>0.2853</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="39">
         <v>0.2853</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="39">
         <v>0.1566</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="39">
         <v>0.1897</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="39">
         <v>-0.0897</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="39">
         <v>-0.1581</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="39">
         <v>-0.1517</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="39">
         <v>-0.0882</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="39">
         <v>-0.559</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="39">
         <v>-0.1974</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="39">
         <v>0.0085</v>
       </c>
-      <c r="V21" s="41">
+      <c r="V21" s="39">
         <v>0.0706</v>
       </c>
-      <c r="W21" s="41">
+      <c r="W21" s="39">
         <v>1.5611</v>
       </c>
-      <c r="X21" s="41">
+      <c r="X21" s="39">
         <v>0.704</v>
       </c>
-      <c r="Y21" s="41">
+      <c r="Y21" s="39">
         <v>0.3564</v>
       </c>
       <c r="Z21" s="22"/>
-      <c r="AA21" s="49">
+      <c r="AA21" s="47">
         <f t="shared" si="7"/>
         <v>0.137183333333333</v>
       </c>
-      <c r="AB21" s="50">
+      <c r="AB21" s="48">
         <f t="shared" si="11"/>
         <v>0.160994736842105</v>
       </c>
-      <c r="AC21" s="41">
+      <c r="AC21" s="39">
         <f t="shared" si="17"/>
         <v>-0.3236</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AD21" s="39">
         <f t="shared" si="18"/>
         <v>-0.3782</v>
       </c>
-      <c r="AE21" s="49">
+      <c r="AE21" s="47">
         <f t="shared" si="19"/>
         <v>-0.09445</v>
       </c>
-      <c r="AF21" s="49">
+      <c r="AF21" s="47">
         <f t="shared" si="20"/>
         <v>0.03955</v>
       </c>
-      <c r="AG21" s="49">
+      <c r="AG21" s="47">
         <f t="shared" si="21"/>
         <v>0.81585</v>
       </c>
-      <c r="AH21" s="49">
+      <c r="AH21" s="47">
         <f t="shared" si="22"/>
         <v>1.13255</v>
       </c>
-      <c r="AI21" s="41">
+      <c r="AI21" s="39">
         <f t="shared" si="23"/>
         <v>0.5302</v>
       </c>
-      <c r="AJ21" s="61">
+      <c r="AJ21" s="59">
         <f t="shared" si="13"/>
         <v>0.433239412223881</v>
       </c>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
       <c r="AN21" s="22"/>
-      <c r="AO21" s="71"/>
+      <c r="AO21" s="69"/>
       <c r="AP21" s="22"/>
       <c r="AQ21" s="22"/>
       <c r="AR21" s="22"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
       <c r="AU21" s="22"/>
       <c r="AV21" s="22"/>
       <c r="AW21" s="22"/>
@@ -6299,133 +6287,133 @@
       <c r="BI21" s="22"/>
       <c r="BJ21" s="22"/>
       <c r="BK21" s="22"/>
-      <c r="BL21" s="71"/>
+      <c r="BL21" s="69"/>
     </row>
     <row r="22" ht="18" spans="1:64">
       <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="109" t="s">
         <v>148</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>0.9142</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="42">
         <v>0.8</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <v>-0.4892</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <v>-0.625</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="39">
         <v>-0.4963</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="39">
         <v>-0.3889</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="39">
         <v>0.0648</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="39">
         <v>1.37</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="39">
         <v>1.0951</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <v>6.7273</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="39">
         <v>3.7619</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="39">
         <v>5.4698</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="39">
         <v>6.3341</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="39">
         <v>0</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="39">
         <v>-0.1111</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="39">
         <v>0.0028</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="39">
         <v>0.0635</v>
       </c>
-      <c r="V22" s="41">
+      <c r="V22" s="39">
         <v>0.1176</v>
       </c>
-      <c r="W22" s="41">
+      <c r="W22" s="39">
         <v>0.4375</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="39">
         <v>0.1166</v>
       </c>
-      <c r="Y22" s="41">
+      <c r="Y22" s="39">
         <v>0.194</v>
       </c>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="55">
+      <c r="AA22" s="53">
         <f t="shared" si="7"/>
         <v>1.92616666666667</v>
       </c>
-      <c r="AB22" s="56">
+      <c r="AB22" s="54">
         <f t="shared" si="11"/>
         <v>1.24444736842105</v>
       </c>
-      <c r="AC22" s="41">
+      <c r="AC22" s="39">
         <f t="shared" si="17"/>
         <v>-0.05555</v>
       </c>
-      <c r="AD22" s="49">
+      <c r="AD22" s="47">
         <f t="shared" si="18"/>
         <v>-0.05415</v>
       </c>
-      <c r="AE22" s="49">
+      <c r="AE22" s="47">
         <f t="shared" si="19"/>
         <v>0.03315</v>
       </c>
-      <c r="AF22" s="49">
+      <c r="AF22" s="47">
         <f t="shared" si="20"/>
         <v>0.09055</v>
       </c>
-      <c r="AG22" s="49">
+      <c r="AG22" s="47">
         <f t="shared" si="21"/>
         <v>0.27755</v>
       </c>
-      <c r="AH22" s="41">
+      <c r="AH22" s="39">
         <f t="shared" si="22"/>
         <v>0.27705</v>
       </c>
-      <c r="AI22" s="41">
+      <c r="AI22" s="39">
         <f t="shared" si="23"/>
         <v>0.1553</v>
       </c>
-      <c r="AJ22" s="61">
+      <c r="AJ22" s="59">
         <f t="shared" si="13"/>
         <v>2.4083690701774</v>
       </c>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
       <c r="AN22" s="22"/>
-      <c r="AO22" s="71"/>
+      <c r="AO22" s="69"/>
       <c r="AP22" s="22"/>
       <c r="AQ22" s="22"/>
       <c r="AR22" s="22"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
       <c r="AU22" s="22"/>
       <c r="AV22" s="22"/>
       <c r="AW22" s="22"/>
@@ -6443,7 +6431,7 @@
       <c r="BI22" s="22"/>
       <c r="BJ22" s="22"/>
       <c r="BK22" s="22"/>
-      <c r="BL22" s="71"/>
+      <c r="BL22" s="69"/>
     </row>
     <row r="23" ht="18" spans="1:64">
       <c r="A23" s="6" t="s">
@@ -6456,102 +6444,102 @@
         <v>126</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>0.5204</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="43">
         <v>1.87</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39">
         <v>0.0625</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="39">
         <v>0.0534</v>
       </c>
-      <c r="R23" s="41">
+      <c r="R23" s="39">
         <v>0.0052</v>
       </c>
-      <c r="S23" s="41">
+      <c r="S23" s="39">
         <v>-0.2069</v>
       </c>
-      <c r="T23" s="41">
+      <c r="T23" s="39">
         <v>-0.2</v>
       </c>
-      <c r="U23" s="41">
+      <c r="U23" s="39">
         <v>-0.1884</v>
       </c>
-      <c r="V23" s="41">
+      <c r="V23" s="39">
         <v>-0.0625</v>
       </c>
-      <c r="W23" s="49">
+      <c r="W23" s="47">
         <v>1.087</v>
       </c>
-      <c r="X23" s="49">
+      <c r="X23" s="47">
         <v>0.7941</v>
       </c>
-      <c r="Y23" s="49">
+      <c r="Y23" s="47">
         <v>0.6696</v>
       </c>
       <c r="Z23" s="22"/>
-      <c r="AA23" s="49">
+      <c r="AA23" s="47">
         <f>(P23+Q23+R23+S23+T23+U23+V23+W23+X23+Y23)/10</f>
         <v>0.2014</v>
       </c>
       <c r="AB23" s="22"/>
-      <c r="AC23" s="41">
+      <c r="AC23" s="39">
         <f t="shared" si="17"/>
         <v>-0.10085</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AD23" s="39">
         <f t="shared" si="18"/>
         <v>-0.20345</v>
       </c>
-      <c r="AE23" s="49">
+      <c r="AE23" s="47">
         <f t="shared" si="19"/>
         <v>-0.1942</v>
       </c>
-      <c r="AF23" s="49">
+      <c r="AF23" s="47">
         <f t="shared" si="20"/>
         <v>-0.12545</v>
       </c>
-      <c r="AG23" s="49">
+      <c r="AG23" s="47">
         <f t="shared" si="21"/>
         <v>0.51225</v>
       </c>
-      <c r="AH23" s="49">
+      <c r="AH23" s="47">
         <f t="shared" si="22"/>
         <v>0.94055</v>
       </c>
-      <c r="AI23" s="41">
+      <c r="AI23" s="39">
         <f t="shared" si="23"/>
         <v>0.73185</v>
       </c>
       <c r="AJ23" s="22"/>
-      <c r="AK23" s="49">
+      <c r="AK23" s="47">
         <v>1.0194</v>
       </c>
-      <c r="AL23" s="49">
+      <c r="AL23" s="47">
         <v>0.7661</v>
       </c>
-      <c r="AM23" s="49">
+      <c r="AM23" s="47">
         <v>0.6219</v>
       </c>
       <c r="AN23" s="22"/>
-      <c r="AO23" s="71"/>
+      <c r="AO23" s="69"/>
       <c r="AP23" s="22"/>
       <c r="AQ23" s="22"/>
       <c r="AR23" s="22"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
       <c r="AU23" s="22"/>
       <c r="AV23" s="22"/>
       <c r="AW23" s="22"/>
@@ -6569,61 +6557,57 @@
       <c r="BI23" s="22"/>
       <c r="BJ23" s="22"/>
       <c r="BK23" s="22"/>
-      <c r="BL23" s="71"/>
+      <c r="BL23" s="69"/>
     </row>
     <row r="24" ht="18" spans="1:64">
       <c r="A24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>153</v>
-      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
       <c r="AJ24" s="22"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
       <c r="AN24" s="22"/>
-      <c r="AO24" s="71"/>
+      <c r="AO24" s="69"/>
       <c r="AP24" s="22"/>
       <c r="AQ24" s="22"/>
       <c r="AR24" s="22"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
       <c r="AU24" s="22"/>
       <c r="AV24" s="22"/>
       <c r="AW24" s="22"/>
@@ -6641,57 +6625,57 @@
       <c r="BI24" s="22"/>
       <c r="BJ24" s="22"/>
       <c r="BK24" s="22"/>
-      <c r="BL24" s="71"/>
+      <c r="BL24" s="69"/>
     </row>
     <row r="25" ht="18" spans="1:64">
       <c r="A25" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
       <c r="AJ25" s="22"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
       <c r="AN25" s="22"/>
-      <c r="AO25" s="71"/>
+      <c r="AO25" s="69"/>
       <c r="AP25" s="22"/>
       <c r="AQ25" s="22"/>
       <c r="AR25" s="22"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
       <c r="AU25" s="22"/>
       <c r="AV25" s="22"/>
       <c r="AW25" s="22"/>
@@ -6709,7 +6693,7 @@
       <c r="BI25" s="22"/>
       <c r="BJ25" s="22"/>
       <c r="BK25" s="22"/>
-      <c r="BL25" s="71"/>
+      <c r="BL25" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="24">
